--- a/Definitions/t-Definitions-UI.xlsx
+++ b/Definitions/t-Definitions-UI.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" tabRatio="1000" activeTab="2"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" tabRatio="1000" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Topics" sheetId="1" r:id="rId1"/>
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="240" uniqueCount="219">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="244" uniqueCount="223">
   <si>
     <t>Topics</t>
   </si>
@@ -1645,6 +1645,18 @@
   </si>
   <si>
     <t>We can add download and add to our project in case we don’t want to use CDN</t>
+  </si>
+  <si>
+    <t>Online Javascript Editors</t>
+  </si>
+  <si>
+    <t>jsfiddle</t>
+  </si>
+  <si>
+    <t>jsbin</t>
+  </si>
+  <si>
+    <t>javascript.com</t>
   </si>
 </sst>
 </file>
@@ -1795,11 +1807,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -1829,6 +1838,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -2166,25 +2179,25 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
-      <c r="A1" s="3" t="s">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="2" t="s">
+      <c r="A2" s="1" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="3" spans="1:2">
-      <c r="A3" s="2" t="s">
+      <c r="A3" s="1" t="s">
         <v>199</v>
       </c>
     </row>
     <row r="4" spans="1:2">
-      <c r="A4" s="2" t="s">
+      <c r="A4" s="1" t="s">
         <v>200</v>
       </c>
     </row>
@@ -2206,11 +2219,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B120"/>
+  <dimension ref="A1:B124"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A15" sqref="A15"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A26" sqref="A26:B26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2220,922 +2233,941 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
-      <c r="A1" s="3" t="s">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="13" t="s">
+      <c r="A2" s="14" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="13"/>
+      <c r="B2" s="14"/>
     </row>
     <row r="3" spans="1:2">
-      <c r="A3" s="10" t="s">
+      <c r="A3" s="9" t="s">
         <v>191</v>
       </c>
-      <c r="B3" s="7" t="s">
+      <c r="B3" s="6" t="s">
         <v>207</v>
       </c>
     </row>
     <row r="4" spans="1:2">
-      <c r="A4" s="10" t="s">
+      <c r="A4" s="9" t="s">
         <v>192</v>
       </c>
-      <c r="B4" s="7" t="s">
+      <c r="B4" s="6" t="s">
         <v>207</v>
       </c>
     </row>
     <row r="5" spans="1:2">
-      <c r="A5" s="10" t="s">
+      <c r="A5" s="9" t="s">
         <v>193</v>
       </c>
-      <c r="B5" s="7" t="s">
+      <c r="B5" s="6" t="s">
         <v>207</v>
       </c>
     </row>
     <row r="6" spans="1:2">
-      <c r="A6" s="10" t="s">
+      <c r="A6" s="9" t="s">
         <v>194</v>
       </c>
-      <c r="B6" s="7" t="s">
+      <c r="B6" s="6" t="s">
         <v>207</v>
       </c>
     </row>
     <row r="7" spans="1:2">
-      <c r="A7" s="10" t="s">
+      <c r="A7" s="9" t="s">
         <v>195</v>
       </c>
-      <c r="B7" s="7" t="s">
+      <c r="B7" s="6" t="s">
         <v>207</v>
       </c>
     </row>
     <row r="8" spans="1:2">
-      <c r="A8" s="10" t="s">
+      <c r="A8" s="9" t="s">
         <v>196</v>
       </c>
-      <c r="B8" s="7" t="s">
+      <c r="B8" s="6" t="s">
         <v>207</v>
       </c>
     </row>
     <row r="9" spans="1:2">
-      <c r="A9" s="10" t="s">
+      <c r="A9" s="9" t="s">
         <v>197</v>
       </c>
-      <c r="B9" s="7" t="s">
+      <c r="B9" s="6" t="s">
         <v>207</v>
       </c>
     </row>
     <row r="10" spans="1:2">
-      <c r="A10" s="10" t="s">
+      <c r="A10" s="9" t="s">
         <v>198</v>
       </c>
-      <c r="B10" s="7" t="s">
+      <c r="B10" s="6" t="s">
         <v>207</v>
       </c>
     </row>
     <row r="11" spans="1:2">
-      <c r="A11" s="10" t="s">
+      <c r="A11" s="9" t="s">
         <v>204</v>
       </c>
-      <c r="B11" s="7" t="s">
+      <c r="B11" s="6" t="s">
         <v>207</v>
       </c>
     </row>
     <row r="12" spans="1:2">
-      <c r="A12" s="10" t="s">
+      <c r="A12" s="9" t="s">
         <v>205</v>
       </c>
-      <c r="B12" s="7" t="s">
+      <c r="B12" s="6" t="s">
         <v>207</v>
       </c>
     </row>
     <row r="13" spans="1:2">
-      <c r="A13" s="10" t="s">
+      <c r="A13" s="9" t="s">
         <v>206</v>
       </c>
-      <c r="B13" s="7" t="s">
+      <c r="B13" s="6" t="s">
         <v>207</v>
       </c>
     </row>
     <row r="14" spans="1:2">
-      <c r="A14" s="10" t="s">
+      <c r="A14" s="9" t="s">
         <v>213</v>
       </c>
-      <c r="B14" s="9" t="s">
+      <c r="B14" s="8" t="s">
         <v>214</v>
       </c>
     </row>
     <row r="15" spans="1:2">
-      <c r="A15" s="10"/>
+      <c r="A15" s="9"/>
     </row>
     <row r="16" spans="1:2">
-      <c r="B16" s="2"/>
+      <c r="B16" s="1"/>
     </row>
     <row r="17" spans="1:2">
-      <c r="A17" s="13" t="s">
+      <c r="A17" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="B17" s="13"/>
+      <c r="B17" s="14"/>
     </row>
     <row r="18" spans="1:2">
-      <c r="A18" s="14"/>
-      <c r="B18" s="15"/>
-    </row>
-    <row r="20" spans="1:2">
-      <c r="A20" s="1"/>
-      <c r="B20" s="2"/>
-    </row>
-    <row r="21" spans="1:2">
-      <c r="A21" s="1"/>
-    </row>
-    <row r="22" spans="1:2">
-      <c r="A22" s="13" t="s">
+      <c r="A18" s="15"/>
+      <c r="B18" s="16"/>
+    </row>
+    <row r="20" spans="1:2" s="13" customFormat="1"/>
+    <row r="21" spans="1:2" s="13" customFormat="1"/>
+    <row r="22" spans="1:2" s="13" customFormat="1">
+      <c r="A22" s="14" t="s">
+        <v>219</v>
+      </c>
+      <c r="B22" s="14"/>
+    </row>
+    <row r="23" spans="1:2">
+      <c r="A23" s="12" t="s">
+        <v>220</v>
+      </c>
+      <c r="B23" s="1"/>
+    </row>
+    <row r="24" spans="1:2" s="13" customFormat="1">
+      <c r="A24" s="12" t="s">
+        <v>221</v>
+      </c>
+      <c r="B24" s="1"/>
+    </row>
+    <row r="25" spans="1:2">
+      <c r="A25" s="13" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2">
+      <c r="A26" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="B22" s="13"/>
-    </row>
-    <row r="23" spans="1:2" ht="75">
-      <c r="A23" s="6" t="s">
+      <c r="B26" s="14"/>
+    </row>
+    <row r="27" spans="1:2" ht="75">
+      <c r="A27" s="5" t="s">
         <v>190</v>
       </c>
-      <c r="B23" s="6" t="s">
+      <c r="B27" s="5" t="s">
         <v>189</v>
       </c>
     </row>
-    <row r="24" spans="1:2" ht="30">
-      <c r="A24" s="6" t="s">
+    <row r="28" spans="1:2" ht="30">
+      <c r="A28" s="5" t="s">
         <v>188</v>
       </c>
-      <c r="B24" s="6" t="s">
+      <c r="B28" s="5" t="s">
         <v>187</v>
       </c>
     </row>
-    <row r="25" spans="1:2" ht="60">
-      <c r="A25" s="5" t="s">
+    <row r="29" spans="1:2" ht="60">
+      <c r="A29" s="4" t="s">
         <v>186</v>
       </c>
-      <c r="B25" s="6" t="s">
+      <c r="B29" s="5" t="s">
         <v>185</v>
       </c>
     </row>
-    <row r="26" spans="1:2">
-      <c r="A26" s="6" t="s">
+    <row r="30" spans="1:2">
+      <c r="A30" s="5" t="s">
         <v>184</v>
       </c>
-      <c r="B26" s="6" t="s">
+      <c r="B30" s="5" t="s">
         <v>183</v>
       </c>
     </row>
-    <row r="27" spans="1:2">
-      <c r="A27" s="6" t="s">
+    <row r="31" spans="1:2">
+      <c r="A31" s="5" t="s">
         <v>182</v>
       </c>
-      <c r="B27" s="6" t="s">
+      <c r="B31" s="5" t="s">
         <v>181</v>
       </c>
     </row>
-    <row r="28" spans="1:2">
-      <c r="A28" s="6" t="s">
+    <row r="32" spans="1:2">
+      <c r="A32" s="5" t="s">
         <v>180</v>
       </c>
-      <c r="B28" s="6" t="s">
+      <c r="B32" s="5" t="s">
         <v>179</v>
       </c>
     </row>
-    <row r="29" spans="1:2">
-      <c r="A29" s="6" t="s">
+    <row r="33" spans="1:2">
+      <c r="A33" s="5" t="s">
         <v>178</v>
       </c>
-      <c r="B29" s="6" t="s">
+      <c r="B33" s="5" t="s">
         <v>177</v>
       </c>
     </row>
-    <row r="30" spans="1:2" ht="75">
-      <c r="A30" s="5" t="s">
+    <row r="34" spans="1:2" ht="75">
+      <c r="A34" s="4" t="s">
         <v>176</v>
       </c>
-      <c r="B30" s="6" t="s">
+      <c r="B34" s="5" t="s">
         <v>175</v>
       </c>
     </row>
-    <row r="31" spans="1:2" ht="60">
-      <c r="A31" s="5" t="s">
+    <row r="35" spans="1:2" ht="60">
+      <c r="A35" s="4" t="s">
         <v>174</v>
       </c>
-      <c r="B31" s="6" t="s">
+      <c r="B35" s="5" t="s">
         <v>173</v>
       </c>
     </row>
-    <row r="32" spans="1:2" ht="30">
-      <c r="A32" s="6" t="s">
+    <row r="36" spans="1:2" ht="30">
+      <c r="A36" s="5" t="s">
         <v>172</v>
       </c>
-      <c r="B32" s="6" t="s">
+      <c r="B36" s="5" t="s">
         <v>171</v>
       </c>
     </row>
-    <row r="33" spans="1:2" ht="45">
-      <c r="A33" s="6" t="s">
+    <row r="37" spans="1:2" ht="45">
+      <c r="A37" s="5" t="s">
         <v>170</v>
       </c>
-      <c r="B33" s="6" t="s">
+      <c r="B37" s="5" t="s">
         <v>169</v>
       </c>
     </row>
-    <row r="34" spans="1:2">
-      <c r="A34" s="6" t="s">
+    <row r="38" spans="1:2">
+      <c r="A38" s="5" t="s">
         <v>168</v>
       </c>
-      <c r="B34" s="6" t="s">
+      <c r="B38" s="5" t="s">
         <v>167</v>
       </c>
     </row>
-    <row r="35" spans="1:2" ht="45">
-      <c r="A35" s="17" t="s">
+    <row r="39" spans="1:2" ht="45">
+      <c r="A39" s="18" t="s">
         <v>166</v>
       </c>
-      <c r="B35" s="6" t="s">
+      <c r="B39" s="5" t="s">
         <v>165</v>
       </c>
     </row>
-    <row r="36" spans="1:2" ht="75">
-      <c r="A36" s="17"/>
-      <c r="B36" s="6" t="s">
+    <row r="40" spans="1:2" ht="75">
+      <c r="A40" s="18"/>
+      <c r="B40" s="5" t="s">
         <v>164</v>
       </c>
     </row>
-    <row r="37" spans="1:2">
-      <c r="A37" s="6" t="s">
+    <row r="41" spans="1:2">
+      <c r="A41" s="5" t="s">
         <v>163</v>
       </c>
-      <c r="B37" s="6" t="s">
+      <c r="B41" s="5" t="s">
         <v>162</v>
       </c>
     </row>
-    <row r="38" spans="1:2" ht="30">
-      <c r="A38" s="6" t="s">
+    <row r="42" spans="1:2" ht="30">
+      <c r="A42" s="5" t="s">
         <v>161</v>
       </c>
-      <c r="B38" s="6" t="s">
+      <c r="B42" s="5" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="39" spans="1:2">
-      <c r="A39" s="6" t="s">
+    <row r="43" spans="1:2">
+      <c r="A43" s="5" t="s">
         <v>159</v>
       </c>
-      <c r="B39" s="6" t="s">
+      <c r="B43" s="5" t="s">
         <v>158</v>
       </c>
     </row>
-    <row r="40" spans="1:2">
-      <c r="A40" s="6" t="s">
+    <row r="44" spans="1:2">
+      <c r="A44" s="5" t="s">
         <v>157</v>
       </c>
-      <c r="B40" s="6" t="s">
+      <c r="B44" s="5" t="s">
         <v>156</v>
       </c>
     </row>
-    <row r="41" spans="1:2" ht="75">
-      <c r="A41" s="6" t="s">
+    <row r="45" spans="1:2" ht="75">
+      <c r="A45" s="5" t="s">
         <v>155</v>
       </c>
-      <c r="B41" s="6" t="s">
+      <c r="B45" s="5" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="42" spans="1:2" ht="45">
-      <c r="A42" s="6" t="s">
+    <row r="46" spans="1:2" ht="45">
+      <c r="A46" s="5" t="s">
         <v>153</v>
       </c>
-      <c r="B42" s="6" t="s">
+      <c r="B46" s="5" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="43" spans="1:2" ht="90">
-      <c r="A43" s="6" t="s">
+    <row r="47" spans="1:2" ht="90">
+      <c r="A47" s="5" t="s">
         <v>151</v>
       </c>
-      <c r="B43" s="6" t="s">
+      <c r="B47" s="5" t="s">
         <v>150</v>
       </c>
     </row>
-    <row r="44" spans="1:2" ht="75">
-      <c r="A44" s="6" t="s">
+    <row r="48" spans="1:2" ht="75">
+      <c r="A48" s="5" t="s">
         <v>149</v>
       </c>
-      <c r="B44" s="6" t="s">
+      <c r="B48" s="5" t="s">
         <v>148</v>
       </c>
     </row>
-    <row r="45" spans="1:2" ht="30">
-      <c r="A45" s="6" t="s">
+    <row r="49" spans="1:2" ht="30">
+      <c r="A49" s="5" t="s">
         <v>147</v>
       </c>
-      <c r="B45" s="6" t="s">
+      <c r="B49" s="5" t="s">
         <v>146</v>
       </c>
     </row>
-    <row r="46" spans="1:2" ht="75">
-      <c r="A46" s="6" t="s">
+    <row r="50" spans="1:2" ht="75">
+      <c r="A50" s="5" t="s">
         <v>145</v>
       </c>
-      <c r="B46" s="6" t="s">
+      <c r="B50" s="5" t="s">
         <v>144</v>
       </c>
     </row>
-    <row r="47" spans="1:2" ht="105">
-      <c r="A47" s="6" t="s">
+    <row r="51" spans="1:2" ht="105">
+      <c r="A51" s="5" t="s">
         <v>143</v>
       </c>
-      <c r="B47" s="6" t="s">
+      <c r="B51" s="5" t="s">
         <v>142</v>
       </c>
     </row>
-    <row r="48" spans="1:2" ht="90">
-      <c r="A48" s="6" t="s">
+    <row r="52" spans="1:2" ht="90">
+      <c r="A52" s="5" t="s">
         <v>141</v>
       </c>
-      <c r="B48" s="6" t="s">
+      <c r="B52" s="5" t="s">
         <v>140</v>
       </c>
     </row>
-    <row r="49" spans="1:2" ht="75">
-      <c r="A49" s="6" t="s">
+    <row r="53" spans="1:2" ht="75">
+      <c r="A53" s="5" t="s">
         <v>139</v>
       </c>
-      <c r="B49" s="6" t="s">
+      <c r="B53" s="5" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="50" spans="1:2" ht="90">
-      <c r="A50" s="6" t="s">
+    <row r="54" spans="1:2" ht="90">
+      <c r="A54" s="5" t="s">
         <v>137</v>
       </c>
-      <c r="B50" s="6" t="s">
+      <c r="B54" s="5" t="s">
         <v>136</v>
       </c>
     </row>
-    <row r="51" spans="1:2">
-      <c r="A51" s="18" t="s">
+    <row r="55" spans="1:2">
+      <c r="A55" s="19" t="s">
         <v>135</v>
       </c>
-      <c r="B51" s="6" t="s">
+      <c r="B55" s="5" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="52" spans="1:2" ht="120">
-      <c r="A52" s="18"/>
-      <c r="B52" s="6" t="s">
+    <row r="56" spans="1:2" ht="120">
+      <c r="A56" s="19"/>
+      <c r="B56" s="5" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="53" spans="1:2">
-      <c r="A53" s="6" t="s">
+    <row r="57" spans="1:2">
+      <c r="A57" s="5" t="s">
         <v>132</v>
       </c>
-      <c r="B53" s="6" t="s">
+      <c r="B57" s="5" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="54" spans="1:2" ht="30">
-      <c r="A54" s="6" t="s">
+    <row r="58" spans="1:2" ht="30">
+      <c r="A58" s="5" t="s">
         <v>130</v>
       </c>
-      <c r="B54" s="6" t="s">
+      <c r="B58" s="5" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="55" spans="1:2">
-      <c r="A55" s="6" t="s">
+    <row r="59" spans="1:2">
+      <c r="A59" s="5" t="s">
         <v>128</v>
       </c>
-      <c r="B55" s="6" t="s">
+      <c r="B59" s="5" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="56" spans="1:2" ht="45">
-      <c r="A56" s="18" t="s">
+    <row r="60" spans="1:2" ht="45">
+      <c r="A60" s="19" t="s">
         <v>126</v>
       </c>
-      <c r="B56" s="6" t="s">
+      <c r="B60" s="5" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="57" spans="1:2" ht="30">
-      <c r="A57" s="18"/>
-      <c r="B57" s="6" t="s">
+    <row r="61" spans="1:2" ht="30">
+      <c r="A61" s="19"/>
+      <c r="B61" s="5" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="58" spans="1:2" ht="45">
-      <c r="A58" s="5" t="s">
+    <row r="62" spans="1:2" ht="45">
+      <c r="A62" s="4" t="s">
         <v>123</v>
       </c>
-      <c r="B58" s="6" t="s">
+      <c r="B62" s="5" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="59" spans="1:2">
-      <c r="A59" s="6" t="s">
+    <row r="63" spans="1:2">
+      <c r="A63" s="5" t="s">
         <v>121</v>
       </c>
-      <c r="B59" s="6" t="s">
+      <c r="B63" s="5" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="60" spans="1:2" ht="45">
-      <c r="A60" s="6" t="s">
+    <row r="64" spans="1:2" ht="45">
+      <c r="A64" s="5" t="s">
         <v>119</v>
       </c>
-      <c r="B60" s="6" t="s">
+      <c r="B64" s="5" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="61" spans="1:2" ht="45">
-      <c r="A61" s="6" t="s">
+    <row r="65" spans="1:2" ht="45">
+      <c r="A65" s="5" t="s">
         <v>117</v>
       </c>
-      <c r="B61" s="6" t="s">
+      <c r="B65" s="5" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="62" spans="1:2" ht="30">
-      <c r="A62" s="6" t="s">
+    <row r="66" spans="1:2" ht="30">
+      <c r="A66" s="5" t="s">
         <v>115</v>
       </c>
-      <c r="B62" s="6" t="s">
+      <c r="B66" s="5" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="63" spans="1:2" ht="30">
-      <c r="A63" s="6" t="s">
+    <row r="67" spans="1:2" ht="30">
+      <c r="A67" s="5" t="s">
         <v>113</v>
       </c>
-      <c r="B63" s="6" t="s">
+      <c r="B67" s="5" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="64" spans="1:2" ht="105">
-      <c r="A64" s="6" t="s">
+    <row r="68" spans="1:2" ht="105">
+      <c r="A68" s="5" t="s">
         <v>111</v>
       </c>
-      <c r="B64" s="6" t="s">
+      <c r="B68" s="5" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="65" spans="1:2">
-      <c r="A65" s="6" t="s">
+    <row r="69" spans="1:2">
+      <c r="A69" s="5" t="s">
         <v>109</v>
       </c>
-      <c r="B65" s="6" t="s">
+      <c r="B69" s="5" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="66" spans="1:2" ht="75">
-      <c r="A66" s="5" t="s">
+    <row r="70" spans="1:2" ht="75">
+      <c r="A70" s="4" t="s">
         <v>107</v>
       </c>
-      <c r="B66" s="6" t="s">
+      <c r="B70" s="5" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="67" spans="1:2" ht="135">
-      <c r="A67" s="5" t="s">
+    <row r="71" spans="1:2" ht="135">
+      <c r="A71" s="4" t="s">
         <v>105</v>
       </c>
-      <c r="B67" s="6" t="s">
+      <c r="B71" s="5" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="68" spans="1:2" ht="135">
-      <c r="A68" s="5" t="s">
+    <row r="72" spans="1:2" ht="135">
+      <c r="A72" s="4" t="s">
         <v>103</v>
       </c>
-      <c r="B68" s="6" t="s">
+      <c r="B72" s="5" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="69" spans="1:2" ht="45">
-      <c r="A69" s="6" t="s">
+    <row r="73" spans="1:2" ht="45">
+      <c r="A73" s="5" t="s">
         <v>101</v>
       </c>
-      <c r="B69" s="6" t="s">
+      <c r="B73" s="5" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="70" spans="1:2" ht="45">
-      <c r="A70" s="6" t="s">
+    <row r="74" spans="1:2" ht="45">
+      <c r="A74" s="5" t="s">
         <v>99</v>
       </c>
-      <c r="B70" s="6" t="s">
+      <c r="B74" s="5" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="71" spans="1:2" ht="75">
-      <c r="A71" s="6" t="s">
+    <row r="75" spans="1:2" ht="75">
+      <c r="A75" s="5" t="s">
         <v>97</v>
       </c>
-      <c r="B71" s="6" t="s">
+      <c r="B75" s="5" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="72" spans="1:2" ht="75">
-      <c r="A72" s="6" t="s">
+    <row r="76" spans="1:2" ht="75">
+      <c r="A76" s="5" t="s">
         <v>95</v>
       </c>
-      <c r="B72" s="6" t="s">
+      <c r="B76" s="5" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="73" spans="1:2" ht="30">
-      <c r="A73" s="6" t="s">
+    <row r="77" spans="1:2" ht="30">
+      <c r="A77" s="5" t="s">
         <v>93</v>
       </c>
-      <c r="B73" s="6" t="s">
+      <c r="B77" s="5" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="74" spans="1:2" ht="45">
-      <c r="A74" s="6" t="s">
+    <row r="78" spans="1:2" ht="45">
+      <c r="A78" s="5" t="s">
         <v>91</v>
       </c>
-      <c r="B74" s="6" t="s">
+      <c r="B78" s="5" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="75" spans="1:2" ht="45">
-      <c r="A75" s="6" t="s">
+    <row r="79" spans="1:2" ht="45">
+      <c r="A79" s="5" t="s">
         <v>89</v>
       </c>
-      <c r="B75" s="6" t="s">
+      <c r="B79" s="5" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="76" spans="1:2" ht="75">
-      <c r="A76" s="6" t="s">
+    <row r="80" spans="1:2" ht="75">
+      <c r="A80" s="5" t="s">
         <v>87</v>
       </c>
-      <c r="B76" s="6" t="s">
+      <c r="B80" s="5" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="77" spans="1:2" ht="75">
-      <c r="A77" s="17" t="s">
+    <row r="81" spans="1:2" ht="75">
+      <c r="A81" s="18" t="s">
         <v>85</v>
       </c>
-      <c r="B77" s="6" t="s">
+      <c r="B81" s="5" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="78" spans="1:2" ht="30">
-      <c r="A78" s="17"/>
-      <c r="B78" s="6" t="s">
+    <row r="82" spans="1:2" ht="30">
+      <c r="A82" s="18"/>
+      <c r="B82" s="5" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="79" spans="1:2" ht="30">
-      <c r="A79" s="6" t="s">
+    <row r="83" spans="1:2" ht="30">
+      <c r="A83" s="5" t="s">
         <v>82</v>
       </c>
-      <c r="B79" s="6" t="s">
+      <c r="B83" s="5" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="80" spans="1:2" ht="30">
-      <c r="A80" s="17" t="s">
+    <row r="84" spans="1:2" ht="30">
+      <c r="A84" s="18" t="s">
         <v>80</v>
       </c>
-      <c r="B80" s="6" t="s">
+      <c r="B84" s="5" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="81" spans="1:2" ht="60">
-      <c r="A81" s="17"/>
-      <c r="B81" s="6" t="s">
+    <row r="85" spans="1:2" ht="60">
+      <c r="A85" s="18"/>
+      <c r="B85" s="5" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="82" spans="1:2">
-      <c r="A82" s="6" t="s">
+    <row r="86" spans="1:2">
+      <c r="A86" s="5" t="s">
         <v>77</v>
       </c>
-      <c r="B82" s="6" t="s">
+      <c r="B86" s="5" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="83" spans="1:2" ht="45">
-      <c r="A83" s="6" t="s">
+    <row r="87" spans="1:2" ht="45">
+      <c r="A87" s="5" t="s">
         <v>75</v>
       </c>
-      <c r="B83" s="6" t="s">
+      <c r="B87" s="5" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="84" spans="1:2" ht="120">
-      <c r="A84" s="6" t="s">
+    <row r="88" spans="1:2" ht="120">
+      <c r="A88" s="5" t="s">
         <v>73</v>
       </c>
-      <c r="B84" s="6" t="s">
+      <c r="B88" s="5" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="85" spans="1:2" ht="30">
-      <c r="A85" s="18" t="s">
+    <row r="89" spans="1:2" ht="30">
+      <c r="A89" s="19" t="s">
         <v>71</v>
       </c>
-      <c r="B85" s="6" t="s">
+      <c r="B89" s="5" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="86" spans="1:2" ht="30">
-      <c r="A86" s="18"/>
-      <c r="B86" s="6" t="s">
+    <row r="90" spans="1:2" ht="30">
+      <c r="A90" s="19"/>
+      <c r="B90" s="5" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="87" spans="1:2" ht="30">
-      <c r="A87" s="17" t="s">
+    <row r="91" spans="1:2" ht="30">
+      <c r="A91" s="18" t="s">
         <v>68</v>
       </c>
-      <c r="B87" s="6" t="s">
+      <c r="B91" s="5" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="88" spans="1:2" ht="30">
-      <c r="A88" s="17"/>
-      <c r="B88" s="6" t="s">
+    <row r="92" spans="1:2" ht="30">
+      <c r="A92" s="18"/>
+      <c r="B92" s="5" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="89" spans="1:2" ht="45">
-      <c r="A89" s="17"/>
-      <c r="B89" s="6" t="s">
+    <row r="93" spans="1:2" ht="45">
+      <c r="A93" s="18"/>
+      <c r="B93" s="5" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="90" spans="1:2" ht="105">
-      <c r="A90" s="5" t="s">
+    <row r="94" spans="1:2" ht="105">
+      <c r="A94" s="4" t="s">
         <v>64</v>
       </c>
-      <c r="B90" s="6" t="s">
+      <c r="B94" s="5" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="91" spans="1:2" ht="75">
-      <c r="A91" s="5" t="s">
+    <row r="95" spans="1:2" ht="75">
+      <c r="A95" s="4" t="s">
         <v>62</v>
       </c>
-      <c r="B91" s="6" t="s">
+      <c r="B95" s="5" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="92" spans="1:2" ht="105">
-      <c r="A92" s="5" t="s">
+    <row r="96" spans="1:2" ht="105">
+      <c r="A96" s="4" t="s">
         <v>60</v>
       </c>
-      <c r="B92" s="6" t="s">
+      <c r="B96" s="5" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="93" spans="1:2" ht="30">
-      <c r="A93" s="5" t="s">
+    <row r="97" spans="1:2" ht="30">
+      <c r="A97" s="4" t="s">
         <v>58</v>
       </c>
-      <c r="B93" s="6" t="s">
+      <c r="B97" s="5" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="94" spans="1:2" ht="135">
-      <c r="A94" s="5" t="s">
+    <row r="98" spans="1:2" ht="135">
+      <c r="A98" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="B94" s="6" t="s">
+      <c r="B98" s="5" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="95" spans="1:2" ht="30">
-      <c r="A95" s="5" t="s">
+    <row r="99" spans="1:2" ht="30">
+      <c r="A99" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="B95" s="6" t="s">
+      <c r="B99" s="5" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="96" spans="1:2" ht="135">
-      <c r="A96" s="5" t="s">
+    <row r="100" spans="1:2" ht="135">
+      <c r="A100" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="B96" s="6" t="s">
+      <c r="B100" s="5" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="97" spans="1:2" ht="45">
-      <c r="A97" s="6" t="s">
+    <row r="101" spans="1:2" ht="45">
+      <c r="A101" s="5" t="s">
         <v>50</v>
       </c>
-      <c r="B97" s="6" t="s">
+      <c r="B101" s="5" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="98" spans="1:2" ht="45">
-      <c r="A98" s="17" t="s">
+    <row r="102" spans="1:2" ht="45">
+      <c r="A102" s="18" t="s">
         <v>48</v>
       </c>
-      <c r="B98" s="6" t="s">
+      <c r="B102" s="5" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="99" spans="1:2" ht="105">
-      <c r="A99" s="17"/>
-      <c r="B99" s="6" t="s">
+    <row r="103" spans="1:2" ht="105">
+      <c r="A103" s="18"/>
+      <c r="B103" s="5" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="100" spans="1:2">
-      <c r="A100" s="8" t="s">
+    <row r="104" spans="1:2">
+      <c r="A104" s="7" t="s">
         <v>45</v>
       </c>
-      <c r="B100" s="6" t="s">
+      <c r="B104" s="5" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="101" spans="1:2">
-      <c r="A101" s="8" t="s">
+    <row r="105" spans="1:2">
+      <c r="A105" s="7" t="s">
         <v>43</v>
       </c>
-      <c r="B101" s="6" t="s">
+      <c r="B105" s="5" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="102" spans="1:2">
-      <c r="A102" s="6" t="s">
+    <row r="106" spans="1:2">
+      <c r="A106" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="B102" s="6" t="s">
+      <c r="B106" s="5" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="103" spans="1:2">
-      <c r="A103" s="19" t="s">
+    <row r="107" spans="1:2">
+      <c r="A107" s="20" t="s">
         <v>39</v>
       </c>
-      <c r="B103" s="6" t="s">
+      <c r="B107" s="5" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="104" spans="1:2" ht="75">
-      <c r="A104" s="19"/>
-      <c r="B104" s="6" t="s">
+    <row r="108" spans="1:2" ht="75">
+      <c r="A108" s="20"/>
+      <c r="B108" s="5" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="105" spans="1:2" ht="30">
-      <c r="A105" s="5" t="s">
+    <row r="109" spans="1:2" ht="30">
+      <c r="A109" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="B105" s="6" t="s">
+      <c r="B109" s="5" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="106" spans="1:2" ht="60">
-      <c r="A106" s="6" t="s">
+    <row r="110" spans="1:2" ht="60">
+      <c r="A110" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="B106" s="6" t="s">
+      <c r="B110" s="5" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="107" spans="1:2">
-      <c r="A107" s="5" t="s">
+    <row r="111" spans="1:2">
+      <c r="A111" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="B107" s="6" t="s">
+      <c r="B111" s="5" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="108" spans="1:2">
-      <c r="A108" s="5" t="s">
+    <row r="112" spans="1:2">
+      <c r="A112" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="B108" s="6" t="s">
+      <c r="B112" s="5" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="109" spans="1:2">
-      <c r="A109" s="6" t="s">
+    <row r="113" spans="1:2">
+      <c r="A113" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="B109" s="6" t="s">
+      <c r="B113" s="5" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="110" spans="1:2">
-      <c r="A110" s="6" t="s">
+    <row r="114" spans="1:2">
+      <c r="A114" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="B110" s="6" t="s">
+      <c r="B114" s="5" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="111" spans="1:2" ht="45">
-      <c r="A111" s="6" t="s">
+    <row r="115" spans="1:2" ht="45">
+      <c r="A115" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="B111" s="6" t="s">
+      <c r="B115" s="5" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="112" spans="1:2" ht="45">
-      <c r="A112" s="6" t="s">
+    <row r="116" spans="1:2" ht="45">
+      <c r="A116" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="B112" s="6" t="s">
+      <c r="B116" s="5" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="113" spans="1:2">
-      <c r="A113" s="6" t="s">
+    <row r="117" spans="1:2">
+      <c r="A117" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="B113" s="6" t="s">
+      <c r="B117" s="5" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="114" spans="1:2" ht="30">
-      <c r="A114" s="6" t="s">
+    <row r="118" spans="1:2" ht="30">
+      <c r="A118" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="B114" s="6" t="s">
+      <c r="B118" s="5" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="115" spans="1:2">
-      <c r="A115" s="6" t="s">
+    <row r="119" spans="1:2">
+      <c r="A119" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="B115" s="6" t="s">
+      <c r="B119" s="5" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="116" spans="1:2" ht="90">
-      <c r="A116" s="6" t="s">
+    <row r="120" spans="1:2" ht="90">
+      <c r="A120" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="B116" s="6" t="s">
+      <c r="B120" s="5" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="117" spans="1:2" ht="60">
-      <c r="A117" s="6" t="s">
+    <row r="121" spans="1:2" ht="60">
+      <c r="A121" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="B117" s="6" t="s">
+      <c r="B121" s="5" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="118" spans="1:2">
-      <c r="A118" t="s">
+    <row r="122" spans="1:2">
+      <c r="A122" t="s">
         <v>10</v>
       </c>
-      <c r="B118" t="s">
+      <c r="B122" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="119" spans="1:2" ht="195">
-      <c r="A119" s="16" t="s">
+    <row r="123" spans="1:2" ht="195">
+      <c r="A123" s="17" t="s">
         <v>8</v>
       </c>
-      <c r="B119" s="6" t="s">
+      <c r="B123" s="5" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="120" spans="1:2" ht="165">
-      <c r="A120" s="16"/>
-      <c r="B120" s="6" t="s">
+    <row r="124" spans="1:2" ht="165">
+      <c r="A124" s="17"/>
+      <c r="B124" s="5" t="s">
         <v>6</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="14">
+  <mergeCells count="15">
     <mergeCell ref="A2:B2"/>
-    <mergeCell ref="A22:B22"/>
+    <mergeCell ref="A26:B26"/>
     <mergeCell ref="A17:B17"/>
     <mergeCell ref="A18:B18"/>
-    <mergeCell ref="A119:A120"/>
-    <mergeCell ref="A35:A36"/>
-    <mergeCell ref="A51:A52"/>
-    <mergeCell ref="A56:A57"/>
-    <mergeCell ref="A77:A78"/>
-    <mergeCell ref="A85:A86"/>
-    <mergeCell ref="A87:A89"/>
-    <mergeCell ref="A98:A99"/>
-    <mergeCell ref="A80:A81"/>
-    <mergeCell ref="A103:A104"/>
+    <mergeCell ref="A123:A124"/>
+    <mergeCell ref="A39:A40"/>
+    <mergeCell ref="A55:A56"/>
+    <mergeCell ref="A60:A61"/>
+    <mergeCell ref="A81:A82"/>
+    <mergeCell ref="A89:A90"/>
+    <mergeCell ref="A91:A93"/>
+    <mergeCell ref="A102:A103"/>
+    <mergeCell ref="A84:A85"/>
+    <mergeCell ref="A107:A108"/>
+    <mergeCell ref="A22:B22"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="A1" location="Topics!A2" display="Topics"/>
@@ -3161,7 +3193,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:B16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="A14" sqref="A14:A16"/>
     </sheetView>
@@ -3173,21 +3205,21 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
-      <c r="A1" s="3" t="s">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="20" t="s">
+      <c r="A2" s="21" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="21"/>
+      <c r="B2" s="22"/>
     </row>
     <row r="3" spans="1:2">
-      <c r="A3" s="11" t="s">
+      <c r="A3" s="10" t="s">
         <v>202</v>
       </c>
       <c r="B3" t="s">
@@ -3195,16 +3227,16 @@
       </c>
     </row>
     <row r="7" spans="1:2">
-      <c r="A7" s="20" t="s">
+      <c r="A7" s="21" t="s">
         <v>5</v>
       </c>
-      <c r="B7" s="21"/>
+      <c r="B7" s="22"/>
     </row>
     <row r="11" spans="1:2">
-      <c r="A11" s="20" t="s">
+      <c r="A11" s="21" t="s">
         <v>2</v>
       </c>
-      <c r="B11" s="21"/>
+      <c r="B11" s="22"/>
     </row>
     <row r="12" spans="1:2">
       <c r="A12" t="s">
@@ -3218,27 +3250,27 @@
       <c r="A13" t="s">
         <v>210</v>
       </c>
-      <c r="B13" s="9" t="s">
+      <c r="B13" s="8" t="s">
         <v>211</v>
       </c>
     </row>
     <row r="14" spans="1:2" ht="45">
-      <c r="A14" s="22" t="s">
+      <c r="A14" s="23" t="s">
         <v>215</v>
       </c>
-      <c r="B14" s="12" t="s">
+      <c r="B14" s="11" t="s">
         <v>216</v>
       </c>
     </row>
     <row r="15" spans="1:2" ht="30">
-      <c r="A15" s="22"/>
-      <c r="B15" s="12" t="s">
+      <c r="A15" s="23"/>
+      <c r="B15" s="11" t="s">
         <v>217</v>
       </c>
     </row>
     <row r="16" spans="1:2">
-      <c r="A16" s="22"/>
-      <c r="B16" s="12" t="s">
+      <c r="A16" s="23"/>
+      <c r="B16" s="11" t="s">
         <v>218</v>
       </c>
     </row>
@@ -3274,21 +3306,21 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
-      <c r="A1" s="3" t="s">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="20" t="s">
+      <c r="A2" s="21" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="21"/>
+      <c r="B2" s="22"/>
     </row>
     <row r="3" spans="1:2">
-      <c r="A3" s="10" t="s">
+      <c r="A3" s="9" t="s">
         <v>203</v>
       </c>
       <c r="B3" t="s">

--- a/Definitions/t-Definitions-UI.xlsx
+++ b/Definitions/t-Definitions-UI.xlsx
@@ -4,20 +4,21 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" tabRatio="1000" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" tabRatio="1000" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="Topics" sheetId="1" r:id="rId1"/>
     <sheet name="JS" sheetId="2" r:id="rId2"/>
     <sheet name="Highcharts" sheetId="3" r:id="rId3"/>
     <sheet name="D3" sheetId="4" r:id="rId4"/>
+    <sheet name="Typescript" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="244" uniqueCount="223">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="275" uniqueCount="249">
   <si>
     <t>Topics</t>
   </si>
@@ -1657,6 +1658,94 @@
   </si>
   <si>
     <t>javascript.com</t>
+  </si>
+  <si>
+    <t>Typescript</t>
+  </si>
+  <si>
+    <t>TypeScript Fundamentals</t>
+  </si>
+  <si>
+    <t>TypeScript In-depth</t>
+  </si>
+  <si>
+    <t>TypeScript Fundamentals - Definitions</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Home page </t>
+  </si>
+  <si>
+    <t>http://www.typescriptlang.org/</t>
+  </si>
+  <si>
+    <t>Typescript features</t>
+  </si>
+  <si>
+    <t>1. Supports standard javascript code
+2. Provides static typing
+3. Encapsulation through classes and modules
+4. Supports constructors, properties, functions
+5. Can define interfaces
+6. fat arrow (=&gt;) support. Means lambdas support</t>
+  </si>
+  <si>
+    <t>What is Typescript</t>
+  </si>
+  <si>
+    <t>Framework on top of javascript.
+We will write .ts file and compile them. Then .js file will be geneated</t>
+  </si>
+  <si>
+    <t>What is Typescript compiler</t>
+  </si>
+  <si>
+    <t>tsc. We need to install it</t>
+  </si>
+  <si>
+    <t>Install typescript using npm</t>
+  </si>
+  <si>
+    <t>1. cmd&gt; npm install -g typescript
+2. to check typescript installation -&gt; open cmd -&gt;  tsc -version</t>
+  </si>
+  <si>
+    <t>Workspaces</t>
+  </si>
+  <si>
+    <t>Visual code workspace</t>
+  </si>
+  <si>
+    <t>E:\Backup\JavaPrep\practiceProjects\TypescriptPractice</t>
+  </si>
+  <si>
+    <t>Projects</t>
+  </si>
+  <si>
+    <t>https://github.com/avinashbabudonthu/TypeScriptPractice.git</t>
+  </si>
+  <si>
+    <t>Github Download link</t>
+  </si>
+  <si>
+    <t>https://github.com/avinashbabudonthu/TypeScriptPractice/archive/master.zip</t>
+  </si>
+  <si>
+    <t>Github link</t>
+  </si>
+  <si>
+    <t>HelloWorld steps</t>
+  </si>
+  <si>
+    <t>1. Install tsc like above
+2. Create Greeter.ts in Visual code
+3. Visual Code -&gt; View -&gt; Integrated Terminal -&gt; tsc Greeter.ts
+4. This will generate Greeter.js file</t>
+  </si>
+  <si>
+    <t>https://www.typescriptlang.org/play/</t>
+  </si>
+  <si>
+    <t>Online tool (TypeScript Playground) to generate Javascript for typescript</t>
   </si>
 </sst>
 </file>
@@ -1807,7 +1896,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -1836,6 +1925,17 @@
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -2165,7 +2265,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B5"/>
+  <dimension ref="A1:B6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -2206,12 +2306,18 @@
         <v>212</v>
       </c>
     </row>
+    <row r="6" spans="1:2">
+      <c r="A6" s="1" t="s">
+        <v>223</v>
+      </c>
+    </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="B1" location="Topics!A2" display="Up"/>
     <hyperlink ref="A2" location="JS!A1" display="Javascript"/>
     <hyperlink ref="A3" location="Highcharts!A1" display="Highcharts"/>
     <hyperlink ref="A4" location="'D3'!A1" display="D3 charts"/>
+    <hyperlink ref="A6" location="Typescript!A1" display="Typescript"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -2221,7 +2327,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:B124"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="A26" sqref="A26:B26"/>
     </sheetView>
@@ -2241,10 +2347,10 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="14" t="s">
+      <c r="A2" s="19" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="14"/>
+      <c r="B2" s="19"/>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="9" t="s">
@@ -2349,22 +2455,22 @@
       <c r="B16" s="1"/>
     </row>
     <row r="17" spans="1:2">
-      <c r="A17" s="14" t="s">
+      <c r="A17" s="19" t="s">
         <v>5</v>
       </c>
-      <c r="B17" s="14"/>
+      <c r="B17" s="19"/>
     </row>
     <row r="18" spans="1:2">
-      <c r="A18" s="15"/>
-      <c r="B18" s="16"/>
+      <c r="A18" s="20"/>
+      <c r="B18" s="21"/>
     </row>
     <row r="20" spans="1:2" s="13" customFormat="1"/>
     <row r="21" spans="1:2" s="13" customFormat="1"/>
     <row r="22" spans="1:2" s="13" customFormat="1">
-      <c r="A22" s="14" t="s">
+      <c r="A22" s="19" t="s">
         <v>219</v>
       </c>
-      <c r="B22" s="14"/>
+      <c r="B22" s="19"/>
     </row>
     <row r="23" spans="1:2">
       <c r="A23" s="12" t="s">
@@ -2384,10 +2490,10 @@
       </c>
     </row>
     <row r="26" spans="1:2">
-      <c r="A26" s="14" t="s">
+      <c r="A26" s="19" t="s">
         <v>2</v>
       </c>
-      <c r="B26" s="14"/>
+      <c r="B26" s="19"/>
     </row>
     <row r="27" spans="1:2" ht="75">
       <c r="A27" s="5" t="s">
@@ -2486,7 +2592,7 @@
       </c>
     </row>
     <row r="39" spans="1:2" ht="45">
-      <c r="A39" s="18" t="s">
+      <c r="A39" s="23" t="s">
         <v>166</v>
       </c>
       <c r="B39" s="5" t="s">
@@ -2494,7 +2600,7 @@
       </c>
     </row>
     <row r="40" spans="1:2" ht="75">
-      <c r="A40" s="18"/>
+      <c r="A40" s="23"/>
       <c r="B40" s="5" t="s">
         <v>164</v>
       </c>
@@ -2612,7 +2718,7 @@
       </c>
     </row>
     <row r="55" spans="1:2">
-      <c r="A55" s="19" t="s">
+      <c r="A55" s="24" t="s">
         <v>135</v>
       </c>
       <c r="B55" s="5" t="s">
@@ -2620,7 +2726,7 @@
       </c>
     </row>
     <row r="56" spans="1:2" ht="120">
-      <c r="A56" s="19"/>
+      <c r="A56" s="24"/>
       <c r="B56" s="5" t="s">
         <v>133</v>
       </c>
@@ -2650,7 +2756,7 @@
       </c>
     </row>
     <row r="60" spans="1:2" ht="45">
-      <c r="A60" s="19" t="s">
+      <c r="A60" s="24" t="s">
         <v>126</v>
       </c>
       <c r="B60" s="5" t="s">
@@ -2658,7 +2764,7 @@
       </c>
     </row>
     <row r="61" spans="1:2" ht="30">
-      <c r="A61" s="19"/>
+      <c r="A61" s="24"/>
       <c r="B61" s="5" t="s">
         <v>124</v>
       </c>
@@ -2816,7 +2922,7 @@
       </c>
     </row>
     <row r="81" spans="1:2" ht="75">
-      <c r="A81" s="18" t="s">
+      <c r="A81" s="23" t="s">
         <v>85</v>
       </c>
       <c r="B81" s="5" t="s">
@@ -2824,7 +2930,7 @@
       </c>
     </row>
     <row r="82" spans="1:2" ht="30">
-      <c r="A82" s="18"/>
+      <c r="A82" s="23"/>
       <c r="B82" s="5" t="s">
         <v>83</v>
       </c>
@@ -2838,7 +2944,7 @@
       </c>
     </row>
     <row r="84" spans="1:2" ht="30">
-      <c r="A84" s="18" t="s">
+      <c r="A84" s="23" t="s">
         <v>80</v>
       </c>
       <c r="B84" s="5" t="s">
@@ -2846,7 +2952,7 @@
       </c>
     </row>
     <row r="85" spans="1:2" ht="60">
-      <c r="A85" s="18"/>
+      <c r="A85" s="23"/>
       <c r="B85" s="5" t="s">
         <v>78</v>
       </c>
@@ -2876,7 +2982,7 @@
       </c>
     </row>
     <row r="89" spans="1:2" ht="30">
-      <c r="A89" s="19" t="s">
+      <c r="A89" s="24" t="s">
         <v>71</v>
       </c>
       <c r="B89" s="5" t="s">
@@ -2884,13 +2990,13 @@
       </c>
     </row>
     <row r="90" spans="1:2" ht="30">
-      <c r="A90" s="19"/>
+      <c r="A90" s="24"/>
       <c r="B90" s="5" t="s">
         <v>69</v>
       </c>
     </row>
     <row r="91" spans="1:2" ht="30">
-      <c r="A91" s="18" t="s">
+      <c r="A91" s="23" t="s">
         <v>68</v>
       </c>
       <c r="B91" s="5" t="s">
@@ -2898,13 +3004,13 @@
       </c>
     </row>
     <row r="92" spans="1:2" ht="30">
-      <c r="A92" s="18"/>
+      <c r="A92" s="23"/>
       <c r="B92" s="5" t="s">
         <v>66</v>
       </c>
     </row>
     <row r="93" spans="1:2" ht="45">
-      <c r="A93" s="18"/>
+      <c r="A93" s="23"/>
       <c r="B93" s="5" t="s">
         <v>65</v>
       </c>
@@ -2974,7 +3080,7 @@
       </c>
     </row>
     <row r="102" spans="1:2" ht="45">
-      <c r="A102" s="18" t="s">
+      <c r="A102" s="23" t="s">
         <v>48</v>
       </c>
       <c r="B102" s="5" t="s">
@@ -2982,7 +3088,7 @@
       </c>
     </row>
     <row r="103" spans="1:2" ht="105">
-      <c r="A103" s="18"/>
+      <c r="A103" s="23"/>
       <c r="B103" s="5" t="s">
         <v>46</v>
       </c>
@@ -3012,7 +3118,7 @@
       </c>
     </row>
     <row r="107" spans="1:2">
-      <c r="A107" s="20" t="s">
+      <c r="A107" s="25" t="s">
         <v>39</v>
       </c>
       <c r="B107" s="5" t="s">
@@ -3020,7 +3126,7 @@
       </c>
     </row>
     <row r="108" spans="1:2" ht="75">
-      <c r="A108" s="20"/>
+      <c r="A108" s="25"/>
       <c r="B108" s="5" t="s">
         <v>37</v>
       </c>
@@ -3138,7 +3244,7 @@
       </c>
     </row>
     <row r="123" spans="1:2" ht="195">
-      <c r="A123" s="17" t="s">
+      <c r="A123" s="22" t="s">
         <v>8</v>
       </c>
       <c r="B123" s="5" t="s">
@@ -3146,7 +3252,7 @@
       </c>
     </row>
     <row r="124" spans="1:2" ht="165">
-      <c r="A124" s="17"/>
+      <c r="A124" s="22"/>
       <c r="B124" s="5" t="s">
         <v>6</v>
       </c>
@@ -3213,10 +3319,10 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="21" t="s">
+      <c r="A2" s="26" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="22"/>
+      <c r="B2" s="27"/>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="10" t="s">
@@ -3227,16 +3333,16 @@
       </c>
     </row>
     <row r="7" spans="1:2">
-      <c r="A7" s="21" t="s">
+      <c r="A7" s="26" t="s">
         <v>5</v>
       </c>
-      <c r="B7" s="22"/>
+      <c r="B7" s="27"/>
     </row>
     <row r="11" spans="1:2">
-      <c r="A11" s="21" t="s">
+      <c r="A11" s="26" t="s">
         <v>2</v>
       </c>
-      <c r="B11" s="22"/>
+      <c r="B11" s="27"/>
     </row>
     <row r="12" spans="1:2">
       <c r="A12" t="s">
@@ -3255,7 +3361,7 @@
       </c>
     </row>
     <row r="14" spans="1:2" ht="45">
-      <c r="A14" s="23" t="s">
+      <c r="A14" s="28" t="s">
         <v>215</v>
       </c>
       <c r="B14" s="11" t="s">
@@ -3263,13 +3369,13 @@
       </c>
     </row>
     <row r="15" spans="1:2" ht="30">
-      <c r="A15" s="23"/>
+      <c r="A15" s="28"/>
       <c r="B15" s="11" t="s">
         <v>217</v>
       </c>
     </row>
     <row r="16" spans="1:2">
-      <c r="A16" s="23"/>
+      <c r="A16" s="28"/>
       <c r="B16" s="11" t="s">
         <v>218</v>
       </c>
@@ -3296,7 +3402,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft"/>
+      <selection pane="bottomLeft" activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -3314,10 +3420,10 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="21" t="s">
+      <c r="A2" s="26" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="22"/>
+      <c r="B2" s="27"/>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="9" t="s">
@@ -3338,4 +3444,175 @@
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:B20"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A15" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A21" sqref="A21"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="73" customWidth="1"/>
+    <col min="2" max="2" width="113.140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" s="26" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" s="27"/>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" s="15" t="s">
+        <v>201</v>
+      </c>
+      <c r="B3" s="9" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" s="15" t="s">
+        <v>201</v>
+      </c>
+      <c r="B4" s="9" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" s="18" customFormat="1">
+      <c r="B5" s="9"/>
+    </row>
+    <row r="6" spans="1:2" s="18" customFormat="1">
+      <c r="A6" s="26" t="s">
+        <v>237</v>
+      </c>
+      <c r="B6" s="27"/>
+    </row>
+    <row r="7" spans="1:2" s="18" customFormat="1">
+      <c r="A7" s="18" t="s">
+        <v>238</v>
+      </c>
+      <c r="B7" s="18" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" s="18" customFormat="1">
+      <c r="B8" s="9"/>
+    </row>
+    <row r="9" spans="1:2" s="18" customFormat="1">
+      <c r="A9" s="26" t="s">
+        <v>240</v>
+      </c>
+      <c r="B9" s="27"/>
+    </row>
+    <row r="10" spans="1:2" s="18" customFormat="1">
+      <c r="A10" s="18" t="s">
+        <v>244</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" s="18" customFormat="1">
+      <c r="A11" s="18" t="s">
+        <v>242</v>
+      </c>
+      <c r="B11" s="9" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2">
+      <c r="A13" s="26" t="s">
+        <v>226</v>
+      </c>
+      <c r="B13" s="27"/>
+    </row>
+    <row r="14" spans="1:2">
+      <c r="A14" s="15" t="s">
+        <v>227</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" ht="30">
+      <c r="A15" s="15" t="s">
+        <v>231</v>
+      </c>
+      <c r="B15" s="14" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" ht="90">
+      <c r="A16" s="15" t="s">
+        <v>229</v>
+      </c>
+      <c r="B16" s="14" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2">
+      <c r="A17" s="15" t="s">
+        <v>233</v>
+      </c>
+      <c r="B17" s="15" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" ht="30">
+      <c r="A18" s="15" t="s">
+        <v>235</v>
+      </c>
+      <c r="B18" s="14" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" ht="60">
+      <c r="A19" s="18" t="s">
+        <v>245</v>
+      </c>
+      <c r="B19" s="17" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2">
+      <c r="A20" s="18" t="s">
+        <v>248</v>
+      </c>
+      <c r="B20" s="16" t="s">
+        <v>247</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="4">
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="A13:B13"/>
+    <mergeCell ref="A6:B6"/>
+    <mergeCell ref="A9:B9"/>
+  </mergeCells>
+  <hyperlinks>
+    <hyperlink ref="B1" location="Typescript!A2" display="Up"/>
+    <hyperlink ref="A1" location="Topics!A6" display="Topics"/>
+    <hyperlink ref="B3" r:id="rId1" tooltip="TypeScript Fundamentals" display="https://app.pluralsight.com/library/courses/typescript"/>
+    <hyperlink ref="B4" r:id="rId2" tooltip="TypeScript In-depth" display="https://app.pluralsight.com/library/courses/typescript-in-depth"/>
+    <hyperlink ref="B14" r:id="rId3"/>
+    <hyperlink ref="B10" r:id="rId4"/>
+    <hyperlink ref="B11" r:id="rId5"/>
+    <hyperlink ref="B20" r:id="rId6"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId7"/>
+</worksheet>
 </file>
--- a/Definitions/t-Definitions-UI.xlsx
+++ b/Definitions/t-Definitions-UI.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" tabRatio="1000" activeTab="4"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" tabRatio="1000"/>
   </bookViews>
   <sheets>
     <sheet name="Topics" sheetId="1" r:id="rId1"/>
@@ -12,13 +12,15 @@
     <sheet name="Highcharts" sheetId="3" r:id="rId3"/>
     <sheet name="D3" sheetId="4" r:id="rId4"/>
     <sheet name="Typescript" sheetId="5" r:id="rId5"/>
+    <sheet name="Jquery" sheetId="6" r:id="rId6"/>
+    <sheet name="Ajax" sheetId="7" r:id="rId7"/>
   </sheets>
   <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="275" uniqueCount="249">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="629" uniqueCount="587">
   <si>
     <t>Topics</t>
   </si>
@@ -1747,12 +1749,1790 @@
   <si>
     <t>Online tool (TypeScript Playground) to generate Javascript for typescript</t>
   </si>
+  <si>
+    <t>$("&lt;ul id='bookmarks'&gt;");</t>
+  </si>
+  <si>
+    <t>Creating new element</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> $("document").ready(function() {
+            $("#show").click(function (evt) {
+             alert(JSON.stringify($("#example").data(),null," "));
+            });
+            $("#store").click(function (evt) {
+             $("#example").data("key1",1234);
+             $("#example").data("key2","Micky");
+            });
+            $("#remove").click(function (evt) {
+             $("#example").removeData();
+            });
+            $("#removeOneKey").click(function (evt) {
+             $("#example").removeData("key1");
+            });
+        });</t>
+  </si>
+  <si>
+    <t>&lt;div id="example" data-key3="data attribute"&gt;
+        &lt;p class="a"&gt;This is paragraph 1&lt;/p&gt;
+        &lt;p id="para1"&gt;This is paragraph 2&lt;/p&gt;
+        &lt;p class="b"&gt;This is paragraph 3&lt;/p&gt;
+        &lt;p id="para4" lang="en-us"&gt;This is paragraph 4&lt;/p&gt;
+        &lt;p id="para5" lang="en-gb"&gt;This is paragraph 5&lt;/p&gt;
+    &lt;/div&gt;
+    &lt;p&gt;
+      &lt;button id="store"&gt;Store data&lt;/button&gt;&amp;nbsp;
+      &lt;button id="remove"&gt;Remove data&lt;/button&gt;&amp;nbsp;
+      &lt;button id="removeOneKey"&gt;Remove One Key data&lt;/button&gt;&amp;nbsp;
+      &lt;button id="show"&gt;Show data&lt;/button&gt;&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>To add/edit/remove data attributes</t>
+  </si>
+  <si>
+    <t>$("#height").html($("#example").height());
+$("#width").html($("#example").width());
+$("#innerH").html($("#example").innerHeight());
+$("#innerW").html($("#example").innerWidth());
+$("#outerH").html($("#example").outerHeight());
+$("#outerW").html($("#example").outerWidth());
+$("#offset").html($("#example").offset().top+", "+$("#example").offset().left);
+$("#position").html($("#example").position().top+", "+$("#example").position().left);</t>
+  </si>
+  <si>
+    <t>Getting css property values using Jquery functions</t>
+  </si>
+  <si>
+    <t>$("#setProps").click(function(evt){
+          $("#example p").css({
+                                           "text-decoration": "underline",
+                                           "color": "red",
+                                           "font-weight": "bold" });
+ });
+ });</t>
+  </si>
+  <si>
+    <t>Setting multiple css properties at once</t>
+  </si>
+  <si>
+    <t>Toggle the presence of css classes. If class is present then it will be removed. If class is not present then it will be added</t>
+  </si>
+  <si>
+    <t>toggleClass(className);</t>
+  </si>
+  <si>
+    <t>remove css class from the matched elements/selectors</t>
+  </si>
+  <si>
+    <t>removeClass(className);</t>
+  </si>
+  <si>
+    <t>add css class to the matched elements/selectors</t>
+  </si>
+  <si>
+    <t>addClass(className);</t>
+  </si>
+  <si>
+    <t>Determine whether element has className applied</t>
+  </si>
+  <si>
+    <t>hasClass(className);</t>
+  </si>
+  <si>
+    <t>Set multiple property values at once</t>
+  </si>
+  <si>
+    <t>css(properties);</t>
+  </si>
+  <si>
+    <t>Set value for css property propName to the result of fn().
+Here fn() is a call back function</t>
+  </si>
+  <si>
+    <t>css(propName, fn());</t>
+  </si>
+  <si>
+    <t>Set value for css property propName</t>
+  </si>
+  <si>
+    <t>css(propName, value);</t>
+  </si>
+  <si>
+    <t>Get value for the propName property on an element</t>
+  </si>
+  <si>
+    <t>css(propName);</t>
+  </si>
+  <si>
+    <t>Working with CSS using Jquery</t>
+  </si>
+  <si>
+    <t>adding/editing multiple attributes of img tag</t>
+  </si>
+  <si>
+    <t>$("img").attr({
+                           src: "images/spring.jpg", 
+                           title: "spring images"
+                          });</t>
+  </si>
+  <si>
+    <t>removes href attribute from all anchor tags</t>
+  </si>
+  <si>
+    <t>$("a").removeAttr("href");</t>
+  </si>
+  <si>
+    <t>returns title attribute value of all anchor tags as a set</t>
+  </si>
+  <si>
+    <t>$("a").attr("title");</t>
+  </si>
+  <si>
+    <t>First argument: attribute name
+Second argument: attribute value</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">assigns "New title" value to all anchor tag's </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>title</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> attribute</t>
+    </r>
+  </si>
+  <si>
+    <t>$("a").attr("title","New title");</t>
+  </si>
+  <si>
+    <t>call back function will be called for each element returned by jquery expression (#example p[id])</t>
+  </si>
+  <si>
+    <t>replaces the content with returned value of call back function "replacementFn"</t>
+  </si>
+  <si>
+    <t>$("#example p[id]").replaceWith(replacementFn);</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">&lt;p&gt; paragraph1&lt;/p&gt;
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>&lt;div&gt;replaced&lt;/div&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+&lt;p&gt; paragraph3&lt;/p&gt;
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>&lt;div&gt;replaced&lt;/div&gt;</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">&lt;p&gt; paragraph1&lt;/p&gt;
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>&lt;p id="p2"&gt; paragraph2&lt;/p&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+&lt;p&gt; paragraph3&lt;/p&gt;
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>&lt;p id="p4"&gt; paragraph4&lt;/p&gt;</t>
+    </r>
+  </si>
+  <si>
+    <t>$("#example p[id]").replaceWith("&lt;div&gt;replaced&lt;/div&gt;");</t>
+  </si>
+  <si>
+    <t>$("&lt;div&gt;replaced&lt;/div&gt;").replaceAll("#example p[id]");</t>
+  </si>
+  <si>
+    <t>Empty will remove all children elements where as remove will removes specific elements</t>
+  </si>
+  <si>
+    <t>empty vs remove</t>
+  </si>
+  <si>
+    <t>detach paragraph elements with class a and class b that are inside element with id = example</t>
+  </si>
+  <si>
+    <t>$("#examlpe p.a, #example p.b").detach();</t>
+  </si>
+  <si>
+    <t>remove paragraph elements with class a and class b that are inside element with id = example</t>
+  </si>
+  <si>
+    <t>$("#examlpe p.a, #example p.b").remove();</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>remove:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> The difference between remove and detach is that the remove function removes elements from the page, including any of the embedded data or event handlers that you've attached to those elements. 
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>detach:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Detach also removes them, but it maintains the embedded data and event handlers. So if you put those detached elements back into the page later, any data and any event handlers that you've attached to those elements will still be there. </t>
+    </r>
+  </si>
+  <si>
+    <t>remove vs detach</t>
+  </si>
+  <si>
+    <t>Empties/Removes everything inside a specific selector</t>
+  </si>
+  <si>
+    <t>$("#example").empty()</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;Some Text&lt;/p&gt;
+&lt;p&gt;Some Text&lt;/p&gt;
+------------------------
+&lt;div style='color: red'&gt;
+&lt;p&gt;Some Text&lt;/p&gt;
+&lt;p&gt;Some Text&lt;/p&gt;
+&lt;/div&gt;</t>
+  </si>
+  <si>
+    <t>$("p").wrapAll("&lt;div style='color: red'/&gt;");</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;Some Text&lt;/p&gt;
+&lt;p&gt;Some Text&lt;/p&gt;
+------------------------
+&lt;div style='color: red'&gt;&lt;p&gt;Some Text&lt;/p&gt;&lt;/div&gt;
+&lt;div style='color: red'&gt;&lt;p&gt;Some Text&lt;/p&gt;&lt;/div&gt;</t>
+  </si>
+  <si>
+    <t>$("p").wrap("&lt;div style='color: red'/&gt;");</t>
+  </si>
+  <si>
+    <t>&lt;p&gt; Some Text&lt;/p&gt;
+&lt;p&gt;Some Text&lt;/p&gt;
+--------------------------
+&lt;p&gt;Some Text&lt;/p&gt;New Text
+&lt;p&gt;Some Text&lt;/p&gt;New Text</t>
+  </si>
+  <si>
+    <t>$("New Text").insertAfter("p");</t>
+  </si>
+  <si>
+    <t>&lt;p&gt; Some Text&lt;/p&gt;
+&lt;p&gt;Some Text&lt;/p&gt;
+--------------------------
+New Text&lt;p&gt;Some Text&lt;/p&gt;
+New Text&lt;p&gt;Some Text&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>$("New Text").insertBefore("p");</t>
+  </si>
+  <si>
+    <t>$("p").after("New Text");</t>
+  </si>
+  <si>
+    <t>$("p").before("New Text");</t>
+  </si>
+  <si>
+    <t>&lt;p&gt; Some Text&lt;/p&gt;
+&lt;p&gt;Some Text&lt;/p&gt;
+--------------------------
+&lt;p&gt;New TextSome Text&lt;/p&gt;
+&lt;p&gt;New TextSome Text&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>$("New Text").prependTo("p");</t>
+  </si>
+  <si>
+    <t>&lt;p&gt; Some Text&lt;/p&gt;
+&lt;p&gt;Some Text&lt;/p&gt;
+--------------------------
+&lt;p&gt;Some TextNew Text&lt;/p&gt;
+&lt;p&gt;Some TextNew Text&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>$("New Text").appendTo("p");</t>
+  </si>
+  <si>
+    <t>$("p").prepend("New Text");</t>
+  </si>
+  <si>
+    <t>$("p").append("New Text");</t>
+  </si>
+  <si>
+    <t>$(selector).fn1().fn2().fn3();</t>
+  </si>
+  <si>
+    <t>Example of Jquery statement chain</t>
+  </si>
+  <si>
+    <t>Call multiple functions on a result set in the same line</t>
+  </si>
+  <si>
+    <t>Jquery statement chain</t>
+  </si>
+  <si>
+    <t>Selects each paragraph that are descendents of element with id=example and calls callback function on each element</t>
+  </si>
+  <si>
+    <t>$("#example p").each(function(index, element){ --- });</t>
+  </si>
+  <si>
+    <t>Finds an element with id = parallel in the DOM tree starting from element with id=example</t>
+  </si>
+  <si>
+    <t>$("#example").find("#parallel").css("border", "3px solid red");</t>
+  </si>
+  <si>
+    <t>Select all children of element whose id is "example" as a set and call css on each of them</t>
+  </si>
+  <si>
+    <t>$("#example").children.css("border", "3px solid red");</t>
+  </si>
+  <si>
+    <t>Traversing DOM</t>
+  </si>
+  <si>
+    <t>all paragraph element that are inside div and whose index if multiple of 2</t>
+  </si>
+  <si>
+    <t>div p:nth-child(2n)</t>
+  </si>
+  <si>
+    <t>all paragraph elements that are inside of a div and 3rd child of it's parent</t>
+  </si>
+  <si>
+    <t>div p:nth-child(3)</t>
+  </si>
+  <si>
+    <t>all paragraph elements that are inside of a div and last of it's type for parent(div)</t>
+  </si>
+  <si>
+    <t>div p:last-of-type</t>
+  </si>
+  <si>
+    <t>All paragraph elements that are inside of a div and first child of div</t>
+  </si>
+  <si>
+    <t>div p:first-child</t>
+  </si>
+  <si>
+    <t>div tags that have at least one paragraph that has a class attribute whose value is "a"</t>
+  </si>
+  <si>
+    <t>div:has(p[class=a])</t>
+  </si>
+  <si>
+    <t>paragraph element which themselves are parents i.e 
+paragraph element which contains another tag inside them or text node</t>
+  </si>
+  <si>
+    <t>p:parent</t>
+  </si>
+  <si>
+    <t>paragraph element which contains the text "avi"</t>
+  </si>
+  <si>
+    <t>p:contains('avi')</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">paragraph element which has id attribute whose </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>value starts with "para"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> and </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>lang attribute contains text "un-"</t>
+    </r>
+  </si>
+  <si>
+    <t>p[id^=para][lang*=un-]</t>
+  </si>
+  <si>
+    <t>contains text</t>
+  </si>
+  <si>
+    <t>*=</t>
+  </si>
+  <si>
+    <t>starts with</t>
+  </si>
+  <si>
+    <t>^=</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">paragraph element which has id attribute whose value </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>starts with</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> "para"</t>
+    </r>
+  </si>
+  <si>
+    <t>p[id^=para]</t>
+  </si>
+  <si>
+    <t>paragraph element which has id attribute with value "parallel"</t>
+  </si>
+  <si>
+    <t>p[id=parallel]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">paragraph element which has class attribute. </t>
+  </si>
+  <si>
+    <t>p[class]</t>
+  </si>
+  <si>
+    <t>Select all paragraph elements that are sibling of element with id = parallel</t>
+  </si>
+  <si>
+    <t>#parallel ~ p</t>
+  </si>
+  <si>
+    <t>Select div element which is adjecent to ul element. (or)
+Select div element which comes after ul element</t>
+  </si>
+  <si>
+    <t>ul + div</t>
+  </si>
+  <si>
+    <t>Selects all paragraph elements that are descendents of div element but those don’t have to be immediate children</t>
+  </si>
+  <si>
+    <t>div p</t>
+  </si>
+  <si>
+    <t>Selects all paragraph elements that are immediate children of div element</t>
+  </si>
+  <si>
+    <t>div &gt; p</t>
+  </si>
+  <si>
+    <t>Jquery Basic Filters</t>
+  </si>
+  <si>
+    <t>off method to turn off the event listening for specific event</t>
+  </si>
+  <si>
+    <t>$("#example").off("mousemove", fun1);</t>
+  </si>
+  <si>
+    <t>.on is for listen for specific event. Here event is "mousemove".
+On that event, callback function fun1() will be called.
+evt -&gt; Event function captured by Jquery</t>
+  </si>
+  <si>
+    <t>$("#example").on("mousemove", fun1);
+function fun1(evt){ // some code here}</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Event handling is done with </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Bind/Unbind</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> functionality of Jquery</t>
+    </r>
+  </si>
+  <si>
+    <t>How Event handling is done in Jquery</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> JQuery filters are used in conjunction with selectors in order to further refine a result set that comes back from a selector expression
+For example $("p:first") selects first paragraph in the results returned by $("p")</t>
+  </si>
+  <si>
+    <t>Filters</t>
+  </si>
+  <si>
+    <t>Selectors are used to select the part of the web page using common css style syntax.
+For example $("p") - selects all paragraph elements in html</t>
+  </si>
+  <si>
+    <t>Selectors</t>
+  </si>
+  <si>
+    <t>page event, fetch network content, update page</t>
+  </si>
+  <si>
+    <t>user event, retrieve page content, update page content, update page</t>
+  </si>
+  <si>
+    <t>1. Page Load 2. Initial Page state 3. Setup event handlers 4. Start app</t>
+  </si>
+  <si>
+    <t>Common web development patterns</t>
+  </si>
+  <si>
+    <t>Jquery from Lynda</t>
+  </si>
+  <si>
+    <t>The filter( selector ) method can be used to filter out all elements from the set of matched elements that do not match the specified selector(s). The selector can be written using any selector syntax.</t>
+  </si>
+  <si>
+    <t>filter( selector )</t>
+  </si>
+  <si>
+    <t>The val( val ) method sets the input value of every matched element.
+If this method is called on radio buttons, checkboxes, or select options then it would check, or select them at the passed value</t>
+  </si>
+  <si>
+    <t>val( val )</t>
+  </si>
+  <si>
+    <t>The val( ) method gets the input value of the first matched element</t>
+  </si>
+  <si>
+    <t>val( )</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">&lt;div id="div1"&gt;&lt;/div&gt;
+&lt;input type="button" id="btn11" value="Set Text with text()"&gt;&lt;br/&gt;&lt;br/&gt;
+ &lt;input type="button" id="btn12" value="Set text with html()"&gt;&lt;br/&gt;&lt;br/&gt;
+------------------------------
+$('#btn11').click(function(){
+  $('#div1').text("&lt;i&gt;Setting content with text function &lt;/i&gt;");
+ });
+ $('#btn12').click(function(){
+  $('#div1').html("&lt;i&gt;Setting content with text function &lt;/i&gt;");
+ });
+-------------output---------------------
+text() - &lt;i&gt;Setting content with text function &lt;/i&gt;
+html() - </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Setting content with text function </t>
+    </r>
+  </si>
+  <si>
+    <t>Example between between text and html</t>
+  </si>
+  <si>
+    <t>The text( val ) method sets the text contents of all matched elements. This method is similar to html( val ) but escapes all HTML entities</t>
+  </si>
+  <si>
+    <t>text( val )</t>
+  </si>
+  <si>
+    <t>The text( ) method gets the combined text contents of all matched elements</t>
+  </si>
+  <si>
+    <t>text( )</t>
+  </si>
+  <si>
+    <t>The html( val ) method sets the html contents of every matched element. 
+This property is not available on XML documents but it works for XHTML documents</t>
+  </si>
+  <si>
+    <t>html( val )</t>
+  </si>
+  <si>
+    <t>The html( ) method gets the html contents of the first matched element. 
+This property is not available on XML documents but it works for XHTML documents</t>
+  </si>
+  <si>
+    <t>html( )</t>
+  </si>
+  <si>
+    <t>The toggleClass( class ) method adds the specified class if it is not present, removes the specified class if it is present</t>
+  </si>
+  <si>
+    <t>toggleClass( class )</t>
+  </si>
+  <si>
+    <t>The removeClass( class ) method removes all or the specified class(es) from the set of matched elements</t>
+  </si>
+  <si>
+    <t>removeClass( class )</t>
+  </si>
+  <si>
+    <t>The hasClass( class ) method returns true if the specified class is present on at least one of the set of matched elements otherwise it returns false</t>
+  </si>
+  <si>
+    <t>hasClass( class )</t>
+  </si>
+  <si>
+    <t>$(document).ready(function() {
+        $("table").removeAttr("border");
+});</t>
+  </si>
+  <si>
+    <t>The removeAttr( name ) method removes an attribute from each of the matched elements</t>
+  </si>
+  <si>
+    <t>removeAttr( name )</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">The attr( key, func ) method sets a single property to a computed value, on all matched elements
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Syntax:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> selector.attr( key, func )</t>
+    </r>
+  </si>
+  <si>
+    <t>attr( key, func )</t>
+  </si>
+  <si>
+    <t>$(document).ready(function() {
+$("img").attr({
+src: "/images/jquery.jpg",
+title: "jQuery",
+alt: "jQuery Logo"
+});
+});</t>
+  </si>
+  <si>
+    <t>selector.attr({property1:value1, property2:value2})</t>
+  </si>
+  <si>
+    <t>Syntax</t>
+  </si>
+  <si>
+    <t>The attr( properties) method set a key/value object as properties to all matched elements</t>
+  </si>
+  <si>
+    <t>attr( {properties} )</t>
+  </si>
+  <si>
+    <t>$(document).ready(function(){
+ $('#btn7').click(function(){
+  $('#applyClass').addClass('fillTextColor fillBackground');
+ });
+});</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> .fillTextColor{  color: red;  font-weight: bold; }
+ .fillBackground{  background-color: yellow; }</t>
+  </si>
+  <si>
+    <t>&lt;div id="applyClass"&gt;Apply classes dynamically&lt;/div&gt;
+ &lt;input type="button" id="btn7" value="Apply Classes"&gt;&lt;br/&gt;&lt;br/&gt;</t>
+  </si>
+  <si>
+    <t>addClass(classes) Example</t>
+  </si>
+  <si>
+    <t>The addClass( classes ) method can be used to apply defined style sheets onto all the matched elements. 
+You can specify multiple classes separated by space</t>
+  </si>
+  <si>
+    <t>addClass(classes)</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Set </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>src</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> attribute value as </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>/images/jquery.jpg</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> for element whose id=</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>myimg</t>
+    </r>
+  </si>
+  <si>
+    <t>$("#myimg").attr("src", "/images/jquery.jpg");</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">same as setting </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>"innerHTML"</t>
+    </r>
+  </si>
+  <si>
+    <t>$("#divid").text(title);</t>
+  </si>
+  <si>
+    <t>The attr() method can be used to either fetch the value of an attribute from the first element in the matched set 
+or
+set attribute values onto all matched elements</t>
+  </si>
+  <si>
+    <t>attr()</t>
+  </si>
+  <si>
+    <t>all &lt;li&gt; elements that contain the text second</t>
+  </si>
+  <si>
+    <t>$("li:contains(second)")</t>
+  </si>
+  <si>
+    <t>all elements that are the parent of another element, including text</t>
+  </si>
+  <si>
+    <t>$(":parent")</t>
+  </si>
+  <si>
+    <t>all &lt;li&gt; elements that are the last child of their parent</t>
+  </si>
+  <si>
+    <t>$("li:last-child")</t>
+  </si>
+  <si>
+    <t>all &lt;li&gt; elements that are the first child of their parent</t>
+  </si>
+  <si>
+    <t>$("li:first-child")</t>
+  </si>
+  <si>
+    <t>all &lt;a&gt; elements that are descendants of &lt;p&gt; element</t>
+  </si>
+  <si>
+    <t>$("//p//a")</t>
+  </si>
+  <si>
+    <t>all &lt;code&gt; elements that are descendants of &lt;div&gt; element</t>
+  </si>
+  <si>
+    <t>$("div//code")</t>
+  </si>
+  <si>
+    <t>all &lt;p&gt; elements that are children of &lt;div&gt; element</t>
+  </si>
+  <si>
+    <t>$("div/p")</t>
+  </si>
+  <si>
+    <t>all &lt;li&gt; elements after the second one in html body</t>
+  </si>
+  <si>
+    <t>$("li:gt(1)")</t>
+  </si>
+  <si>
+    <t>all &lt;p&gt; elements before the fourth one; in other words the first three &lt;p&gt; elements</t>
+  </si>
+  <si>
+    <t>$("p:lt(3)")</t>
+  </si>
+  <si>
+    <t>all &lt;li&gt; elements before the third one; in other words the first two &lt;li&gt; elements in html body</t>
+  </si>
+  <si>
+    <t>$("li:lt(2)")</t>
+  </si>
+  <si>
+    <t>the fifth &lt;li&gt; element in html body</t>
+  </si>
+  <si>
+    <t>$("li:eq(4)")</t>
+  </si>
+  <si>
+    <t>the third &lt;li&gt; element in html body</t>
+  </si>
+  <si>
+    <t>$("li:eq(2)")</t>
+  </si>
+  <si>
+    <t>only text elements (input[type=text]).</t>
+  </si>
+  <si>
+    <t>$(":text")</t>
+  </si>
+  <si>
+    <t>form elements (only input, select, textarea, button).</t>
+  </si>
+  <si>
+    <t>$(":input")</t>
+  </si>
+  <si>
+    <t>all checked boxes in the form</t>
+  </si>
+  <si>
+    <t>$(":checked")</t>
+  </si>
+  <si>
+    <t>all radio buttons in the form</t>
+  </si>
+  <si>
+    <t>$(":radio")</t>
+  </si>
+  <si>
+    <t>all &lt;li&gt; elements that are hidden</t>
+  </si>
+  <si>
+    <t>$("li:hidden")</t>
+  </si>
+  <si>
+    <t>all &lt;li&gt; elements that are visible</t>
+  </si>
+  <si>
+    <t>$("li:visible")</t>
+  </si>
+  <si>
+    <t>the last &lt;li&gt; element</t>
+  </si>
+  <si>
+    <t>$("li:last")</t>
+  </si>
+  <si>
+    <t>the first &lt;li&gt; element</t>
+  </si>
+  <si>
+    <t>$("li:first")</t>
+  </si>
+  <si>
+    <t>all &lt;tr&gt; elements that have an odd index value</t>
+  </si>
+  <si>
+    <t>$("tr:odd")</t>
+  </si>
+  <si>
+    <t>all &lt;li&gt; elements that have an even index value</t>
+  </si>
+  <si>
+    <t>$("li:even")</t>
+  </si>
+  <si>
+    <t>all &lt;a&gt; elements that have a href value containing domain.com</t>
+  </si>
+  <si>
+    <t>$("a[@href*=domain.com]")</t>
+  </si>
+  <si>
+    <t>all &lt;a&gt; elements that have rel attribute value ending with self</t>
+  </si>
+  <si>
+    <t>$("a[@rel$=self]")</t>
+  </si>
+  <si>
+    <t>all &lt;input&gt; elements that have a name value beginning with myname</t>
+  </si>
+  <si>
+    <t>$("input[@name^=myname]")</t>
+  </si>
+  <si>
+    <t>all &lt;input&gt; elements that have a name attribute value exactly equal to myname</t>
+  </si>
+  <si>
+    <t>$("input[@name=myname]")</t>
+  </si>
+  <si>
+    <t>all &lt;a&gt; elements that have a rel attribute</t>
+  </si>
+  <si>
+    <t>$("a[@rel]")</t>
+  </si>
+  <si>
+    <t>all &lt;p&gt; elements that contain an element with a class=myclass</t>
+  </si>
+  <si>
+    <t>$("p[.myclass]")</t>
+  </si>
+  <si>
+    <t>all &lt;div&gt; elements that contain an &lt;p&gt; element</t>
+  </si>
+  <si>
+    <t>$("div[p]")</t>
+  </si>
+  <si>
+    <t>all &lt;p&gt; elements that have no children</t>
+  </si>
+  <si>
+    <t>$("p:empty")</t>
+  </si>
+  <si>
+    <t>all elements that have no children</t>
+  </si>
+  <si>
+    <t>$(":empty")</t>
+  </si>
+  <si>
+    <t>All elements matched by &lt;strong&gt; that are descendants of &lt;p&gt; element
+as well as all elements that have a class=myclass</t>
+  </si>
+  <si>
+    <t>$("p strong, .myclass")</t>
+  </si>
+  <si>
+    <t>all &lt;code&gt; or &lt;em&gt; or &lt;strong&gt; elements</t>
+  </si>
+  <si>
+    <t>$("code, em, strong")</t>
+  </si>
+  <si>
+    <t>all elements matched by &lt;ul&gt; that follow a sibling element matched by &lt;p&gt;.</t>
+  </si>
+  <si>
+    <t>$("p ~ ul")</t>
+  </si>
+  <si>
+    <t>all elements matched by &lt;em&gt; that immediately follow a sibling element matched by &lt;strong&gt;.</t>
+  </si>
+  <si>
+    <t>$("strong + em")</t>
+  </si>
+  <si>
+    <t>all elements matched by &lt;ul&gt; that are immediate children of &lt;li&gt; element</t>
+  </si>
+  <si>
+    <t>$("li &gt; ul")</t>
+  </si>
+  <si>
+    <t>all elements matched by &lt;p&gt; that are descendants of an element that has an id=container</t>
+  </si>
+  <si>
+    <t>$("#container p")</t>
+  </si>
+  <si>
+    <t>gets only the first &lt;li&gt; element of the &lt;ul&gt;.</t>
+  </si>
+  <si>
+    <t>$("ul li:first")</t>
+  </si>
+  <si>
+    <t>selector matches links with a class of specialClass declared within &lt;p&gt; elements</t>
+  </si>
+  <si>
+    <t>$("p a.specialClass")</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">selector matches links with an id of specialID </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>and</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> a class of specialClass</t>
+    </r>
+  </si>
+  <si>
+    <t>$("a#specialID.specialClass")</t>
+  </si>
+  <si>
+    <t>all elements matched by &lt;li&gt; that do not have class="myclass".</t>
+  </si>
+  <si>
+    <t>$("li:not(.myclass)")</t>
+  </si>
+  <si>
+    <t>all the elements that have the class of specialClass</t>
+  </si>
+  <si>
+    <t>$(".specialClass")</t>
+  </si>
+  <si>
+    <t>element with id="specialID".</t>
+  </si>
+  <si>
+    <t>$("#specialID")</t>
+  </si>
+  <si>
+    <t>all elements that are immediate children of a paragraph element</t>
+  </si>
+  <si>
+    <t>$("p &gt; *")</t>
+  </si>
+  <si>
+    <t>Selects the combined results of all the specified selectors E, F or G</t>
+  </si>
+  <si>
+    <t>Multiple Elements E, F, G</t>
+  </si>
+  <si>
+    <t>Selects all elements available in a DOM</t>
+  </si>
+  <si>
+    <t>Universal(*)</t>
+  </si>
+  <si>
+    <t>Selects all elements which matches with the given Class</t>
+  </si>
+  <si>
+    <t>.class</t>
+  </si>
+  <si>
+    <t>Selects a single element which matches with the given ID</t>
+  </si>
+  <si>
+    <t>#ID</t>
+  </si>
+  <si>
+    <t>Selects all elements which match with the given element Name.</t>
+  </si>
+  <si>
+    <t>Name</t>
+  </si>
+  <si>
+    <t>Name, #Id, .class, *, 
+Multiple elements: E,F,G</t>
+  </si>
+  <si>
+    <t>If jquery file is downloaded from cdn then property (jQuery) will be set true. 
+If cannot be downloaded then property (jQuery) will be set false. We need to load jquery file from our server only if jquery file cannot be downloaded from cdn. So we kept condition before loading from our server</t>
+  </si>
+  <si>
+    <t>window.jQuery</t>
+  </si>
+  <si>
+    <t>&lt;script language="javascript" type="text/javascript" src="https://ajax.googleapis.com/ajax/libs/jquery/2.1.4/jquery.min.js"&gt;&lt;/script&gt;
+&lt;script type="text/javascript"&gt;
+ window.jQuery || document.write(" '&lt;script src='js/jquery-2.1.4.js'&gt;&lt;\/script&gt;' ");
+&lt;/script&gt;</t>
+  </si>
+  <si>
+    <t>What if jquery cannot be downloaded from cdn server, then we should refer our jquery file hosted in our application</t>
+  </si>
+  <si>
+    <t>1. your client firewall may block CDN, so you have to ask your client to whitelist CDN</t>
+  </si>
+  <si>
+    <t>Disadvantages</t>
+  </si>
+  <si>
+    <t>the http request for jquery file will be handled by cdn server, so load on your web server is reduced. This also means there is saving on your website bandwidth consumption which in turn reduce your hosting cost</t>
+  </si>
+  <si>
+    <t>Reduced server load</t>
+  </si>
+  <si>
+    <t>There is browser limit on how many file can concurrently downloaded from a given domain. This number varies from domain to domain. For example, if browser supports only 2 concurrent downloads from a given domain then 3rd download is blocked until one of the prevoius files has been fully downloaded. Since JQuery file is on cdn, it is being downloaded from different domain. So this means browser can allow another 2 downloads from cdn server</t>
+  </si>
+  <si>
+    <t>Parallel Downloads</t>
+  </si>
+  <si>
+    <t>Jquery is used in many different websites. If user already visited a webpage that uses jquery from cdn, and then if he arrives at your page, the jquery file has already been cached by the browser so there is no need to download it again</t>
+  </si>
+  <si>
+    <t>Browser Caching</t>
+  </si>
+  <si>
+    <t>The Jquery file can be downloaded from CDN server that is closest to the user</t>
+  </si>
+  <si>
+    <t>Distributed CDN Servers</t>
+  </si>
+  <si>
+    <t>1. Distributed CDN servers
+2. Browser Caching
+3. Parallel downloads
+4. Reduced Server Load</t>
+  </si>
+  <si>
+    <t>Benefits of using CDN</t>
+  </si>
+  <si>
+    <t>https://developers.google.com/speed/libraries/</t>
+  </si>
+  <si>
+    <t>Google CDN urls</t>
+  </si>
+  <si>
+    <t>Companies like Google, Microsoft, Yahoo etc have free public CDN from which 
+we can load jquery instead of hosting it in our own web servers</t>
+  </si>
+  <si>
+    <t>System of distributed servers that hosts resources such as images, css, javascript files etc</t>
+  </si>
+  <si>
+    <t>What is CDN</t>
+  </si>
+  <si>
+    <t>Content Delivery Network</t>
+  </si>
+  <si>
+    <t>CDN</t>
+  </si>
+  <si>
+    <t>Script can be run as soon as DOM hierarchy is fully constructed. So ready() usually the best place to write javascript code. However in your application there could be scenarios where you should use $(window).load over $(document).ready</t>
+  </si>
+  <si>
+    <t>Note on window.load and document.ready</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>$(window).load</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> event fires when the DOM and all the content on the page (images, css etc) are fully loaded. 
+Since window.load waits for images, css  etc to be fully loaded, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>this event fires after ready event</t>
+    </r>
+  </si>
+  <si>
+    <t>$(window).load</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>$(document).ready</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> is jquery event fires as soon as the DOM is loaded and ready to be manipulated by script. 
+This is the earliest point in the page load process where the script can safely access elements in the page's html dom. 
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>This event is fired before all images, css etc are fully loaded</t>
+    </r>
+  </si>
+  <si>
+    <t>$(document).ready(function/handler)</t>
+  </si>
+  <si>
+    <t>1. ready() function ensures that DOM is fully loaded
+2. $ is short cut for jquery
+3. All three of the following syntaxes are equivalent
+    a. $(document).ready(handler/function)
+    b. $().ready(handler) -&gt; not recommonded
+    c. $(handler)</t>
+  </si>
+  <si>
+    <t>Different syntaxes</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">&lt;script type="text/javascript" src="js/jquery-2.1.4.js"&gt;&lt;/script&gt;
+&lt;script type="text/javascript"&gt;
+ </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>$(document).ready</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(function(){
+  $('#helloJQueryBtn').click(function(){
+   alert("Hello Jquery");
+  });
+ });
+&lt;/script&gt;</t>
+    </r>
+  </si>
+  <si>
+    <t>Sample Jquery code</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">1. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>For Development:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> use uncompressed version of jquery file
+2. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">For production: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>use compressed version of jquery file</t>
+    </r>
+  </si>
+  <si>
+    <t>Note: which jquery file to use and when</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>jquery1.x:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> If you want to support IE6/7/8 then you have to use jquery 1.x.  
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Jquery2.x:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> If you don’t have to support IE6/7/8 then you can use jquery 2.x. Jquery 2.x is smaller in size than jquery 1.x</t>
+    </r>
+  </si>
+  <si>
+    <t>What is the difference between jquery 1.x and jquery 2.x</t>
+  </si>
+  <si>
+    <t>download jquery file from jquery.com and reference it in your application just like any other javascript file
+&lt;script language="javascript" type="text/javascript" src="jquery.js"/&gt;</t>
+  </si>
+  <si>
+    <t>How to use jquery in our application</t>
+  </si>
+  <si>
+    <t>1. Cross browser compatibility
+2. Easy to learn and write Jquery code
+3. jquery is extensible
+4. jquery simplifies and has rich ajax support
+5. jquery has development community and many plugins. Example: auto complete text plugin.
+6. excellent documentation</t>
+  </si>
+  <si>
+    <t>Advantages of Jquery</t>
+  </si>
+  <si>
+    <t>Jquery is fast, small and feature rich javascript library. It makes things like HTML document traversal and manipulation, event handling, animation and ajax much simpler with an easy-to-use API that works across multiple browsers</t>
+  </si>
+  <si>
+    <t>What is Jquery - as per jquery.com</t>
+  </si>
+  <si>
+    <t>Light weight javascript library that simplifies programming with javascript</t>
+  </si>
+  <si>
+    <t>What is Jquery</t>
+  </si>
+  <si>
+    <t>1. Brackets
+2.Sublime Text
+3.TextWrangler</t>
+  </si>
+  <si>
+    <t>Editing tools for Jquery</t>
+  </si>
+  <si>
+    <t>Ajax</t>
+  </si>
+  <si>
+    <t>$('#search').keyup(function(){
+ var searchField = $('#search').val();
+ var myExp = new RegExp(searchField, "i");
+ $.getJSON('data.json', function(data) {
+  var output = $('&lt;ul class="searchresults"&gt;');
+  $.each(data, function(key, val) {
+   if(val.name.search(myExp) != -1 || val.bio.search(myExp) != -1){
+    output.append('&lt;li&gt;&lt;h2&gt;'+val.name+'&lt;/h2&gt;');
+    output.append('&lt;img src="images/'+ val.shortname +'_tn.jpg" alt="'+ val.name +'" /&gt;');
+    output.append('&lt;p&gt;'+ val.bio +'&lt;/p&gt;&lt;/li&gt;');
+   }
+  });
+  output.append('&lt;/ul&gt;');
+  $('#update').html(output);
+ }); //get JSON
+});</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Using Jquery and Ajax for dynamic search </t>
+  </si>
+  <si>
+    <t>$.getJSON('data.json', function(data){
+ var ulElem = $("&lt;ul&gt;");
+ $.each(data, function(key,val){
+  ulElem.append($("&lt;li&gt;"+val.name+"&lt;/li&gt;"));
+ });
+ ulElem.append("&lt;/ul&gt;");
+ $("#update").append(ulElem);
+});</t>
+  </si>
+  <si>
+    <t>Reading JSON using Ajax and Jquery</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">request.open('GET', 'data.json');
+request.onreadystatechange = function() {
+ if ((request.readyState===4) &amp;&amp; (request.status===200)) {
+  var items = </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>JSON.parse(request.responseText)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>;
+  var ulElem = $("&lt;ul&gt;");
+  for(var key in items){
+   ulElem.append($("&lt;li&gt;"+items[key].name+"&lt;/li&gt;"));
+  }
+  ulElem.append("&lt;/ul&gt;");
+  alert(ulElem);
+  $("#update").html(ulElem);
+ }
+}
+request.send();</t>
+    </r>
+  </si>
+  <si>
+    <t>Reading JSON using Ajax and javascrip</t>
+  </si>
+  <si>
+    <r>
+      <t>request.open('GET', '</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>data.xml</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>');
+request.onreadystatechange = function() {
+ if ((request.readyState===4) &amp;&amp; (request.status===200)) {
+  var ulElement = $("&lt;ul&gt;");
+  var items = request.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>responseXML</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>.getElementsByTagName('name');
+  for(var i=0;i&lt;items.length;i++){
+   ulElement.append("&lt;li&gt;"+request.responseXML.getElementsByTagName('name')[i].firstChild.nodeValue+"&lt;/li&gt;")
+  }
+  ulElement.append("&lt;/ul&gt;");
+  $("#content").html(ulElement);
+ }
+}
+request.send();</t>
+    </r>
+  </si>
+  <si>
+    <t>Reading xml in Ajax</t>
+  </si>
+  <si>
+    <t>var request;
+if(window.XMLHttpRequest){
+ request = new XMLHttpRequest();
+}else{
+ request = new ActiveXObject("Microsoft.XMLHTTP");
+}</t>
+  </si>
+  <si>
+    <t>Browser compatibility for XMLHttpRequest</t>
+  </si>
+  <si>
+    <t>number to indicate status of request.
+0 - request has not been sent yet
+4 - sending request and receiving response has been completed.</t>
+  </si>
+  <si>
+    <t>readyState</t>
+  </si>
+  <si>
+    <t>1. Not XML
+2. Ajax request can be any format (Text File, xml, HTML, JSON object)</t>
+  </si>
+  <si>
+    <t>What XHR isn't</t>
+  </si>
+  <si>
+    <t>talks to server through XHR (XmlHttpRequest) API</t>
+  </si>
+  <si>
+    <t>Requests without entire page reload</t>
+  </si>
+  <si>
+    <t>Asynchronous Javascript and XML</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ajax </t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="8">
+  <fonts count="9">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1815,8 +3595,16 @@
       <name val="Calibri"/>
       <family val="2"/>
     </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="5">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1841,8 +3629,20 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF0000CC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="4">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -1891,12 +3691,21 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="41">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -1942,6 +3751,19 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -1970,6 +3792,23 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -1978,6 +3817,89 @@
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>85725</xdr:colOff>
+      <xdr:row>114</xdr:row>
+      <xdr:rowOff>43915</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>5391150</xdr:colOff>
+      <xdr:row>125</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 2"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print"/>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="3162300" y="20808415"/>
+          <a:ext cx="5305425" cy="2165885"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>285750</xdr:colOff>
+      <xdr:row>143</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>4848225</xdr:colOff>
+      <xdr:row>155</xdr:row>
+      <xdr:rowOff>159373</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Picture 2" descr="Untitled.png"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2" cstate="print"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3362325" y="26308050"/>
+          <a:ext cx="4562475" cy="2426323"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2265,11 +4187,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B6"/>
+  <dimension ref="A1:B7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A6" sqref="A6"/>
+      <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2302,13 +4224,18 @@
       </c>
     </row>
     <row r="5" spans="1:2">
-      <c r="A5" t="s">
+      <c r="A5" s="1" t="s">
         <v>212</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" s="1" t="s">
         <v>223</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="A7" s="1" t="s">
+        <v>568</v>
       </c>
     </row>
   </sheetData>
@@ -2318,6 +4245,8 @@
     <hyperlink ref="A3" location="Highcharts!A1" display="Highcharts"/>
     <hyperlink ref="A4" location="'D3'!A1" display="D3 charts"/>
     <hyperlink ref="A6" location="Typescript!A1" display="Typescript"/>
+    <hyperlink ref="A5" location="Jquery!A1" display="Jquery"/>
+    <hyperlink ref="A7" location="Ajax!A1" display="Ajax"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -2329,7 +4258,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A26" sqref="A26:B26"/>
+      <selection pane="bottomLeft"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2347,10 +4276,10 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="19" t="s">
+      <c r="A2" s="24" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="19"/>
+      <c r="B2" s="24"/>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="9" t="s">
@@ -2455,22 +4384,22 @@
       <c r="B16" s="1"/>
     </row>
     <row r="17" spans="1:2">
-      <c r="A17" s="19" t="s">
+      <c r="A17" s="24" t="s">
         <v>5</v>
       </c>
-      <c r="B17" s="19"/>
+      <c r="B17" s="24"/>
     </row>
     <row r="18" spans="1:2">
-      <c r="A18" s="20"/>
-      <c r="B18" s="21"/>
+      <c r="A18" s="25"/>
+      <c r="B18" s="26"/>
     </row>
     <row r="20" spans="1:2" s="13" customFormat="1"/>
     <row r="21" spans="1:2" s="13" customFormat="1"/>
     <row r="22" spans="1:2" s="13" customFormat="1">
-      <c r="A22" s="19" t="s">
+      <c r="A22" s="24" t="s">
         <v>219</v>
       </c>
-      <c r="B22" s="19"/>
+      <c r="B22" s="24"/>
     </row>
     <row r="23" spans="1:2">
       <c r="A23" s="12" t="s">
@@ -2490,10 +4419,10 @@
       </c>
     </row>
     <row r="26" spans="1:2">
-      <c r="A26" s="19" t="s">
+      <c r="A26" s="24" t="s">
         <v>2</v>
       </c>
-      <c r="B26" s="19"/>
+      <c r="B26" s="24"/>
     </row>
     <row r="27" spans="1:2" ht="75">
       <c r="A27" s="5" t="s">
@@ -2592,7 +4521,7 @@
       </c>
     </row>
     <row r="39" spans="1:2" ht="45">
-      <c r="A39" s="23" t="s">
+      <c r="A39" s="28" t="s">
         <v>166</v>
       </c>
       <c r="B39" s="5" t="s">
@@ -2600,7 +4529,7 @@
       </c>
     </row>
     <row r="40" spans="1:2" ht="75">
-      <c r="A40" s="23"/>
+      <c r="A40" s="28"/>
       <c r="B40" s="5" t="s">
         <v>164</v>
       </c>
@@ -2718,7 +4647,7 @@
       </c>
     </row>
     <row r="55" spans="1:2">
-      <c r="A55" s="24" t="s">
+      <c r="A55" s="29" t="s">
         <v>135</v>
       </c>
       <c r="B55" s="5" t="s">
@@ -2726,7 +4655,7 @@
       </c>
     </row>
     <row r="56" spans="1:2" ht="120">
-      <c r="A56" s="24"/>
+      <c r="A56" s="29"/>
       <c r="B56" s="5" t="s">
         <v>133</v>
       </c>
@@ -2756,7 +4685,7 @@
       </c>
     </row>
     <row r="60" spans="1:2" ht="45">
-      <c r="A60" s="24" t="s">
+      <c r="A60" s="29" t="s">
         <v>126</v>
       </c>
       <c r="B60" s="5" t="s">
@@ -2764,7 +4693,7 @@
       </c>
     </row>
     <row r="61" spans="1:2" ht="30">
-      <c r="A61" s="24"/>
+      <c r="A61" s="29"/>
       <c r="B61" s="5" t="s">
         <v>124</v>
       </c>
@@ -2922,7 +4851,7 @@
       </c>
     </row>
     <row r="81" spans="1:2" ht="75">
-      <c r="A81" s="23" t="s">
+      <c r="A81" s="28" t="s">
         <v>85</v>
       </c>
       <c r="B81" s="5" t="s">
@@ -2930,7 +4859,7 @@
       </c>
     </row>
     <row r="82" spans="1:2" ht="30">
-      <c r="A82" s="23"/>
+      <c r="A82" s="28"/>
       <c r="B82" s="5" t="s">
         <v>83</v>
       </c>
@@ -2944,7 +4873,7 @@
       </c>
     </row>
     <row r="84" spans="1:2" ht="30">
-      <c r="A84" s="23" t="s">
+      <c r="A84" s="28" t="s">
         <v>80</v>
       </c>
       <c r="B84" s="5" t="s">
@@ -2952,7 +4881,7 @@
       </c>
     </row>
     <row r="85" spans="1:2" ht="60">
-      <c r="A85" s="23"/>
+      <c r="A85" s="28"/>
       <c r="B85" s="5" t="s">
         <v>78</v>
       </c>
@@ -2982,7 +4911,7 @@
       </c>
     </row>
     <row r="89" spans="1:2" ht="30">
-      <c r="A89" s="24" t="s">
+      <c r="A89" s="29" t="s">
         <v>71</v>
       </c>
       <c r="B89" s="5" t="s">
@@ -2990,13 +4919,13 @@
       </c>
     </row>
     <row r="90" spans="1:2" ht="30">
-      <c r="A90" s="24"/>
+      <c r="A90" s="29"/>
       <c r="B90" s="5" t="s">
         <v>69</v>
       </c>
     </row>
     <row r="91" spans="1:2" ht="30">
-      <c r="A91" s="23" t="s">
+      <c r="A91" s="28" t="s">
         <v>68</v>
       </c>
       <c r="B91" s="5" t="s">
@@ -3004,13 +4933,13 @@
       </c>
     </row>
     <row r="92" spans="1:2" ht="30">
-      <c r="A92" s="23"/>
+      <c r="A92" s="28"/>
       <c r="B92" s="5" t="s">
         <v>66</v>
       </c>
     </row>
     <row r="93" spans="1:2" ht="45">
-      <c r="A93" s="23"/>
+      <c r="A93" s="28"/>
       <c r="B93" s="5" t="s">
         <v>65</v>
       </c>
@@ -3080,7 +5009,7 @@
       </c>
     </row>
     <row r="102" spans="1:2" ht="45">
-      <c r="A102" s="23" t="s">
+      <c r="A102" s="28" t="s">
         <v>48</v>
       </c>
       <c r="B102" s="5" t="s">
@@ -3088,7 +5017,7 @@
       </c>
     </row>
     <row r="103" spans="1:2" ht="105">
-      <c r="A103" s="23"/>
+      <c r="A103" s="28"/>
       <c r="B103" s="5" t="s">
         <v>46</v>
       </c>
@@ -3118,7 +5047,7 @@
       </c>
     </row>
     <row r="107" spans="1:2">
-      <c r="A107" s="25" t="s">
+      <c r="A107" s="30" t="s">
         <v>39</v>
       </c>
       <c r="B107" s="5" t="s">
@@ -3126,7 +5055,7 @@
       </c>
     </row>
     <row r="108" spans="1:2" ht="75">
-      <c r="A108" s="25"/>
+      <c r="A108" s="30"/>
       <c r="B108" s="5" t="s">
         <v>37</v>
       </c>
@@ -3244,7 +5173,7 @@
       </c>
     </row>
     <row r="123" spans="1:2" ht="195">
-      <c r="A123" s="22" t="s">
+      <c r="A123" s="27" t="s">
         <v>8</v>
       </c>
       <c r="B123" s="5" t="s">
@@ -3252,7 +5181,7 @@
       </c>
     </row>
     <row r="124" spans="1:2" ht="165">
-      <c r="A124" s="22"/>
+      <c r="A124" s="27"/>
       <c r="B124" s="5" t="s">
         <v>6</v>
       </c>
@@ -3301,7 +5230,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A14" sqref="A14:A16"/>
+      <selection pane="bottomLeft"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -3319,10 +5248,10 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="26" t="s">
+      <c r="A2" s="31" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="27"/>
+      <c r="B2" s="32"/>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="10" t="s">
@@ -3333,16 +5262,16 @@
       </c>
     </row>
     <row r="7" spans="1:2">
-      <c r="A7" s="26" t="s">
+      <c r="A7" s="31" t="s">
         <v>5</v>
       </c>
-      <c r="B7" s="27"/>
+      <c r="B7" s="32"/>
     </row>
     <row r="11" spans="1:2">
-      <c r="A11" s="26" t="s">
+      <c r="A11" s="31" t="s">
         <v>2</v>
       </c>
-      <c r="B11" s="27"/>
+      <c r="B11" s="32"/>
     </row>
     <row r="12" spans="1:2">
       <c r="A12" t="s">
@@ -3361,7 +5290,7 @@
       </c>
     </row>
     <row r="14" spans="1:2" ht="45">
-      <c r="A14" s="28" t="s">
+      <c r="A14" s="33" t="s">
         <v>215</v>
       </c>
       <c r="B14" s="11" t="s">
@@ -3369,13 +5298,13 @@
       </c>
     </row>
     <row r="15" spans="1:2" ht="30">
-      <c r="A15" s="28"/>
+      <c r="A15" s="33"/>
       <c r="B15" s="11" t="s">
         <v>217</v>
       </c>
     </row>
     <row r="16" spans="1:2">
-      <c r="A16" s="28"/>
+      <c r="A16" s="33"/>
       <c r="B16" s="11" t="s">
         <v>218</v>
       </c>
@@ -3402,7 +5331,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B1" sqref="B1"/>
+      <selection pane="bottomLeft"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -3420,10 +5349,10 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="26" t="s">
+      <c r="A2" s="31" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="27"/>
+      <c r="B2" s="32"/>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="9" t="s">
@@ -3450,9 +5379,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:B20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A15" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A21" sqref="A21"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -3470,10 +5399,10 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="26" t="s">
+      <c r="A2" s="31" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="27"/>
+      <c r="B2" s="32"/>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="15" t="s">
@@ -3495,10 +5424,10 @@
       <c r="B5" s="9"/>
     </row>
     <row r="6" spans="1:2" s="18" customFormat="1">
-      <c r="A6" s="26" t="s">
+      <c r="A6" s="31" t="s">
         <v>237</v>
       </c>
-      <c r="B6" s="27"/>
+      <c r="B6" s="32"/>
     </row>
     <row r="7" spans="1:2" s="18" customFormat="1">
       <c r="A7" s="18" t="s">
@@ -3512,10 +5441,10 @@
       <c r="B8" s="9"/>
     </row>
     <row r="9" spans="1:2" s="18" customFormat="1">
-      <c r="A9" s="26" t="s">
+      <c r="A9" s="31" t="s">
         <v>240</v>
       </c>
-      <c r="B9" s="27"/>
+      <c r="B9" s="32"/>
     </row>
     <row r="10" spans="1:2" s="18" customFormat="1">
       <c r="A10" s="18" t="s">
@@ -3534,10 +5463,10 @@
       </c>
     </row>
     <row r="13" spans="1:2">
-      <c r="A13" s="26" t="s">
+      <c r="A13" s="31" t="s">
         <v>226</v>
       </c>
-      <c r="B13" s="27"/>
+      <c r="B13" s="32"/>
     </row>
     <row r="14" spans="1:2">
       <c r="A14" s="15" t="s">
@@ -3615,4 +5544,1624 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId7"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:B201"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A7" sqref="A7:B7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="72" customWidth="1"/>
+    <col min="2" max="2" width="110.28515625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" s="31" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" s="32"/>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="A7" s="31" t="s">
+        <v>2</v>
+      </c>
+      <c r="B7" s="32"/>
+    </row>
+    <row r="8" spans="1:2" ht="45">
+      <c r="A8" s="21" t="s">
+        <v>567</v>
+      </c>
+      <c r="B8" s="20" t="s">
+        <v>566</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2">
+      <c r="A9" s="20" t="s">
+        <v>565</v>
+      </c>
+      <c r="B9" s="20" t="s">
+        <v>564</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" ht="30">
+      <c r="A10" s="21" t="s">
+        <v>563</v>
+      </c>
+      <c r="B10" s="20" t="s">
+        <v>562</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" ht="90">
+      <c r="A11" s="21" t="s">
+        <v>561</v>
+      </c>
+      <c r="B11" s="20" t="s">
+        <v>560</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" ht="30">
+      <c r="A12" s="20" t="s">
+        <v>559</v>
+      </c>
+      <c r="B12" s="20" t="s">
+        <v>558</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" ht="30">
+      <c r="A13" s="20" t="s">
+        <v>557</v>
+      </c>
+      <c r="B13" s="20" t="s">
+        <v>556</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" ht="30">
+      <c r="A14" s="20" t="s">
+        <v>555</v>
+      </c>
+      <c r="B14" s="20" t="s">
+        <v>554</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" ht="120">
+      <c r="A15" s="20" t="s">
+        <v>553</v>
+      </c>
+      <c r="B15" s="20" t="s">
+        <v>552</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" ht="90">
+      <c r="A16" s="20" t="s">
+        <v>551</v>
+      </c>
+      <c r="B16" s="20" t="s">
+        <v>550</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" ht="45">
+      <c r="A17" s="20" t="s">
+        <v>549</v>
+      </c>
+      <c r="B17" s="20" t="s">
+        <v>548</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" ht="30">
+      <c r="A18" s="20" t="s">
+        <v>547</v>
+      </c>
+      <c r="B18" s="20" t="s">
+        <v>546</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" ht="30">
+      <c r="A19" s="20" t="s">
+        <v>545</v>
+      </c>
+      <c r="B19" s="20" t="s">
+        <v>544</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2">
+      <c r="A20" s="20" t="s">
+        <v>543</v>
+      </c>
+      <c r="B20" s="20" t="s">
+        <v>542</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2">
+      <c r="A21" s="30" t="s">
+        <v>541</v>
+      </c>
+      <c r="B21" s="20" t="s">
+        <v>540</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" ht="30">
+      <c r="A22" s="30"/>
+      <c r="B22" s="20" t="s">
+        <v>539</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2">
+      <c r="A23" s="20" t="s">
+        <v>538</v>
+      </c>
+      <c r="B23" s="19" t="s">
+        <v>537</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" ht="60">
+      <c r="A24" s="20" t="s">
+        <v>536</v>
+      </c>
+      <c r="B24" s="20" t="s">
+        <v>535</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2">
+      <c r="A25" s="20" t="s">
+        <v>534</v>
+      </c>
+      <c r="B25" s="20" t="s">
+        <v>533</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" ht="30">
+      <c r="A26" s="20" t="s">
+        <v>532</v>
+      </c>
+      <c r="B26" s="20" t="s">
+        <v>531</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" ht="60">
+      <c r="A27" s="20" t="s">
+        <v>530</v>
+      </c>
+      <c r="B27" s="20" t="s">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" ht="30">
+      <c r="A28" s="20" t="s">
+        <v>528</v>
+      </c>
+      <c r="B28" s="20" t="s">
+        <v>527</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2">
+      <c r="A29" s="20" t="s">
+        <v>526</v>
+      </c>
+      <c r="B29" s="20" t="s">
+        <v>525</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" ht="75">
+      <c r="A30" s="20" t="s">
+        <v>524</v>
+      </c>
+      <c r="B30" s="20" t="s">
+        <v>523</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" ht="45">
+      <c r="A31" s="20" t="s">
+        <v>522</v>
+      </c>
+      <c r="B31" s="20" t="s">
+        <v>521</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" ht="30">
+      <c r="A32" s="20" t="s">
+        <v>372</v>
+      </c>
+      <c r="B32" s="20" t="s">
+        <v>520</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2">
+      <c r="A33" s="20" t="s">
+        <v>519</v>
+      </c>
+      <c r="B33" s="20" t="s">
+        <v>518</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2">
+      <c r="A34" s="20" t="s">
+        <v>517</v>
+      </c>
+      <c r="B34" s="20" t="s">
+        <v>516</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2">
+      <c r="A35" s="20" t="s">
+        <v>515</v>
+      </c>
+      <c r="B35" s="20" t="s">
+        <v>514</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2">
+      <c r="A36" s="20" t="s">
+        <v>513</v>
+      </c>
+      <c r="B36" s="20" t="s">
+        <v>512</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2">
+      <c r="A37" s="20" t="s">
+        <v>511</v>
+      </c>
+      <c r="B37" s="20" t="s">
+        <v>510</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2">
+      <c r="A38" s="20" t="s">
+        <v>509</v>
+      </c>
+      <c r="B38" s="20" t="s">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2">
+      <c r="A39" s="20" t="s">
+        <v>507</v>
+      </c>
+      <c r="B39" s="20" t="s">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2">
+      <c r="A40" s="20" t="s">
+        <v>505</v>
+      </c>
+      <c r="B40" s="20" t="s">
+        <v>504</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2">
+      <c r="A41" s="20" t="s">
+        <v>503</v>
+      </c>
+      <c r="B41" s="20" t="s">
+        <v>502</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2">
+      <c r="A42" s="20" t="s">
+        <v>501</v>
+      </c>
+      <c r="B42" s="20" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2">
+      <c r="A43" s="20" t="s">
+        <v>499</v>
+      </c>
+      <c r="B43" s="20" t="s">
+        <v>498</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2">
+      <c r="A44" s="20" t="s">
+        <v>497</v>
+      </c>
+      <c r="B44" s="20" t="s">
+        <v>496</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2">
+      <c r="A45" s="20" t="s">
+        <v>495</v>
+      </c>
+      <c r="B45" s="20" t="s">
+        <v>494</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2">
+      <c r="A46" s="20" t="s">
+        <v>493</v>
+      </c>
+      <c r="B46" s="20" t="s">
+        <v>492</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2">
+      <c r="A47" s="20" t="s">
+        <v>491</v>
+      </c>
+      <c r="B47" s="20" t="s">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2">
+      <c r="A48" s="20" t="s">
+        <v>489</v>
+      </c>
+      <c r="B48" s="20" t="s">
+        <v>488</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2">
+      <c r="A49" s="20" t="s">
+        <v>487</v>
+      </c>
+      <c r="B49" s="20" t="s">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" ht="30">
+      <c r="A50" s="20" t="s">
+        <v>485</v>
+      </c>
+      <c r="B50" s="20" t="s">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2">
+      <c r="A51" s="20" t="s">
+        <v>483</v>
+      </c>
+      <c r="B51" s="20" t="s">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2">
+      <c r="A52" s="20" t="s">
+        <v>481</v>
+      </c>
+      <c r="B52" s="20" t="s">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2">
+      <c r="A53" s="20" t="s">
+        <v>479</v>
+      </c>
+      <c r="B53" s="20" t="s">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2">
+      <c r="A54" s="20" t="s">
+        <v>477</v>
+      </c>
+      <c r="B54" s="20" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2">
+      <c r="A55" s="20" t="s">
+        <v>475</v>
+      </c>
+      <c r="B55" s="20" t="s">
+        <v>474</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2">
+      <c r="A56" s="20" t="s">
+        <v>473</v>
+      </c>
+      <c r="B56" s="20" t="s">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2">
+      <c r="A57" s="20" t="s">
+        <v>471</v>
+      </c>
+      <c r="B57" s="20" t="s">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2">
+      <c r="A58" s="20" t="s">
+        <v>469</v>
+      </c>
+      <c r="B58" s="20" t="s">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2">
+      <c r="A59" s="20" t="s">
+        <v>467</v>
+      </c>
+      <c r="B59" s="20" t="s">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2">
+      <c r="A60" s="20" t="s">
+        <v>465</v>
+      </c>
+      <c r="B60" s="20" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2">
+      <c r="A61" s="20" t="s">
+        <v>463</v>
+      </c>
+      <c r="B61" s="20" t="s">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2">
+      <c r="A62" s="20" t="s">
+        <v>461</v>
+      </c>
+      <c r="B62" s="20" t="s">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2">
+      <c r="A63" s="20" t="s">
+        <v>459</v>
+      </c>
+      <c r="B63" s="20" t="s">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2">
+      <c r="A64" s="20" t="s">
+        <v>457</v>
+      </c>
+      <c r="B64" s="20" t="s">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2">
+      <c r="A65" s="20" t="s">
+        <v>455</v>
+      </c>
+      <c r="B65" s="20" t="s">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2">
+      <c r="A66" s="20" t="s">
+        <v>453</v>
+      </c>
+      <c r="B66" s="20" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2">
+      <c r="A67" s="20" t="s">
+        <v>451</v>
+      </c>
+      <c r="B67" s="20" t="s">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2">
+      <c r="A68" s="20" t="s">
+        <v>449</v>
+      </c>
+      <c r="B68" s="20" t="s">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2">
+      <c r="A69" s="20" t="s">
+        <v>447</v>
+      </c>
+      <c r="B69" s="20" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2">
+      <c r="A70" s="20" t="s">
+        <v>445</v>
+      </c>
+      <c r="B70" s="20" t="s">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2">
+      <c r="A71" s="20" t="s">
+        <v>443</v>
+      </c>
+      <c r="B71" s="20" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2">
+      <c r="A72" s="20" t="s">
+        <v>441</v>
+      </c>
+      <c r="B72" s="20" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2">
+      <c r="A73" s="20" t="s">
+        <v>439</v>
+      </c>
+      <c r="B73" s="20" t="s">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="74" spans="1:2">
+      <c r="A74" s="20" t="s">
+        <v>437</v>
+      </c>
+      <c r="B74" s="20" t="s">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="75" spans="1:2">
+      <c r="A75" s="20" t="s">
+        <v>435</v>
+      </c>
+      <c r="B75" s="20" t="s">
+        <v>434</v>
+      </c>
+    </row>
+    <row r="76" spans="1:2">
+      <c r="A76" s="20" t="s">
+        <v>433</v>
+      </c>
+      <c r="B76" s="20" t="s">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="77" spans="1:2">
+      <c r="A77" s="20" t="s">
+        <v>431</v>
+      </c>
+      <c r="B77" s="20" t="s">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="78" spans="1:2">
+      <c r="A78" s="20" t="s">
+        <v>429</v>
+      </c>
+      <c r="B78" s="20" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="79" spans="1:2">
+      <c r="A79" s="20" t="s">
+        <v>427</v>
+      </c>
+      <c r="B79" s="20" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="80" spans="1:2">
+      <c r="A80" s="20" t="s">
+        <v>425</v>
+      </c>
+      <c r="B80" s="20" t="s">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="81" spans="1:2">
+      <c r="A81" s="20" t="s">
+        <v>423</v>
+      </c>
+      <c r="B81" s="20" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="82" spans="1:2" ht="45">
+      <c r="A82" s="20" t="s">
+        <v>421</v>
+      </c>
+      <c r="B82" s="20" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="83" spans="1:2">
+      <c r="A83" s="20" t="s">
+        <v>419</v>
+      </c>
+      <c r="B83" s="20" t="s">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="84" spans="1:2">
+      <c r="A84" s="20" t="s">
+        <v>417</v>
+      </c>
+      <c r="B84" s="20" t="s">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="85" spans="1:2" ht="30">
+      <c r="A85" s="20" t="s">
+        <v>415</v>
+      </c>
+      <c r="B85" s="20" t="s">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="86" spans="1:2" ht="30">
+      <c r="A86" s="30" t="s">
+        <v>413</v>
+      </c>
+      <c r="B86" s="20" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="87" spans="1:2" ht="30">
+      <c r="A87" s="30"/>
+      <c r="B87" s="20" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="88" spans="1:2" ht="75">
+      <c r="A88" s="30"/>
+      <c r="B88" s="20" t="s">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="89" spans="1:2">
+      <c r="A89" s="20" t="s">
+        <v>409</v>
+      </c>
+      <c r="B89" s="20" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="90" spans="1:2">
+      <c r="A90" s="20" t="s">
+        <v>407</v>
+      </c>
+      <c r="B90" s="20" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="91" spans="1:2" ht="105">
+      <c r="A91" s="20" t="s">
+        <v>95</v>
+      </c>
+      <c r="B91" s="20" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="92" spans="1:2" ht="30">
+      <c r="A92" s="20" t="s">
+        <v>404</v>
+      </c>
+      <c r="B92" s="20" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="93" spans="1:2">
+      <c r="A93" s="30" t="s">
+        <v>402</v>
+      </c>
+      <c r="B93" s="20" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="94" spans="1:2" ht="45">
+      <c r="A94" s="30"/>
+      <c r="B94" s="20" t="s">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="95" spans="1:2" ht="30">
+      <c r="A95" s="20" t="s">
+        <v>399</v>
+      </c>
+      <c r="B95" s="20" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="96" spans="1:2">
+      <c r="A96" s="20" t="s">
+        <v>397</v>
+      </c>
+      <c r="B96" s="20" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="97" spans="1:2">
+      <c r="A97" s="20" t="s">
+        <v>395</v>
+      </c>
+      <c r="B97" s="20" t="s">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="98" spans="1:2" ht="30">
+      <c r="A98" s="20" t="s">
+        <v>393</v>
+      </c>
+      <c r="B98" s="20" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="99" spans="1:2" ht="30">
+      <c r="A99" s="20" t="s">
+        <v>391</v>
+      </c>
+      <c r="B99" s="20" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="100" spans="1:2">
+      <c r="A100" s="20" t="s">
+        <v>389</v>
+      </c>
+      <c r="B100" s="20" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="101" spans="1:2" ht="30">
+      <c r="A101" s="20" t="s">
+        <v>387</v>
+      </c>
+      <c r="B101" s="20" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="102" spans="1:2" ht="195">
+      <c r="A102" s="20" t="s">
+        <v>385</v>
+      </c>
+      <c r="B102" s="20" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="103" spans="1:2">
+      <c r="A103" s="20" t="s">
+        <v>383</v>
+      </c>
+      <c r="B103" s="20" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="104" spans="1:2" ht="45">
+      <c r="A104" s="20" t="s">
+        <v>381</v>
+      </c>
+      <c r="B104" s="20" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="105" spans="1:2" ht="30">
+      <c r="A105" s="20" t="s">
+        <v>379</v>
+      </c>
+      <c r="B105" s="20" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="106" spans="1:2">
+      <c r="A106" s="35" t="s">
+        <v>377</v>
+      </c>
+      <c r="B106" s="36"/>
+    </row>
+    <row r="107" spans="1:2">
+      <c r="A107" s="37" t="s">
+        <v>376</v>
+      </c>
+      <c r="B107" s="20" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="108" spans="1:2">
+      <c r="A108" s="30"/>
+      <c r="B108" s="20" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="109" spans="1:2">
+      <c r="A109" s="30"/>
+      <c r="B109" s="20" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="110" spans="1:2" ht="30">
+      <c r="A110" s="20" t="s">
+        <v>372</v>
+      </c>
+      <c r="B110" s="20" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="111" spans="1:2" ht="45">
+      <c r="A111" s="20" t="s">
+        <v>370</v>
+      </c>
+      <c r="B111" s="20" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="112" spans="1:2">
+      <c r="A112" s="20" t="s">
+        <v>368</v>
+      </c>
+      <c r="B112" s="20" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="113" spans="1:2" ht="45">
+      <c r="A113" s="20" t="s">
+        <v>366</v>
+      </c>
+      <c r="B113" s="20" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="114" spans="1:2">
+      <c r="A114" s="20" t="s">
+        <v>364</v>
+      </c>
+      <c r="B114" s="20" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="115" spans="1:2">
+      <c r="A115" s="30" t="s">
+        <v>362</v>
+      </c>
+      <c r="B115" s="34"/>
+    </row>
+    <row r="116" spans="1:2">
+      <c r="A116" s="30"/>
+      <c r="B116" s="34"/>
+    </row>
+    <row r="117" spans="1:2">
+      <c r="A117" s="30"/>
+      <c r="B117" s="34"/>
+    </row>
+    <row r="118" spans="1:2">
+      <c r="A118" s="30"/>
+      <c r="B118" s="34"/>
+    </row>
+    <row r="119" spans="1:2">
+      <c r="A119" s="30"/>
+      <c r="B119" s="34"/>
+    </row>
+    <row r="120" spans="1:2">
+      <c r="A120" s="30"/>
+      <c r="B120" s="34"/>
+    </row>
+    <row r="121" spans="1:2">
+      <c r="A121" s="30"/>
+      <c r="B121" s="34"/>
+    </row>
+    <row r="122" spans="1:2">
+      <c r="A122" s="30"/>
+      <c r="B122" s="34"/>
+    </row>
+    <row r="123" spans="1:2">
+      <c r="A123" s="30"/>
+      <c r="B123" s="34"/>
+    </row>
+    <row r="124" spans="1:2">
+      <c r="A124" s="30"/>
+      <c r="B124" s="34"/>
+    </row>
+    <row r="125" spans="1:2">
+      <c r="A125" s="30"/>
+      <c r="B125" s="34"/>
+    </row>
+    <row r="126" spans="1:2">
+      <c r="A126" s="30"/>
+      <c r="B126" s="34"/>
+    </row>
+    <row r="127" spans="1:2">
+      <c r="A127" s="20" t="s">
+        <v>361</v>
+      </c>
+      <c r="B127" s="20" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="128" spans="1:2">
+      <c r="A128" s="20" t="s">
+        <v>359</v>
+      </c>
+      <c r="B128" s="20" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="129" spans="1:2" ht="30">
+      <c r="A129" s="20" t="s">
+        <v>357</v>
+      </c>
+      <c r="B129" s="20" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="130" spans="1:2">
+      <c r="A130" s="20" t="s">
+        <v>355</v>
+      </c>
+      <c r="B130" s="20" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="131" spans="1:2">
+      <c r="A131" s="20" t="s">
+        <v>353</v>
+      </c>
+      <c r="B131" s="20" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="132" spans="1:2">
+      <c r="A132" s="20" t="s">
+        <v>351</v>
+      </c>
+      <c r="B132" s="20" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="133" spans="1:2">
+      <c r="A133" s="20" t="s">
+        <v>349</v>
+      </c>
+      <c r="B133" s="20" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="134" spans="1:2">
+      <c r="A134" s="20" t="s">
+        <v>347</v>
+      </c>
+      <c r="B134" s="20" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="135" spans="1:2">
+      <c r="A135" s="20" t="s">
+        <v>345</v>
+      </c>
+      <c r="B135" s="20" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="136" spans="1:2">
+      <c r="A136" s="20" t="s">
+        <v>343</v>
+      </c>
+      <c r="B136" s="20" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="137" spans="1:2">
+      <c r="A137" s="20" t="s">
+        <v>341</v>
+      </c>
+      <c r="B137" s="20" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="138" spans="1:2" ht="30">
+      <c r="A138" s="20" t="s">
+        <v>339</v>
+      </c>
+      <c r="B138" s="20" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="139" spans="1:2">
+      <c r="A139" s="20" t="s">
+        <v>337</v>
+      </c>
+      <c r="B139" s="20" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="140" spans="1:2">
+      <c r="A140" s="20" t="s">
+        <v>335</v>
+      </c>
+      <c r="B140" s="20" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="141" spans="1:2">
+      <c r="A141" s="20" t="s">
+        <v>333</v>
+      </c>
+      <c r="B141" s="20" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="142" spans="1:2">
+      <c r="A142" s="20" t="s">
+        <v>331</v>
+      </c>
+      <c r="B142" s="20" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="143" spans="1:2">
+      <c r="A143" s="20" t="s">
+        <v>329</v>
+      </c>
+      <c r="B143" s="20" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="144" spans="1:2">
+      <c r="A144" s="30" t="s">
+        <v>327</v>
+      </c>
+      <c r="B144" s="34"/>
+    </row>
+    <row r="145" spans="1:2">
+      <c r="A145" s="30"/>
+      <c r="B145" s="34"/>
+    </row>
+    <row r="146" spans="1:2">
+      <c r="A146" s="30"/>
+      <c r="B146" s="34"/>
+    </row>
+    <row r="147" spans="1:2">
+      <c r="A147" s="30"/>
+      <c r="B147" s="34"/>
+    </row>
+    <row r="148" spans="1:2">
+      <c r="A148" s="30"/>
+      <c r="B148" s="34"/>
+    </row>
+    <row r="149" spans="1:2">
+      <c r="A149" s="30"/>
+      <c r="B149" s="34"/>
+    </row>
+    <row r="150" spans="1:2">
+      <c r="A150" s="30"/>
+      <c r="B150" s="34"/>
+    </row>
+    <row r="151" spans="1:2">
+      <c r="A151" s="30"/>
+      <c r="B151" s="34"/>
+    </row>
+    <row r="152" spans="1:2">
+      <c r="A152" s="30"/>
+      <c r="B152" s="34"/>
+    </row>
+    <row r="153" spans="1:2">
+      <c r="A153" s="30"/>
+      <c r="B153" s="34"/>
+    </row>
+    <row r="154" spans="1:2">
+      <c r="A154" s="30"/>
+      <c r="B154" s="34"/>
+    </row>
+    <row r="155" spans="1:2">
+      <c r="A155" s="30"/>
+      <c r="B155" s="34"/>
+    </row>
+    <row r="156" spans="1:2">
+      <c r="A156" s="30"/>
+      <c r="B156" s="34"/>
+    </row>
+    <row r="157" spans="1:2">
+      <c r="A157" s="20" t="s">
+        <v>326</v>
+      </c>
+      <c r="B157" s="20" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="158" spans="1:2">
+      <c r="A158" s="20" t="s">
+        <v>324</v>
+      </c>
+      <c r="B158" s="20" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="159" spans="1:2">
+      <c r="A159" s="20" t="s">
+        <v>322</v>
+      </c>
+      <c r="B159" s="20" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="160" spans="1:2">
+      <c r="A160" s="20" t="s">
+        <v>320</v>
+      </c>
+      <c r="B160" s="20" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="161" spans="1:2">
+      <c r="A161" s="20" t="s">
+        <v>318</v>
+      </c>
+      <c r="B161" s="20" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="162" spans="1:2" ht="75">
+      <c r="A162" s="20" t="s">
+        <v>316</v>
+      </c>
+      <c r="B162" s="20" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="163" spans="1:2" ht="75">
+      <c r="A163" s="20" t="s">
+        <v>315</v>
+      </c>
+      <c r="B163" s="20" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="164" spans="1:2" ht="75">
+      <c r="A164" s="20" t="s">
+        <v>314</v>
+      </c>
+      <c r="B164" s="20" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="165" spans="1:2" ht="75">
+      <c r="A165" s="20" t="s">
+        <v>312</v>
+      </c>
+      <c r="B165" s="20" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="166" spans="1:2" ht="75">
+      <c r="A166" s="20" t="s">
+        <v>310</v>
+      </c>
+      <c r="B166" s="20" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="167" spans="1:2" ht="75">
+      <c r="A167" s="20" t="s">
+        <v>309</v>
+      </c>
+      <c r="B167" s="20" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="168" spans="1:2" ht="75">
+      <c r="A168" s="20" t="s">
+        <v>308</v>
+      </c>
+      <c r="B168" s="20" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="169" spans="1:2" ht="75">
+      <c r="A169" s="20" t="s">
+        <v>306</v>
+      </c>
+      <c r="B169" s="20" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="170" spans="1:2" ht="75">
+      <c r="A170" s="20" t="s">
+        <v>304</v>
+      </c>
+      <c r="B170" s="20" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="171" spans="1:2" ht="105">
+      <c r="A171" s="20" t="s">
+        <v>302</v>
+      </c>
+      <c r="B171" s="20" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="172" spans="1:2">
+      <c r="A172" s="20" t="s">
+        <v>300</v>
+      </c>
+      <c r="B172" s="20" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="173" spans="1:2" ht="75">
+      <c r="A173" s="20" t="s">
+        <v>298</v>
+      </c>
+      <c r="B173" s="20" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="174" spans="1:2">
+      <c r="A174" s="20" t="s">
+        <v>296</v>
+      </c>
+      <c r="B174" s="20" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="175" spans="1:2">
+      <c r="A175" s="20" t="s">
+        <v>294</v>
+      </c>
+      <c r="B175" s="20" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="176" spans="1:2">
+      <c r="A176" s="20" t="s">
+        <v>292</v>
+      </c>
+      <c r="B176" s="20" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="177" spans="1:2" ht="60">
+      <c r="A177" s="28" t="s">
+        <v>290</v>
+      </c>
+      <c r="B177" s="20" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="178" spans="1:2" ht="60">
+      <c r="A178" s="28"/>
+      <c r="B178" s="20" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="179" spans="1:2" ht="60">
+      <c r="A179" s="28" t="s">
+        <v>289</v>
+      </c>
+      <c r="B179" s="20" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="180" spans="1:2" ht="60">
+      <c r="A180" s="28"/>
+      <c r="B180" s="20" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="181" spans="1:2">
+      <c r="A181" s="30" t="s">
+        <v>286</v>
+      </c>
+      <c r="B181" s="20" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="182" spans="1:2">
+      <c r="A182" s="30"/>
+      <c r="B182" s="20" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="183" spans="1:2">
+      <c r="A183" s="30" t="s">
+        <v>283</v>
+      </c>
+      <c r="B183" s="20" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="184" spans="1:2" ht="30">
+      <c r="A184" s="30"/>
+      <c r="B184" s="20" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="185" spans="1:2">
+      <c r="A185" s="20" t="s">
+        <v>280</v>
+      </c>
+      <c r="B185" s="20" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="186" spans="1:2">
+      <c r="A186" s="20" t="s">
+        <v>278</v>
+      </c>
+      <c r="B186" s="20" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="187" spans="1:2" ht="60">
+      <c r="A187" s="20" t="s">
+        <v>276</v>
+      </c>
+      <c r="B187" s="20" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="188" spans="1:2">
+      <c r="A188" s="38" t="s">
+        <v>274</v>
+      </c>
+      <c r="B188" s="38"/>
+    </row>
+    <row r="189" spans="1:2">
+      <c r="A189" s="20" t="s">
+        <v>273</v>
+      </c>
+      <c r="B189" s="20" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="190" spans="1:2">
+      <c r="A190" s="20" t="s">
+        <v>271</v>
+      </c>
+      <c r="B190" s="20" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="191" spans="1:2" ht="30">
+      <c r="A191" s="20" t="s">
+        <v>269</v>
+      </c>
+      <c r="B191" s="20" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="192" spans="1:2">
+      <c r="A192" s="20" t="s">
+        <v>267</v>
+      </c>
+      <c r="B192" s="20" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="193" spans="1:2">
+      <c r="A193" s="20" t="s">
+        <v>265</v>
+      </c>
+      <c r="B193" s="20" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="194" spans="1:2">
+      <c r="A194" s="20" t="s">
+        <v>263</v>
+      </c>
+      <c r="B194" s="20" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="195" spans="1:2">
+      <c r="A195" s="20" t="s">
+        <v>261</v>
+      </c>
+      <c r="B195" s="20" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="196" spans="1:2">
+      <c r="A196" s="20" t="s">
+        <v>259</v>
+      </c>
+      <c r="B196" s="20" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="197" spans="1:2" ht="105">
+      <c r="A197" s="20" t="s">
+        <v>257</v>
+      </c>
+      <c r="B197" s="20" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="198" spans="1:2" ht="120">
+      <c r="A198" s="20" t="s">
+        <v>255</v>
+      </c>
+      <c r="B198" s="20" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="199" spans="1:2" ht="180">
+      <c r="A199" s="28" t="s">
+        <v>253</v>
+      </c>
+      <c r="B199" s="20" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="200" spans="1:2" ht="225">
+      <c r="A200" s="28"/>
+      <c r="B200" s="20" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="201" spans="1:2">
+      <c r="A201" s="20" t="s">
+        <v>250</v>
+      </c>
+      <c r="B201" s="20" t="s">
+        <v>249</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="17">
+    <mergeCell ref="A181:A182"/>
+    <mergeCell ref="A183:A184"/>
+    <mergeCell ref="A188:B188"/>
+    <mergeCell ref="A199:A200"/>
+    <mergeCell ref="A177:A178"/>
+    <mergeCell ref="A179:A180"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="A115:A126"/>
+    <mergeCell ref="B115:B126"/>
+    <mergeCell ref="A144:A156"/>
+    <mergeCell ref="B144:B156"/>
+    <mergeCell ref="A21:A22"/>
+    <mergeCell ref="A86:A88"/>
+    <mergeCell ref="A93:A94"/>
+    <mergeCell ref="A106:B106"/>
+    <mergeCell ref="A107:A109"/>
+    <mergeCell ref="A7:B7"/>
+  </mergeCells>
+  <hyperlinks>
+    <hyperlink ref="B1" location="Jquery!A2" display="Up"/>
+    <hyperlink ref="A1" location="Topics!A5" display="Topics"/>
+    <hyperlink ref="B23" r:id="rId1"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:B15"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A14" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A15" sqref="A15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="66" customWidth="1"/>
+    <col min="2" max="2" width="119.28515625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" s="31" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" s="32"/>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" s="31" t="s">
+        <v>2</v>
+      </c>
+      <c r="B5" s="32"/>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6" s="39" t="s">
+        <v>586</v>
+      </c>
+      <c r="B6" s="23" t="s">
+        <v>585</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="A7" s="40"/>
+      <c r="B7" s="23" t="s">
+        <v>584</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
+      <c r="A8" s="40"/>
+      <c r="B8" s="23" t="s">
+        <v>583</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" ht="30">
+      <c r="A9" s="23" t="s">
+        <v>582</v>
+      </c>
+      <c r="B9" s="22" t="s">
+        <v>581</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" ht="45">
+      <c r="A10" s="23" t="s">
+        <v>580</v>
+      </c>
+      <c r="B10" s="22" t="s">
+        <v>579</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" ht="90">
+      <c r="A11" s="23" t="s">
+        <v>578</v>
+      </c>
+      <c r="B11" s="22" t="s">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" ht="195">
+      <c r="A12" s="23" t="s">
+        <v>576</v>
+      </c>
+      <c r="B12" s="22" t="s">
+        <v>575</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" ht="210">
+      <c r="A13" s="23" t="s">
+        <v>574</v>
+      </c>
+      <c r="B13" s="22" t="s">
+        <v>573</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" ht="120">
+      <c r="A14" s="23" t="s">
+        <v>572</v>
+      </c>
+      <c r="B14" s="22" t="s">
+        <v>571</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" ht="240">
+      <c r="A15" s="23" t="s">
+        <v>570</v>
+      </c>
+      <c r="B15" s="22" t="s">
+        <v>569</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="A6:A8"/>
+    <mergeCell ref="A5:B5"/>
+  </mergeCells>
+  <hyperlinks>
+    <hyperlink ref="B1" location="Ajax!A2" display="Up"/>
+    <hyperlink ref="A1" location="Topics!A7" display="Topics"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Definitions/t-Definitions-UI.xlsx
+++ b/Definitions/t-Definitions-UI.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" tabRatio="1000"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" tabRatio="1000" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="Topics" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="629" uniqueCount="587">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="691" uniqueCount="647">
   <si>
     <t>Topics</t>
   </si>
@@ -1669,9 +1669,6 @@
   </si>
   <si>
     <t>TypeScript In-depth</t>
-  </si>
-  <si>
-    <t>TypeScript Fundamentals - Definitions</t>
   </si>
   <si>
     <t xml:space="preserve">Home page </t>
@@ -3527,12 +3524,243 @@
   <si>
     <t xml:space="preserve">Ajax </t>
   </si>
+  <si>
+    <t>Install knockout</t>
+  </si>
+  <si>
+    <t>npm install -g knockout</t>
+  </si>
+  <si>
+    <t>Tutorials point</t>
+  </si>
+  <si>
+    <t>https://www.tutorialspoint.com/typescript/index.htm</t>
+  </si>
+  <si>
+    <t>Tutorialspoint pdf version</t>
+  </si>
+  <si>
+    <t>E:\Backup\JavaPrep\practiceProjects\images\TypeScript\typescript_tutorial.pdf</t>
+  </si>
+  <si>
+    <t>Pluralsight - TypeScript Fundamentals - Definitions</t>
+  </si>
+  <si>
+    <t>Tutorialspoint - Definitions</t>
+  </si>
+  <si>
+    <t>Why Use TypeScript</t>
+  </si>
+  <si>
+    <t>1. Compilation
+2. Strong Static Typing
+3. supports type definitions
+4. supports Object Oriented Programming</t>
+  </si>
+  <si>
+    <t>Compilation</t>
+  </si>
+  <si>
+    <t>JavaScript is an interpreted language. Hence, it needs to be run to test that it is valid. It means you write all the codes just to find no output, in case there is an error. Hence, you have to spend hours trying to find bugs in the code. The TypeScript transpiler provides the error-checking feature. TypeScript will compile the code and generate compilation errors, if it finds some sort of syntax errors. This helps to highlight errors before the script is run</t>
+  </si>
+  <si>
+    <t>Strong Static Typing</t>
+  </si>
+  <si>
+    <t>JavaScript is not strongly typed. TypeScript comes with an optional static typing and type inference system through the TLS (TypeScript Language Service). The type of a variable, declared with no type, may be inferred by the TLS based on its value.</t>
+  </si>
+  <si>
+    <t>supports type definitions</t>
+  </si>
+  <si>
+    <t>TypeScript supports type definitions for existing JavaScript libraries. TypeScript Definition file (with .d.ts extension) provides definition for external JavaScript libraries. Hence, TypeScript code can contain these libraries.</t>
+  </si>
+  <si>
+    <t>Supports object oriented Programming</t>
+  </si>
+  <si>
+    <t>TypeScript supports Object Oriented Programming concepts like classes, interfaces, inheritance, etc</t>
+  </si>
+  <si>
+    <t>Components of TypeScript</t>
+  </si>
+  <si>
+    <t>1. Language
+2. The TypeScript Compiler
+3. The TypeScript Language Service</t>
+  </si>
+  <si>
+    <t>It comprises of the syntax, keywords, and type annotations</t>
+  </si>
+  <si>
+    <t>TypeScript Compiler</t>
+  </si>
+  <si>
+    <t>The TypeScript compiler (tsc) converts the instructions written in TypeScript to its JavaScript equivalent</t>
+  </si>
+  <si>
+    <t>TypeScript Language Service</t>
+  </si>
+  <si>
+    <t>The "Language Service" exposes an additional layer around the core compiler pipeline that are editor-like applications. The language service supports the common set of a typical editor operations like statement completions, signature help, code formatting and outlining, colorization, etc</t>
+  </si>
+  <si>
+    <t>Declaration Files</t>
+  </si>
+  <si>
+    <t>When a TypeScript script gets compiled, there is an option to generate a declaration file (with the extension .d.ts) that functions as an interface to the components in the compiled JavaScript. The concept of declaration files is analogous to the concept of header files found in C/C++. The declaration files (files with .d.ts extension) provide intellisense for types, function calls, and variable support for JavaScript libraries like jQuery, MooTools, etc</t>
+  </si>
+  <si>
+    <t>The TypeScript Compiler</t>
+  </si>
+  <si>
+    <t>The TypeScript compiler is itself a .ts file compiled down to JavaScript (.js) file. The TSC (TypeScript Compiler) is a source-to-source compiler (transcompiler / transpiler).
+The TSC generates a JavaScript version of the .ts file passed to it. In other words, the TSC produces an equivalent JavaScript source code from the Typescript file given as an input to it. This process is termed as transpilation.
+However, the compiler rejects any raw JavaScript file passed to it. The compiler deals with only .ts or .d.ts files</t>
+  </si>
+  <si>
+    <t>Node.js</t>
+  </si>
+  <si>
+    <t>Node.js is an open source, cross-platform runtime environment for server-side JavaScript. Node.js is required to run JavaScript without a browser support. It uses Google V8 JavaScript engine to execute code.</t>
+  </si>
+  <si>
+    <t>TypeScript program is composed of</t>
+  </si>
+  <si>
+    <t>1. Modules
+2. Functions
+3. Variables
+4. Statements and Expressions
+5. Comments</t>
+  </si>
+  <si>
+    <t>tsc compiler flags</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> --help: Displays help manual
+ -- module: Loads external module
+--target: sets target ECMA version
+--declaration: Generates an additional .d.ts file
+--removeComments: Remove all comments from output file
+--out: compile multiple files into single output file
+--sourcemap: Generate sourcemap (.map) files</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> --module noImplicitAny: Disallows the compiler from inferring the any type
+--watch: Watch for file changes and recompile them on the fly</t>
+  </si>
+  <si>
+    <t>Multiple files can be compiled at once</t>
+  </si>
+  <si>
+    <t>TypeScript keywords</t>
+  </si>
+  <si>
+    <t>images\TypeScript\keywords.jpg</t>
+  </si>
+  <si>
+    <t>TypeScript is Case-sensitive</t>
+  </si>
+  <si>
+    <t>TypeScript is case-sensitive. This means that TypeScript differentiates between uppercase and lowercase characters.</t>
+  </si>
+  <si>
+    <t>Each line of instruction is called a statement. Semicolons are optional in TypeScript</t>
+  </si>
+  <si>
+    <t>Single-line comments</t>
+  </si>
+  <si>
+    <t>Any text between a // and the end of a line is treated as a comment</t>
+  </si>
+  <si>
+    <t>Multi-line comments</t>
+  </si>
+  <si>
+    <t>/* */ − These comments may span multiple lines.</t>
+  </si>
+  <si>
+    <t>tsc file1.ts file2.ts file3.ts</t>
+  </si>
+  <si>
+    <t>Datatypes hierarchy</t>
+  </si>
+  <si>
+    <t>images\TypeScript\datatypes-hierarchy.jpg</t>
+  </si>
+  <si>
+    <t>Any type</t>
+  </si>
+  <si>
+    <t>The any data type is the super type of all types in TypeScript. It denotes a dynamic type. Using the any type is equivalent to opting out of type checking for a variable</t>
+  </si>
+  <si>
+    <t>Built-in types</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">1. number
+2. string
+3. boolean
+4. void
+5. null
+6. undefined
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Note</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> − There is no integer type in TypeScript and JavaScript.</t>
+    </r>
+  </si>
+  <si>
+    <t>Null vs undefined</t>
+  </si>
+  <si>
+    <t>The null and the undefined datatypes are often a source of confusion. The null and undefined cannot be used to reference the data type of a variable. They can only be assigned as values to a variable.
+However, null and undefined are not the same. A variable initialized with undefined means that the variable has no value or object assigned to it while null means that the variable has been set to an object whose value is undefined.</t>
+  </si>
+  <si>
+    <t>Global Scope</t>
+  </si>
+  <si>
+    <t>Global variables are declared outside the programming constructs. These variables can be accessed from anywhere within your code</t>
+  </si>
+  <si>
+    <t>Class Scope</t>
+  </si>
+  <si>
+    <t>These variables are also called fields. Fields or class variables are declared within the class but outside the methods. These variables can be accessed using the object of the class. Fields can also be static. Static fields can be accessed using the class name</t>
+  </si>
+  <si>
+    <t>Local Scope</t>
+  </si>
+  <si>
+    <t>Local variables, as the name suggests, are declared within the constructs like methods, loops etc. Local variables are accessible only within the construct where they are declared</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="9">
+  <fonts count="10">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -3597,6 +3825,14 @@
     </font>
     <font>
       <i/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -3705,7 +3941,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="41">
+  <cellXfs count="48">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -3740,16 +3976,7 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -3764,6 +3991,25 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -3792,6 +4038,9 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -3804,11 +4053,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -4189,7 +4436,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:B7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
     </sheetView>
@@ -4235,7 +4482,7 @@
     </row>
     <row r="7" spans="1:2">
       <c r="A7" s="1" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
     </row>
   </sheetData>
@@ -4276,10 +4523,10 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="24" t="s">
+      <c r="A2" s="30" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="24"/>
+      <c r="B2" s="30"/>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="9" t="s">
@@ -4384,22 +4631,22 @@
       <c r="B16" s="1"/>
     </row>
     <row r="17" spans="1:2">
-      <c r="A17" s="24" t="s">
+      <c r="A17" s="30" t="s">
         <v>5</v>
       </c>
-      <c r="B17" s="24"/>
+      <c r="B17" s="30"/>
     </row>
     <row r="18" spans="1:2">
-      <c r="A18" s="25"/>
-      <c r="B18" s="26"/>
+      <c r="A18" s="31"/>
+      <c r="B18" s="32"/>
     </row>
     <row r="20" spans="1:2" s="13" customFormat="1"/>
     <row r="21" spans="1:2" s="13" customFormat="1"/>
     <row r="22" spans="1:2" s="13" customFormat="1">
-      <c r="A22" s="24" t="s">
+      <c r="A22" s="30" t="s">
         <v>219</v>
       </c>
-      <c r="B22" s="24"/>
+      <c r="B22" s="30"/>
     </row>
     <row r="23" spans="1:2">
       <c r="A23" s="12" t="s">
@@ -4419,10 +4666,10 @@
       </c>
     </row>
     <row r="26" spans="1:2">
-      <c r="A26" s="24" t="s">
+      <c r="A26" s="30" t="s">
         <v>2</v>
       </c>
-      <c r="B26" s="24"/>
+      <c r="B26" s="30"/>
     </row>
     <row r="27" spans="1:2" ht="75">
       <c r="A27" s="5" t="s">
@@ -4521,7 +4768,7 @@
       </c>
     </row>
     <row r="39" spans="1:2" ht="45">
-      <c r="A39" s="28" t="s">
+      <c r="A39" s="34" t="s">
         <v>166</v>
       </c>
       <c r="B39" s="5" t="s">
@@ -4529,7 +4776,7 @@
       </c>
     </row>
     <row r="40" spans="1:2" ht="75">
-      <c r="A40" s="28"/>
+      <c r="A40" s="34"/>
       <c r="B40" s="5" t="s">
         <v>164</v>
       </c>
@@ -4647,7 +4894,7 @@
       </c>
     </row>
     <row r="55" spans="1:2">
-      <c r="A55" s="29" t="s">
+      <c r="A55" s="35" t="s">
         <v>135</v>
       </c>
       <c r="B55" s="5" t="s">
@@ -4655,7 +4902,7 @@
       </c>
     </row>
     <row r="56" spans="1:2" ht="120">
-      <c r="A56" s="29"/>
+      <c r="A56" s="35"/>
       <c r="B56" s="5" t="s">
         <v>133</v>
       </c>
@@ -4685,7 +4932,7 @@
       </c>
     </row>
     <row r="60" spans="1:2" ht="45">
-      <c r="A60" s="29" t="s">
+      <c r="A60" s="35" t="s">
         <v>126</v>
       </c>
       <c r="B60" s="5" t="s">
@@ -4693,7 +4940,7 @@
       </c>
     </row>
     <row r="61" spans="1:2" ht="30">
-      <c r="A61" s="29"/>
+      <c r="A61" s="35"/>
       <c r="B61" s="5" t="s">
         <v>124</v>
       </c>
@@ -4851,7 +5098,7 @@
       </c>
     </row>
     <row r="81" spans="1:2" ht="75">
-      <c r="A81" s="28" t="s">
+      <c r="A81" s="34" t="s">
         <v>85</v>
       </c>
       <c r="B81" s="5" t="s">
@@ -4859,7 +5106,7 @@
       </c>
     </row>
     <row r="82" spans="1:2" ht="30">
-      <c r="A82" s="28"/>
+      <c r="A82" s="34"/>
       <c r="B82" s="5" t="s">
         <v>83</v>
       </c>
@@ -4873,7 +5120,7 @@
       </c>
     </row>
     <row r="84" spans="1:2" ht="30">
-      <c r="A84" s="28" t="s">
+      <c r="A84" s="34" t="s">
         <v>80</v>
       </c>
       <c r="B84" s="5" t="s">
@@ -4881,7 +5128,7 @@
       </c>
     </row>
     <row r="85" spans="1:2" ht="60">
-      <c r="A85" s="28"/>
+      <c r="A85" s="34"/>
       <c r="B85" s="5" t="s">
         <v>78</v>
       </c>
@@ -4911,7 +5158,7 @@
       </c>
     </row>
     <row r="89" spans="1:2" ht="30">
-      <c r="A89" s="29" t="s">
+      <c r="A89" s="35" t="s">
         <v>71</v>
       </c>
       <c r="B89" s="5" t="s">
@@ -4919,13 +5166,13 @@
       </c>
     </row>
     <row r="90" spans="1:2" ht="30">
-      <c r="A90" s="29"/>
+      <c r="A90" s="35"/>
       <c r="B90" s="5" t="s">
         <v>69</v>
       </c>
     </row>
     <row r="91" spans="1:2" ht="30">
-      <c r="A91" s="28" t="s">
+      <c r="A91" s="34" t="s">
         <v>68</v>
       </c>
       <c r="B91" s="5" t="s">
@@ -4933,13 +5180,13 @@
       </c>
     </row>
     <row r="92" spans="1:2" ht="30">
-      <c r="A92" s="28"/>
+      <c r="A92" s="34"/>
       <c r="B92" s="5" t="s">
         <v>66</v>
       </c>
     </row>
     <row r="93" spans="1:2" ht="45">
-      <c r="A93" s="28"/>
+      <c r="A93" s="34"/>
       <c r="B93" s="5" t="s">
         <v>65</v>
       </c>
@@ -5009,7 +5256,7 @@
       </c>
     </row>
     <row r="102" spans="1:2" ht="45">
-      <c r="A102" s="28" t="s">
+      <c r="A102" s="34" t="s">
         <v>48</v>
       </c>
       <c r="B102" s="5" t="s">
@@ -5017,7 +5264,7 @@
       </c>
     </row>
     <row r="103" spans="1:2" ht="105">
-      <c r="A103" s="28"/>
+      <c r="A103" s="34"/>
       <c r="B103" s="5" t="s">
         <v>46</v>
       </c>
@@ -5047,7 +5294,7 @@
       </c>
     </row>
     <row r="107" spans="1:2">
-      <c r="A107" s="30" t="s">
+      <c r="A107" s="36" t="s">
         <v>39</v>
       </c>
       <c r="B107" s="5" t="s">
@@ -5055,7 +5302,7 @@
       </c>
     </row>
     <row r="108" spans="1:2" ht="75">
-      <c r="A108" s="30"/>
+      <c r="A108" s="36"/>
       <c r="B108" s="5" t="s">
         <v>37</v>
       </c>
@@ -5173,7 +5420,7 @@
       </c>
     </row>
     <row r="123" spans="1:2" ht="195">
-      <c r="A123" s="27" t="s">
+      <c r="A123" s="33" t="s">
         <v>8</v>
       </c>
       <c r="B123" s="5" t="s">
@@ -5181,7 +5428,7 @@
       </c>
     </row>
     <row r="124" spans="1:2" ht="165">
-      <c r="A124" s="27"/>
+      <c r="A124" s="33"/>
       <c r="B124" s="5" t="s">
         <v>6</v>
       </c>
@@ -5248,10 +5495,10 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="31" t="s">
+      <c r="A2" s="37" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="32"/>
+      <c r="B2" s="38"/>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="10" t="s">
@@ -5262,16 +5509,16 @@
       </c>
     </row>
     <row r="7" spans="1:2">
-      <c r="A7" s="31" t="s">
+      <c r="A7" s="37" t="s">
         <v>5</v>
       </c>
-      <c r="B7" s="32"/>
+      <c r="B7" s="38"/>
     </row>
     <row r="11" spans="1:2">
-      <c r="A11" s="31" t="s">
+      <c r="A11" s="37" t="s">
         <v>2</v>
       </c>
-      <c r="B11" s="32"/>
+      <c r="B11" s="38"/>
     </row>
     <row r="12" spans="1:2">
       <c r="A12" t="s">
@@ -5290,7 +5537,7 @@
       </c>
     </row>
     <row r="14" spans="1:2" ht="45">
-      <c r="A14" s="33" t="s">
+      <c r="A14" s="39" t="s">
         <v>215</v>
       </c>
       <c r="B14" s="11" t="s">
@@ -5298,13 +5545,13 @@
       </c>
     </row>
     <row r="15" spans="1:2" ht="30">
-      <c r="A15" s="33"/>
+      <c r="A15" s="39"/>
       <c r="B15" s="11" t="s">
         <v>217</v>
       </c>
     </row>
     <row r="16" spans="1:2">
-      <c r="A16" s="33"/>
+      <c r="A16" s="39"/>
       <c r="B16" s="11" t="s">
         <v>218</v>
       </c>
@@ -5349,10 +5596,10 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="31" t="s">
+      <c r="A2" s="37" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="32"/>
+      <c r="B2" s="38"/>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="9" t="s">
@@ -5377,17 +5624,17 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B20"/>
+  <dimension ref="A1:B53"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B1" sqref="B1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A48" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A54" sqref="A54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="73" customWidth="1"/>
-    <col min="2" max="2" width="113.140625" customWidth="1"/>
+    <col min="2" max="2" width="113.140625" style="25" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
@@ -5399,150 +5646,405 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="31" t="s">
+      <c r="A2" s="37" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="32"/>
+      <c r="B2" s="38"/>
     </row>
     <row r="3" spans="1:2">
-      <c r="A3" s="15" t="s">
+      <c r="A3" s="22" t="s">
+        <v>588</v>
+      </c>
+      <c r="B3" s="24" t="s">
+        <v>589</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" s="22" customFormat="1">
+      <c r="A4" s="22" t="s">
+        <v>590</v>
+      </c>
+      <c r="B4" s="25" t="s">
+        <v>591</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" s="22" customFormat="1">
+      <c r="A5" s="14" t="s">
         <v>201</v>
       </c>
-      <c r="B3" s="9" t="s">
+      <c r="B5" s="29" t="s">
         <v>224</v>
       </c>
     </row>
-    <row r="4" spans="1:2">
-      <c r="A4" s="15" t="s">
+    <row r="6" spans="1:2">
+      <c r="A6" s="14" t="s">
         <v>201</v>
       </c>
-      <c r="B4" s="9" t="s">
+      <c r="B6" s="29" t="s">
         <v>225</v>
       </c>
     </row>
-    <row r="5" spans="1:2" s="18" customFormat="1">
-      <c r="B5" s="9"/>
-    </row>
-    <row r="6" spans="1:2" s="18" customFormat="1">
-      <c r="A6" s="31" t="s">
+    <row r="7" spans="1:2" s="15" customFormat="1">
+      <c r="B7" s="29"/>
+    </row>
+    <row r="8" spans="1:2" s="15" customFormat="1">
+      <c r="A8" s="37" t="s">
+        <v>236</v>
+      </c>
+      <c r="B8" s="38"/>
+    </row>
+    <row r="9" spans="1:2" s="15" customFormat="1">
+      <c r="A9" s="15" t="s">
         <v>237</v>
       </c>
-      <c r="B6" s="32"/>
-    </row>
-    <row r="7" spans="1:2" s="18" customFormat="1">
-      <c r="A7" s="18" t="s">
+      <c r="B9" s="25" t="s">
         <v>238</v>
       </c>
-      <c r="B7" s="18" t="s">
+    </row>
+    <row r="10" spans="1:2" s="15" customFormat="1">
+      <c r="B10" s="29"/>
+    </row>
+    <row r="11" spans="1:2" s="15" customFormat="1">
+      <c r="A11" s="37" t="s">
         <v>239</v>
       </c>
-    </row>
-    <row r="8" spans="1:2" s="18" customFormat="1">
-      <c r="B8" s="9"/>
-    </row>
-    <row r="9" spans="1:2" s="18" customFormat="1">
-      <c r="A9" s="31" t="s">
+      <c r="B11" s="38"/>
+    </row>
+    <row r="12" spans="1:2" s="15" customFormat="1">
+      <c r="A12" s="15" t="s">
+        <v>243</v>
+      </c>
+      <c r="B12" s="24" t="s">
         <v>240</v>
       </c>
-      <c r="B9" s="32"/>
-    </row>
-    <row r="10" spans="1:2" s="18" customFormat="1">
-      <c r="A10" s="18" t="s">
+    </row>
+    <row r="13" spans="1:2" s="15" customFormat="1">
+      <c r="A13" s="15" t="s">
+        <v>241</v>
+      </c>
+      <c r="B13" s="29" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2">
+      <c r="A15" s="37" t="s">
+        <v>592</v>
+      </c>
+      <c r="B15" s="38"/>
+    </row>
+    <row r="16" spans="1:2">
+      <c r="A16" s="14" t="s">
+        <v>226</v>
+      </c>
+      <c r="B16" s="24" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" ht="30">
+      <c r="A17" s="14" t="s">
+        <v>230</v>
+      </c>
+      <c r="B17" s="25" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" ht="90">
+      <c r="A18" s="14" t="s">
+        <v>228</v>
+      </c>
+      <c r="B18" s="25" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2">
+      <c r="A19" s="14" t="s">
+        <v>232</v>
+      </c>
+      <c r="B19" s="25" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" ht="30">
+      <c r="A20" s="14" t="s">
+        <v>234</v>
+      </c>
+      <c r="B20" s="25" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" ht="60">
+      <c r="A21" s="15" t="s">
         <v>244</v>
       </c>
-      <c r="B10" s="1" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" s="18" customFormat="1">
-      <c r="A11" s="18" t="s">
-        <v>242</v>
-      </c>
-      <c r="B11" s="9" t="s">
-        <v>243</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2">
-      <c r="A13" s="31" t="s">
-        <v>226</v>
-      </c>
-      <c r="B13" s="32"/>
-    </row>
-    <row r="14" spans="1:2">
-      <c r="A14" s="15" t="s">
-        <v>227</v>
-      </c>
-      <c r="B14" s="1" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" ht="30">
-      <c r="A15" s="15" t="s">
-        <v>231</v>
-      </c>
-      <c r="B15" s="14" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" ht="90">
-      <c r="A16" s="15" t="s">
-        <v>229</v>
-      </c>
-      <c r="B16" s="14" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2">
-      <c r="A17" s="15" t="s">
-        <v>233</v>
-      </c>
-      <c r="B17" s="15" t="s">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" ht="30">
-      <c r="A18" s="15" t="s">
-        <v>235</v>
-      </c>
-      <c r="B18" s="14" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" ht="60">
-      <c r="A19" s="18" t="s">
+      <c r="B21" s="25" t="s">
         <v>245</v>
       </c>
-      <c r="B19" s="17" t="s">
+    </row>
+    <row r="22" spans="1:2">
+      <c r="A22" s="15" t="s">
+        <v>247</v>
+      </c>
+      <c r="B22" s="24" t="s">
         <v>246</v>
       </c>
     </row>
-    <row r="20" spans="1:2">
-      <c r="A20" s="18" t="s">
-        <v>248</v>
-      </c>
-      <c r="B20" s="16" t="s">
-        <v>247</v>
+    <row r="23" spans="1:2">
+      <c r="A23" s="21" t="s">
+        <v>586</v>
+      </c>
+      <c r="B23" s="23" t="s">
+        <v>587</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2">
+      <c r="A25" s="37" t="s">
+        <v>593</v>
+      </c>
+      <c r="B25" s="38"/>
+    </row>
+    <row r="26" spans="1:2" ht="60">
+      <c r="A26" s="26" t="s">
+        <v>594</v>
+      </c>
+      <c r="B26" s="25" t="s">
+        <v>595</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" ht="60">
+      <c r="A27" s="26" t="s">
+        <v>596</v>
+      </c>
+      <c r="B27" s="25" t="s">
+        <v>597</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" ht="30">
+      <c r="A28" s="26" t="s">
+        <v>598</v>
+      </c>
+      <c r="B28" s="25" t="s">
+        <v>599</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" ht="30">
+      <c r="A29" s="26" t="s">
+        <v>600</v>
+      </c>
+      <c r="B29" s="25" t="s">
+        <v>601</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2">
+      <c r="A30" s="26" t="s">
+        <v>602</v>
+      </c>
+      <c r="B30" s="25" t="s">
+        <v>603</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" ht="45">
+      <c r="A31" s="26" t="s">
+        <v>604</v>
+      </c>
+      <c r="B31" s="25" t="s">
+        <v>605</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2">
+      <c r="A32" s="26" t="s">
+        <v>161</v>
+      </c>
+      <c r="B32" s="25" t="s">
+        <v>606</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2">
+      <c r="A33" s="26" t="s">
+        <v>607</v>
+      </c>
+      <c r="B33" s="25" t="s">
+        <v>608</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" ht="45">
+      <c r="A34" s="26" t="s">
+        <v>609</v>
+      </c>
+      <c r="B34" s="25" t="s">
+        <v>610</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" ht="60">
+      <c r="A35" s="26" t="s">
+        <v>611</v>
+      </c>
+      <c r="B35" s="25" t="s">
+        <v>612</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" ht="75">
+      <c r="A36" s="26" t="s">
+        <v>613</v>
+      </c>
+      <c r="B36" s="25" t="s">
+        <v>614</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" ht="30">
+      <c r="A37" s="26" t="s">
+        <v>615</v>
+      </c>
+      <c r="B37" s="25" t="s">
+        <v>616</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" ht="75">
+      <c r="A38" s="28" t="s">
+        <v>617</v>
+      </c>
+      <c r="B38" s="27" t="s">
+        <v>618</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" ht="105">
+      <c r="A39" s="39" t="s">
+        <v>619</v>
+      </c>
+      <c r="B39" s="27" t="s">
+        <v>620</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" ht="30">
+      <c r="A40" s="39"/>
+      <c r="B40" s="27" t="s">
+        <v>621</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2">
+      <c r="A41" s="47" t="s">
+        <v>622</v>
+      </c>
+      <c r="B41" s="27" t="s">
+        <v>632</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2">
+      <c r="A42" s="47" t="s">
+        <v>623</v>
+      </c>
+      <c r="B42" s="27" t="s">
+        <v>624</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2">
+      <c r="A43" s="47" t="s">
+        <v>625</v>
+      </c>
+      <c r="B43" s="27" t="s">
+        <v>626</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2">
+      <c r="A44" s="47" t="s">
+        <v>153</v>
+      </c>
+      <c r="B44" s="27" t="s">
+        <v>627</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2">
+      <c r="A45" s="47" t="s">
+        <v>628</v>
+      </c>
+      <c r="B45" s="27" t="s">
+        <v>629</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2">
+      <c r="A46" s="47" t="s">
+        <v>630</v>
+      </c>
+      <c r="B46" s="27" t="s">
+        <v>631</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2">
+      <c r="A47" s="47" t="s">
+        <v>633</v>
+      </c>
+      <c r="B47" s="27" t="s">
+        <v>634</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" ht="30">
+      <c r="A48" s="47" t="s">
+        <v>635</v>
+      </c>
+      <c r="B48" s="27" t="s">
+        <v>636</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" ht="105">
+      <c r="A49" s="47" t="s">
+        <v>637</v>
+      </c>
+      <c r="B49" s="27" t="s">
+        <v>638</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" ht="75">
+      <c r="A50" s="47" t="s">
+        <v>639</v>
+      </c>
+      <c r="B50" s="27" t="s">
+        <v>640</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" ht="30">
+      <c r="A51" s="47" t="s">
+        <v>641</v>
+      </c>
+      <c r="B51" s="27" t="s">
+        <v>642</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" ht="45">
+      <c r="A52" s="47" t="s">
+        <v>643</v>
+      </c>
+      <c r="B52" s="27" t="s">
+        <v>644</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" ht="30">
+      <c r="A53" s="47" t="s">
+        <v>645</v>
+      </c>
+      <c r="B53" s="27" t="s">
+        <v>646</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="4">
+  <mergeCells count="6">
+    <mergeCell ref="A39:A40"/>
     <mergeCell ref="A2:B2"/>
-    <mergeCell ref="A13:B13"/>
-    <mergeCell ref="A6:B6"/>
-    <mergeCell ref="A9:B9"/>
+    <mergeCell ref="A15:B15"/>
+    <mergeCell ref="A8:B8"/>
+    <mergeCell ref="A11:B11"/>
+    <mergeCell ref="A25:B25"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="B1" location="Typescript!A2" display="Up"/>
     <hyperlink ref="A1" location="Topics!A6" display="Topics"/>
-    <hyperlink ref="B3" r:id="rId1" tooltip="TypeScript Fundamentals" display="https://app.pluralsight.com/library/courses/typescript"/>
-    <hyperlink ref="B4" r:id="rId2" tooltip="TypeScript In-depth" display="https://app.pluralsight.com/library/courses/typescript-in-depth"/>
-    <hyperlink ref="B14" r:id="rId3"/>
-    <hyperlink ref="B10" r:id="rId4"/>
-    <hyperlink ref="B11" r:id="rId5"/>
-    <hyperlink ref="B20" r:id="rId6"/>
+    <hyperlink ref="B5" r:id="rId1" tooltip="TypeScript Fundamentals" display="https://app.pluralsight.com/library/courses/typescript"/>
+    <hyperlink ref="B6" r:id="rId2" tooltip="TypeScript In-depth" display="https://app.pluralsight.com/library/courses/typescript-in-depth"/>
+    <hyperlink ref="B16" r:id="rId3"/>
+    <hyperlink ref="B12" r:id="rId4"/>
+    <hyperlink ref="B13" r:id="rId5"/>
+    <hyperlink ref="B22" r:id="rId6"/>
+    <hyperlink ref="B3" r:id="rId7"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId7"/>
+  <pageSetup orientation="portrait" r:id="rId8"/>
 </worksheet>
 </file>
 
@@ -5570,1455 +6072,1449 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="31" t="s">
+      <c r="A2" s="37" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="32"/>
+      <c r="B2" s="38"/>
     </row>
     <row r="7" spans="1:2">
-      <c r="A7" s="31" t="s">
+      <c r="A7" s="37" t="s">
         <v>2</v>
       </c>
-      <c r="B7" s="32"/>
+      <c r="B7" s="38"/>
     </row>
     <row r="8" spans="1:2" ht="45">
-      <c r="A8" s="21" t="s">
-        <v>567</v>
-      </c>
-      <c r="B8" s="20" t="s">
+      <c r="A8" s="18" t="s">
         <v>566</v>
       </c>
+      <c r="B8" s="17" t="s">
+        <v>565</v>
+      </c>
     </row>
     <row r="9" spans="1:2">
-      <c r="A9" s="20" t="s">
-        <v>565</v>
-      </c>
-      <c r="B9" s="20" t="s">
+      <c r="A9" s="17" t="s">
         <v>564</v>
       </c>
+      <c r="B9" s="17" t="s">
+        <v>563</v>
+      </c>
     </row>
     <row r="10" spans="1:2" ht="30">
-      <c r="A10" s="21" t="s">
-        <v>563</v>
-      </c>
-      <c r="B10" s="20" t="s">
+      <c r="A10" s="18" t="s">
         <v>562</v>
       </c>
+      <c r="B10" s="17" t="s">
+        <v>561</v>
+      </c>
     </row>
     <row r="11" spans="1:2" ht="90">
-      <c r="A11" s="21" t="s">
-        <v>561</v>
-      </c>
-      <c r="B11" s="20" t="s">
+      <c r="A11" s="18" t="s">
         <v>560</v>
       </c>
+      <c r="B11" s="17" t="s">
+        <v>559</v>
+      </c>
     </row>
     <row r="12" spans="1:2" ht="30">
-      <c r="A12" s="20" t="s">
-        <v>559</v>
-      </c>
-      <c r="B12" s="20" t="s">
+      <c r="A12" s="17" t="s">
         <v>558</v>
       </c>
+      <c r="B12" s="17" t="s">
+        <v>557</v>
+      </c>
     </row>
     <row r="13" spans="1:2" ht="30">
-      <c r="A13" s="20" t="s">
-        <v>557</v>
-      </c>
-      <c r="B13" s="20" t="s">
+      <c r="A13" s="17" t="s">
         <v>556</v>
       </c>
+      <c r="B13" s="17" t="s">
+        <v>555</v>
+      </c>
     </row>
     <row r="14" spans="1:2" ht="30">
-      <c r="A14" s="20" t="s">
-        <v>555</v>
-      </c>
-      <c r="B14" s="20" t="s">
+      <c r="A14" s="17" t="s">
         <v>554</v>
       </c>
+      <c r="B14" s="17" t="s">
+        <v>553</v>
+      </c>
     </row>
     <row r="15" spans="1:2" ht="120">
-      <c r="A15" s="20" t="s">
-        <v>553</v>
-      </c>
-      <c r="B15" s="20" t="s">
+      <c r="A15" s="17" t="s">
         <v>552</v>
       </c>
+      <c r="B15" s="17" t="s">
+        <v>551</v>
+      </c>
     </row>
     <row r="16" spans="1:2" ht="90">
-      <c r="A16" s="20" t="s">
-        <v>551</v>
-      </c>
-      <c r="B16" s="20" t="s">
+      <c r="A16" s="17" t="s">
         <v>550</v>
       </c>
+      <c r="B16" s="17" t="s">
+        <v>549</v>
+      </c>
     </row>
     <row r="17" spans="1:2" ht="45">
-      <c r="A17" s="20" t="s">
-        <v>549</v>
-      </c>
-      <c r="B17" s="20" t="s">
+      <c r="A17" s="17" t="s">
         <v>548</v>
       </c>
+      <c r="B17" s="17" t="s">
+        <v>547</v>
+      </c>
     </row>
     <row r="18" spans="1:2" ht="30">
-      <c r="A18" s="20" t="s">
-        <v>547</v>
-      </c>
-      <c r="B18" s="20" t="s">
+      <c r="A18" s="17" t="s">
         <v>546</v>
       </c>
+      <c r="B18" s="17" t="s">
+        <v>545</v>
+      </c>
     </row>
     <row r="19" spans="1:2" ht="30">
-      <c r="A19" s="20" t="s">
-        <v>545</v>
-      </c>
-      <c r="B19" s="20" t="s">
+      <c r="A19" s="17" t="s">
         <v>544</v>
       </c>
+      <c r="B19" s="17" t="s">
+        <v>543</v>
+      </c>
     </row>
     <row r="20" spans="1:2">
-      <c r="A20" s="20" t="s">
-        <v>543</v>
-      </c>
-      <c r="B20" s="20" t="s">
+      <c r="A20" s="17" t="s">
         <v>542</v>
       </c>
+      <c r="B20" s="17" t="s">
+        <v>541</v>
+      </c>
     </row>
     <row r="21" spans="1:2">
-      <c r="A21" s="30" t="s">
-        <v>541</v>
-      </c>
-      <c r="B21" s="20" t="s">
+      <c r="A21" s="36" t="s">
         <v>540</v>
       </c>
+      <c r="B21" s="17" t="s">
+        <v>539</v>
+      </c>
     </row>
     <row r="22" spans="1:2" ht="30">
-      <c r="A22" s="30"/>
-      <c r="B22" s="20" t="s">
-        <v>539</v>
+      <c r="A22" s="36"/>
+      <c r="B22" s="17" t="s">
+        <v>538</v>
       </c>
     </row>
     <row r="23" spans="1:2">
-      <c r="A23" s="20" t="s">
-        <v>538</v>
-      </c>
-      <c r="B23" s="19" t="s">
+      <c r="A23" s="17" t="s">
         <v>537</v>
       </c>
+      <c r="B23" s="16" t="s">
+        <v>536</v>
+      </c>
     </row>
     <row r="24" spans="1:2" ht="60">
-      <c r="A24" s="20" t="s">
-        <v>536</v>
-      </c>
-      <c r="B24" s="20" t="s">
+      <c r="A24" s="17" t="s">
         <v>535</v>
       </c>
+      <c r="B24" s="17" t="s">
+        <v>534</v>
+      </c>
     </row>
     <row r="25" spans="1:2">
-      <c r="A25" s="20" t="s">
-        <v>534</v>
-      </c>
-      <c r="B25" s="20" t="s">
+      <c r="A25" s="17" t="s">
         <v>533</v>
       </c>
+      <c r="B25" s="17" t="s">
+        <v>532</v>
+      </c>
     </row>
     <row r="26" spans="1:2" ht="30">
-      <c r="A26" s="20" t="s">
-        <v>532</v>
-      </c>
-      <c r="B26" s="20" t="s">
+      <c r="A26" s="17" t="s">
         <v>531</v>
       </c>
+      <c r="B26" s="17" t="s">
+        <v>530</v>
+      </c>
     </row>
     <row r="27" spans="1:2" ht="60">
-      <c r="A27" s="20" t="s">
-        <v>530</v>
-      </c>
-      <c r="B27" s="20" t="s">
+      <c r="A27" s="17" t="s">
         <v>529</v>
       </c>
+      <c r="B27" s="17" t="s">
+        <v>528</v>
+      </c>
     </row>
     <row r="28" spans="1:2" ht="30">
-      <c r="A28" s="20" t="s">
-        <v>528</v>
-      </c>
-      <c r="B28" s="20" t="s">
+      <c r="A28" s="17" t="s">
         <v>527</v>
       </c>
+      <c r="B28" s="17" t="s">
+        <v>526</v>
+      </c>
     </row>
     <row r="29" spans="1:2">
-      <c r="A29" s="20" t="s">
-        <v>526</v>
-      </c>
-      <c r="B29" s="20" t="s">
+      <c r="A29" s="17" t="s">
         <v>525</v>
       </c>
+      <c r="B29" s="17" t="s">
+        <v>524</v>
+      </c>
     </row>
     <row r="30" spans="1:2" ht="75">
-      <c r="A30" s="20" t="s">
-        <v>524</v>
-      </c>
-      <c r="B30" s="20" t="s">
+      <c r="A30" s="17" t="s">
         <v>523</v>
       </c>
+      <c r="B30" s="17" t="s">
+        <v>522</v>
+      </c>
     </row>
     <row r="31" spans="1:2" ht="45">
-      <c r="A31" s="20" t="s">
-        <v>522</v>
-      </c>
-      <c r="B31" s="20" t="s">
+      <c r="A31" s="17" t="s">
         <v>521</v>
       </c>
+      <c r="B31" s="17" t="s">
+        <v>520</v>
+      </c>
     </row>
     <row r="32" spans="1:2" ht="30">
-      <c r="A32" s="20" t="s">
+      <c r="A32" s="17" t="s">
+        <v>371</v>
+      </c>
+      <c r="B32" s="17" t="s">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2">
+      <c r="A33" s="17" t="s">
+        <v>518</v>
+      </c>
+      <c r="B33" s="17" t="s">
+        <v>517</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2">
+      <c r="A34" s="17" t="s">
+        <v>516</v>
+      </c>
+      <c r="B34" s="17" t="s">
+        <v>515</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2">
+      <c r="A35" s="17" t="s">
+        <v>514</v>
+      </c>
+      <c r="B35" s="17" t="s">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2">
+      <c r="A36" s="17" t="s">
+        <v>512</v>
+      </c>
+      <c r="B36" s="17" t="s">
+        <v>511</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2">
+      <c r="A37" s="17" t="s">
+        <v>510</v>
+      </c>
+      <c r="B37" s="17" t="s">
+        <v>509</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2">
+      <c r="A38" s="17" t="s">
+        <v>508</v>
+      </c>
+      <c r="B38" s="17" t="s">
+        <v>507</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2">
+      <c r="A39" s="17" t="s">
+        <v>506</v>
+      </c>
+      <c r="B39" s="17" t="s">
+        <v>505</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2">
+      <c r="A40" s="17" t="s">
+        <v>504</v>
+      </c>
+      <c r="B40" s="17" t="s">
+        <v>503</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2">
+      <c r="A41" s="17" t="s">
+        <v>502</v>
+      </c>
+      <c r="B41" s="17" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2">
+      <c r="A42" s="17" t="s">
+        <v>500</v>
+      </c>
+      <c r="B42" s="17" t="s">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2">
+      <c r="A43" s="17" t="s">
+        <v>498</v>
+      </c>
+      <c r="B43" s="17" t="s">
+        <v>497</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2">
+      <c r="A44" s="17" t="s">
+        <v>496</v>
+      </c>
+      <c r="B44" s="17" t="s">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2">
+      <c r="A45" s="17" t="s">
+        <v>494</v>
+      </c>
+      <c r="B45" s="17" t="s">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2">
+      <c r="A46" s="17" t="s">
+        <v>492</v>
+      </c>
+      <c r="B46" s="17" t="s">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2">
+      <c r="A47" s="17" t="s">
+        <v>490</v>
+      </c>
+      <c r="B47" s="17" t="s">
+        <v>489</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2">
+      <c r="A48" s="17" t="s">
+        <v>488</v>
+      </c>
+      <c r="B48" s="17" t="s">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2">
+      <c r="A49" s="17" t="s">
+        <v>486</v>
+      </c>
+      <c r="B49" s="17" t="s">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" ht="30">
+      <c r="A50" s="17" t="s">
+        <v>484</v>
+      </c>
+      <c r="B50" s="17" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2">
+      <c r="A51" s="17" t="s">
+        <v>482</v>
+      </c>
+      <c r="B51" s="17" t="s">
+        <v>481</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2">
+      <c r="A52" s="17" t="s">
+        <v>480</v>
+      </c>
+      <c r="B52" s="17" t="s">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2">
+      <c r="A53" s="17" t="s">
+        <v>478</v>
+      </c>
+      <c r="B53" s="17" t="s">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2">
+      <c r="A54" s="17" t="s">
+        <v>476</v>
+      </c>
+      <c r="B54" s="17" t="s">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2">
+      <c r="A55" s="17" t="s">
+        <v>474</v>
+      </c>
+      <c r="B55" s="17" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2">
+      <c r="A56" s="17" t="s">
+        <v>472</v>
+      </c>
+      <c r="B56" s="17" t="s">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2">
+      <c r="A57" s="17" t="s">
+        <v>470</v>
+      </c>
+      <c r="B57" s="17" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2">
+      <c r="A58" s="17" t="s">
+        <v>468</v>
+      </c>
+      <c r="B58" s="17" t="s">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2">
+      <c r="A59" s="17" t="s">
+        <v>466</v>
+      </c>
+      <c r="B59" s="17" t="s">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2">
+      <c r="A60" s="17" t="s">
+        <v>464</v>
+      </c>
+      <c r="B60" s="17" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2">
+      <c r="A61" s="17" t="s">
+        <v>462</v>
+      </c>
+      <c r="B61" s="17" t="s">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2">
+      <c r="A62" s="17" t="s">
+        <v>460</v>
+      </c>
+      <c r="B62" s="17" t="s">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2">
+      <c r="A63" s="17" t="s">
+        <v>458</v>
+      </c>
+      <c r="B63" s="17" t="s">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2">
+      <c r="A64" s="17" t="s">
+        <v>456</v>
+      </c>
+      <c r="B64" s="17" t="s">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2">
+      <c r="A65" s="17" t="s">
+        <v>454</v>
+      </c>
+      <c r="B65" s="17" t="s">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2">
+      <c r="A66" s="17" t="s">
+        <v>452</v>
+      </c>
+      <c r="B66" s="17" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2">
+      <c r="A67" s="17" t="s">
+        <v>450</v>
+      </c>
+      <c r="B67" s="17" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2">
+      <c r="A68" s="17" t="s">
+        <v>448</v>
+      </c>
+      <c r="B68" s="17" t="s">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2">
+      <c r="A69" s="17" t="s">
+        <v>446</v>
+      </c>
+      <c r="B69" s="17" t="s">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2">
+      <c r="A70" s="17" t="s">
+        <v>444</v>
+      </c>
+      <c r="B70" s="17" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2">
+      <c r="A71" s="17" t="s">
+        <v>442</v>
+      </c>
+      <c r="B71" s="17" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2">
+      <c r="A72" s="17" t="s">
+        <v>440</v>
+      </c>
+      <c r="B72" s="17" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2">
+      <c r="A73" s="17" t="s">
+        <v>438</v>
+      </c>
+      <c r="B73" s="17" t="s">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="74" spans="1:2">
+      <c r="A74" s="17" t="s">
+        <v>436</v>
+      </c>
+      <c r="B74" s="17" t="s">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="75" spans="1:2">
+      <c r="A75" s="17" t="s">
+        <v>434</v>
+      </c>
+      <c r="B75" s="17" t="s">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="76" spans="1:2">
+      <c r="A76" s="17" t="s">
+        <v>432</v>
+      </c>
+      <c r="B76" s="17" t="s">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="77" spans="1:2">
+      <c r="A77" s="17" t="s">
+        <v>430</v>
+      </c>
+      <c r="B77" s="17" t="s">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="78" spans="1:2">
+      <c r="A78" s="17" t="s">
+        <v>428</v>
+      </c>
+      <c r="B78" s="17" t="s">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="79" spans="1:2">
+      <c r="A79" s="17" t="s">
+        <v>426</v>
+      </c>
+      <c r="B79" s="17" t="s">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="80" spans="1:2">
+      <c r="A80" s="17" t="s">
+        <v>424</v>
+      </c>
+      <c r="B80" s="17" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="81" spans="1:2">
+      <c r="A81" s="17" t="s">
+        <v>422</v>
+      </c>
+      <c r="B81" s="17" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="82" spans="1:2" ht="45">
+      <c r="A82" s="17" t="s">
+        <v>420</v>
+      </c>
+      <c r="B82" s="17" t="s">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="83" spans="1:2">
+      <c r="A83" s="17" t="s">
+        <v>418</v>
+      </c>
+      <c r="B83" s="17" t="s">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="84" spans="1:2">
+      <c r="A84" s="17" t="s">
+        <v>416</v>
+      </c>
+      <c r="B84" s="17" t="s">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="85" spans="1:2" ht="30">
+      <c r="A85" s="17" t="s">
+        <v>414</v>
+      </c>
+      <c r="B85" s="17" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="86" spans="1:2" ht="30">
+      <c r="A86" s="36" t="s">
+        <v>412</v>
+      </c>
+      <c r="B86" s="17" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="87" spans="1:2" ht="30">
+      <c r="A87" s="36"/>
+      <c r="B87" s="17" t="s">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="88" spans="1:2" ht="75">
+      <c r="A88" s="36"/>
+      <c r="B88" s="17" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="89" spans="1:2">
+      <c r="A89" s="17" t="s">
+        <v>408</v>
+      </c>
+      <c r="B89" s="17" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="90" spans="1:2">
+      <c r="A90" s="17" t="s">
+        <v>406</v>
+      </c>
+      <c r="B90" s="17" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="91" spans="1:2" ht="105">
+      <c r="A91" s="17" t="s">
+        <v>95</v>
+      </c>
+      <c r="B91" s="17" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="92" spans="1:2" ht="30">
+      <c r="A92" s="17" t="s">
+        <v>403</v>
+      </c>
+      <c r="B92" s="17" t="s">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="93" spans="1:2">
+      <c r="A93" s="36" t="s">
+        <v>401</v>
+      </c>
+      <c r="B93" s="17" t="s">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="94" spans="1:2" ht="45">
+      <c r="A94" s="36"/>
+      <c r="B94" s="17" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="95" spans="1:2" ht="30">
+      <c r="A95" s="17" t="s">
+        <v>398</v>
+      </c>
+      <c r="B95" s="17" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="96" spans="1:2">
+      <c r="A96" s="17" t="s">
+        <v>396</v>
+      </c>
+      <c r="B96" s="17" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="97" spans="1:2">
+      <c r="A97" s="17" t="s">
+        <v>394</v>
+      </c>
+      <c r="B97" s="17" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="98" spans="1:2" ht="30">
+      <c r="A98" s="17" t="s">
+        <v>392</v>
+      </c>
+      <c r="B98" s="17" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="99" spans="1:2" ht="30">
+      <c r="A99" s="17" t="s">
+        <v>390</v>
+      </c>
+      <c r="B99" s="17" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="100" spans="1:2">
+      <c r="A100" s="17" t="s">
+        <v>388</v>
+      </c>
+      <c r="B100" s="17" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="101" spans="1:2" ht="30">
+      <c r="A101" s="17" t="s">
+        <v>386</v>
+      </c>
+      <c r="B101" s="17" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="102" spans="1:2" ht="195">
+      <c r="A102" s="17" t="s">
+        <v>384</v>
+      </c>
+      <c r="B102" s="17" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="103" spans="1:2">
+      <c r="A103" s="17" t="s">
+        <v>382</v>
+      </c>
+      <c r="B103" s="17" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="104" spans="1:2" ht="45">
+      <c r="A104" s="17" t="s">
+        <v>380</v>
+      </c>
+      <c r="B104" s="17" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="105" spans="1:2" ht="30">
+      <c r="A105" s="17" t="s">
+        <v>378</v>
+      </c>
+      <c r="B105" s="17" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="106" spans="1:2">
+      <c r="A106" s="42" t="s">
+        <v>376</v>
+      </c>
+      <c r="B106" s="43"/>
+    </row>
+    <row r="107" spans="1:2">
+      <c r="A107" s="44" t="s">
+        <v>375</v>
+      </c>
+      <c r="B107" s="17" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="108" spans="1:2">
+      <c r="A108" s="36"/>
+      <c r="B108" s="17" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="109" spans="1:2">
+      <c r="A109" s="36"/>
+      <c r="B109" s="17" t="s">
         <v>372</v>
       </c>
-      <c r="B32" s="20" t="s">
-        <v>520</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2">
-      <c r="A33" s="20" t="s">
-        <v>519</v>
-      </c>
-      <c r="B33" s="20" t="s">
-        <v>518</v>
-      </c>
-    </row>
-    <row r="34" spans="1:2">
-      <c r="A34" s="20" t="s">
-        <v>517</v>
-      </c>
-      <c r="B34" s="20" t="s">
-        <v>516</v>
-      </c>
-    </row>
-    <row r="35" spans="1:2">
-      <c r="A35" s="20" t="s">
-        <v>515</v>
-      </c>
-      <c r="B35" s="20" t="s">
-        <v>514</v>
-      </c>
-    </row>
-    <row r="36" spans="1:2">
-      <c r="A36" s="20" t="s">
-        <v>513</v>
-      </c>
-      <c r="B36" s="20" t="s">
-        <v>512</v>
-      </c>
-    </row>
-    <row r="37" spans="1:2">
-      <c r="A37" s="20" t="s">
-        <v>511</v>
-      </c>
-      <c r="B37" s="20" t="s">
-        <v>510</v>
-      </c>
-    </row>
-    <row r="38" spans="1:2">
-      <c r="A38" s="20" t="s">
-        <v>509</v>
-      </c>
-      <c r="B38" s="20" t="s">
-        <v>508</v>
-      </c>
-    </row>
-    <row r="39" spans="1:2">
-      <c r="A39" s="20" t="s">
-        <v>507</v>
-      </c>
-      <c r="B39" s="20" t="s">
-        <v>506</v>
-      </c>
-    </row>
-    <row r="40" spans="1:2">
-      <c r="A40" s="20" t="s">
-        <v>505</v>
-      </c>
-      <c r="B40" s="20" t="s">
-        <v>504</v>
-      </c>
-    </row>
-    <row r="41" spans="1:2">
-      <c r="A41" s="20" t="s">
-        <v>503</v>
-      </c>
-      <c r="B41" s="20" t="s">
-        <v>502</v>
-      </c>
-    </row>
-    <row r="42" spans="1:2">
-      <c r="A42" s="20" t="s">
-        <v>501</v>
-      </c>
-      <c r="B42" s="20" t="s">
-        <v>500</v>
-      </c>
-    </row>
-    <row r="43" spans="1:2">
-      <c r="A43" s="20" t="s">
-        <v>499</v>
-      </c>
-      <c r="B43" s="20" t="s">
-        <v>498</v>
-      </c>
-    </row>
-    <row r="44" spans="1:2">
-      <c r="A44" s="20" t="s">
-        <v>497</v>
-      </c>
-      <c r="B44" s="20" t="s">
-        <v>496</v>
-      </c>
-    </row>
-    <row r="45" spans="1:2">
-      <c r="A45" s="20" t="s">
-        <v>495</v>
-      </c>
-      <c r="B45" s="20" t="s">
-        <v>494</v>
-      </c>
-    </row>
-    <row r="46" spans="1:2">
-      <c r="A46" s="20" t="s">
-        <v>493</v>
-      </c>
-      <c r="B46" s="20" t="s">
-        <v>492</v>
-      </c>
-    </row>
-    <row r="47" spans="1:2">
-      <c r="A47" s="20" t="s">
-        <v>491</v>
-      </c>
-      <c r="B47" s="20" t="s">
-        <v>490</v>
-      </c>
-    </row>
-    <row r="48" spans="1:2">
-      <c r="A48" s="20" t="s">
-        <v>489</v>
-      </c>
-      <c r="B48" s="20" t="s">
-        <v>488</v>
-      </c>
-    </row>
-    <row r="49" spans="1:2">
-      <c r="A49" s="20" t="s">
-        <v>487</v>
-      </c>
-      <c r="B49" s="20" t="s">
-        <v>486</v>
-      </c>
-    </row>
-    <row r="50" spans="1:2" ht="30">
-      <c r="A50" s="20" t="s">
-        <v>485</v>
-      </c>
-      <c r="B50" s="20" t="s">
-        <v>484</v>
-      </c>
-    </row>
-    <row r="51" spans="1:2">
-      <c r="A51" s="20" t="s">
-        <v>483</v>
-      </c>
-      <c r="B51" s="20" t="s">
-        <v>482</v>
-      </c>
-    </row>
-    <row r="52" spans="1:2">
-      <c r="A52" s="20" t="s">
-        <v>481</v>
-      </c>
-      <c r="B52" s="20" t="s">
-        <v>480</v>
-      </c>
-    </row>
-    <row r="53" spans="1:2">
-      <c r="A53" s="20" t="s">
-        <v>479</v>
-      </c>
-      <c r="B53" s="20" t="s">
-        <v>478</v>
-      </c>
-    </row>
-    <row r="54" spans="1:2">
-      <c r="A54" s="20" t="s">
-        <v>477</v>
-      </c>
-      <c r="B54" s="20" t="s">
-        <v>476</v>
-      </c>
-    </row>
-    <row r="55" spans="1:2">
-      <c r="A55" s="20" t="s">
-        <v>475</v>
-      </c>
-      <c r="B55" s="20" t="s">
-        <v>474</v>
-      </c>
-    </row>
-    <row r="56" spans="1:2">
-      <c r="A56" s="20" t="s">
-        <v>473</v>
-      </c>
-      <c r="B56" s="20" t="s">
-        <v>472</v>
-      </c>
-    </row>
-    <row r="57" spans="1:2">
-      <c r="A57" s="20" t="s">
-        <v>471</v>
-      </c>
-      <c r="B57" s="20" t="s">
-        <v>470</v>
-      </c>
-    </row>
-    <row r="58" spans="1:2">
-      <c r="A58" s="20" t="s">
-        <v>469</v>
-      </c>
-      <c r="B58" s="20" t="s">
-        <v>468</v>
-      </c>
-    </row>
-    <row r="59" spans="1:2">
-      <c r="A59" s="20" t="s">
-        <v>467</v>
-      </c>
-      <c r="B59" s="20" t="s">
-        <v>466</v>
-      </c>
-    </row>
-    <row r="60" spans="1:2">
-      <c r="A60" s="20" t="s">
-        <v>465</v>
-      </c>
-      <c r="B60" s="20" t="s">
-        <v>464</v>
-      </c>
-    </row>
-    <row r="61" spans="1:2">
-      <c r="A61" s="20" t="s">
-        <v>463</v>
-      </c>
-      <c r="B61" s="20" t="s">
-        <v>462</v>
-      </c>
-    </row>
-    <row r="62" spans="1:2">
-      <c r="A62" s="20" t="s">
-        <v>461</v>
-      </c>
-      <c r="B62" s="20" t="s">
-        <v>460</v>
-      </c>
-    </row>
-    <row r="63" spans="1:2">
-      <c r="A63" s="20" t="s">
-        <v>459</v>
-      </c>
-      <c r="B63" s="20" t="s">
-        <v>458</v>
-      </c>
-    </row>
-    <row r="64" spans="1:2">
-      <c r="A64" s="20" t="s">
-        <v>457</v>
-      </c>
-      <c r="B64" s="20" t="s">
-        <v>456</v>
-      </c>
-    </row>
-    <row r="65" spans="1:2">
-      <c r="A65" s="20" t="s">
-        <v>455</v>
-      </c>
-      <c r="B65" s="20" t="s">
-        <v>454</v>
-      </c>
-    </row>
-    <row r="66" spans="1:2">
-      <c r="A66" s="20" t="s">
-        <v>453</v>
-      </c>
-      <c r="B66" s="20" t="s">
-        <v>452</v>
-      </c>
-    </row>
-    <row r="67" spans="1:2">
-      <c r="A67" s="20" t="s">
-        <v>451</v>
-      </c>
-      <c r="B67" s="20" t="s">
-        <v>450</v>
-      </c>
-    </row>
-    <row r="68" spans="1:2">
-      <c r="A68" s="20" t="s">
-        <v>449</v>
-      </c>
-      <c r="B68" s="20" t="s">
-        <v>448</v>
-      </c>
-    </row>
-    <row r="69" spans="1:2">
-      <c r="A69" s="20" t="s">
-        <v>447</v>
-      </c>
-      <c r="B69" s="20" t="s">
-        <v>446</v>
-      </c>
-    </row>
-    <row r="70" spans="1:2">
-      <c r="A70" s="20" t="s">
-        <v>445</v>
-      </c>
-      <c r="B70" s="20" t="s">
-        <v>444</v>
-      </c>
-    </row>
-    <row r="71" spans="1:2">
-      <c r="A71" s="20" t="s">
-        <v>443</v>
-      </c>
-      <c r="B71" s="20" t="s">
-        <v>442</v>
-      </c>
-    </row>
-    <row r="72" spans="1:2">
-      <c r="A72" s="20" t="s">
-        <v>441</v>
-      </c>
-      <c r="B72" s="20" t="s">
-        <v>440</v>
-      </c>
-    </row>
-    <row r="73" spans="1:2">
-      <c r="A73" s="20" t="s">
-        <v>439</v>
-      </c>
-      <c r="B73" s="20" t="s">
-        <v>438</v>
-      </c>
-    </row>
-    <row r="74" spans="1:2">
-      <c r="A74" s="20" t="s">
-        <v>437</v>
-      </c>
-      <c r="B74" s="20" t="s">
-        <v>436</v>
-      </c>
-    </row>
-    <row r="75" spans="1:2">
-      <c r="A75" s="20" t="s">
-        <v>435</v>
-      </c>
-      <c r="B75" s="20" t="s">
-        <v>434</v>
-      </c>
-    </row>
-    <row r="76" spans="1:2">
-      <c r="A76" s="20" t="s">
-        <v>433</v>
-      </c>
-      <c r="B76" s="20" t="s">
-        <v>432</v>
-      </c>
-    </row>
-    <row r="77" spans="1:2">
-      <c r="A77" s="20" t="s">
-        <v>431</v>
-      </c>
-      <c r="B77" s="20" t="s">
-        <v>430</v>
-      </c>
-    </row>
-    <row r="78" spans="1:2">
-      <c r="A78" s="20" t="s">
-        <v>429</v>
-      </c>
-      <c r="B78" s="20" t="s">
-        <v>428</v>
-      </c>
-    </row>
-    <row r="79" spans="1:2">
-      <c r="A79" s="20" t="s">
-        <v>427</v>
-      </c>
-      <c r="B79" s="20" t="s">
-        <v>426</v>
-      </c>
-    </row>
-    <row r="80" spans="1:2">
-      <c r="A80" s="20" t="s">
-        <v>425</v>
-      </c>
-      <c r="B80" s="20" t="s">
-        <v>424</v>
-      </c>
-    </row>
-    <row r="81" spans="1:2">
-      <c r="A81" s="20" t="s">
-        <v>423</v>
-      </c>
-      <c r="B81" s="20" t="s">
-        <v>422</v>
-      </c>
-    </row>
-    <row r="82" spans="1:2" ht="45">
-      <c r="A82" s="20" t="s">
-        <v>421</v>
-      </c>
-      <c r="B82" s="20" t="s">
-        <v>420</v>
-      </c>
-    </row>
-    <row r="83" spans="1:2">
-      <c r="A83" s="20" t="s">
-        <v>419</v>
-      </c>
-      <c r="B83" s="20" t="s">
-        <v>418</v>
-      </c>
-    </row>
-    <row r="84" spans="1:2">
-      <c r="A84" s="20" t="s">
-        <v>417</v>
-      </c>
-      <c r="B84" s="20" t="s">
-        <v>416</v>
-      </c>
-    </row>
-    <row r="85" spans="1:2" ht="30">
-      <c r="A85" s="20" t="s">
-        <v>415</v>
-      </c>
-      <c r="B85" s="20" t="s">
-        <v>414</v>
-      </c>
-    </row>
-    <row r="86" spans="1:2" ht="30">
-      <c r="A86" s="30" t="s">
-        <v>413</v>
-      </c>
-      <c r="B86" s="20" t="s">
-        <v>412</v>
-      </c>
-    </row>
-    <row r="87" spans="1:2" ht="30">
-      <c r="A87" s="30"/>
-      <c r="B87" s="20" t="s">
-        <v>411</v>
-      </c>
-    </row>
-    <row r="88" spans="1:2" ht="75">
-      <c r="A88" s="30"/>
-      <c r="B88" s="20" t="s">
-        <v>410</v>
-      </c>
-    </row>
-    <row r="89" spans="1:2">
-      <c r="A89" s="20" t="s">
-        <v>409</v>
-      </c>
-      <c r="B89" s="20" t="s">
-        <v>408</v>
-      </c>
-    </row>
-    <row r="90" spans="1:2">
-      <c r="A90" s="20" t="s">
-        <v>407</v>
-      </c>
-      <c r="B90" s="20" t="s">
-        <v>406</v>
-      </c>
-    </row>
-    <row r="91" spans="1:2" ht="105">
-      <c r="A91" s="20" t="s">
-        <v>95</v>
-      </c>
-      <c r="B91" s="20" t="s">
-        <v>405</v>
-      </c>
-    </row>
-    <row r="92" spans="1:2" ht="30">
-      <c r="A92" s="20" t="s">
-        <v>404</v>
-      </c>
-      <c r="B92" s="20" t="s">
-        <v>403</v>
-      </c>
-    </row>
-    <row r="93" spans="1:2">
-      <c r="A93" s="30" t="s">
-        <v>402</v>
-      </c>
-      <c r="B93" s="20" t="s">
-        <v>401</v>
-      </c>
-    </row>
-    <row r="94" spans="1:2" ht="45">
-      <c r="A94" s="30"/>
-      <c r="B94" s="20" t="s">
-        <v>400</v>
-      </c>
-    </row>
-    <row r="95" spans="1:2" ht="30">
-      <c r="A95" s="20" t="s">
-        <v>399</v>
-      </c>
-      <c r="B95" s="20" t="s">
-        <v>398</v>
-      </c>
-    </row>
-    <row r="96" spans="1:2">
-      <c r="A96" s="20" t="s">
-        <v>397</v>
-      </c>
-      <c r="B96" s="20" t="s">
-        <v>396</v>
-      </c>
-    </row>
-    <row r="97" spans="1:2">
-      <c r="A97" s="20" t="s">
-        <v>395</v>
-      </c>
-      <c r="B97" s="20" t="s">
-        <v>394</v>
-      </c>
-    </row>
-    <row r="98" spans="1:2" ht="30">
-      <c r="A98" s="20" t="s">
-        <v>393</v>
-      </c>
-      <c r="B98" s="20" t="s">
-        <v>392</v>
-      </c>
-    </row>
-    <row r="99" spans="1:2" ht="30">
-      <c r="A99" s="20" t="s">
-        <v>391</v>
-      </c>
-      <c r="B99" s="20" t="s">
-        <v>390</v>
-      </c>
-    </row>
-    <row r="100" spans="1:2">
-      <c r="A100" s="20" t="s">
-        <v>389</v>
-      </c>
-      <c r="B100" s="20" t="s">
-        <v>388</v>
-      </c>
-    </row>
-    <row r="101" spans="1:2" ht="30">
-      <c r="A101" s="20" t="s">
-        <v>387</v>
-      </c>
-      <c r="B101" s="20" t="s">
-        <v>386</v>
-      </c>
-    </row>
-    <row r="102" spans="1:2" ht="195">
-      <c r="A102" s="20" t="s">
-        <v>385</v>
-      </c>
-      <c r="B102" s="20" t="s">
-        <v>384</v>
-      </c>
-    </row>
-    <row r="103" spans="1:2">
-      <c r="A103" s="20" t="s">
-        <v>383</v>
-      </c>
-      <c r="B103" s="20" t="s">
-        <v>382</v>
-      </c>
-    </row>
-    <row r="104" spans="1:2" ht="45">
-      <c r="A104" s="20" t="s">
-        <v>381</v>
-      </c>
-      <c r="B104" s="20" t="s">
-        <v>380</v>
-      </c>
-    </row>
-    <row r="105" spans="1:2" ht="30">
-      <c r="A105" s="20" t="s">
-        <v>379</v>
-      </c>
-      <c r="B105" s="20" t="s">
-        <v>378</v>
-      </c>
-    </row>
-    <row r="106" spans="1:2">
-      <c r="A106" s="35" t="s">
-        <v>377</v>
-      </c>
-      <c r="B106" s="36"/>
-    </row>
-    <row r="107" spans="1:2">
-      <c r="A107" s="37" t="s">
-        <v>376</v>
-      </c>
-      <c r="B107" s="20" t="s">
-        <v>375</v>
-      </c>
-    </row>
-    <row r="108" spans="1:2">
-      <c r="A108" s="30"/>
-      <c r="B108" s="20" t="s">
-        <v>374</v>
-      </c>
-    </row>
-    <row r="109" spans="1:2">
-      <c r="A109" s="30"/>
-      <c r="B109" s="20" t="s">
-        <v>373</v>
-      </c>
     </row>
     <row r="110" spans="1:2" ht="30">
-      <c r="A110" s="20" t="s">
-        <v>372</v>
-      </c>
-      <c r="B110" s="20" t="s">
+      <c r="A110" s="17" t="s">
         <v>371</v>
       </c>
+      <c r="B110" s="17" t="s">
+        <v>370</v>
+      </c>
     </row>
     <row r="111" spans="1:2" ht="45">
-      <c r="A111" s="20" t="s">
-        <v>370</v>
-      </c>
-      <c r="B111" s="20" t="s">
+      <c r="A111" s="17" t="s">
         <v>369</v>
       </c>
+      <c r="B111" s="17" t="s">
+        <v>368</v>
+      </c>
     </row>
     <row r="112" spans="1:2">
-      <c r="A112" s="20" t="s">
-        <v>368</v>
-      </c>
-      <c r="B112" s="20" t="s">
+      <c r="A112" s="17" t="s">
         <v>367</v>
       </c>
+      <c r="B112" s="17" t="s">
+        <v>366</v>
+      </c>
     </row>
     <row r="113" spans="1:2" ht="45">
-      <c r="A113" s="20" t="s">
-        <v>366</v>
-      </c>
-      <c r="B113" s="20" t="s">
+      <c r="A113" s="17" t="s">
         <v>365</v>
       </c>
+      <c r="B113" s="17" t="s">
+        <v>364</v>
+      </c>
     </row>
     <row r="114" spans="1:2">
-      <c r="A114" s="20" t="s">
-        <v>364</v>
-      </c>
-      <c r="B114" s="20" t="s">
+      <c r="A114" s="17" t="s">
         <v>363</v>
       </c>
+      <c r="B114" s="17" t="s">
+        <v>362</v>
+      </c>
     </row>
     <row r="115" spans="1:2">
-      <c r="A115" s="30" t="s">
-        <v>362</v>
-      </c>
-      <c r="B115" s="34"/>
+      <c r="A115" s="36" t="s">
+        <v>361</v>
+      </c>
+      <c r="B115" s="41"/>
     </row>
     <row r="116" spans="1:2">
-      <c r="A116" s="30"/>
-      <c r="B116" s="34"/>
+      <c r="A116" s="36"/>
+      <c r="B116" s="41"/>
     </row>
     <row r="117" spans="1:2">
-      <c r="A117" s="30"/>
-      <c r="B117" s="34"/>
+      <c r="A117" s="36"/>
+      <c r="B117" s="41"/>
     </row>
     <row r="118" spans="1:2">
-      <c r="A118" s="30"/>
-      <c r="B118" s="34"/>
+      <c r="A118" s="36"/>
+      <c r="B118" s="41"/>
     </row>
     <row r="119" spans="1:2">
-      <c r="A119" s="30"/>
-      <c r="B119" s="34"/>
+      <c r="A119" s="36"/>
+      <c r="B119" s="41"/>
     </row>
     <row r="120" spans="1:2">
-      <c r="A120" s="30"/>
-      <c r="B120" s="34"/>
+      <c r="A120" s="36"/>
+      <c r="B120" s="41"/>
     </row>
     <row r="121" spans="1:2">
-      <c r="A121" s="30"/>
-      <c r="B121" s="34"/>
+      <c r="A121" s="36"/>
+      <c r="B121" s="41"/>
     </row>
     <row r="122" spans="1:2">
-      <c r="A122" s="30"/>
-      <c r="B122" s="34"/>
+      <c r="A122" s="36"/>
+      <c r="B122" s="41"/>
     </row>
     <row r="123" spans="1:2">
-      <c r="A123" s="30"/>
-      <c r="B123" s="34"/>
+      <c r="A123" s="36"/>
+      <c r="B123" s="41"/>
     </row>
     <row r="124" spans="1:2">
-      <c r="A124" s="30"/>
-      <c r="B124" s="34"/>
+      <c r="A124" s="36"/>
+      <c r="B124" s="41"/>
     </row>
     <row r="125" spans="1:2">
-      <c r="A125" s="30"/>
-      <c r="B125" s="34"/>
+      <c r="A125" s="36"/>
+      <c r="B125" s="41"/>
     </row>
     <row r="126" spans="1:2">
-      <c r="A126" s="30"/>
-      <c r="B126" s="34"/>
+      <c r="A126" s="36"/>
+      <c r="B126" s="41"/>
     </row>
     <row r="127" spans="1:2">
-      <c r="A127" s="20" t="s">
-        <v>361</v>
-      </c>
-      <c r="B127" s="20" t="s">
+      <c r="A127" s="17" t="s">
         <v>360</v>
       </c>
+      <c r="B127" s="17" t="s">
+        <v>359</v>
+      </c>
     </row>
     <row r="128" spans="1:2">
-      <c r="A128" s="20" t="s">
-        <v>359</v>
-      </c>
-      <c r="B128" s="20" t="s">
+      <c r="A128" s="17" t="s">
         <v>358</v>
       </c>
+      <c r="B128" s="17" t="s">
+        <v>357</v>
+      </c>
     </row>
     <row r="129" spans="1:2" ht="30">
-      <c r="A129" s="20" t="s">
-        <v>357</v>
-      </c>
-      <c r="B129" s="20" t="s">
+      <c r="A129" s="17" t="s">
         <v>356</v>
       </c>
+      <c r="B129" s="17" t="s">
+        <v>355</v>
+      </c>
     </row>
     <row r="130" spans="1:2">
-      <c r="A130" s="20" t="s">
-        <v>355</v>
-      </c>
-      <c r="B130" s="20" t="s">
+      <c r="A130" s="17" t="s">
         <v>354</v>
       </c>
+      <c r="B130" s="17" t="s">
+        <v>353</v>
+      </c>
     </row>
     <row r="131" spans="1:2">
-      <c r="A131" s="20" t="s">
-        <v>353</v>
-      </c>
-      <c r="B131" s="20" t="s">
+      <c r="A131" s="17" t="s">
         <v>352</v>
       </c>
+      <c r="B131" s="17" t="s">
+        <v>351</v>
+      </c>
     </row>
     <row r="132" spans="1:2">
-      <c r="A132" s="20" t="s">
-        <v>351</v>
-      </c>
-      <c r="B132" s="20" t="s">
+      <c r="A132" s="17" t="s">
         <v>350</v>
       </c>
+      <c r="B132" s="17" t="s">
+        <v>349</v>
+      </c>
     </row>
     <row r="133" spans="1:2">
-      <c r="A133" s="20" t="s">
-        <v>349</v>
-      </c>
-      <c r="B133" s="20" t="s">
+      <c r="A133" s="17" t="s">
         <v>348</v>
       </c>
+      <c r="B133" s="17" t="s">
+        <v>347</v>
+      </c>
     </row>
     <row r="134" spans="1:2">
-      <c r="A134" s="20" t="s">
-        <v>347</v>
-      </c>
-      <c r="B134" s="20" t="s">
+      <c r="A134" s="17" t="s">
         <v>346</v>
       </c>
+      <c r="B134" s="17" t="s">
+        <v>345</v>
+      </c>
     </row>
     <row r="135" spans="1:2">
-      <c r="A135" s="20" t="s">
-        <v>345</v>
-      </c>
-      <c r="B135" s="20" t="s">
+      <c r="A135" s="17" t="s">
         <v>344</v>
       </c>
+      <c r="B135" s="17" t="s">
+        <v>343</v>
+      </c>
     </row>
     <row r="136" spans="1:2">
-      <c r="A136" s="20" t="s">
-        <v>343</v>
-      </c>
-      <c r="B136" s="20" t="s">
+      <c r="A136" s="17" t="s">
         <v>342</v>
       </c>
+      <c r="B136" s="17" t="s">
+        <v>341</v>
+      </c>
     </row>
     <row r="137" spans="1:2">
-      <c r="A137" s="20" t="s">
-        <v>341</v>
-      </c>
-      <c r="B137" s="20" t="s">
+      <c r="A137" s="17" t="s">
         <v>340</v>
       </c>
+      <c r="B137" s="17" t="s">
+        <v>339</v>
+      </c>
     </row>
     <row r="138" spans="1:2" ht="30">
-      <c r="A138" s="20" t="s">
-        <v>339</v>
-      </c>
-      <c r="B138" s="20" t="s">
+      <c r="A138" s="17" t="s">
         <v>338</v>
       </c>
+      <c r="B138" s="17" t="s">
+        <v>337</v>
+      </c>
     </row>
     <row r="139" spans="1:2">
-      <c r="A139" s="20" t="s">
-        <v>337</v>
-      </c>
-      <c r="B139" s="20" t="s">
+      <c r="A139" s="17" t="s">
         <v>336</v>
       </c>
+      <c r="B139" s="17" t="s">
+        <v>335</v>
+      </c>
     </row>
     <row r="140" spans="1:2">
-      <c r="A140" s="20" t="s">
-        <v>335</v>
-      </c>
-      <c r="B140" s="20" t="s">
+      <c r="A140" s="17" t="s">
         <v>334</v>
       </c>
+      <c r="B140" s="17" t="s">
+        <v>333</v>
+      </c>
     </row>
     <row r="141" spans="1:2">
-      <c r="A141" s="20" t="s">
-        <v>333</v>
-      </c>
-      <c r="B141" s="20" t="s">
+      <c r="A141" s="17" t="s">
         <v>332</v>
       </c>
+      <c r="B141" s="17" t="s">
+        <v>331</v>
+      </c>
     </row>
     <row r="142" spans="1:2">
-      <c r="A142" s="20" t="s">
-        <v>331</v>
-      </c>
-      <c r="B142" s="20" t="s">
+      <c r="A142" s="17" t="s">
         <v>330</v>
       </c>
+      <c r="B142" s="17" t="s">
+        <v>329</v>
+      </c>
     </row>
     <row r="143" spans="1:2">
-      <c r="A143" s="20" t="s">
-        <v>329</v>
-      </c>
-      <c r="B143" s="20" t="s">
+      <c r="A143" s="17" t="s">
         <v>328</v>
       </c>
+      <c r="B143" s="17" t="s">
+        <v>327</v>
+      </c>
     </row>
     <row r="144" spans="1:2">
-      <c r="A144" s="30" t="s">
-        <v>327</v>
-      </c>
-      <c r="B144" s="34"/>
+      <c r="A144" s="36" t="s">
+        <v>326</v>
+      </c>
+      <c r="B144" s="41"/>
     </row>
     <row r="145" spans="1:2">
-      <c r="A145" s="30"/>
-      <c r="B145" s="34"/>
+      <c r="A145" s="36"/>
+      <c r="B145" s="41"/>
     </row>
     <row r="146" spans="1:2">
-      <c r="A146" s="30"/>
-      <c r="B146" s="34"/>
+      <c r="A146" s="36"/>
+      <c r="B146" s="41"/>
     </row>
     <row r="147" spans="1:2">
-      <c r="A147" s="30"/>
-      <c r="B147" s="34"/>
+      <c r="A147" s="36"/>
+      <c r="B147" s="41"/>
     </row>
     <row r="148" spans="1:2">
-      <c r="A148" s="30"/>
-      <c r="B148" s="34"/>
+      <c r="A148" s="36"/>
+      <c r="B148" s="41"/>
     </row>
     <row r="149" spans="1:2">
-      <c r="A149" s="30"/>
-      <c r="B149" s="34"/>
+      <c r="A149" s="36"/>
+      <c r="B149" s="41"/>
     </row>
     <row r="150" spans="1:2">
-      <c r="A150" s="30"/>
-      <c r="B150" s="34"/>
+      <c r="A150" s="36"/>
+      <c r="B150" s="41"/>
     </row>
     <row r="151" spans="1:2">
-      <c r="A151" s="30"/>
-      <c r="B151" s="34"/>
+      <c r="A151" s="36"/>
+      <c r="B151" s="41"/>
     </row>
     <row r="152" spans="1:2">
-      <c r="A152" s="30"/>
-      <c r="B152" s="34"/>
+      <c r="A152" s="36"/>
+      <c r="B152" s="41"/>
     </row>
     <row r="153" spans="1:2">
-      <c r="A153" s="30"/>
-      <c r="B153" s="34"/>
+      <c r="A153" s="36"/>
+      <c r="B153" s="41"/>
     </row>
     <row r="154" spans="1:2">
-      <c r="A154" s="30"/>
-      <c r="B154" s="34"/>
+      <c r="A154" s="36"/>
+      <c r="B154" s="41"/>
     </row>
     <row r="155" spans="1:2">
-      <c r="A155" s="30"/>
-      <c r="B155" s="34"/>
+      <c r="A155" s="36"/>
+      <c r="B155" s="41"/>
     </row>
     <row r="156" spans="1:2">
-      <c r="A156" s="30"/>
-      <c r="B156" s="34"/>
+      <c r="A156" s="36"/>
+      <c r="B156" s="41"/>
     </row>
     <row r="157" spans="1:2">
-      <c r="A157" s="20" t="s">
-        <v>326</v>
-      </c>
-      <c r="B157" s="20" t="s">
+      <c r="A157" s="17" t="s">
         <v>325</v>
       </c>
+      <c r="B157" s="17" t="s">
+        <v>324</v>
+      </c>
     </row>
     <row r="158" spans="1:2">
-      <c r="A158" s="20" t="s">
-        <v>324</v>
-      </c>
-      <c r="B158" s="20" t="s">
+      <c r="A158" s="17" t="s">
         <v>323</v>
       </c>
+      <c r="B158" s="17" t="s">
+        <v>322</v>
+      </c>
     </row>
     <row r="159" spans="1:2">
-      <c r="A159" s="20" t="s">
-        <v>322</v>
-      </c>
-      <c r="B159" s="20" t="s">
+      <c r="A159" s="17" t="s">
         <v>321</v>
       </c>
+      <c r="B159" s="17" t="s">
+        <v>320</v>
+      </c>
     </row>
     <row r="160" spans="1:2">
-      <c r="A160" s="20" t="s">
-        <v>320</v>
-      </c>
-      <c r="B160" s="20" t="s">
+      <c r="A160" s="17" t="s">
         <v>319</v>
       </c>
+      <c r="B160" s="17" t="s">
+        <v>318</v>
+      </c>
     </row>
     <row r="161" spans="1:2">
-      <c r="A161" s="20" t="s">
-        <v>318</v>
-      </c>
-      <c r="B161" s="20" t="s">
+      <c r="A161" s="17" t="s">
         <v>317</v>
       </c>
+      <c r="B161" s="17" t="s">
+        <v>316</v>
+      </c>
     </row>
     <row r="162" spans="1:2" ht="75">
-      <c r="A162" s="20" t="s">
-        <v>316</v>
-      </c>
-      <c r="B162" s="20" t="s">
+      <c r="A162" s="17" t="s">
+        <v>315</v>
+      </c>
+      <c r="B162" s="17" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="163" spans="1:2" ht="75">
+      <c r="A163" s="17" t="s">
+        <v>314</v>
+      </c>
+      <c r="B163" s="17" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="164" spans="1:2" ht="75">
+      <c r="A164" s="17" t="s">
         <v>313</v>
       </c>
-    </row>
-    <row r="163" spans="1:2" ht="75">
-      <c r="A163" s="20" t="s">
-        <v>315</v>
-      </c>
-      <c r="B163" s="20" t="s">
+      <c r="B164" s="17" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="165" spans="1:2" ht="75">
+      <c r="A165" s="17" t="s">
         <v>311</v>
       </c>
-    </row>
-    <row r="164" spans="1:2" ht="75">
-      <c r="A164" s="20" t="s">
-        <v>314</v>
-      </c>
-      <c r="B164" s="20" t="s">
-        <v>313</v>
-      </c>
-    </row>
-    <row r="165" spans="1:2" ht="75">
-      <c r="A165" s="20" t="s">
-        <v>312</v>
-      </c>
-      <c r="B165" s="20" t="s">
-        <v>311</v>
+      <c r="B165" s="17" t="s">
+        <v>310</v>
       </c>
     </row>
     <row r="166" spans="1:2" ht="75">
-      <c r="A166" s="20" t="s">
-        <v>310</v>
-      </c>
-      <c r="B166" s="20" t="s">
+      <c r="A166" s="17" t="s">
+        <v>309</v>
+      </c>
+      <c r="B166" s="17" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="167" spans="1:2" ht="75">
+      <c r="A167" s="17" t="s">
+        <v>308</v>
+      </c>
+      <c r="B167" s="17" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="168" spans="1:2" ht="75">
+      <c r="A168" s="17" t="s">
         <v>307</v>
       </c>
-    </row>
-    <row r="167" spans="1:2" ht="75">
-      <c r="A167" s="20" t="s">
-        <v>309</v>
-      </c>
-      <c r="B167" s="20" t="s">
+      <c r="B168" s="17" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="169" spans="1:2" ht="75">
+      <c r="A169" s="17" t="s">
         <v>305</v>
       </c>
-    </row>
-    <row r="168" spans="1:2" ht="75">
-      <c r="A168" s="20" t="s">
-        <v>308</v>
-      </c>
-      <c r="B168" s="20" t="s">
-        <v>307</v>
-      </c>
-    </row>
-    <row r="169" spans="1:2" ht="75">
-      <c r="A169" s="20" t="s">
-        <v>306</v>
-      </c>
-      <c r="B169" s="20" t="s">
-        <v>305</v>
+      <c r="B169" s="17" t="s">
+        <v>304</v>
       </c>
     </row>
     <row r="170" spans="1:2" ht="75">
-      <c r="A170" s="20" t="s">
-        <v>304</v>
-      </c>
-      <c r="B170" s="20" t="s">
+      <c r="A170" s="17" t="s">
         <v>303</v>
       </c>
+      <c r="B170" s="17" t="s">
+        <v>302</v>
+      </c>
     </row>
     <row r="171" spans="1:2" ht="105">
-      <c r="A171" s="20" t="s">
-        <v>302</v>
-      </c>
-      <c r="B171" s="20" t="s">
+      <c r="A171" s="17" t="s">
         <v>301</v>
       </c>
+      <c r="B171" s="17" t="s">
+        <v>300</v>
+      </c>
     </row>
     <row r="172" spans="1:2">
-      <c r="A172" s="20" t="s">
-        <v>300</v>
-      </c>
-      <c r="B172" s="20" t="s">
+      <c r="A172" s="17" t="s">
         <v>299</v>
       </c>
+      <c r="B172" s="17" t="s">
+        <v>298</v>
+      </c>
     </row>
     <row r="173" spans="1:2" ht="75">
-      <c r="A173" s="20" t="s">
-        <v>298</v>
-      </c>
-      <c r="B173" s="20" t="s">
+      <c r="A173" s="17" t="s">
         <v>297</v>
       </c>
+      <c r="B173" s="17" t="s">
+        <v>296</v>
+      </c>
     </row>
     <row r="174" spans="1:2">
-      <c r="A174" s="20" t="s">
-        <v>296</v>
-      </c>
-      <c r="B174" s="20" t="s">
+      <c r="A174" s="17" t="s">
         <v>295</v>
       </c>
+      <c r="B174" s="17" t="s">
+        <v>294</v>
+      </c>
     </row>
     <row r="175" spans="1:2">
-      <c r="A175" s="20" t="s">
-        <v>294</v>
-      </c>
-      <c r="B175" s="20" t="s">
+      <c r="A175" s="17" t="s">
         <v>293</v>
       </c>
+      <c r="B175" s="17" t="s">
+        <v>292</v>
+      </c>
     </row>
     <row r="176" spans="1:2">
-      <c r="A176" s="20" t="s">
-        <v>292</v>
-      </c>
-      <c r="B176" s="20" t="s">
+      <c r="A176" s="17" t="s">
         <v>291</v>
       </c>
+      <c r="B176" s="17" t="s">
+        <v>290</v>
+      </c>
     </row>
     <row r="177" spans="1:2" ht="60">
-      <c r="A177" s="28" t="s">
-        <v>290</v>
-      </c>
-      <c r="B177" s="20" t="s">
+      <c r="A177" s="34" t="s">
+        <v>289</v>
+      </c>
+      <c r="B177" s="17" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="178" spans="1:2" ht="60">
+      <c r="A178" s="34"/>
+      <c r="B178" s="17" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="179" spans="1:2" ht="60">
+      <c r="A179" s="34" t="s">
         <v>288</v>
       </c>
-    </row>
-    <row r="178" spans="1:2" ht="60">
-      <c r="A178" s="28"/>
-      <c r="B178" s="20" t="s">
+      <c r="B179" s="17" t="s">
         <v>287</v>
       </c>
     </row>
-    <row r="179" spans="1:2" ht="60">
-      <c r="A179" s="28" t="s">
-        <v>289</v>
-      </c>
-      <c r="B179" s="20" t="s">
-        <v>288</v>
-      </c>
-    </row>
     <row r="180" spans="1:2" ht="60">
-      <c r="A180" s="28"/>
-      <c r="B180" s="20" t="s">
-        <v>287</v>
+      <c r="A180" s="34"/>
+      <c r="B180" s="17" t="s">
+        <v>286</v>
       </c>
     </row>
     <row r="181" spans="1:2">
-      <c r="A181" s="30" t="s">
-        <v>286</v>
-      </c>
-      <c r="B181" s="20" t="s">
+      <c r="A181" s="36" t="s">
         <v>285</v>
       </c>
+      <c r="B181" s="17" t="s">
+        <v>284</v>
+      </c>
     </row>
     <row r="182" spans="1:2">
-      <c r="A182" s="30"/>
-      <c r="B182" s="20" t="s">
-        <v>284</v>
+      <c r="A182" s="36"/>
+      <c r="B182" s="17" t="s">
+        <v>283</v>
       </c>
     </row>
     <row r="183" spans="1:2">
-      <c r="A183" s="30" t="s">
-        <v>283</v>
-      </c>
-      <c r="B183" s="20" t="s">
+      <c r="A183" s="36" t="s">
         <v>282</v>
       </c>
+      <c r="B183" s="17" t="s">
+        <v>281</v>
+      </c>
     </row>
     <row r="184" spans="1:2" ht="30">
-      <c r="A184" s="30"/>
-      <c r="B184" s="20" t="s">
-        <v>281</v>
+      <c r="A184" s="36"/>
+      <c r="B184" s="17" t="s">
+        <v>280</v>
       </c>
     </row>
     <row r="185" spans="1:2">
-      <c r="A185" s="20" t="s">
-        <v>280</v>
-      </c>
-      <c r="B185" s="20" t="s">
+      <c r="A185" s="17" t="s">
         <v>279</v>
       </c>
+      <c r="B185" s="17" t="s">
+        <v>278</v>
+      </c>
     </row>
     <row r="186" spans="1:2">
-      <c r="A186" s="20" t="s">
-        <v>278</v>
-      </c>
-      <c r="B186" s="20" t="s">
+      <c r="A186" s="17" t="s">
         <v>277</v>
       </c>
+      <c r="B186" s="17" t="s">
+        <v>276</v>
+      </c>
     </row>
     <row r="187" spans="1:2" ht="60">
-      <c r="A187" s="20" t="s">
-        <v>276</v>
-      </c>
-      <c r="B187" s="20" t="s">
+      <c r="A187" s="17" t="s">
         <v>275</v>
       </c>
+      <c r="B187" s="17" t="s">
+        <v>274</v>
+      </c>
     </row>
     <row r="188" spans="1:2">
-      <c r="A188" s="38" t="s">
-        <v>274</v>
-      </c>
-      <c r="B188" s="38"/>
+      <c r="A188" s="40" t="s">
+        <v>273</v>
+      </c>
+      <c r="B188" s="40"/>
     </row>
     <row r="189" spans="1:2">
-      <c r="A189" s="20" t="s">
-        <v>273</v>
-      </c>
-      <c r="B189" s="20" t="s">
+      <c r="A189" s="17" t="s">
         <v>272</v>
       </c>
+      <c r="B189" s="17" t="s">
+        <v>271</v>
+      </c>
     </row>
     <row r="190" spans="1:2">
-      <c r="A190" s="20" t="s">
-        <v>271</v>
-      </c>
-      <c r="B190" s="20" t="s">
+      <c r="A190" s="17" t="s">
         <v>270</v>
       </c>
+      <c r="B190" s="17" t="s">
+        <v>269</v>
+      </c>
     </row>
     <row r="191" spans="1:2" ht="30">
-      <c r="A191" s="20" t="s">
-        <v>269</v>
-      </c>
-      <c r="B191" s="20" t="s">
+      <c r="A191" s="17" t="s">
         <v>268</v>
       </c>
+      <c r="B191" s="17" t="s">
+        <v>267</v>
+      </c>
     </row>
     <row r="192" spans="1:2">
-      <c r="A192" s="20" t="s">
-        <v>267</v>
-      </c>
-      <c r="B192" s="20" t="s">
+      <c r="A192" s="17" t="s">
         <v>266</v>
       </c>
+      <c r="B192" s="17" t="s">
+        <v>265</v>
+      </c>
     </row>
     <row r="193" spans="1:2">
-      <c r="A193" s="20" t="s">
-        <v>265</v>
-      </c>
-      <c r="B193" s="20" t="s">
+      <c r="A193" s="17" t="s">
         <v>264</v>
       </c>
+      <c r="B193" s="17" t="s">
+        <v>263</v>
+      </c>
     </row>
     <row r="194" spans="1:2">
-      <c r="A194" s="20" t="s">
-        <v>263</v>
-      </c>
-      <c r="B194" s="20" t="s">
+      <c r="A194" s="17" t="s">
         <v>262</v>
       </c>
+      <c r="B194" s="17" t="s">
+        <v>261</v>
+      </c>
     </row>
     <row r="195" spans="1:2">
-      <c r="A195" s="20" t="s">
-        <v>261</v>
-      </c>
-      <c r="B195" s="20" t="s">
+      <c r="A195" s="17" t="s">
         <v>260</v>
       </c>
+      <c r="B195" s="17" t="s">
+        <v>259</v>
+      </c>
     </row>
     <row r="196" spans="1:2">
-      <c r="A196" s="20" t="s">
-        <v>259</v>
-      </c>
-      <c r="B196" s="20" t="s">
+      <c r="A196" s="17" t="s">
         <v>258</v>
       </c>
+      <c r="B196" s="17" t="s">
+        <v>257</v>
+      </c>
     </row>
     <row r="197" spans="1:2" ht="105">
-      <c r="A197" s="20" t="s">
-        <v>257</v>
-      </c>
-      <c r="B197" s="20" t="s">
+      <c r="A197" s="17" t="s">
         <v>256</v>
       </c>
+      <c r="B197" s="17" t="s">
+        <v>255</v>
+      </c>
     </row>
     <row r="198" spans="1:2" ht="120">
-      <c r="A198" s="20" t="s">
-        <v>255</v>
-      </c>
-      <c r="B198" s="20" t="s">
+      <c r="A198" s="17" t="s">
         <v>254</v>
       </c>
+      <c r="B198" s="17" t="s">
+        <v>253</v>
+      </c>
     </row>
     <row r="199" spans="1:2" ht="180">
-      <c r="A199" s="28" t="s">
-        <v>253</v>
-      </c>
-      <c r="B199" s="20" t="s">
+      <c r="A199" s="34" t="s">
         <v>252</v>
       </c>
+      <c r="B199" s="17" t="s">
+        <v>251</v>
+      </c>
     </row>
     <row r="200" spans="1:2" ht="225">
-      <c r="A200" s="28"/>
-      <c r="B200" s="20" t="s">
-        <v>251</v>
+      <c r="A200" s="34"/>
+      <c r="B200" s="17" t="s">
+        <v>250</v>
       </c>
     </row>
     <row r="201" spans="1:2">
-      <c r="A201" s="20" t="s">
-        <v>250</v>
-      </c>
-      <c r="B201" s="20" t="s">
+      <c r="A201" s="17" t="s">
         <v>249</v>
+      </c>
+      <c r="B201" s="17" t="s">
+        <v>248</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="17">
-    <mergeCell ref="A181:A182"/>
-    <mergeCell ref="A183:A184"/>
-    <mergeCell ref="A188:B188"/>
-    <mergeCell ref="A199:A200"/>
-    <mergeCell ref="A177:A178"/>
-    <mergeCell ref="A179:A180"/>
     <mergeCell ref="A2:B2"/>
     <mergeCell ref="A115:A126"/>
     <mergeCell ref="B115:B126"/>
@@ -7030,6 +7526,12 @@
     <mergeCell ref="A106:B106"/>
     <mergeCell ref="A107:A109"/>
     <mergeCell ref="A7:B7"/>
+    <mergeCell ref="A181:A182"/>
+    <mergeCell ref="A183:A184"/>
+    <mergeCell ref="A188:B188"/>
+    <mergeCell ref="A199:A200"/>
+    <mergeCell ref="A177:A178"/>
+    <mergeCell ref="A179:A180"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="B1" location="Jquery!A2" display="Up"/>
@@ -7065,91 +7567,91 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="31" t="s">
+      <c r="A2" s="37" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="32"/>
+      <c r="B2" s="38"/>
     </row>
     <row r="5" spans="1:2">
-      <c r="A5" s="31" t="s">
+      <c r="A5" s="37" t="s">
         <v>2</v>
       </c>
-      <c r="B5" s="32"/>
+      <c r="B5" s="38"/>
     </row>
     <row r="6" spans="1:2">
-      <c r="A6" s="39" t="s">
-        <v>586</v>
-      </c>
-      <c r="B6" s="23" t="s">
+      <c r="A6" s="45" t="s">
         <v>585</v>
       </c>
+      <c r="B6" s="20" t="s">
+        <v>584</v>
+      </c>
     </row>
     <row r="7" spans="1:2">
-      <c r="A7" s="40"/>
-      <c r="B7" s="23" t="s">
-        <v>584</v>
+      <c r="A7" s="46"/>
+      <c r="B7" s="20" t="s">
+        <v>583</v>
       </c>
     </row>
     <row r="8" spans="1:2">
-      <c r="A8" s="40"/>
-      <c r="B8" s="23" t="s">
-        <v>583</v>
+      <c r="A8" s="46"/>
+      <c r="B8" s="20" t="s">
+        <v>582</v>
       </c>
     </row>
     <row r="9" spans="1:2" ht="30">
-      <c r="A9" s="23" t="s">
-        <v>582</v>
-      </c>
-      <c r="B9" s="22" t="s">
+      <c r="A9" s="20" t="s">
         <v>581</v>
       </c>
+      <c r="B9" s="19" t="s">
+        <v>580</v>
+      </c>
     </row>
     <row r="10" spans="1:2" ht="45">
-      <c r="A10" s="23" t="s">
-        <v>580</v>
-      </c>
-      <c r="B10" s="22" t="s">
+      <c r="A10" s="20" t="s">
         <v>579</v>
       </c>
+      <c r="B10" s="19" t="s">
+        <v>578</v>
+      </c>
     </row>
     <row r="11" spans="1:2" ht="90">
-      <c r="A11" s="23" t="s">
-        <v>578</v>
-      </c>
-      <c r="B11" s="22" t="s">
+      <c r="A11" s="20" t="s">
         <v>577</v>
       </c>
+      <c r="B11" s="19" t="s">
+        <v>576</v>
+      </c>
     </row>
     <row r="12" spans="1:2" ht="195">
-      <c r="A12" s="23" t="s">
-        <v>576</v>
-      </c>
-      <c r="B12" s="22" t="s">
+      <c r="A12" s="20" t="s">
         <v>575</v>
       </c>
+      <c r="B12" s="19" t="s">
+        <v>574</v>
+      </c>
     </row>
     <row r="13" spans="1:2" ht="210">
-      <c r="A13" s="23" t="s">
-        <v>574</v>
-      </c>
-      <c r="B13" s="22" t="s">
+      <c r="A13" s="20" t="s">
         <v>573</v>
       </c>
+      <c r="B13" s="19" t="s">
+        <v>572</v>
+      </c>
     </row>
     <row r="14" spans="1:2" ht="120">
-      <c r="A14" s="23" t="s">
-        <v>572</v>
-      </c>
-      <c r="B14" s="22" t="s">
+      <c r="A14" s="20" t="s">
         <v>571</v>
       </c>
+      <c r="B14" s="19" t="s">
+        <v>570</v>
+      </c>
     </row>
     <row r="15" spans="1:2" ht="240">
-      <c r="A15" s="23" t="s">
-        <v>570</v>
-      </c>
-      <c r="B15" s="22" t="s">
+      <c r="A15" s="20" t="s">
         <v>569</v>
+      </c>
+      <c r="B15" s="19" t="s">
+        <v>568</v>
       </c>
     </row>
   </sheetData>

--- a/Definitions/t-Definitions-UI.xlsx
+++ b/Definitions/t-Definitions-UI.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" tabRatio="1000" activeTab="4"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" tabRatio="1000" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Topics" sheetId="1" r:id="rId1"/>
@@ -1691,10 +1691,6 @@
     <t>What is Typescript</t>
   </si>
   <si>
-    <t>Framework on top of javascript.
-We will write .ts file and compile them. Then .js file will be geneated</t>
-  </si>
-  <si>
     <t>What is Typescript compiler</t>
   </si>
   <si>
@@ -1733,12 +1729,6 @@
   </si>
   <si>
     <t>HelloWorld steps</t>
-  </si>
-  <si>
-    <t>1. Install tsc like above
-2. Create Greeter.ts in Visual code
-3. Visual Code -&gt; View -&gt; Integrated Terminal -&gt; tsc Greeter.ts
-4. This will generate Greeter.js file</t>
   </si>
   <si>
     <t>https://www.typescriptlang.org/play/</t>
@@ -3605,9 +3595,6 @@
     <t>The "Language Service" exposes an additional layer around the core compiler pipeline that are editor-like applications. The language service supports the common set of a typical editor operations like statement completions, signature help, code formatting and outlining, colorization, etc</t>
   </si>
   <si>
-    <t>Declaration Files</t>
-  </si>
-  <si>
     <t>When a TypeScript script gets compiled, there is an option to generate a declaration file (with the extension .d.ts) that functions as an interface to the components in the compiled JavaScript. The concept of declaration files is analogous to the concept of header files found in C/C++. The declaration files (files with .d.ts extension) provide intellisense for types, function calls, and variable support for JavaScript libraries like jQuery, MooTools, etc</t>
   </si>
   <si>
@@ -3731,29 +3718,47 @@
     </r>
   </si>
   <si>
-    <t>Null vs undefined</t>
+    <t>Global Scope</t>
+  </si>
+  <si>
+    <t>Global variables are declared outside the programming constructs. These variables can be accessed from anywhere within your code</t>
+  </si>
+  <si>
+    <t>Class Scope</t>
+  </si>
+  <si>
+    <t>Local Scope</t>
+  </si>
+  <si>
+    <t>Local variables, as the name suggests, are declared within the constructs like methods, loops etc. Local variables are accessible only within the construct where they are declared</t>
+  </si>
+  <si>
+    <t>Framework on top of javascript.
+We will write .ts file and compile them using tsc (typescript compiler). Then .js file will be geneated</t>
+  </si>
+  <si>
+    <t>1. Install tsc like above
+2. Create Greeter.ts in Visual code
+3. Visual Code -&gt; View -&gt; Integrated Terminal -&gt; tsc Greeter.ts
+4. This will generate Greeter.js file
+5. execute js file using node. (Visual Code -&gt; View -&gt; Integrated Terminal -&gt; node Greeter.js)</t>
+  </si>
+  <si>
+    <t>Declaration Files (files with .d.ts extension)</t>
+  </si>
+  <si>
+    <t>null vs undefined</t>
   </si>
   <si>
     <t>The null and the undefined datatypes are often a source of confusion. The null and undefined cannot be used to reference the data type of a variable. They can only be assigned as values to a variable.
-However, null and undefined are not the same. A variable initialized with undefined means that the variable has no value or object assigned to it while null means that the variable has been set to an object whose value is undefined.</t>
-  </si>
-  <si>
-    <t>Global Scope</t>
-  </si>
-  <si>
-    <t>Global variables are declared outside the programming constructs. These variables can be accessed from anywhere within your code</t>
-  </si>
-  <si>
-    <t>Class Scope</t>
-  </si>
-  <si>
-    <t>These variables are also called fields. Fields or class variables are declared within the class but outside the methods. These variables can be accessed using the object of the class. Fields can also be static. Static fields can be accessed using the class name</t>
-  </si>
-  <si>
-    <t>Local Scope</t>
-  </si>
-  <si>
-    <t>Local variables, as the name suggests, are declared within the constructs like methods, loops etc. Local variables are accessible only within the construct where they are declared</t>
+However, null and undefined are not the same. 
+A variable initialized with undefined means that the variable has no value or no object assigned to it.
+null means that the variable has been set to an object whose value is undefined.</t>
+  </si>
+  <si>
+    <t>These variables are also called fields. Fields or class variables are declared within the class but outside the methods. 
+These variables can be accessed using the object of the class. 
+Fields can also be static. Static fields can be accessed using the class name</t>
   </si>
 </sst>
 </file>
@@ -3941,7 +3946,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="48">
+  <cellXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -4010,6 +4015,11 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -4038,9 +4048,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -4053,9 +4060,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -4482,7 +4491,7 @@
     </row>
     <row r="7" spans="1:2">
       <c r="A7" s="1" t="s">
-        <v>567</v>
+        <v>565</v>
       </c>
     </row>
   </sheetData>
@@ -4503,9 +4512,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:B124"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A15" sqref="A15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -4523,10 +4532,10 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="30" t="s">
+      <c r="A2" s="33" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="30"/>
+      <c r="B2" s="33"/>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="9" t="s">
@@ -4631,22 +4640,22 @@
       <c r="B16" s="1"/>
     </row>
     <row r="17" spans="1:2">
-      <c r="A17" s="30" t="s">
+      <c r="A17" s="33" t="s">
         <v>5</v>
       </c>
-      <c r="B17" s="30"/>
+      <c r="B17" s="33"/>
     </row>
     <row r="18" spans="1:2">
-      <c r="A18" s="31"/>
-      <c r="B18" s="32"/>
+      <c r="A18" s="34"/>
+      <c r="B18" s="35"/>
     </row>
     <row r="20" spans="1:2" s="13" customFormat="1"/>
     <row r="21" spans="1:2" s="13" customFormat="1"/>
     <row r="22" spans="1:2" s="13" customFormat="1">
-      <c r="A22" s="30" t="s">
+      <c r="A22" s="33" t="s">
         <v>219</v>
       </c>
-      <c r="B22" s="30"/>
+      <c r="B22" s="33"/>
     </row>
     <row r="23" spans="1:2">
       <c r="A23" s="12" t="s">
@@ -4666,10 +4675,10 @@
       </c>
     </row>
     <row r="26" spans="1:2">
-      <c r="A26" s="30" t="s">
+      <c r="A26" s="33" t="s">
         <v>2</v>
       </c>
-      <c r="B26" s="30"/>
+      <c r="B26" s="33"/>
     </row>
     <row r="27" spans="1:2" ht="75">
       <c r="A27" s="5" t="s">
@@ -4768,7 +4777,7 @@
       </c>
     </row>
     <row r="39" spans="1:2" ht="45">
-      <c r="A39" s="34" t="s">
+      <c r="A39" s="37" t="s">
         <v>166</v>
       </c>
       <c r="B39" s="5" t="s">
@@ -4776,7 +4785,7 @@
       </c>
     </row>
     <row r="40" spans="1:2" ht="75">
-      <c r="A40" s="34"/>
+      <c r="A40" s="37"/>
       <c r="B40" s="5" t="s">
         <v>164</v>
       </c>
@@ -4894,7 +4903,7 @@
       </c>
     </row>
     <row r="55" spans="1:2">
-      <c r="A55" s="35" t="s">
+      <c r="A55" s="38" t="s">
         <v>135</v>
       </c>
       <c r="B55" s="5" t="s">
@@ -4902,7 +4911,7 @@
       </c>
     </row>
     <row r="56" spans="1:2" ht="120">
-      <c r="A56" s="35"/>
+      <c r="A56" s="38"/>
       <c r="B56" s="5" t="s">
         <v>133</v>
       </c>
@@ -4932,7 +4941,7 @@
       </c>
     </row>
     <row r="60" spans="1:2" ht="45">
-      <c r="A60" s="35" t="s">
+      <c r="A60" s="38" t="s">
         <v>126</v>
       </c>
       <c r="B60" s="5" t="s">
@@ -4940,7 +4949,7 @@
       </c>
     </row>
     <row r="61" spans="1:2" ht="30">
-      <c r="A61" s="35"/>
+      <c r="A61" s="38"/>
       <c r="B61" s="5" t="s">
         <v>124</v>
       </c>
@@ -5098,7 +5107,7 @@
       </c>
     </row>
     <row r="81" spans="1:2" ht="75">
-      <c r="A81" s="34" t="s">
+      <c r="A81" s="37" t="s">
         <v>85</v>
       </c>
       <c r="B81" s="5" t="s">
@@ -5106,7 +5115,7 @@
       </c>
     </row>
     <row r="82" spans="1:2" ht="30">
-      <c r="A82" s="34"/>
+      <c r="A82" s="37"/>
       <c r="B82" s="5" t="s">
         <v>83</v>
       </c>
@@ -5120,7 +5129,7 @@
       </c>
     </row>
     <row r="84" spans="1:2" ht="30">
-      <c r="A84" s="34" t="s">
+      <c r="A84" s="37" t="s">
         <v>80</v>
       </c>
       <c r="B84" s="5" t="s">
@@ -5128,7 +5137,7 @@
       </c>
     </row>
     <row r="85" spans="1:2" ht="60">
-      <c r="A85" s="34"/>
+      <c r="A85" s="37"/>
       <c r="B85" s="5" t="s">
         <v>78</v>
       </c>
@@ -5158,7 +5167,7 @@
       </c>
     </row>
     <row r="89" spans="1:2" ht="30">
-      <c r="A89" s="35" t="s">
+      <c r="A89" s="38" t="s">
         <v>71</v>
       </c>
       <c r="B89" s="5" t="s">
@@ -5166,13 +5175,13 @@
       </c>
     </row>
     <row r="90" spans="1:2" ht="30">
-      <c r="A90" s="35"/>
+      <c r="A90" s="38"/>
       <c r="B90" s="5" t="s">
         <v>69</v>
       </c>
     </row>
     <row r="91" spans="1:2" ht="30">
-      <c r="A91" s="34" t="s">
+      <c r="A91" s="37" t="s">
         <v>68</v>
       </c>
       <c r="B91" s="5" t="s">
@@ -5180,13 +5189,13 @@
       </c>
     </row>
     <row r="92" spans="1:2" ht="30">
-      <c r="A92" s="34"/>
+      <c r="A92" s="37"/>
       <c r="B92" s="5" t="s">
         <v>66</v>
       </c>
     </row>
     <row r="93" spans="1:2" ht="45">
-      <c r="A93" s="34"/>
+      <c r="A93" s="37"/>
       <c r="B93" s="5" t="s">
         <v>65</v>
       </c>
@@ -5256,7 +5265,7 @@
       </c>
     </row>
     <row r="102" spans="1:2" ht="45">
-      <c r="A102" s="34" t="s">
+      <c r="A102" s="37" t="s">
         <v>48</v>
       </c>
       <c r="B102" s="5" t="s">
@@ -5264,7 +5273,7 @@
       </c>
     </row>
     <row r="103" spans="1:2" ht="105">
-      <c r="A103" s="34"/>
+      <c r="A103" s="37"/>
       <c r="B103" s="5" t="s">
         <v>46</v>
       </c>
@@ -5294,7 +5303,7 @@
       </c>
     </row>
     <row r="107" spans="1:2">
-      <c r="A107" s="36" t="s">
+      <c r="A107" s="39" t="s">
         <v>39</v>
       </c>
       <c r="B107" s="5" t="s">
@@ -5302,7 +5311,7 @@
       </c>
     </row>
     <row r="108" spans="1:2" ht="75">
-      <c r="A108" s="36"/>
+      <c r="A108" s="39"/>
       <c r="B108" s="5" t="s">
         <v>37</v>
       </c>
@@ -5420,7 +5429,7 @@
       </c>
     </row>
     <row r="123" spans="1:2" ht="195">
-      <c r="A123" s="33" t="s">
+      <c r="A123" s="36" t="s">
         <v>8</v>
       </c>
       <c r="B123" s="5" t="s">
@@ -5428,7 +5437,7 @@
       </c>
     </row>
     <row r="124" spans="1:2" ht="165">
-      <c r="A124" s="33"/>
+      <c r="A124" s="36"/>
       <c r="B124" s="5" t="s">
         <v>6</v>
       </c>
@@ -5495,10 +5504,10 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="37" t="s">
+      <c r="A2" s="40" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="38"/>
+      <c r="B2" s="41"/>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="10" t="s">
@@ -5509,16 +5518,16 @@
       </c>
     </row>
     <row r="7" spans="1:2">
-      <c r="A7" s="37" t="s">
+      <c r="A7" s="40" t="s">
         <v>5</v>
       </c>
-      <c r="B7" s="38"/>
+      <c r="B7" s="41"/>
     </row>
     <row r="11" spans="1:2">
-      <c r="A11" s="37" t="s">
+      <c r="A11" s="40" t="s">
         <v>2</v>
       </c>
-      <c r="B11" s="38"/>
+      <c r="B11" s="41"/>
     </row>
     <row r="12" spans="1:2">
       <c r="A12" t="s">
@@ -5537,7 +5546,7 @@
       </c>
     </row>
     <row r="14" spans="1:2" ht="45">
-      <c r="A14" s="39" t="s">
+      <c r="A14" s="42" t="s">
         <v>215</v>
       </c>
       <c r="B14" s="11" t="s">
@@ -5545,13 +5554,13 @@
       </c>
     </row>
     <row r="15" spans="1:2" ht="30">
-      <c r="A15" s="39"/>
+      <c r="A15" s="42"/>
       <c r="B15" s="11" t="s">
         <v>217</v>
       </c>
     </row>
     <row r="16" spans="1:2">
-      <c r="A16" s="39"/>
+      <c r="A16" s="42"/>
       <c r="B16" s="11" t="s">
         <v>218</v>
       </c>
@@ -5596,10 +5605,10 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="37" t="s">
+      <c r="A2" s="40" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="38"/>
+      <c r="B2" s="41"/>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="9" t="s">
@@ -5626,9 +5635,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:B53"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A48" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A54" sqref="A54"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A49" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B54" sqref="B54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -5646,25 +5655,25 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="37" t="s">
+      <c r="A2" s="40" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="38"/>
+      <c r="B2" s="41"/>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="22" t="s">
-        <v>588</v>
+        <v>586</v>
       </c>
       <c r="B3" s="24" t="s">
-        <v>589</v>
+        <v>587</v>
       </c>
     </row>
     <row r="4" spans="1:2" s="22" customFormat="1">
       <c r="A4" s="22" t="s">
-        <v>590</v>
+        <v>588</v>
       </c>
       <c r="B4" s="25" t="s">
-        <v>591</v>
+        <v>589</v>
       </c>
     </row>
     <row r="5" spans="1:2" s="22" customFormat="1">
@@ -5687,49 +5696,49 @@
       <c r="B7" s="29"/>
     </row>
     <row r="8" spans="1:2" s="15" customFormat="1">
-      <c r="A8" s="37" t="s">
-        <v>236</v>
-      </c>
-      <c r="B8" s="38"/>
+      <c r="A8" s="40" t="s">
+        <v>235</v>
+      </c>
+      <c r="B8" s="41"/>
     </row>
     <row r="9" spans="1:2" s="15" customFormat="1">
       <c r="A9" s="15" t="s">
+        <v>236</v>
+      </c>
+      <c r="B9" s="25" t="s">
         <v>237</v>
-      </c>
-      <c r="B9" s="25" t="s">
-        <v>238</v>
       </c>
     </row>
     <row r="10" spans="1:2" s="15" customFormat="1">
       <c r="B10" s="29"/>
     </row>
     <row r="11" spans="1:2" s="15" customFormat="1">
-      <c r="A11" s="37" t="s">
-        <v>239</v>
-      </c>
-      <c r="B11" s="38"/>
+      <c r="A11" s="40" t="s">
+        <v>238</v>
+      </c>
+      <c r="B11" s="41"/>
     </row>
     <row r="12" spans="1:2" s="15" customFormat="1">
       <c r="A12" s="15" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="B12" s="24" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
     </row>
     <row r="13" spans="1:2" s="15" customFormat="1">
       <c r="A13" s="15" t="s">
+        <v>240</v>
+      </c>
+      <c r="B13" s="29" t="s">
         <v>241</v>
       </c>
-      <c r="B13" s="29" t="s">
-        <v>242</v>
-      </c>
     </row>
     <row r="15" spans="1:2">
-      <c r="A15" s="37" t="s">
-        <v>592</v>
-      </c>
-      <c r="B15" s="38"/>
+      <c r="A15" s="40" t="s">
+        <v>590</v>
+      </c>
+      <c r="B15" s="41"/>
     </row>
     <row r="16" spans="1:2">
       <c r="A16" s="14" t="s">
@@ -5743,8 +5752,8 @@
       <c r="A17" s="14" t="s">
         <v>230</v>
       </c>
-      <c r="B17" s="25" t="s">
-        <v>231</v>
+      <c r="B17" s="30" t="s">
+        <v>641</v>
       </c>
     </row>
     <row r="18" spans="1:2" ht="90">
@@ -5757,96 +5766,96 @@
     </row>
     <row r="19" spans="1:2">
       <c r="A19" s="14" t="s">
+        <v>231</v>
+      </c>
+      <c r="B19" s="25" t="s">
         <v>232</v>
-      </c>
-      <c r="B19" s="25" t="s">
-        <v>233</v>
       </c>
     </row>
     <row r="20" spans="1:2" ht="30">
       <c r="A20" s="14" t="s">
+        <v>233</v>
+      </c>
+      <c r="B20" s="25" t="s">
         <v>234</v>
       </c>
-      <c r="B20" s="25" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" ht="60">
+    </row>
+    <row r="21" spans="1:2" ht="75">
       <c r="A21" s="15" t="s">
-        <v>244</v>
-      </c>
-      <c r="B21" s="25" t="s">
-        <v>245</v>
+        <v>243</v>
+      </c>
+      <c r="B21" s="30" t="s">
+        <v>642</v>
       </c>
     </row>
     <row r="22" spans="1:2">
       <c r="A22" s="15" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="B22" s="24" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
     </row>
     <row r="23" spans="1:2">
       <c r="A23" s="21" t="s">
-        <v>586</v>
+        <v>584</v>
       </c>
       <c r="B23" s="23" t="s">
-        <v>587</v>
+        <v>585</v>
       </c>
     </row>
     <row r="25" spans="1:2">
-      <c r="A25" s="37" t="s">
-        <v>593</v>
-      </c>
-      <c r="B25" s="38"/>
+      <c r="A25" s="40" t="s">
+        <v>591</v>
+      </c>
+      <c r="B25" s="41"/>
     </row>
     <row r="26" spans="1:2" ht="60">
       <c r="A26" s="26" t="s">
-        <v>594</v>
+        <v>592</v>
       </c>
       <c r="B26" s="25" t="s">
-        <v>595</v>
+        <v>593</v>
       </c>
     </row>
     <row r="27" spans="1:2" ht="60">
       <c r="A27" s="26" t="s">
-        <v>596</v>
+        <v>594</v>
       </c>
       <c r="B27" s="25" t="s">
-        <v>597</v>
+        <v>595</v>
       </c>
     </row>
     <row r="28" spans="1:2" ht="30">
       <c r="A28" s="26" t="s">
-        <v>598</v>
+        <v>596</v>
       </c>
       <c r="B28" s="25" t="s">
-        <v>599</v>
+        <v>597</v>
       </c>
     </row>
     <row r="29" spans="1:2" ht="30">
       <c r="A29" s="26" t="s">
-        <v>600</v>
+        <v>598</v>
       </c>
       <c r="B29" s="25" t="s">
-        <v>601</v>
+        <v>599</v>
       </c>
     </row>
     <row r="30" spans="1:2">
       <c r="A30" s="26" t="s">
-        <v>602</v>
+        <v>600</v>
       </c>
       <c r="B30" s="25" t="s">
-        <v>603</v>
+        <v>601</v>
       </c>
     </row>
     <row r="31" spans="1:2" ht="45">
       <c r="A31" s="26" t="s">
-        <v>604</v>
+        <v>602</v>
       </c>
       <c r="B31" s="25" t="s">
-        <v>605</v>
+        <v>603</v>
       </c>
     </row>
     <row r="32" spans="1:2">
@@ -5854,173 +5863,173 @@
         <v>161</v>
       </c>
       <c r="B32" s="25" t="s">
-        <v>606</v>
+        <v>604</v>
       </c>
     </row>
     <row r="33" spans="1:2">
       <c r="A33" s="26" t="s">
-        <v>607</v>
+        <v>605</v>
       </c>
       <c r="B33" s="25" t="s">
-        <v>608</v>
+        <v>606</v>
       </c>
     </row>
     <row r="34" spans="1:2" ht="45">
       <c r="A34" s="26" t="s">
+        <v>607</v>
+      </c>
+      <c r="B34" s="25" t="s">
+        <v>608</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" ht="60">
+      <c r="A35" s="31" t="s">
+        <v>643</v>
+      </c>
+      <c r="B35" s="30" t="s">
         <v>609</v>
-      </c>
-      <c r="B34" s="25" t="s">
-        <v>610</v>
-      </c>
-    </row>
-    <row r="35" spans="1:2" ht="60">
-      <c r="A35" s="26" t="s">
-        <v>611</v>
-      </c>
-      <c r="B35" s="25" t="s">
-        <v>612</v>
       </c>
     </row>
     <row r="36" spans="1:2" ht="75">
       <c r="A36" s="26" t="s">
-        <v>613</v>
+        <v>610</v>
       </c>
       <c r="B36" s="25" t="s">
-        <v>614</v>
+        <v>611</v>
       </c>
     </row>
     <row r="37" spans="1:2" ht="30">
       <c r="A37" s="26" t="s">
-        <v>615</v>
+        <v>612</v>
       </c>
       <c r="B37" s="25" t="s">
-        <v>616</v>
+        <v>613</v>
       </c>
     </row>
     <row r="38" spans="1:2" ht="75">
       <c r="A38" s="28" t="s">
+        <v>614</v>
+      </c>
+      <c r="B38" s="27" t="s">
+        <v>615</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" ht="105">
+      <c r="A39" s="42" t="s">
+        <v>616</v>
+      </c>
+      <c r="B39" s="27" t="s">
         <v>617</v>
       </c>
-      <c r="B38" s="27" t="s">
+    </row>
+    <row r="40" spans="1:2" ht="30">
+      <c r="A40" s="42"/>
+      <c r="B40" s="27" t="s">
         <v>618</v>
       </c>
     </row>
-    <row r="39" spans="1:2" ht="105">
-      <c r="A39" s="39" t="s">
+    <row r="41" spans="1:2">
+      <c r="A41" s="32" t="s">
         <v>619</v>
       </c>
-      <c r="B39" s="27" t="s">
+      <c r="B41" s="27" t="s">
+        <v>629</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2">
+      <c r="A42" s="32" t="s">
         <v>620</v>
       </c>
-    </row>
-    <row r="40" spans="1:2" ht="30">
-      <c r="A40" s="39"/>
-      <c r="B40" s="27" t="s">
+      <c r="B42" s="27" t="s">
         <v>621</v>
       </c>
     </row>
-    <row r="41" spans="1:2">
-      <c r="A41" s="47" t="s">
+    <row r="43" spans="1:2">
+      <c r="A43" s="32" t="s">
         <v>622</v>
       </c>
-      <c r="B41" s="27" t="s">
+      <c r="B43" s="27" t="s">
+        <v>623</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2">
+      <c r="A44" s="32" t="s">
+        <v>153</v>
+      </c>
+      <c r="B44" s="27" t="s">
+        <v>624</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2">
+      <c r="A45" s="32" t="s">
+        <v>625</v>
+      </c>
+      <c r="B45" s="27" t="s">
+        <v>626</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2">
+      <c r="A46" s="32" t="s">
+        <v>627</v>
+      </c>
+      <c r="B46" s="27" t="s">
+        <v>628</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2">
+      <c r="A47" s="32" t="s">
+        <v>630</v>
+      </c>
+      <c r="B47" s="27" t="s">
+        <v>631</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" ht="30">
+      <c r="A48" s="32" t="s">
         <v>632</v>
       </c>
-    </row>
-    <row r="42" spans="1:2">
-      <c r="A42" s="47" t="s">
-        <v>623</v>
-      </c>
-      <c r="B42" s="27" t="s">
-        <v>624</v>
-      </c>
-    </row>
-    <row r="43" spans="1:2">
-      <c r="A43" s="47" t="s">
-        <v>625</v>
-      </c>
-      <c r="B43" s="27" t="s">
-        <v>626</v>
-      </c>
-    </row>
-    <row r="44" spans="1:2">
-      <c r="A44" s="47" t="s">
-        <v>153</v>
-      </c>
-      <c r="B44" s="27" t="s">
-        <v>627</v>
-      </c>
-    </row>
-    <row r="45" spans="1:2">
-      <c r="A45" s="47" t="s">
-        <v>628</v>
-      </c>
-      <c r="B45" s="27" t="s">
-        <v>629</v>
-      </c>
-    </row>
-    <row r="46" spans="1:2">
-      <c r="A46" s="47" t="s">
-        <v>630</v>
-      </c>
-      <c r="B46" s="27" t="s">
-        <v>631</v>
-      </c>
-    </row>
-    <row r="47" spans="1:2">
-      <c r="A47" s="47" t="s">
+      <c r="B48" s="27" t="s">
         <v>633</v>
       </c>
-      <c r="B47" s="27" t="s">
+    </row>
+    <row r="49" spans="1:2" ht="105">
+      <c r="A49" s="32" t="s">
         <v>634</v>
       </c>
-    </row>
-    <row r="48" spans="1:2" ht="30">
-      <c r="A48" s="47" t="s">
+      <c r="B49" s="27" t="s">
         <v>635</v>
       </c>
-      <c r="B48" s="27" t="s">
+    </row>
+    <row r="50" spans="1:2" ht="90">
+      <c r="A50" s="32" t="s">
+        <v>644</v>
+      </c>
+      <c r="B50" s="30" t="s">
+        <v>645</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" ht="30">
+      <c r="A51" s="32" t="s">
         <v>636</v>
       </c>
-    </row>
-    <row r="49" spans="1:2" ht="105">
-      <c r="A49" s="47" t="s">
+      <c r="B51" s="27" t="s">
         <v>637</v>
       </c>
-      <c r="B49" s="27" t="s">
+    </row>
+    <row r="52" spans="1:2" ht="45">
+      <c r="A52" s="32" t="s">
         <v>638</v>
       </c>
-    </row>
-    <row r="50" spans="1:2" ht="75">
-      <c r="A50" s="47" t="s">
+      <c r="B52" s="30" t="s">
+        <v>646</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" ht="30">
+      <c r="A53" s="32" t="s">
         <v>639</v>
       </c>
-      <c r="B50" s="27" t="s">
+      <c r="B53" s="27" t="s">
         <v>640</v>
-      </c>
-    </row>
-    <row r="51" spans="1:2" ht="30">
-      <c r="A51" s="47" t="s">
-        <v>641</v>
-      </c>
-      <c r="B51" s="27" t="s">
-        <v>642</v>
-      </c>
-    </row>
-    <row r="52" spans="1:2" ht="45">
-      <c r="A52" s="47" t="s">
-        <v>643</v>
-      </c>
-      <c r="B52" s="27" t="s">
-        <v>644</v>
-      </c>
-    </row>
-    <row r="53" spans="1:2" ht="30">
-      <c r="A53" s="47" t="s">
-        <v>645</v>
-      </c>
-      <c r="B53" s="27" t="s">
-        <v>646</v>
       </c>
     </row>
   </sheetData>
@@ -6072,673 +6081,673 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="37" t="s">
+      <c r="A2" s="40" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="38"/>
+      <c r="B2" s="41"/>
     </row>
     <row r="7" spans="1:2">
-      <c r="A7" s="37" t="s">
+      <c r="A7" s="40" t="s">
         <v>2</v>
       </c>
-      <c r="B7" s="38"/>
+      <c r="B7" s="41"/>
     </row>
     <row r="8" spans="1:2" ht="45">
       <c r="A8" s="18" t="s">
-        <v>566</v>
+        <v>564</v>
       </c>
       <c r="B8" s="17" t="s">
-        <v>565</v>
+        <v>563</v>
       </c>
     </row>
     <row r="9" spans="1:2">
       <c r="A9" s="17" t="s">
-        <v>564</v>
+        <v>562</v>
       </c>
       <c r="B9" s="17" t="s">
-        <v>563</v>
+        <v>561</v>
       </c>
     </row>
     <row r="10" spans="1:2" ht="30">
       <c r="A10" s="18" t="s">
-        <v>562</v>
+        <v>560</v>
       </c>
       <c r="B10" s="17" t="s">
-        <v>561</v>
+        <v>559</v>
       </c>
     </row>
     <row r="11" spans="1:2" ht="90">
       <c r="A11" s="18" t="s">
-        <v>560</v>
+        <v>558</v>
       </c>
       <c r="B11" s="17" t="s">
-        <v>559</v>
+        <v>557</v>
       </c>
     </row>
     <row r="12" spans="1:2" ht="30">
       <c r="A12" s="17" t="s">
-        <v>558</v>
+        <v>556</v>
       </c>
       <c r="B12" s="17" t="s">
-        <v>557</v>
+        <v>555</v>
       </c>
     </row>
     <row r="13" spans="1:2" ht="30">
       <c r="A13" s="17" t="s">
-        <v>556</v>
+        <v>554</v>
       </c>
       <c r="B13" s="17" t="s">
-        <v>555</v>
+        <v>553</v>
       </c>
     </row>
     <row r="14" spans="1:2" ht="30">
       <c r="A14" s="17" t="s">
-        <v>554</v>
+        <v>552</v>
       </c>
       <c r="B14" s="17" t="s">
-        <v>553</v>
+        <v>551</v>
       </c>
     </row>
     <row r="15" spans="1:2" ht="120">
       <c r="A15" s="17" t="s">
-        <v>552</v>
+        <v>550</v>
       </c>
       <c r="B15" s="17" t="s">
-        <v>551</v>
+        <v>549</v>
       </c>
     </row>
     <row r="16" spans="1:2" ht="90">
       <c r="A16" s="17" t="s">
-        <v>550</v>
+        <v>548</v>
       </c>
       <c r="B16" s="17" t="s">
-        <v>549</v>
+        <v>547</v>
       </c>
     </row>
     <row r="17" spans="1:2" ht="45">
       <c r="A17" s="17" t="s">
-        <v>548</v>
+        <v>546</v>
       </c>
       <c r="B17" s="17" t="s">
-        <v>547</v>
+        <v>545</v>
       </c>
     </row>
     <row r="18" spans="1:2" ht="30">
       <c r="A18" s="17" t="s">
-        <v>546</v>
+        <v>544</v>
       </c>
       <c r="B18" s="17" t="s">
-        <v>545</v>
+        <v>543</v>
       </c>
     </row>
     <row r="19" spans="1:2" ht="30">
       <c r="A19" s="17" t="s">
-        <v>544</v>
+        <v>542</v>
       </c>
       <c r="B19" s="17" t="s">
-        <v>543</v>
+        <v>541</v>
       </c>
     </row>
     <row r="20" spans="1:2">
       <c r="A20" s="17" t="s">
-        <v>542</v>
+        <v>540</v>
       </c>
       <c r="B20" s="17" t="s">
-        <v>541</v>
+        <v>539</v>
       </c>
     </row>
     <row r="21" spans="1:2">
-      <c r="A21" s="36" t="s">
-        <v>540</v>
+      <c r="A21" s="39" t="s">
+        <v>538</v>
       </c>
       <c r="B21" s="17" t="s">
-        <v>539</v>
+        <v>537</v>
       </c>
     </row>
     <row r="22" spans="1:2" ht="30">
-      <c r="A22" s="36"/>
+      <c r="A22" s="39"/>
       <c r="B22" s="17" t="s">
-        <v>538</v>
+        <v>536</v>
       </c>
     </row>
     <row r="23" spans="1:2">
       <c r="A23" s="17" t="s">
-        <v>537</v>
+        <v>535</v>
       </c>
       <c r="B23" s="16" t="s">
-        <v>536</v>
+        <v>534</v>
       </c>
     </row>
     <row r="24" spans="1:2" ht="60">
       <c r="A24" s="17" t="s">
-        <v>535</v>
+        <v>533</v>
       </c>
       <c r="B24" s="17" t="s">
-        <v>534</v>
+        <v>532</v>
       </c>
     </row>
     <row r="25" spans="1:2">
       <c r="A25" s="17" t="s">
-        <v>533</v>
+        <v>531</v>
       </c>
       <c r="B25" s="17" t="s">
-        <v>532</v>
+        <v>530</v>
       </c>
     </row>
     <row r="26" spans="1:2" ht="30">
       <c r="A26" s="17" t="s">
-        <v>531</v>
+        <v>529</v>
       </c>
       <c r="B26" s="17" t="s">
-        <v>530</v>
+        <v>528</v>
       </c>
     </row>
     <row r="27" spans="1:2" ht="60">
       <c r="A27" s="17" t="s">
-        <v>529</v>
+        <v>527</v>
       </c>
       <c r="B27" s="17" t="s">
-        <v>528</v>
+        <v>526</v>
       </c>
     </row>
     <row r="28" spans="1:2" ht="30">
       <c r="A28" s="17" t="s">
-        <v>527</v>
+        <v>525</v>
       </c>
       <c r="B28" s="17" t="s">
-        <v>526</v>
+        <v>524</v>
       </c>
     </row>
     <row r="29" spans="1:2">
       <c r="A29" s="17" t="s">
-        <v>525</v>
+        <v>523</v>
       </c>
       <c r="B29" s="17" t="s">
-        <v>524</v>
+        <v>522</v>
       </c>
     </row>
     <row r="30" spans="1:2" ht="75">
       <c r="A30" s="17" t="s">
-        <v>523</v>
+        <v>521</v>
       </c>
       <c r="B30" s="17" t="s">
-        <v>522</v>
+        <v>520</v>
       </c>
     </row>
     <row r="31" spans="1:2" ht="45">
       <c r="A31" s="17" t="s">
-        <v>521</v>
+        <v>519</v>
       </c>
       <c r="B31" s="17" t="s">
-        <v>520</v>
+        <v>518</v>
       </c>
     </row>
     <row r="32" spans="1:2" ht="30">
       <c r="A32" s="17" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="B32" s="17" t="s">
-        <v>519</v>
+        <v>517</v>
       </c>
     </row>
     <row r="33" spans="1:2">
       <c r="A33" s="17" t="s">
-        <v>518</v>
+        <v>516</v>
       </c>
       <c r="B33" s="17" t="s">
-        <v>517</v>
+        <v>515</v>
       </c>
     </row>
     <row r="34" spans="1:2">
       <c r="A34" s="17" t="s">
-        <v>516</v>
+        <v>514</v>
       </c>
       <c r="B34" s="17" t="s">
-        <v>515</v>
+        <v>513</v>
       </c>
     </row>
     <row r="35" spans="1:2">
       <c r="A35" s="17" t="s">
-        <v>514</v>
+        <v>512</v>
       </c>
       <c r="B35" s="17" t="s">
-        <v>513</v>
+        <v>511</v>
       </c>
     </row>
     <row r="36" spans="1:2">
       <c r="A36" s="17" t="s">
-        <v>512</v>
+        <v>510</v>
       </c>
       <c r="B36" s="17" t="s">
-        <v>511</v>
+        <v>509</v>
       </c>
     </row>
     <row r="37" spans="1:2">
       <c r="A37" s="17" t="s">
-        <v>510</v>
+        <v>508</v>
       </c>
       <c r="B37" s="17" t="s">
-        <v>509</v>
+        <v>507</v>
       </c>
     </row>
     <row r="38" spans="1:2">
       <c r="A38" s="17" t="s">
-        <v>508</v>
+        <v>506</v>
       </c>
       <c r="B38" s="17" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
     </row>
     <row r="39" spans="1:2">
       <c r="A39" s="17" t="s">
-        <v>506</v>
+        <v>504</v>
       </c>
       <c r="B39" s="17" t="s">
-        <v>505</v>
+        <v>503</v>
       </c>
     </row>
     <row r="40" spans="1:2">
       <c r="A40" s="17" t="s">
-        <v>504</v>
+        <v>502</v>
       </c>
       <c r="B40" s="17" t="s">
-        <v>503</v>
+        <v>501</v>
       </c>
     </row>
     <row r="41" spans="1:2">
       <c r="A41" s="17" t="s">
-        <v>502</v>
+        <v>500</v>
       </c>
       <c r="B41" s="17" t="s">
-        <v>501</v>
+        <v>499</v>
       </c>
     </row>
     <row r="42" spans="1:2">
       <c r="A42" s="17" t="s">
-        <v>500</v>
+        <v>498</v>
       </c>
       <c r="B42" s="17" t="s">
-        <v>499</v>
+        <v>497</v>
       </c>
     </row>
     <row r="43" spans="1:2">
       <c r="A43" s="17" t="s">
-        <v>498</v>
+        <v>496</v>
       </c>
       <c r="B43" s="17" t="s">
-        <v>497</v>
+        <v>495</v>
       </c>
     </row>
     <row r="44" spans="1:2">
       <c r="A44" s="17" t="s">
-        <v>496</v>
+        <v>494</v>
       </c>
       <c r="B44" s="17" t="s">
-        <v>495</v>
+        <v>493</v>
       </c>
     </row>
     <row r="45" spans="1:2">
       <c r="A45" s="17" t="s">
-        <v>494</v>
+        <v>492</v>
       </c>
       <c r="B45" s="17" t="s">
-        <v>493</v>
+        <v>491</v>
       </c>
     </row>
     <row r="46" spans="1:2">
       <c r="A46" s="17" t="s">
-        <v>492</v>
+        <v>490</v>
       </c>
       <c r="B46" s="17" t="s">
-        <v>491</v>
+        <v>489</v>
       </c>
     </row>
     <row r="47" spans="1:2">
       <c r="A47" s="17" t="s">
-        <v>490</v>
+        <v>488</v>
       </c>
       <c r="B47" s="17" t="s">
-        <v>489</v>
+        <v>487</v>
       </c>
     </row>
     <row r="48" spans="1:2">
       <c r="A48" s="17" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
       <c r="B48" s="17" t="s">
-        <v>487</v>
+        <v>485</v>
       </c>
     </row>
     <row r="49" spans="1:2">
       <c r="A49" s="17" t="s">
-        <v>486</v>
+        <v>484</v>
       </c>
       <c r="B49" s="17" t="s">
-        <v>485</v>
+        <v>483</v>
       </c>
     </row>
     <row r="50" spans="1:2" ht="30">
       <c r="A50" s="17" t="s">
-        <v>484</v>
+        <v>482</v>
       </c>
       <c r="B50" s="17" t="s">
-        <v>483</v>
+        <v>481</v>
       </c>
     </row>
     <row r="51" spans="1:2">
       <c r="A51" s="17" t="s">
-        <v>482</v>
+        <v>480</v>
       </c>
       <c r="B51" s="17" t="s">
-        <v>481</v>
+        <v>479</v>
       </c>
     </row>
     <row r="52" spans="1:2">
       <c r="A52" s="17" t="s">
-        <v>480</v>
+        <v>478</v>
       </c>
       <c r="B52" s="17" t="s">
-        <v>479</v>
+        <v>477</v>
       </c>
     </row>
     <row r="53" spans="1:2">
       <c r="A53" s="17" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="B53" s="17" t="s">
-        <v>477</v>
+        <v>475</v>
       </c>
     </row>
     <row r="54" spans="1:2">
       <c r="A54" s="17" t="s">
-        <v>476</v>
+        <v>474</v>
       </c>
       <c r="B54" s="17" t="s">
-        <v>475</v>
+        <v>473</v>
       </c>
     </row>
     <row r="55" spans="1:2">
       <c r="A55" s="17" t="s">
-        <v>474</v>
+        <v>472</v>
       </c>
       <c r="B55" s="17" t="s">
-        <v>473</v>
+        <v>471</v>
       </c>
     </row>
     <row r="56" spans="1:2">
       <c r="A56" s="17" t="s">
-        <v>472</v>
+        <v>470</v>
       </c>
       <c r="B56" s="17" t="s">
-        <v>471</v>
+        <v>469</v>
       </c>
     </row>
     <row r="57" spans="1:2">
       <c r="A57" s="17" t="s">
-        <v>470</v>
+        <v>468</v>
       </c>
       <c r="B57" s="17" t="s">
-        <v>469</v>
+        <v>467</v>
       </c>
     </row>
     <row r="58" spans="1:2">
       <c r="A58" s="17" t="s">
-        <v>468</v>
+        <v>466</v>
       </c>
       <c r="B58" s="17" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
     </row>
     <row r="59" spans="1:2">
       <c r="A59" s="17" t="s">
-        <v>466</v>
+        <v>464</v>
       </c>
       <c r="B59" s="17" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
     </row>
     <row r="60" spans="1:2">
       <c r="A60" s="17" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
       <c r="B60" s="17" t="s">
-        <v>463</v>
+        <v>461</v>
       </c>
     </row>
     <row r="61" spans="1:2">
       <c r="A61" s="17" t="s">
-        <v>462</v>
+        <v>460</v>
       </c>
       <c r="B61" s="17" t="s">
-        <v>461</v>
+        <v>459</v>
       </c>
     </row>
     <row r="62" spans="1:2">
       <c r="A62" s="17" t="s">
-        <v>460</v>
+        <v>458</v>
       </c>
       <c r="B62" s="17" t="s">
-        <v>459</v>
+        <v>457</v>
       </c>
     </row>
     <row r="63" spans="1:2">
       <c r="A63" s="17" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
       <c r="B63" s="17" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
     </row>
     <row r="64" spans="1:2">
       <c r="A64" s="17" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
       <c r="B64" s="17" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
     </row>
     <row r="65" spans="1:2">
       <c r="A65" s="17" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
       <c r="B65" s="17" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
     </row>
     <row r="66" spans="1:2">
       <c r="A66" s="17" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
       <c r="B66" s="17" t="s">
-        <v>451</v>
+        <v>449</v>
       </c>
     </row>
     <row r="67" spans="1:2">
       <c r="A67" s="17" t="s">
-        <v>450</v>
+        <v>448</v>
       </c>
       <c r="B67" s="17" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
     </row>
     <row r="68" spans="1:2">
       <c r="A68" s="17" t="s">
-        <v>448</v>
+        <v>446</v>
       </c>
       <c r="B68" s="17" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
     </row>
     <row r="69" spans="1:2">
       <c r="A69" s="17" t="s">
-        <v>446</v>
+        <v>444</v>
       </c>
       <c r="B69" s="17" t="s">
-        <v>445</v>
+        <v>443</v>
       </c>
     </row>
     <row r="70" spans="1:2">
       <c r="A70" s="17" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="B70" s="17" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
     </row>
     <row r="71" spans="1:2">
       <c r="A71" s="17" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="B71" s="17" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
     </row>
     <row r="72" spans="1:2">
       <c r="A72" s="17" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
       <c r="B72" s="17" t="s">
-        <v>439</v>
+        <v>437</v>
       </c>
     </row>
     <row r="73" spans="1:2">
       <c r="A73" s="17" t="s">
-        <v>438</v>
+        <v>436</v>
       </c>
       <c r="B73" s="17" t="s">
-        <v>437</v>
+        <v>435</v>
       </c>
     </row>
     <row r="74" spans="1:2">
       <c r="A74" s="17" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
       <c r="B74" s="17" t="s">
-        <v>435</v>
+        <v>433</v>
       </c>
     </row>
     <row r="75" spans="1:2">
       <c r="A75" s="17" t="s">
-        <v>434</v>
+        <v>432</v>
       </c>
       <c r="B75" s="17" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
     </row>
     <row r="76" spans="1:2">
       <c r="A76" s="17" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
       <c r="B76" s="17" t="s">
-        <v>431</v>
+        <v>429</v>
       </c>
     </row>
     <row r="77" spans="1:2">
       <c r="A77" s="17" t="s">
-        <v>430</v>
+        <v>428</v>
       </c>
       <c r="B77" s="17" t="s">
-        <v>429</v>
+        <v>427</v>
       </c>
     </row>
     <row r="78" spans="1:2">
       <c r="A78" s="17" t="s">
-        <v>428</v>
+        <v>426</v>
       </c>
       <c r="B78" s="17" t="s">
-        <v>427</v>
+        <v>425</v>
       </c>
     </row>
     <row r="79" spans="1:2">
       <c r="A79" s="17" t="s">
-        <v>426</v>
+        <v>424</v>
       </c>
       <c r="B79" s="17" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
     </row>
     <row r="80" spans="1:2">
       <c r="A80" s="17" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="B80" s="17" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
     </row>
     <row r="81" spans="1:2">
       <c r="A81" s="17" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="B81" s="17" t="s">
-        <v>421</v>
+        <v>419</v>
       </c>
     </row>
     <row r="82" spans="1:2" ht="45">
       <c r="A82" s="17" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
       <c r="B82" s="17" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
     </row>
     <row r="83" spans="1:2">
       <c r="A83" s="17" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="B83" s="17" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
     </row>
     <row r="84" spans="1:2">
       <c r="A84" s="17" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="B84" s="17" t="s">
-        <v>415</v>
+        <v>413</v>
       </c>
     </row>
     <row r="85" spans="1:2" ht="30">
       <c r="A85" s="17" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="B85" s="17" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
     </row>
     <row r="86" spans="1:2" ht="30">
-      <c r="A86" s="36" t="s">
-        <v>412</v>
+      <c r="A86" s="39" t="s">
+        <v>410</v>
       </c>
       <c r="B86" s="17" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
     </row>
     <row r="87" spans="1:2" ht="30">
-      <c r="A87" s="36"/>
+      <c r="A87" s="39"/>
       <c r="B87" s="17" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
     </row>
     <row r="88" spans="1:2" ht="75">
-      <c r="A88" s="36"/>
+      <c r="A88" s="39"/>
       <c r="B88" s="17" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
     </row>
     <row r="89" spans="1:2">
       <c r="A89" s="17" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="B89" s="17" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
     </row>
     <row r="90" spans="1:2">
       <c r="A90" s="17" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="B90" s="17" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
     </row>
     <row r="91" spans="1:2" ht="105">
@@ -6746,775 +6755,781 @@
         <v>95</v>
       </c>
       <c r="B91" s="17" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
     </row>
     <row r="92" spans="1:2" ht="30">
       <c r="A92" s="17" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
       <c r="B92" s="17" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
     </row>
     <row r="93" spans="1:2">
-      <c r="A93" s="36" t="s">
-        <v>401</v>
+      <c r="A93" s="39" t="s">
+        <v>399</v>
       </c>
       <c r="B93" s="17" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
     </row>
     <row r="94" spans="1:2" ht="45">
-      <c r="A94" s="36"/>
+      <c r="A94" s="39"/>
       <c r="B94" s="17" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
     </row>
     <row r="95" spans="1:2" ht="30">
       <c r="A95" s="17" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="B95" s="17" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
     </row>
     <row r="96" spans="1:2">
       <c r="A96" s="17" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
       <c r="B96" s="17" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
     </row>
     <row r="97" spans="1:2">
       <c r="A97" s="17" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="B97" s="17" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
     </row>
     <row r="98" spans="1:2" ht="30">
       <c r="A98" s="17" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="B98" s="17" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
     </row>
     <row r="99" spans="1:2" ht="30">
       <c r="A99" s="17" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="B99" s="17" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
     </row>
     <row r="100" spans="1:2">
       <c r="A100" s="17" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
       <c r="B100" s="17" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
     </row>
     <row r="101" spans="1:2" ht="30">
       <c r="A101" s="17" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="B101" s="17" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
     </row>
     <row r="102" spans="1:2" ht="195">
       <c r="A102" s="17" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="B102" s="17" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
     </row>
     <row r="103" spans="1:2">
       <c r="A103" s="17" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="B103" s="17" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
     </row>
     <row r="104" spans="1:2" ht="45">
       <c r="A104" s="17" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="B104" s="17" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
     </row>
     <row r="105" spans="1:2" ht="30">
       <c r="A105" s="17" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="B105" s="17" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
     </row>
     <row r="106" spans="1:2">
-      <c r="A106" s="42" t="s">
-        <v>376</v>
-      </c>
-      <c r="B106" s="43"/>
+      <c r="A106" s="44" t="s">
+        <v>374</v>
+      </c>
+      <c r="B106" s="45"/>
     </row>
     <row r="107" spans="1:2">
-      <c r="A107" s="44" t="s">
-        <v>375</v>
+      <c r="A107" s="46" t="s">
+        <v>373</v>
       </c>
       <c r="B107" s="17" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
     </row>
     <row r="108" spans="1:2">
-      <c r="A108" s="36"/>
+      <c r="A108" s="39"/>
       <c r="B108" s="17" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
     </row>
     <row r="109" spans="1:2">
-      <c r="A109" s="36"/>
+      <c r="A109" s="39"/>
       <c r="B109" s="17" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
     </row>
     <row r="110" spans="1:2" ht="30">
       <c r="A110" s="17" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="B110" s="17" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
     </row>
     <row r="111" spans="1:2" ht="45">
       <c r="A111" s="17" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="B111" s="17" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
     </row>
     <row r="112" spans="1:2">
       <c r="A112" s="17" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
       <c r="B112" s="17" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
     </row>
     <row r="113" spans="1:2" ht="45">
       <c r="A113" s="17" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="B113" s="17" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
     </row>
     <row r="114" spans="1:2">
       <c r="A114" s="17" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="B114" s="17" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
     </row>
     <row r="115" spans="1:2">
-      <c r="A115" s="36" t="s">
-        <v>361</v>
-      </c>
-      <c r="B115" s="41"/>
+      <c r="A115" s="39" t="s">
+        <v>359</v>
+      </c>
+      <c r="B115" s="43"/>
     </row>
     <row r="116" spans="1:2">
-      <c r="A116" s="36"/>
-      <c r="B116" s="41"/>
+      <c r="A116" s="39"/>
+      <c r="B116" s="43"/>
     </row>
     <row r="117" spans="1:2">
-      <c r="A117" s="36"/>
-      <c r="B117" s="41"/>
+      <c r="A117" s="39"/>
+      <c r="B117" s="43"/>
     </row>
     <row r="118" spans="1:2">
-      <c r="A118" s="36"/>
-      <c r="B118" s="41"/>
+      <c r="A118" s="39"/>
+      <c r="B118" s="43"/>
     </row>
     <row r="119" spans="1:2">
-      <c r="A119" s="36"/>
-      <c r="B119" s="41"/>
+      <c r="A119" s="39"/>
+      <c r="B119" s="43"/>
     </row>
     <row r="120" spans="1:2">
-      <c r="A120" s="36"/>
-      <c r="B120" s="41"/>
+      <c r="A120" s="39"/>
+      <c r="B120" s="43"/>
     </row>
     <row r="121" spans="1:2">
-      <c r="A121" s="36"/>
-      <c r="B121" s="41"/>
+      <c r="A121" s="39"/>
+      <c r="B121" s="43"/>
     </row>
     <row r="122" spans="1:2">
-      <c r="A122" s="36"/>
-      <c r="B122" s="41"/>
+      <c r="A122" s="39"/>
+      <c r="B122" s="43"/>
     </row>
     <row r="123" spans="1:2">
-      <c r="A123" s="36"/>
-      <c r="B123" s="41"/>
+      <c r="A123" s="39"/>
+      <c r="B123" s="43"/>
     </row>
     <row r="124" spans="1:2">
-      <c r="A124" s="36"/>
-      <c r="B124" s="41"/>
+      <c r="A124" s="39"/>
+      <c r="B124" s="43"/>
     </row>
     <row r="125" spans="1:2">
-      <c r="A125" s="36"/>
-      <c r="B125" s="41"/>
+      <c r="A125" s="39"/>
+      <c r="B125" s="43"/>
     </row>
     <row r="126" spans="1:2">
-      <c r="A126" s="36"/>
-      <c r="B126" s="41"/>
+      <c r="A126" s="39"/>
+      <c r="B126" s="43"/>
     </row>
     <row r="127" spans="1:2">
       <c r="A127" s="17" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="B127" s="17" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
     </row>
     <row r="128" spans="1:2">
       <c r="A128" s="17" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
       <c r="B128" s="17" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
     </row>
     <row r="129" spans="1:2" ht="30">
       <c r="A129" s="17" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="B129" s="17" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
     </row>
     <row r="130" spans="1:2">
       <c r="A130" s="17" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="B130" s="17" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
     </row>
     <row r="131" spans="1:2">
       <c r="A131" s="17" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="B131" s="17" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
     </row>
     <row r="132" spans="1:2">
       <c r="A132" s="17" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="B132" s="17" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
     </row>
     <row r="133" spans="1:2">
       <c r="A133" s="17" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="B133" s="17" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
     </row>
     <row r="134" spans="1:2">
       <c r="A134" s="17" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="B134" s="17" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
     </row>
     <row r="135" spans="1:2">
       <c r="A135" s="17" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="B135" s="17" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
     </row>
     <row r="136" spans="1:2">
       <c r="A136" s="17" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="B136" s="17" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
     </row>
     <row r="137" spans="1:2">
       <c r="A137" s="17" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="B137" s="17" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
     </row>
     <row r="138" spans="1:2" ht="30">
       <c r="A138" s="17" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="B138" s="17" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
     </row>
     <row r="139" spans="1:2">
       <c r="A139" s="17" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="B139" s="17" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
     </row>
     <row r="140" spans="1:2">
       <c r="A140" s="17" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="B140" s="17" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
     </row>
     <row r="141" spans="1:2">
       <c r="A141" s="17" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="B141" s="17" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
     </row>
     <row r="142" spans="1:2">
       <c r="A142" s="17" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="B142" s="17" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
     </row>
     <row r="143" spans="1:2">
       <c r="A143" s="17" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="B143" s="17" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
     </row>
     <row r="144" spans="1:2">
-      <c r="A144" s="36" t="s">
-        <v>326</v>
-      </c>
-      <c r="B144" s="41"/>
+      <c r="A144" s="39" t="s">
+        <v>324</v>
+      </c>
+      <c r="B144" s="43"/>
     </row>
     <row r="145" spans="1:2">
-      <c r="A145" s="36"/>
-      <c r="B145" s="41"/>
+      <c r="A145" s="39"/>
+      <c r="B145" s="43"/>
     </row>
     <row r="146" spans="1:2">
-      <c r="A146" s="36"/>
-      <c r="B146" s="41"/>
+      <c r="A146" s="39"/>
+      <c r="B146" s="43"/>
     </row>
     <row r="147" spans="1:2">
-      <c r="A147" s="36"/>
-      <c r="B147" s="41"/>
+      <c r="A147" s="39"/>
+      <c r="B147" s="43"/>
     </row>
     <row r="148" spans="1:2">
-      <c r="A148" s="36"/>
-      <c r="B148" s="41"/>
+      <c r="A148" s="39"/>
+      <c r="B148" s="43"/>
     </row>
     <row r="149" spans="1:2">
-      <c r="A149" s="36"/>
-      <c r="B149" s="41"/>
+      <c r="A149" s="39"/>
+      <c r="B149" s="43"/>
     </row>
     <row r="150" spans="1:2">
-      <c r="A150" s="36"/>
-      <c r="B150" s="41"/>
+      <c r="A150" s="39"/>
+      <c r="B150" s="43"/>
     </row>
     <row r="151" spans="1:2">
-      <c r="A151" s="36"/>
-      <c r="B151" s="41"/>
+      <c r="A151" s="39"/>
+      <c r="B151" s="43"/>
     </row>
     <row r="152" spans="1:2">
-      <c r="A152" s="36"/>
-      <c r="B152" s="41"/>
+      <c r="A152" s="39"/>
+      <c r="B152" s="43"/>
     </row>
     <row r="153" spans="1:2">
-      <c r="A153" s="36"/>
-      <c r="B153" s="41"/>
+      <c r="A153" s="39"/>
+      <c r="B153" s="43"/>
     </row>
     <row r="154" spans="1:2">
-      <c r="A154" s="36"/>
-      <c r="B154" s="41"/>
+      <c r="A154" s="39"/>
+      <c r="B154" s="43"/>
     </row>
     <row r="155" spans="1:2">
-      <c r="A155" s="36"/>
-      <c r="B155" s="41"/>
+      <c r="A155" s="39"/>
+      <c r="B155" s="43"/>
     </row>
     <row r="156" spans="1:2">
-      <c r="A156" s="36"/>
-      <c r="B156" s="41"/>
+      <c r="A156" s="39"/>
+      <c r="B156" s="43"/>
     </row>
     <row r="157" spans="1:2">
       <c r="A157" s="17" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="B157" s="17" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
     </row>
     <row r="158" spans="1:2">
       <c r="A158" s="17" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="B158" s="17" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
     </row>
     <row r="159" spans="1:2">
       <c r="A159" s="17" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="B159" s="17" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
     </row>
     <row r="160" spans="1:2">
       <c r="A160" s="17" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="B160" s="17" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
     </row>
     <row r="161" spans="1:2">
       <c r="A161" s="17" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="B161" s="17" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
     </row>
     <row r="162" spans="1:2" ht="75">
       <c r="A162" s="17" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="B162" s="17" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
     </row>
     <row r="163" spans="1:2" ht="75">
       <c r="A163" s="17" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="B163" s="17" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
     </row>
     <row r="164" spans="1:2" ht="75">
       <c r="A164" s="17" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="B164" s="17" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
     </row>
     <row r="165" spans="1:2" ht="75">
       <c r="A165" s="17" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="B165" s="17" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
     </row>
     <row r="166" spans="1:2" ht="75">
       <c r="A166" s="17" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="B166" s="17" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
     </row>
     <row r="167" spans="1:2" ht="75">
       <c r="A167" s="17" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="B167" s="17" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
     </row>
     <row r="168" spans="1:2" ht="75">
       <c r="A168" s="17" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="B168" s="17" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
     </row>
     <row r="169" spans="1:2" ht="75">
       <c r="A169" s="17" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="B169" s="17" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
     </row>
     <row r="170" spans="1:2" ht="75">
       <c r="A170" s="17" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="B170" s="17" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
     </row>
     <row r="171" spans="1:2" ht="105">
       <c r="A171" s="17" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="B171" s="17" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
     </row>
     <row r="172" spans="1:2">
       <c r="A172" s="17" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="B172" s="17" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
     </row>
     <row r="173" spans="1:2" ht="75">
       <c r="A173" s="17" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="B173" s="17" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
     </row>
     <row r="174" spans="1:2">
       <c r="A174" s="17" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="B174" s="17" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
     </row>
     <row r="175" spans="1:2">
       <c r="A175" s="17" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="B175" s="17" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
     </row>
     <row r="176" spans="1:2">
       <c r="A176" s="17" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="B176" s="17" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
     </row>
     <row r="177" spans="1:2" ht="60">
-      <c r="A177" s="34" t="s">
-        <v>289</v>
+      <c r="A177" s="37" t="s">
+        <v>287</v>
       </c>
       <c r="B177" s="17" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
     </row>
     <row r="178" spans="1:2" ht="60">
-      <c r="A178" s="34"/>
+      <c r="A178" s="37"/>
       <c r="B178" s="17" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="179" spans="1:2" ht="60">
+      <c r="A179" s="37" t="s">
         <v>286</v>
       </c>
-    </row>
-    <row r="179" spans="1:2" ht="60">
-      <c r="A179" s="34" t="s">
-        <v>288</v>
-      </c>
       <c r="B179" s="17" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
     </row>
     <row r="180" spans="1:2" ht="60">
-      <c r="A180" s="34"/>
+      <c r="A180" s="37"/>
       <c r="B180" s="17" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
     </row>
     <row r="181" spans="1:2">
-      <c r="A181" s="36" t="s">
-        <v>285</v>
+      <c r="A181" s="39" t="s">
+        <v>283</v>
       </c>
       <c r="B181" s="17" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
     </row>
     <row r="182" spans="1:2">
-      <c r="A182" s="36"/>
+      <c r="A182" s="39"/>
       <c r="B182" s="17" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
     </row>
     <row r="183" spans="1:2">
-      <c r="A183" s="36" t="s">
-        <v>282</v>
+      <c r="A183" s="39" t="s">
+        <v>280</v>
       </c>
       <c r="B183" s="17" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
     </row>
     <row r="184" spans="1:2" ht="30">
-      <c r="A184" s="36"/>
+      <c r="A184" s="39"/>
       <c r="B184" s="17" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
     </row>
     <row r="185" spans="1:2">
       <c r="A185" s="17" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="B185" s="17" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
     </row>
     <row r="186" spans="1:2">
       <c r="A186" s="17" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="B186" s="17" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
     </row>
     <row r="187" spans="1:2" ht="60">
       <c r="A187" s="17" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="B187" s="17" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
     </row>
     <row r="188" spans="1:2">
-      <c r="A188" s="40" t="s">
-        <v>273</v>
-      </c>
-      <c r="B188" s="40"/>
+      <c r="A188" s="47" t="s">
+        <v>271</v>
+      </c>
+      <c r="B188" s="47"/>
     </row>
     <row r="189" spans="1:2">
       <c r="A189" s="17" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="B189" s="17" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
     </row>
     <row r="190" spans="1:2">
       <c r="A190" s="17" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="B190" s="17" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
     </row>
     <row r="191" spans="1:2" ht="30">
       <c r="A191" s="17" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="B191" s="17" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
     </row>
     <row r="192" spans="1:2">
       <c r="A192" s="17" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="B192" s="17" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
     </row>
     <row r="193" spans="1:2">
       <c r="A193" s="17" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="B193" s="17" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
     </row>
     <row r="194" spans="1:2">
       <c r="A194" s="17" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="B194" s="17" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
     </row>
     <row r="195" spans="1:2">
       <c r="A195" s="17" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="B195" s="17" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
     </row>
     <row r="196" spans="1:2">
       <c r="A196" s="17" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="B196" s="17" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
     </row>
     <row r="197" spans="1:2" ht="105">
       <c r="A197" s="17" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="B197" s="17" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
     </row>
     <row r="198" spans="1:2" ht="120">
       <c r="A198" s="17" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="B198" s="17" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
     </row>
     <row r="199" spans="1:2" ht="180">
-      <c r="A199" s="34" t="s">
-        <v>252</v>
+      <c r="A199" s="37" t="s">
+        <v>250</v>
       </c>
       <c r="B199" s="17" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
     </row>
     <row r="200" spans="1:2" ht="225">
-      <c r="A200" s="34"/>
+      <c r="A200" s="37"/>
       <c r="B200" s="17" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
     </row>
     <row r="201" spans="1:2">
       <c r="A201" s="17" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="B201" s="17" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="17">
+    <mergeCell ref="A181:A182"/>
+    <mergeCell ref="A183:A184"/>
+    <mergeCell ref="A188:B188"/>
+    <mergeCell ref="A199:A200"/>
+    <mergeCell ref="A177:A178"/>
+    <mergeCell ref="A179:A180"/>
     <mergeCell ref="A2:B2"/>
     <mergeCell ref="A115:A126"/>
     <mergeCell ref="B115:B126"/>
@@ -7526,12 +7541,6 @@
     <mergeCell ref="A106:B106"/>
     <mergeCell ref="A107:A109"/>
     <mergeCell ref="A7:B7"/>
-    <mergeCell ref="A181:A182"/>
-    <mergeCell ref="A183:A184"/>
-    <mergeCell ref="A188:B188"/>
-    <mergeCell ref="A199:A200"/>
-    <mergeCell ref="A177:A178"/>
-    <mergeCell ref="A179:A180"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="B1" location="Jquery!A2" display="Up"/>
@@ -7567,91 +7576,91 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="37" t="s">
+      <c r="A2" s="40" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="38"/>
+      <c r="B2" s="41"/>
     </row>
     <row r="5" spans="1:2">
-      <c r="A5" s="37" t="s">
+      <c r="A5" s="40" t="s">
         <v>2</v>
       </c>
-      <c r="B5" s="38"/>
+      <c r="B5" s="41"/>
     </row>
     <row r="6" spans="1:2">
-      <c r="A6" s="45" t="s">
-        <v>585</v>
+      <c r="A6" s="48" t="s">
+        <v>583</v>
       </c>
       <c r="B6" s="20" t="s">
-        <v>584</v>
+        <v>582</v>
       </c>
     </row>
     <row r="7" spans="1:2">
-      <c r="A7" s="46"/>
+      <c r="A7" s="49"/>
       <c r="B7" s="20" t="s">
-        <v>583</v>
+        <v>581</v>
       </c>
     </row>
     <row r="8" spans="1:2">
-      <c r="A8" s="46"/>
+      <c r="A8" s="49"/>
       <c r="B8" s="20" t="s">
-        <v>582</v>
+        <v>580</v>
       </c>
     </row>
     <row r="9" spans="1:2" ht="30">
       <c r="A9" s="20" t="s">
-        <v>581</v>
+        <v>579</v>
       </c>
       <c r="B9" s="19" t="s">
-        <v>580</v>
+        <v>578</v>
       </c>
     </row>
     <row r="10" spans="1:2" ht="45">
       <c r="A10" s="20" t="s">
-        <v>579</v>
+        <v>577</v>
       </c>
       <c r="B10" s="19" t="s">
-        <v>578</v>
+        <v>576</v>
       </c>
     </row>
     <row r="11" spans="1:2" ht="90">
       <c r="A11" s="20" t="s">
-        <v>577</v>
+        <v>575</v>
       </c>
       <c r="B11" s="19" t="s">
-        <v>576</v>
+        <v>574</v>
       </c>
     </row>
     <row r="12" spans="1:2" ht="195">
       <c r="A12" s="20" t="s">
-        <v>575</v>
+        <v>573</v>
       </c>
       <c r="B12" s="19" t="s">
-        <v>574</v>
+        <v>572</v>
       </c>
     </row>
     <row r="13" spans="1:2" ht="210">
       <c r="A13" s="20" t="s">
-        <v>573</v>
+        <v>571</v>
       </c>
       <c r="B13" s="19" t="s">
-        <v>572</v>
+        <v>570</v>
       </c>
     </row>
     <row r="14" spans="1:2" ht="120">
       <c r="A14" s="20" t="s">
-        <v>571</v>
+        <v>569</v>
       </c>
       <c r="B14" s="19" t="s">
-        <v>570</v>
+        <v>568</v>
       </c>
     </row>
     <row r="15" spans="1:2" ht="240">
       <c r="A15" s="20" t="s">
-        <v>569</v>
+        <v>567</v>
       </c>
       <c r="B15" s="19" t="s">
-        <v>568</v>
+        <v>566</v>
       </c>
     </row>
   </sheetData>

--- a/Definitions/t-Definitions-UI.xlsx
+++ b/Definitions/t-Definitions-UI.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" tabRatio="1000" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" tabRatio="1000" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="Topics" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="691" uniqueCount="647">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="676" uniqueCount="634">
   <si>
     <t>Topics</t>
   </si>
@@ -1665,12 +1665,6 @@
     <t>Typescript</t>
   </si>
   <si>
-    <t>TypeScript Fundamentals</t>
-  </si>
-  <si>
-    <t>TypeScript In-depth</t>
-  </si>
-  <si>
     <t xml:space="preserve">Home page </t>
   </si>
   <si>
@@ -1702,30 +1696,6 @@
   <si>
     <t>1. cmd&gt; npm install -g typescript
 2. to check typescript installation -&gt; open cmd -&gt;  tsc -version</t>
-  </si>
-  <si>
-    <t>Workspaces</t>
-  </si>
-  <si>
-    <t>Visual code workspace</t>
-  </si>
-  <si>
-    <t>E:\Backup\JavaPrep\practiceProjects\TypescriptPractice</t>
-  </si>
-  <si>
-    <t>Projects</t>
-  </si>
-  <si>
-    <t>https://github.com/avinashbabudonthu/TypeScriptPractice.git</t>
-  </si>
-  <si>
-    <t>Github Download link</t>
-  </si>
-  <si>
-    <t>https://github.com/avinashbabudonthu/TypeScriptPractice/archive/master.zip</t>
-  </si>
-  <si>
-    <t>Github link</t>
   </si>
   <si>
     <t>HelloWorld steps</t>
@@ -3521,18 +3491,6 @@
     <t>npm install -g knockout</t>
   </si>
   <si>
-    <t>Tutorials point</t>
-  </si>
-  <si>
-    <t>https://www.tutorialspoint.com/typescript/index.htm</t>
-  </si>
-  <si>
-    <t>Tutorialspoint pdf version</t>
-  </si>
-  <si>
-    <t>E:\Backup\JavaPrep\practiceProjects\images\TypeScript\typescript_tutorial.pdf</t>
-  </si>
-  <si>
     <t>Pluralsight - TypeScript Fundamentals - Definitions</t>
   </si>
   <si>
@@ -3573,11 +3531,6 @@
   </si>
   <si>
     <t>Components of TypeScript</t>
-  </si>
-  <si>
-    <t>1. Language
-2. The TypeScript Compiler
-3. The TypeScript Language Service</t>
   </si>
   <si>
     <t>It comprises of the syntax, keywords, and type annotations</t>
@@ -3680,9 +3633,6 @@
     <t>Any type</t>
   </si>
   <si>
-    <t>The any data type is the super type of all types in TypeScript. It denotes a dynamic type. Using the any type is equivalent to opting out of type checking for a variable</t>
-  </si>
-  <si>
     <t>Built-in types</t>
   </si>
   <si>
@@ -3759,6 +3709,18 @@
     <t>These variables are also called fields. Fields or class variables are declared within the class but outside the methods. 
 These variables can be accessed using the object of the class. 
 Fields can also be static. Static fields can be accessed using the class name</t>
+  </si>
+  <si>
+    <t>Update in Cerebro</t>
+  </si>
+  <si>
+    <t>1. Language
+2. The TypeScript Compiler - tsc
+3. The TypeScript Language Service - TLS</t>
+  </si>
+  <si>
+    <t>The any data type is the super type of all types in TypeScript. It denotes a dynamic type. 
+Using the any type is equivalent to opting out of type checking for a variable</t>
   </si>
 </sst>
 </file>
@@ -3997,7 +3959,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -4020,6 +3981,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -4048,6 +4012,9 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -4059,9 +4026,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
@@ -4447,7 +4411,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
+      <selection pane="bottomLeft" activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -4491,7 +4455,7 @@
     </row>
     <row r="7" spans="1:2">
       <c r="A7" s="1" t="s">
-        <v>565</v>
+        <v>555</v>
       </c>
     </row>
   </sheetData>
@@ -4512,9 +4476,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:B124"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A15" sqref="A15"/>
+      <selection pane="bottomLeft"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -5633,17 +5597,17 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B53"/>
+  <dimension ref="A1:B44"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A49" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B54" sqref="B54"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A40" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A44" sqref="A44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="73" customWidth="1"/>
-    <col min="2" max="2" width="113.140625" style="25" customWidth="1"/>
+    <col min="2" max="2" width="113.140625" style="24" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
@@ -5661,399 +5625,328 @@
       <c r="B2" s="41"/>
     </row>
     <row r="3" spans="1:2">
-      <c r="A3" s="22" t="s">
+      <c r="A3" s="48" t="s">
+        <v>631</v>
+      </c>
+      <c r="B3" s="48"/>
+    </row>
+    <row r="4" spans="1:2" s="15" customFormat="1">
+      <c r="B4" s="28"/>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6" s="40" t="s">
+        <v>576</v>
+      </c>
+      <c r="B6" s="41"/>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="A7" s="14" t="s">
+        <v>224</v>
+      </c>
+      <c r="B7" s="23" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" ht="30">
+      <c r="A8" s="14" t="s">
+        <v>228</v>
+      </c>
+      <c r="B8" s="29" t="s">
+        <v>625</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" ht="90">
+      <c r="A9" s="14" t="s">
+        <v>226</v>
+      </c>
+      <c r="B9" s="24" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2">
+      <c r="A10" s="14" t="s">
+        <v>229</v>
+      </c>
+      <c r="B10" s="24" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" ht="30">
+      <c r="A11" s="14" t="s">
+        <v>231</v>
+      </c>
+      <c r="B11" s="24" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" ht="75">
+      <c r="A12" s="15" t="s">
+        <v>233</v>
+      </c>
+      <c r="B12" s="29" t="s">
+        <v>626</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2">
+      <c r="A13" s="15" t="s">
+        <v>235</v>
+      </c>
+      <c r="B13" s="23" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2">
+      <c r="A14" s="21" t="s">
+        <v>574</v>
+      </c>
+      <c r="B14" s="22" t="s">
+        <v>575</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2">
+      <c r="A16" s="40" t="s">
+        <v>577</v>
+      </c>
+      <c r="B16" s="41"/>
+    </row>
+    <row r="17" spans="1:2" ht="60">
+      <c r="A17" s="25" t="s">
+        <v>578</v>
+      </c>
+      <c r="B17" s="24" t="s">
+        <v>579</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" ht="60">
+      <c r="A18" s="25" t="s">
+        <v>580</v>
+      </c>
+      <c r="B18" s="24" t="s">
+        <v>581</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" ht="30">
+      <c r="A19" s="25" t="s">
+        <v>582</v>
+      </c>
+      <c r="B19" s="24" t="s">
+        <v>583</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" ht="30">
+      <c r="A20" s="25" t="s">
+        <v>584</v>
+      </c>
+      <c r="B20" s="24" t="s">
+        <v>585</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2">
+      <c r="A21" s="25" t="s">
         <v>586</v>
       </c>
-      <c r="B3" s="24" t="s">
+      <c r="B21" s="24" t="s">
         <v>587</v>
       </c>
     </row>
-    <row r="4" spans="1:2" s="22" customFormat="1">
-      <c r="A4" s="22" t="s">
+    <row r="22" spans="1:2" ht="45">
+      <c r="A22" s="25" t="s">
         <v>588</v>
       </c>
-      <c r="B4" s="25" t="s">
+      <c r="B22" s="32" t="s">
+        <v>632</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2">
+      <c r="A23" s="25" t="s">
+        <v>161</v>
+      </c>
+      <c r="B23" s="24" t="s">
         <v>589</v>
       </c>
     </row>
-    <row r="5" spans="1:2" s="22" customFormat="1">
-      <c r="A5" s="14" t="s">
-        <v>201</v>
-      </c>
-      <c r="B5" s="29" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2">
-      <c r="A6" s="14" t="s">
-        <v>201</v>
-      </c>
-      <c r="B6" s="29" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" s="15" customFormat="1">
-      <c r="B7" s="29"/>
-    </row>
-    <row r="8" spans="1:2" s="15" customFormat="1">
-      <c r="A8" s="40" t="s">
-        <v>235</v>
-      </c>
-      <c r="B8" s="41"/>
-    </row>
-    <row r="9" spans="1:2" s="15" customFormat="1">
-      <c r="A9" s="15" t="s">
-        <v>236</v>
-      </c>
-      <c r="B9" s="25" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" s="15" customFormat="1">
-      <c r="B10" s="29"/>
-    </row>
-    <row r="11" spans="1:2" s="15" customFormat="1">
-      <c r="A11" s="40" t="s">
-        <v>238</v>
-      </c>
-      <c r="B11" s="41"/>
-    </row>
-    <row r="12" spans="1:2" s="15" customFormat="1">
-      <c r="A12" s="15" t="s">
-        <v>242</v>
-      </c>
-      <c r="B12" s="24" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" s="15" customFormat="1">
-      <c r="A13" s="15" t="s">
-        <v>240</v>
-      </c>
-      <c r="B13" s="29" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2">
-      <c r="A15" s="40" t="s">
+    <row r="24" spans="1:2">
+      <c r="A24" s="25" t="s">
         <v>590</v>
       </c>
-      <c r="B15" s="41"/>
-    </row>
-    <row r="16" spans="1:2">
-      <c r="A16" s="14" t="s">
-        <v>226</v>
-      </c>
-      <c r="B16" s="24" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" ht="30">
-      <c r="A17" s="14" t="s">
-        <v>230</v>
-      </c>
-      <c r="B17" s="30" t="s">
-        <v>641</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" ht="90">
-      <c r="A18" s="14" t="s">
-        <v>228</v>
-      </c>
-      <c r="B18" s="25" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2">
-      <c r="A19" s="14" t="s">
-        <v>231</v>
-      </c>
-      <c r="B19" s="25" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" ht="30">
-      <c r="A20" s="14" t="s">
-        <v>233</v>
-      </c>
-      <c r="B20" s="25" t="s">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" ht="75">
-      <c r="A21" s="15" t="s">
-        <v>243</v>
-      </c>
-      <c r="B21" s="30" t="s">
-        <v>642</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2">
-      <c r="A22" s="15" t="s">
-        <v>245</v>
-      </c>
-      <c r="B22" s="24" t="s">
-        <v>244</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2">
-      <c r="A23" s="21" t="s">
-        <v>584</v>
-      </c>
-      <c r="B23" s="23" t="s">
-        <v>585</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2">
-      <c r="A25" s="40" t="s">
+      <c r="B24" s="24" t="s">
         <v>591</v>
       </c>
-      <c r="B25" s="41"/>
+    </row>
+    <row r="25" spans="1:2" ht="45">
+      <c r="A25" s="25" t="s">
+        <v>592</v>
+      </c>
+      <c r="B25" s="24" t="s">
+        <v>593</v>
+      </c>
     </row>
     <row r="26" spans="1:2" ht="60">
-      <c r="A26" s="26" t="s">
-        <v>592</v>
-      </c>
-      <c r="B26" s="25" t="s">
-        <v>593</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2" ht="60">
-      <c r="A27" s="26" t="s">
+      <c r="A26" s="30" t="s">
+        <v>627</v>
+      </c>
+      <c r="B26" s="29" t="s">
         <v>594</v>
       </c>
-      <c r="B27" s="25" t="s">
+    </row>
+    <row r="27" spans="1:2" ht="75">
+      <c r="A27" s="25" t="s">
         <v>595</v>
       </c>
+      <c r="B27" s="24" t="s">
+        <v>596</v>
+      </c>
     </row>
     <row r="28" spans="1:2" ht="30">
-      <c r="A28" s="26" t="s">
-        <v>596</v>
-      </c>
-      <c r="B28" s="25" t="s">
+      <c r="A28" s="25" t="s">
         <v>597</v>
       </c>
-    </row>
-    <row r="29" spans="1:2" ht="30">
-      <c r="A29" s="26" t="s">
+      <c r="B28" s="24" t="s">
         <v>598</v>
       </c>
-      <c r="B29" s="25" t="s">
+    </row>
+    <row r="29" spans="1:2" ht="75">
+      <c r="A29" s="27" t="s">
         <v>599</v>
       </c>
-    </row>
-    <row r="30" spans="1:2">
-      <c r="A30" s="26" t="s">
+      <c r="B29" s="26" t="s">
         <v>600</v>
       </c>
-      <c r="B30" s="25" t="s">
+    </row>
+    <row r="30" spans="1:2" ht="105">
+      <c r="A30" s="42" t="s">
         <v>601</v>
       </c>
-    </row>
-    <row r="31" spans="1:2" ht="45">
-      <c r="A31" s="26" t="s">
+      <c r="B30" s="26" t="s">
         <v>602</v>
       </c>
-      <c r="B31" s="25" t="s">
+    </row>
+    <row r="31" spans="1:2" ht="30">
+      <c r="A31" s="42"/>
+      <c r="B31" s="26" t="s">
         <v>603</v>
       </c>
     </row>
     <row r="32" spans="1:2">
-      <c r="A32" s="26" t="s">
-        <v>161</v>
-      </c>
-      <c r="B32" s="25" t="s">
+      <c r="A32" s="31" t="s">
         <v>604</v>
       </c>
+      <c r="B32" s="26" t="s">
+        <v>614</v>
+      </c>
     </row>
     <row r="33" spans="1:2">
-      <c r="A33" s="26" t="s">
+      <c r="A33" s="31" t="s">
         <v>605</v>
       </c>
-      <c r="B33" s="25" t="s">
+      <c r="B33" s="26" t="s">
         <v>606</v>
       </c>
     </row>
-    <row r="34" spans="1:2" ht="45">
-      <c r="A34" s="26" t="s">
+    <row r="34" spans="1:2">
+      <c r="A34" s="31" t="s">
         <v>607</v>
       </c>
-      <c r="B34" s="25" t="s">
+      <c r="B34" s="26" t="s">
         <v>608</v>
       </c>
     </row>
-    <row r="35" spans="1:2" ht="60">
+    <row r="35" spans="1:2">
       <c r="A35" s="31" t="s">
-        <v>643</v>
-      </c>
-      <c r="B35" s="30" t="s">
+        <v>153</v>
+      </c>
+      <c r="B35" s="26" t="s">
         <v>609</v>
       </c>
     </row>
-    <row r="36" spans="1:2" ht="75">
-      <c r="A36" s="26" t="s">
+    <row r="36" spans="1:2">
+      <c r="A36" s="31" t="s">
         <v>610</v>
       </c>
-      <c r="B36" s="25" t="s">
+      <c r="B36" s="26" t="s">
         <v>611</v>
       </c>
     </row>
-    <row r="37" spans="1:2" ht="30">
-      <c r="A37" s="26" t="s">
+    <row r="37" spans="1:2">
+      <c r="A37" s="31" t="s">
         <v>612</v>
       </c>
-      <c r="B37" s="25" t="s">
+      <c r="B37" s="26" t="s">
         <v>613</v>
       </c>
     </row>
-    <row r="38" spans="1:2" ht="75">
-      <c r="A38" s="28" t="s">
-        <v>614</v>
-      </c>
-      <c r="B38" s="27" t="s">
+    <row r="38" spans="1:2">
+      <c r="A38" s="31" t="s">
         <v>615</v>
       </c>
-    </row>
-    <row r="39" spans="1:2" ht="105">
-      <c r="A39" s="42" t="s">
+      <c r="B38" s="26" t="s">
         <v>616</v>
       </c>
-      <c r="B39" s="27" t="s">
+    </row>
+    <row r="39" spans="1:2" ht="30">
+      <c r="A39" s="31" t="s">
         <v>617</v>
       </c>
-    </row>
-    <row r="40" spans="1:2" ht="30">
-      <c r="A40" s="42"/>
-      <c r="B40" s="27" t="s">
+      <c r="B39" s="32" t="s">
+        <v>633</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" ht="105">
+      <c r="A40" s="31" t="s">
         <v>618</v>
       </c>
-    </row>
-    <row r="41" spans="1:2">
-      <c r="A41" s="32" t="s">
+      <c r="B40" s="26" t="s">
         <v>619</v>
       </c>
-      <c r="B41" s="27" t="s">
+    </row>
+    <row r="41" spans="1:2" ht="90">
+      <c r="A41" s="31" t="s">
+        <v>628</v>
+      </c>
+      <c r="B41" s="29" t="s">
         <v>629</v>
       </c>
     </row>
-    <row r="42" spans="1:2">
-      <c r="A42" s="32" t="s">
+    <row r="42" spans="1:2" ht="30">
+      <c r="A42" s="31" t="s">
         <v>620</v>
       </c>
-      <c r="B42" s="27" t="s">
+      <c r="B42" s="26" t="s">
         <v>621</v>
       </c>
     </row>
-    <row r="43" spans="1:2">
-      <c r="A43" s="32" t="s">
+    <row r="43" spans="1:2" ht="45">
+      <c r="A43" s="31" t="s">
         <v>622</v>
       </c>
-      <c r="B43" s="27" t="s">
+      <c r="B43" s="29" t="s">
+        <v>630</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" ht="30">
+      <c r="A44" s="31" t="s">
         <v>623</v>
       </c>
-    </row>
-    <row r="44" spans="1:2">
-      <c r="A44" s="32" t="s">
-        <v>153</v>
-      </c>
-      <c r="B44" s="27" t="s">
+      <c r="B44" s="26" t="s">
         <v>624</v>
       </c>
     </row>
-    <row r="45" spans="1:2">
-      <c r="A45" s="32" t="s">
-        <v>625</v>
-      </c>
-      <c r="B45" s="27" t="s">
-        <v>626</v>
-      </c>
-    </row>
-    <row r="46" spans="1:2">
-      <c r="A46" s="32" t="s">
-        <v>627</v>
-      </c>
-      <c r="B46" s="27" t="s">
-        <v>628</v>
-      </c>
-    </row>
-    <row r="47" spans="1:2">
-      <c r="A47" s="32" t="s">
-        <v>630</v>
-      </c>
-      <c r="B47" s="27" t="s">
-        <v>631</v>
-      </c>
-    </row>
-    <row r="48" spans="1:2" ht="30">
-      <c r="A48" s="32" t="s">
-        <v>632</v>
-      </c>
-      <c r="B48" s="27" t="s">
-        <v>633</v>
-      </c>
-    </row>
-    <row r="49" spans="1:2" ht="105">
-      <c r="A49" s="32" t="s">
-        <v>634</v>
-      </c>
-      <c r="B49" s="27" t="s">
-        <v>635</v>
-      </c>
-    </row>
-    <row r="50" spans="1:2" ht="90">
-      <c r="A50" s="32" t="s">
-        <v>644</v>
-      </c>
-      <c r="B50" s="30" t="s">
-        <v>645</v>
-      </c>
-    </row>
-    <row r="51" spans="1:2" ht="30">
-      <c r="A51" s="32" t="s">
-        <v>636</v>
-      </c>
-      <c r="B51" s="27" t="s">
-        <v>637</v>
-      </c>
-    </row>
-    <row r="52" spans="1:2" ht="45">
-      <c r="A52" s="32" t="s">
-        <v>638</v>
-      </c>
-      <c r="B52" s="30" t="s">
-        <v>646</v>
-      </c>
-    </row>
-    <row r="53" spans="1:2" ht="30">
-      <c r="A53" s="32" t="s">
-        <v>639</v>
-      </c>
-      <c r="B53" s="27" t="s">
-        <v>640</v>
-      </c>
-    </row>
   </sheetData>
-  <mergeCells count="6">
-    <mergeCell ref="A39:A40"/>
+  <mergeCells count="5">
+    <mergeCell ref="A30:A31"/>
     <mergeCell ref="A2:B2"/>
-    <mergeCell ref="A15:B15"/>
-    <mergeCell ref="A8:B8"/>
-    <mergeCell ref="A11:B11"/>
-    <mergeCell ref="A25:B25"/>
+    <mergeCell ref="A6:B6"/>
+    <mergeCell ref="A16:B16"/>
+    <mergeCell ref="A3:B3"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="B1" location="Typescript!A2" display="Up"/>
     <hyperlink ref="A1" location="Topics!A6" display="Topics"/>
-    <hyperlink ref="B5" r:id="rId1" tooltip="TypeScript Fundamentals" display="https://app.pluralsight.com/library/courses/typescript"/>
-    <hyperlink ref="B6" r:id="rId2" tooltip="TypeScript In-depth" display="https://app.pluralsight.com/library/courses/typescript-in-depth"/>
-    <hyperlink ref="B16" r:id="rId3"/>
-    <hyperlink ref="B12" r:id="rId4"/>
-    <hyperlink ref="B13" r:id="rId5"/>
-    <hyperlink ref="B22" r:id="rId6"/>
-    <hyperlink ref="B3" r:id="rId7"/>
+    <hyperlink ref="B7" r:id="rId1"/>
+    <hyperlink ref="B13" r:id="rId2"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId8"/>
+  <pageSetup orientation="portrait" r:id="rId3"/>
 </worksheet>
 </file>
 
@@ -6094,660 +5987,660 @@
     </row>
     <row r="8" spans="1:2" ht="45">
       <c r="A8" s="18" t="s">
-        <v>564</v>
+        <v>554</v>
       </c>
       <c r="B8" s="17" t="s">
-        <v>563</v>
+        <v>553</v>
       </c>
     </row>
     <row r="9" spans="1:2">
       <c r="A9" s="17" t="s">
-        <v>562</v>
+        <v>552</v>
       </c>
       <c r="B9" s="17" t="s">
-        <v>561</v>
+        <v>551</v>
       </c>
     </row>
     <row r="10" spans="1:2" ht="30">
       <c r="A10" s="18" t="s">
-        <v>560</v>
+        <v>550</v>
       </c>
       <c r="B10" s="17" t="s">
-        <v>559</v>
+        <v>549</v>
       </c>
     </row>
     <row r="11" spans="1:2" ht="90">
       <c r="A11" s="18" t="s">
-        <v>558</v>
+        <v>548</v>
       </c>
       <c r="B11" s="17" t="s">
-        <v>557</v>
+        <v>547</v>
       </c>
     </row>
     <row r="12" spans="1:2" ht="30">
       <c r="A12" s="17" t="s">
-        <v>556</v>
+        <v>546</v>
       </c>
       <c r="B12" s="17" t="s">
-        <v>555</v>
+        <v>545</v>
       </c>
     </row>
     <row r="13" spans="1:2" ht="30">
       <c r="A13" s="17" t="s">
-        <v>554</v>
+        <v>544</v>
       </c>
       <c r="B13" s="17" t="s">
-        <v>553</v>
+        <v>543</v>
       </c>
     </row>
     <row r="14" spans="1:2" ht="30">
       <c r="A14" s="17" t="s">
-        <v>552</v>
+        <v>542</v>
       </c>
       <c r="B14" s="17" t="s">
-        <v>551</v>
+        <v>541</v>
       </c>
     </row>
     <row r="15" spans="1:2" ht="120">
       <c r="A15" s="17" t="s">
-        <v>550</v>
+        <v>540</v>
       </c>
       <c r="B15" s="17" t="s">
-        <v>549</v>
+        <v>539</v>
       </c>
     </row>
     <row r="16" spans="1:2" ht="90">
       <c r="A16" s="17" t="s">
-        <v>548</v>
+        <v>538</v>
       </c>
       <c r="B16" s="17" t="s">
-        <v>547</v>
+        <v>537</v>
       </c>
     </row>
     <row r="17" spans="1:2" ht="45">
       <c r="A17" s="17" t="s">
-        <v>546</v>
+        <v>536</v>
       </c>
       <c r="B17" s="17" t="s">
-        <v>545</v>
+        <v>535</v>
       </c>
     </row>
     <row r="18" spans="1:2" ht="30">
       <c r="A18" s="17" t="s">
-        <v>544</v>
+        <v>534</v>
       </c>
       <c r="B18" s="17" t="s">
-        <v>543</v>
+        <v>533</v>
       </c>
     </row>
     <row r="19" spans="1:2" ht="30">
       <c r="A19" s="17" t="s">
-        <v>542</v>
+        <v>532</v>
       </c>
       <c r="B19" s="17" t="s">
-        <v>541</v>
+        <v>531</v>
       </c>
     </row>
     <row r="20" spans="1:2">
       <c r="A20" s="17" t="s">
-        <v>540</v>
+        <v>530</v>
       </c>
       <c r="B20" s="17" t="s">
-        <v>539</v>
+        <v>529</v>
       </c>
     </row>
     <row r="21" spans="1:2">
       <c r="A21" s="39" t="s">
-        <v>538</v>
+        <v>528</v>
       </c>
       <c r="B21" s="17" t="s">
-        <v>537</v>
+        <v>527</v>
       </c>
     </row>
     <row r="22" spans="1:2" ht="30">
       <c r="A22" s="39"/>
       <c r="B22" s="17" t="s">
-        <v>536</v>
+        <v>526</v>
       </c>
     </row>
     <row r="23" spans="1:2">
       <c r="A23" s="17" t="s">
-        <v>535</v>
+        <v>525</v>
       </c>
       <c r="B23" s="16" t="s">
-        <v>534</v>
+        <v>524</v>
       </c>
     </row>
     <row r="24" spans="1:2" ht="60">
       <c r="A24" s="17" t="s">
-        <v>533</v>
+        <v>523</v>
       </c>
       <c r="B24" s="17" t="s">
-        <v>532</v>
+        <v>522</v>
       </c>
     </row>
     <row r="25" spans="1:2">
       <c r="A25" s="17" t="s">
-        <v>531</v>
+        <v>521</v>
       </c>
       <c r="B25" s="17" t="s">
-        <v>530</v>
+        <v>520</v>
       </c>
     </row>
     <row r="26" spans="1:2" ht="30">
       <c r="A26" s="17" t="s">
-        <v>529</v>
+        <v>519</v>
       </c>
       <c r="B26" s="17" t="s">
-        <v>528</v>
+        <v>518</v>
       </c>
     </row>
     <row r="27" spans="1:2" ht="60">
       <c r="A27" s="17" t="s">
-        <v>527</v>
+        <v>517</v>
       </c>
       <c r="B27" s="17" t="s">
-        <v>526</v>
+        <v>516</v>
       </c>
     </row>
     <row r="28" spans="1:2" ht="30">
       <c r="A28" s="17" t="s">
-        <v>525</v>
+        <v>515</v>
       </c>
       <c r="B28" s="17" t="s">
-        <v>524</v>
+        <v>514</v>
       </c>
     </row>
     <row r="29" spans="1:2">
       <c r="A29" s="17" t="s">
-        <v>523</v>
+        <v>513</v>
       </c>
       <c r="B29" s="17" t="s">
-        <v>522</v>
+        <v>512</v>
       </c>
     </row>
     <row r="30" spans="1:2" ht="75">
       <c r="A30" s="17" t="s">
-        <v>521</v>
+        <v>511</v>
       </c>
       <c r="B30" s="17" t="s">
-        <v>520</v>
+        <v>510</v>
       </c>
     </row>
     <row r="31" spans="1:2" ht="45">
       <c r="A31" s="17" t="s">
-        <v>519</v>
+        <v>509</v>
       </c>
       <c r="B31" s="17" t="s">
-        <v>518</v>
+        <v>508</v>
       </c>
     </row>
     <row r="32" spans="1:2" ht="30">
       <c r="A32" s="17" t="s">
-        <v>369</v>
+        <v>359</v>
       </c>
       <c r="B32" s="17" t="s">
-        <v>517</v>
+        <v>507</v>
       </c>
     </row>
     <row r="33" spans="1:2">
       <c r="A33" s="17" t="s">
-        <v>516</v>
+        <v>506</v>
       </c>
       <c r="B33" s="17" t="s">
-        <v>515</v>
+        <v>505</v>
       </c>
     </row>
     <row r="34" spans="1:2">
       <c r="A34" s="17" t="s">
-        <v>514</v>
+        <v>504</v>
       </c>
       <c r="B34" s="17" t="s">
-        <v>513</v>
+        <v>503</v>
       </c>
     </row>
     <row r="35" spans="1:2">
       <c r="A35" s="17" t="s">
-        <v>512</v>
+        <v>502</v>
       </c>
       <c r="B35" s="17" t="s">
-        <v>511</v>
+        <v>501</v>
       </c>
     </row>
     <row r="36" spans="1:2">
       <c r="A36" s="17" t="s">
-        <v>510</v>
+        <v>500</v>
       </c>
       <c r="B36" s="17" t="s">
-        <v>509</v>
+        <v>499</v>
       </c>
     </row>
     <row r="37" spans="1:2">
       <c r="A37" s="17" t="s">
-        <v>508</v>
+        <v>498</v>
       </c>
       <c r="B37" s="17" t="s">
-        <v>507</v>
+        <v>497</v>
       </c>
     </row>
     <row r="38" spans="1:2">
       <c r="A38" s="17" t="s">
-        <v>506</v>
+        <v>496</v>
       </c>
       <c r="B38" s="17" t="s">
-        <v>505</v>
+        <v>495</v>
       </c>
     </row>
     <row r="39" spans="1:2">
       <c r="A39" s="17" t="s">
-        <v>504</v>
+        <v>494</v>
       </c>
       <c r="B39" s="17" t="s">
-        <v>503</v>
+        <v>493</v>
       </c>
     </row>
     <row r="40" spans="1:2">
       <c r="A40" s="17" t="s">
-        <v>502</v>
+        <v>492</v>
       </c>
       <c r="B40" s="17" t="s">
-        <v>501</v>
+        <v>491</v>
       </c>
     </row>
     <row r="41" spans="1:2">
       <c r="A41" s="17" t="s">
-        <v>500</v>
+        <v>490</v>
       </c>
       <c r="B41" s="17" t="s">
-        <v>499</v>
+        <v>489</v>
       </c>
     </row>
     <row r="42" spans="1:2">
       <c r="A42" s="17" t="s">
-        <v>498</v>
+        <v>488</v>
       </c>
       <c r="B42" s="17" t="s">
-        <v>497</v>
+        <v>487</v>
       </c>
     </row>
     <row r="43" spans="1:2">
       <c r="A43" s="17" t="s">
-        <v>496</v>
+        <v>486</v>
       </c>
       <c r="B43" s="17" t="s">
-        <v>495</v>
+        <v>485</v>
       </c>
     </row>
     <row r="44" spans="1:2">
       <c r="A44" s="17" t="s">
-        <v>494</v>
+        <v>484</v>
       </c>
       <c r="B44" s="17" t="s">
-        <v>493</v>
+        <v>483</v>
       </c>
     </row>
     <row r="45" spans="1:2">
       <c r="A45" s="17" t="s">
-        <v>492</v>
+        <v>482</v>
       </c>
       <c r="B45" s="17" t="s">
-        <v>491</v>
+        <v>481</v>
       </c>
     </row>
     <row r="46" spans="1:2">
       <c r="A46" s="17" t="s">
-        <v>490</v>
+        <v>480</v>
       </c>
       <c r="B46" s="17" t="s">
-        <v>489</v>
+        <v>479</v>
       </c>
     </row>
     <row r="47" spans="1:2">
       <c r="A47" s="17" t="s">
-        <v>488</v>
+        <v>478</v>
       </c>
       <c r="B47" s="17" t="s">
-        <v>487</v>
+        <v>477</v>
       </c>
     </row>
     <row r="48" spans="1:2">
       <c r="A48" s="17" t="s">
-        <v>486</v>
+        <v>476</v>
       </c>
       <c r="B48" s="17" t="s">
-        <v>485</v>
+        <v>475</v>
       </c>
     </row>
     <row r="49" spans="1:2">
       <c r="A49" s="17" t="s">
-        <v>484</v>
+        <v>474</v>
       </c>
       <c r="B49" s="17" t="s">
-        <v>483</v>
+        <v>473</v>
       </c>
     </row>
     <row r="50" spans="1:2" ht="30">
       <c r="A50" s="17" t="s">
-        <v>482</v>
+        <v>472</v>
       </c>
       <c r="B50" s="17" t="s">
-        <v>481</v>
+        <v>471</v>
       </c>
     </row>
     <row r="51" spans="1:2">
       <c r="A51" s="17" t="s">
-        <v>480</v>
+        <v>470</v>
       </c>
       <c r="B51" s="17" t="s">
-        <v>479</v>
+        <v>469</v>
       </c>
     </row>
     <row r="52" spans="1:2">
       <c r="A52" s="17" t="s">
-        <v>478</v>
+        <v>468</v>
       </c>
       <c r="B52" s="17" t="s">
-        <v>477</v>
+        <v>467</v>
       </c>
     </row>
     <row r="53" spans="1:2">
       <c r="A53" s="17" t="s">
-        <v>476</v>
+        <v>466</v>
       </c>
       <c r="B53" s="17" t="s">
-        <v>475</v>
+        <v>465</v>
       </c>
     </row>
     <row r="54" spans="1:2">
       <c r="A54" s="17" t="s">
-        <v>474</v>
+        <v>464</v>
       </c>
       <c r="B54" s="17" t="s">
-        <v>473</v>
+        <v>463</v>
       </c>
     </row>
     <row r="55" spans="1:2">
       <c r="A55" s="17" t="s">
-        <v>472</v>
+        <v>462</v>
       </c>
       <c r="B55" s="17" t="s">
-        <v>471</v>
+        <v>461</v>
       </c>
     </row>
     <row r="56" spans="1:2">
       <c r="A56" s="17" t="s">
-        <v>470</v>
+        <v>460</v>
       </c>
       <c r="B56" s="17" t="s">
-        <v>469</v>
+        <v>459</v>
       </c>
     </row>
     <row r="57" spans="1:2">
       <c r="A57" s="17" t="s">
-        <v>468</v>
+        <v>458</v>
       </c>
       <c r="B57" s="17" t="s">
-        <v>467</v>
+        <v>457</v>
       </c>
     </row>
     <row r="58" spans="1:2">
       <c r="A58" s="17" t="s">
-        <v>466</v>
+        <v>456</v>
       </c>
       <c r="B58" s="17" t="s">
-        <v>465</v>
+        <v>455</v>
       </c>
     </row>
     <row r="59" spans="1:2">
       <c r="A59" s="17" t="s">
-        <v>464</v>
+        <v>454</v>
       </c>
       <c r="B59" s="17" t="s">
-        <v>463</v>
+        <v>453</v>
       </c>
     </row>
     <row r="60" spans="1:2">
       <c r="A60" s="17" t="s">
-        <v>462</v>
+        <v>452</v>
       </c>
       <c r="B60" s="17" t="s">
-        <v>461</v>
+        <v>451</v>
       </c>
     </row>
     <row r="61" spans="1:2">
       <c r="A61" s="17" t="s">
-        <v>460</v>
+        <v>450</v>
       </c>
       <c r="B61" s="17" t="s">
-        <v>459</v>
+        <v>449</v>
       </c>
     </row>
     <row r="62" spans="1:2">
       <c r="A62" s="17" t="s">
-        <v>458</v>
+        <v>448</v>
       </c>
       <c r="B62" s="17" t="s">
-        <v>457</v>
+        <v>447</v>
       </c>
     </row>
     <row r="63" spans="1:2">
       <c r="A63" s="17" t="s">
-        <v>456</v>
+        <v>446</v>
       </c>
       <c r="B63" s="17" t="s">
-        <v>455</v>
+        <v>445</v>
       </c>
     </row>
     <row r="64" spans="1:2">
       <c r="A64" s="17" t="s">
-        <v>454</v>
+        <v>444</v>
       </c>
       <c r="B64" s="17" t="s">
-        <v>453</v>
+        <v>443</v>
       </c>
     </row>
     <row r="65" spans="1:2">
       <c r="A65" s="17" t="s">
-        <v>452</v>
+        <v>442</v>
       </c>
       <c r="B65" s="17" t="s">
-        <v>451</v>
+        <v>441</v>
       </c>
     </row>
     <row r="66" spans="1:2">
       <c r="A66" s="17" t="s">
-        <v>450</v>
+        <v>440</v>
       </c>
       <c r="B66" s="17" t="s">
-        <v>449</v>
+        <v>439</v>
       </c>
     </row>
     <row r="67" spans="1:2">
       <c r="A67" s="17" t="s">
-        <v>448</v>
+        <v>438</v>
       </c>
       <c r="B67" s="17" t="s">
-        <v>447</v>
+        <v>437</v>
       </c>
     </row>
     <row r="68" spans="1:2">
       <c r="A68" s="17" t="s">
-        <v>446</v>
+        <v>436</v>
       </c>
       <c r="B68" s="17" t="s">
-        <v>445</v>
+        <v>435</v>
       </c>
     </row>
     <row r="69" spans="1:2">
       <c r="A69" s="17" t="s">
-        <v>444</v>
+        <v>434</v>
       </c>
       <c r="B69" s="17" t="s">
-        <v>443</v>
+        <v>433</v>
       </c>
     </row>
     <row r="70" spans="1:2">
       <c r="A70" s="17" t="s">
-        <v>442</v>
+        <v>432</v>
       </c>
       <c r="B70" s="17" t="s">
-        <v>441</v>
+        <v>431</v>
       </c>
     </row>
     <row r="71" spans="1:2">
       <c r="A71" s="17" t="s">
-        <v>440</v>
+        <v>430</v>
       </c>
       <c r="B71" s="17" t="s">
-        <v>439</v>
+        <v>429</v>
       </c>
     </row>
     <row r="72" spans="1:2">
       <c r="A72" s="17" t="s">
-        <v>438</v>
+        <v>428</v>
       </c>
       <c r="B72" s="17" t="s">
-        <v>437</v>
+        <v>427</v>
       </c>
     </row>
     <row r="73" spans="1:2">
       <c r="A73" s="17" t="s">
-        <v>436</v>
+        <v>426</v>
       </c>
       <c r="B73" s="17" t="s">
-        <v>435</v>
+        <v>425</v>
       </c>
     </row>
     <row r="74" spans="1:2">
       <c r="A74" s="17" t="s">
-        <v>434</v>
+        <v>424</v>
       </c>
       <c r="B74" s="17" t="s">
-        <v>433</v>
+        <v>423</v>
       </c>
     </row>
     <row r="75" spans="1:2">
       <c r="A75" s="17" t="s">
-        <v>432</v>
+        <v>422</v>
       </c>
       <c r="B75" s="17" t="s">
-        <v>431</v>
+        <v>421</v>
       </c>
     </row>
     <row r="76" spans="1:2">
       <c r="A76" s="17" t="s">
-        <v>430</v>
+        <v>420</v>
       </c>
       <c r="B76" s="17" t="s">
-        <v>429</v>
+        <v>419</v>
       </c>
     </row>
     <row r="77" spans="1:2">
       <c r="A77" s="17" t="s">
-        <v>428</v>
+        <v>418</v>
       </c>
       <c r="B77" s="17" t="s">
-        <v>427</v>
+        <v>417</v>
       </c>
     </row>
     <row r="78" spans="1:2">
       <c r="A78" s="17" t="s">
-        <v>426</v>
+        <v>416</v>
       </c>
       <c r="B78" s="17" t="s">
-        <v>425</v>
+        <v>415</v>
       </c>
     </row>
     <row r="79" spans="1:2">
       <c r="A79" s="17" t="s">
-        <v>424</v>
+        <v>414</v>
       </c>
       <c r="B79" s="17" t="s">
-        <v>423</v>
+        <v>413</v>
       </c>
     </row>
     <row r="80" spans="1:2">
       <c r="A80" s="17" t="s">
-        <v>422</v>
+        <v>412</v>
       </c>
       <c r="B80" s="17" t="s">
-        <v>421</v>
+        <v>411</v>
       </c>
     </row>
     <row r="81" spans="1:2">
       <c r="A81" s="17" t="s">
-        <v>420</v>
+        <v>410</v>
       </c>
       <c r="B81" s="17" t="s">
-        <v>419</v>
+        <v>409</v>
       </c>
     </row>
     <row r="82" spans="1:2" ht="45">
       <c r="A82" s="17" t="s">
-        <v>418</v>
+        <v>408</v>
       </c>
       <c r="B82" s="17" t="s">
-        <v>417</v>
+        <v>407</v>
       </c>
     </row>
     <row r="83" spans="1:2">
       <c r="A83" s="17" t="s">
-        <v>416</v>
+        <v>406</v>
       </c>
       <c r="B83" s="17" t="s">
-        <v>415</v>
+        <v>405</v>
       </c>
     </row>
     <row r="84" spans="1:2">
       <c r="A84" s="17" t="s">
-        <v>414</v>
+        <v>404</v>
       </c>
       <c r="B84" s="17" t="s">
-        <v>413</v>
+        <v>403</v>
       </c>
     </row>
     <row r="85" spans="1:2" ht="30">
       <c r="A85" s="17" t="s">
-        <v>412</v>
+        <v>402</v>
       </c>
       <c r="B85" s="17" t="s">
-        <v>411</v>
+        <v>401</v>
       </c>
     </row>
     <row r="86" spans="1:2" ht="30">
       <c r="A86" s="39" t="s">
-        <v>410</v>
+        <v>400</v>
       </c>
       <c r="B86" s="17" t="s">
-        <v>409</v>
+        <v>399</v>
       </c>
     </row>
     <row r="87" spans="1:2" ht="30">
       <c r="A87" s="39"/>
       <c r="B87" s="17" t="s">
-        <v>408</v>
+        <v>398</v>
       </c>
     </row>
     <row r="88" spans="1:2" ht="75">
       <c r="A88" s="39"/>
       <c r="B88" s="17" t="s">
-        <v>407</v>
+        <v>397</v>
       </c>
     </row>
     <row r="89" spans="1:2">
       <c r="A89" s="17" t="s">
-        <v>406</v>
+        <v>396</v>
       </c>
       <c r="B89" s="17" t="s">
-        <v>405</v>
+        <v>395</v>
       </c>
     </row>
     <row r="90" spans="1:2">
       <c r="A90" s="17" t="s">
-        <v>404</v>
+        <v>394</v>
       </c>
       <c r="B90" s="17" t="s">
-        <v>403</v>
+        <v>393</v>
       </c>
     </row>
     <row r="91" spans="1:2" ht="105">
@@ -6755,781 +6648,775 @@
         <v>95</v>
       </c>
       <c r="B91" s="17" t="s">
-        <v>402</v>
+        <v>392</v>
       </c>
     </row>
     <row r="92" spans="1:2" ht="30">
       <c r="A92" s="17" t="s">
-        <v>401</v>
+        <v>391</v>
       </c>
       <c r="B92" s="17" t="s">
-        <v>400</v>
+        <v>390</v>
       </c>
     </row>
     <row r="93" spans="1:2">
       <c r="A93" s="39" t="s">
-        <v>399</v>
+        <v>389</v>
       </c>
       <c r="B93" s="17" t="s">
-        <v>398</v>
+        <v>388</v>
       </c>
     </row>
     <row r="94" spans="1:2" ht="45">
       <c r="A94" s="39"/>
       <c r="B94" s="17" t="s">
-        <v>397</v>
+        <v>387</v>
       </c>
     </row>
     <row r="95" spans="1:2" ht="30">
       <c r="A95" s="17" t="s">
-        <v>396</v>
+        <v>386</v>
       </c>
       <c r="B95" s="17" t="s">
-        <v>395</v>
+        <v>385</v>
       </c>
     </row>
     <row r="96" spans="1:2">
       <c r="A96" s="17" t="s">
-        <v>394</v>
+        <v>384</v>
       </c>
       <c r="B96" s="17" t="s">
-        <v>393</v>
+        <v>383</v>
       </c>
     </row>
     <row r="97" spans="1:2">
       <c r="A97" s="17" t="s">
-        <v>392</v>
+        <v>382</v>
       </c>
       <c r="B97" s="17" t="s">
-        <v>391</v>
+        <v>381</v>
       </c>
     </row>
     <row r="98" spans="1:2" ht="30">
       <c r="A98" s="17" t="s">
-        <v>390</v>
+        <v>380</v>
       </c>
       <c r="B98" s="17" t="s">
-        <v>389</v>
+        <v>379</v>
       </c>
     </row>
     <row r="99" spans="1:2" ht="30">
       <c r="A99" s="17" t="s">
-        <v>388</v>
+        <v>378</v>
       </c>
       <c r="B99" s="17" t="s">
-        <v>387</v>
+        <v>377</v>
       </c>
     </row>
     <row r="100" spans="1:2">
       <c r="A100" s="17" t="s">
-        <v>386</v>
+        <v>376</v>
       </c>
       <c r="B100" s="17" t="s">
-        <v>385</v>
+        <v>375</v>
       </c>
     </row>
     <row r="101" spans="1:2" ht="30">
       <c r="A101" s="17" t="s">
-        <v>384</v>
+        <v>374</v>
       </c>
       <c r="B101" s="17" t="s">
-        <v>383</v>
+        <v>373</v>
       </c>
     </row>
     <row r="102" spans="1:2" ht="195">
       <c r="A102" s="17" t="s">
-        <v>382</v>
+        <v>372</v>
       </c>
       <c r="B102" s="17" t="s">
-        <v>381</v>
+        <v>371</v>
       </c>
     </row>
     <row r="103" spans="1:2">
       <c r="A103" s="17" t="s">
-        <v>380</v>
+        <v>370</v>
       </c>
       <c r="B103" s="17" t="s">
-        <v>379</v>
+        <v>369</v>
       </c>
     </row>
     <row r="104" spans="1:2" ht="45">
       <c r="A104" s="17" t="s">
-        <v>378</v>
+        <v>368</v>
       </c>
       <c r="B104" s="17" t="s">
-        <v>377</v>
+        <v>367</v>
       </c>
     </row>
     <row r="105" spans="1:2" ht="30">
       <c r="A105" s="17" t="s">
-        <v>376</v>
+        <v>366</v>
       </c>
       <c r="B105" s="17" t="s">
-        <v>375</v>
+        <v>365</v>
       </c>
     </row>
     <row r="106" spans="1:2">
-      <c r="A106" s="44" t="s">
-        <v>374</v>
-      </c>
-      <c r="B106" s="45"/>
+      <c r="A106" s="45" t="s">
+        <v>364</v>
+      </c>
+      <c r="B106" s="46"/>
     </row>
     <row r="107" spans="1:2">
-      <c r="A107" s="46" t="s">
-        <v>373</v>
+      <c r="A107" s="47" t="s">
+        <v>363</v>
       </c>
       <c r="B107" s="17" t="s">
-        <v>372</v>
+        <v>362</v>
       </c>
     </row>
     <row r="108" spans="1:2">
       <c r="A108" s="39"/>
       <c r="B108" s="17" t="s">
-        <v>371</v>
+        <v>361</v>
       </c>
     </row>
     <row r="109" spans="1:2">
       <c r="A109" s="39"/>
       <c r="B109" s="17" t="s">
-        <v>370</v>
+        <v>360</v>
       </c>
     </row>
     <row r="110" spans="1:2" ht="30">
       <c r="A110" s="17" t="s">
-        <v>369</v>
+        <v>359</v>
       </c>
       <c r="B110" s="17" t="s">
-        <v>368</v>
+        <v>358</v>
       </c>
     </row>
     <row r="111" spans="1:2" ht="45">
       <c r="A111" s="17" t="s">
-        <v>367</v>
+        <v>357</v>
       </c>
       <c r="B111" s="17" t="s">
-        <v>366</v>
+        <v>356</v>
       </c>
     </row>
     <row r="112" spans="1:2">
       <c r="A112" s="17" t="s">
-        <v>365</v>
+        <v>355</v>
       </c>
       <c r="B112" s="17" t="s">
-        <v>364</v>
+        <v>354</v>
       </c>
     </row>
     <row r="113" spans="1:2" ht="45">
       <c r="A113" s="17" t="s">
-        <v>363</v>
+        <v>353</v>
       </c>
       <c r="B113" s="17" t="s">
-        <v>362</v>
+        <v>352</v>
       </c>
     </row>
     <row r="114" spans="1:2">
       <c r="A114" s="17" t="s">
-        <v>361</v>
+        <v>351</v>
       </c>
       <c r="B114" s="17" t="s">
-        <v>360</v>
+        <v>350</v>
       </c>
     </row>
     <row r="115" spans="1:2">
       <c r="A115" s="39" t="s">
-        <v>359</v>
-      </c>
-      <c r="B115" s="43"/>
+        <v>349</v>
+      </c>
+      <c r="B115" s="44"/>
     </row>
     <row r="116" spans="1:2">
       <c r="A116" s="39"/>
-      <c r="B116" s="43"/>
+      <c r="B116" s="44"/>
     </row>
     <row r="117" spans="1:2">
       <c r="A117" s="39"/>
-      <c r="B117" s="43"/>
+      <c r="B117" s="44"/>
     </row>
     <row r="118" spans="1:2">
       <c r="A118" s="39"/>
-      <c r="B118" s="43"/>
+      <c r="B118" s="44"/>
     </row>
     <row r="119" spans="1:2">
       <c r="A119" s="39"/>
-      <c r="B119" s="43"/>
+      <c r="B119" s="44"/>
     </row>
     <row r="120" spans="1:2">
       <c r="A120" s="39"/>
-      <c r="B120" s="43"/>
+      <c r="B120" s="44"/>
     </row>
     <row r="121" spans="1:2">
       <c r="A121" s="39"/>
-      <c r="B121" s="43"/>
+      <c r="B121" s="44"/>
     </row>
     <row r="122" spans="1:2">
       <c r="A122" s="39"/>
-      <c r="B122" s="43"/>
+      <c r="B122" s="44"/>
     </row>
     <row r="123" spans="1:2">
       <c r="A123" s="39"/>
-      <c r="B123" s="43"/>
+      <c r="B123" s="44"/>
     </row>
     <row r="124" spans="1:2">
       <c r="A124" s="39"/>
-      <c r="B124" s="43"/>
+      <c r="B124" s="44"/>
     </row>
     <row r="125" spans="1:2">
       <c r="A125" s="39"/>
-      <c r="B125" s="43"/>
+      <c r="B125" s="44"/>
     </row>
     <row r="126" spans="1:2">
       <c r="A126" s="39"/>
-      <c r="B126" s="43"/>
+      <c r="B126" s="44"/>
     </row>
     <row r="127" spans="1:2">
       <c r="A127" s="17" t="s">
-        <v>358</v>
+        <v>348</v>
       </c>
       <c r="B127" s="17" t="s">
-        <v>357</v>
+        <v>347</v>
       </c>
     </row>
     <row r="128" spans="1:2">
       <c r="A128" s="17" t="s">
-        <v>356</v>
+        <v>346</v>
       </c>
       <c r="B128" s="17" t="s">
-        <v>355</v>
+        <v>345</v>
       </c>
     </row>
     <row r="129" spans="1:2" ht="30">
       <c r="A129" s="17" t="s">
-        <v>354</v>
+        <v>344</v>
       </c>
       <c r="B129" s="17" t="s">
-        <v>353</v>
+        <v>343</v>
       </c>
     </row>
     <row r="130" spans="1:2">
       <c r="A130" s="17" t="s">
-        <v>352</v>
+        <v>342</v>
       </c>
       <c r="B130" s="17" t="s">
-        <v>351</v>
+        <v>341</v>
       </c>
     </row>
     <row r="131" spans="1:2">
       <c r="A131" s="17" t="s">
-        <v>350</v>
+        <v>340</v>
       </c>
       <c r="B131" s="17" t="s">
-        <v>349</v>
+        <v>339</v>
       </c>
     </row>
     <row r="132" spans="1:2">
       <c r="A132" s="17" t="s">
-        <v>348</v>
+        <v>338</v>
       </c>
       <c r="B132" s="17" t="s">
-        <v>347</v>
+        <v>337</v>
       </c>
     </row>
     <row r="133" spans="1:2">
       <c r="A133" s="17" t="s">
-        <v>346</v>
+        <v>336</v>
       </c>
       <c r="B133" s="17" t="s">
-        <v>345</v>
+        <v>335</v>
       </c>
     </row>
     <row r="134" spans="1:2">
       <c r="A134" s="17" t="s">
-        <v>344</v>
+        <v>334</v>
       </c>
       <c r="B134" s="17" t="s">
-        <v>343</v>
+        <v>333</v>
       </c>
     </row>
     <row r="135" spans="1:2">
       <c r="A135" s="17" t="s">
-        <v>342</v>
+        <v>332</v>
       </c>
       <c r="B135" s="17" t="s">
-        <v>341</v>
+        <v>331</v>
       </c>
     </row>
     <row r="136" spans="1:2">
       <c r="A136" s="17" t="s">
-        <v>340</v>
+        <v>330</v>
       </c>
       <c r="B136" s="17" t="s">
-        <v>339</v>
+        <v>329</v>
       </c>
     </row>
     <row r="137" spans="1:2">
       <c r="A137" s="17" t="s">
-        <v>338</v>
+        <v>328</v>
       </c>
       <c r="B137" s="17" t="s">
-        <v>337</v>
+        <v>327</v>
       </c>
     </row>
     <row r="138" spans="1:2" ht="30">
       <c r="A138" s="17" t="s">
-        <v>336</v>
+        <v>326</v>
       </c>
       <c r="B138" s="17" t="s">
-        <v>335</v>
+        <v>325</v>
       </c>
     </row>
     <row r="139" spans="1:2">
       <c r="A139" s="17" t="s">
-        <v>334</v>
+        <v>324</v>
       </c>
       <c r="B139" s="17" t="s">
-        <v>333</v>
+        <v>323</v>
       </c>
     </row>
     <row r="140" spans="1:2">
       <c r="A140" s="17" t="s">
-        <v>332</v>
+        <v>322</v>
       </c>
       <c r="B140" s="17" t="s">
-        <v>331</v>
+        <v>321</v>
       </c>
     </row>
     <row r="141" spans="1:2">
       <c r="A141" s="17" t="s">
-        <v>330</v>
+        <v>320</v>
       </c>
       <c r="B141" s="17" t="s">
-        <v>329</v>
+        <v>319</v>
       </c>
     </row>
     <row r="142" spans="1:2">
       <c r="A142" s="17" t="s">
-        <v>328</v>
+        <v>318</v>
       </c>
       <c r="B142" s="17" t="s">
-        <v>327</v>
+        <v>317</v>
       </c>
     </row>
     <row r="143" spans="1:2">
       <c r="A143" s="17" t="s">
-        <v>326</v>
+        <v>316</v>
       </c>
       <c r="B143" s="17" t="s">
-        <v>325</v>
+        <v>315</v>
       </c>
     </row>
     <row r="144" spans="1:2">
       <c r="A144" s="39" t="s">
-        <v>324</v>
-      </c>
-      <c r="B144" s="43"/>
+        <v>314</v>
+      </c>
+      <c r="B144" s="44"/>
     </row>
     <row r="145" spans="1:2">
       <c r="A145" s="39"/>
-      <c r="B145" s="43"/>
+      <c r="B145" s="44"/>
     </row>
     <row r="146" spans="1:2">
       <c r="A146" s="39"/>
-      <c r="B146" s="43"/>
+      <c r="B146" s="44"/>
     </row>
     <row r="147" spans="1:2">
       <c r="A147" s="39"/>
-      <c r="B147" s="43"/>
+      <c r="B147" s="44"/>
     </row>
     <row r="148" spans="1:2">
       <c r="A148" s="39"/>
-      <c r="B148" s="43"/>
+      <c r="B148" s="44"/>
     </row>
     <row r="149" spans="1:2">
       <c r="A149" s="39"/>
-      <c r="B149" s="43"/>
+      <c r="B149" s="44"/>
     </row>
     <row r="150" spans="1:2">
       <c r="A150" s="39"/>
-      <c r="B150" s="43"/>
+      <c r="B150" s="44"/>
     </row>
     <row r="151" spans="1:2">
       <c r="A151" s="39"/>
-      <c r="B151" s="43"/>
+      <c r="B151" s="44"/>
     </row>
     <row r="152" spans="1:2">
       <c r="A152" s="39"/>
-      <c r="B152" s="43"/>
+      <c r="B152" s="44"/>
     </row>
     <row r="153" spans="1:2">
       <c r="A153" s="39"/>
-      <c r="B153" s="43"/>
+      <c r="B153" s="44"/>
     </row>
     <row r="154" spans="1:2">
       <c r="A154" s="39"/>
-      <c r="B154" s="43"/>
+      <c r="B154" s="44"/>
     </row>
     <row r="155" spans="1:2">
       <c r="A155" s="39"/>
-      <c r="B155" s="43"/>
+      <c r="B155" s="44"/>
     </row>
     <row r="156" spans="1:2">
       <c r="A156" s="39"/>
-      <c r="B156" s="43"/>
+      <c r="B156" s="44"/>
     </row>
     <row r="157" spans="1:2">
       <c r="A157" s="17" t="s">
-        <v>323</v>
+        <v>313</v>
       </c>
       <c r="B157" s="17" t="s">
-        <v>322</v>
+        <v>312</v>
       </c>
     </row>
     <row r="158" spans="1:2">
       <c r="A158" s="17" t="s">
-        <v>321</v>
+        <v>311</v>
       </c>
       <c r="B158" s="17" t="s">
-        <v>320</v>
+        <v>310</v>
       </c>
     </row>
     <row r="159" spans="1:2">
       <c r="A159" s="17" t="s">
-        <v>319</v>
+        <v>309</v>
       </c>
       <c r="B159" s="17" t="s">
-        <v>318</v>
+        <v>308</v>
       </c>
     </row>
     <row r="160" spans="1:2">
       <c r="A160" s="17" t="s">
-        <v>317</v>
+        <v>307</v>
       </c>
       <c r="B160" s="17" t="s">
-        <v>316</v>
+        <v>306</v>
       </c>
     </row>
     <row r="161" spans="1:2">
       <c r="A161" s="17" t="s">
-        <v>315</v>
+        <v>305</v>
       </c>
       <c r="B161" s="17" t="s">
-        <v>314</v>
+        <v>304</v>
       </c>
     </row>
     <row r="162" spans="1:2" ht="75">
       <c r="A162" s="17" t="s">
-        <v>313</v>
+        <v>303</v>
       </c>
       <c r="B162" s="17" t="s">
-        <v>310</v>
+        <v>300</v>
       </c>
     </row>
     <row r="163" spans="1:2" ht="75">
       <c r="A163" s="17" t="s">
-        <v>312</v>
+        <v>302</v>
       </c>
       <c r="B163" s="17" t="s">
-        <v>308</v>
+        <v>298</v>
       </c>
     </row>
     <row r="164" spans="1:2" ht="75">
       <c r="A164" s="17" t="s">
-        <v>311</v>
+        <v>301</v>
       </c>
       <c r="B164" s="17" t="s">
-        <v>310</v>
+        <v>300</v>
       </c>
     </row>
     <row r="165" spans="1:2" ht="75">
       <c r="A165" s="17" t="s">
-        <v>309</v>
+        <v>299</v>
       </c>
       <c r="B165" s="17" t="s">
-        <v>308</v>
+        <v>298</v>
       </c>
     </row>
     <row r="166" spans="1:2" ht="75">
       <c r="A166" s="17" t="s">
-        <v>307</v>
+        <v>297</v>
       </c>
       <c r="B166" s="17" t="s">
-        <v>304</v>
+        <v>294</v>
       </c>
     </row>
     <row r="167" spans="1:2" ht="75">
       <c r="A167" s="17" t="s">
-        <v>306</v>
+        <v>296</v>
       </c>
       <c r="B167" s="17" t="s">
-        <v>302</v>
+        <v>292</v>
       </c>
     </row>
     <row r="168" spans="1:2" ht="75">
       <c r="A168" s="17" t="s">
-        <v>305</v>
+        <v>295</v>
       </c>
       <c r="B168" s="17" t="s">
-        <v>304</v>
+        <v>294</v>
       </c>
     </row>
     <row r="169" spans="1:2" ht="75">
       <c r="A169" s="17" t="s">
-        <v>303</v>
+        <v>293</v>
       </c>
       <c r="B169" s="17" t="s">
-        <v>302</v>
+        <v>292</v>
       </c>
     </row>
     <row r="170" spans="1:2" ht="75">
       <c r="A170" s="17" t="s">
-        <v>301</v>
+        <v>291</v>
       </c>
       <c r="B170" s="17" t="s">
-        <v>300</v>
+        <v>290</v>
       </c>
     </row>
     <row r="171" spans="1:2" ht="105">
       <c r="A171" s="17" t="s">
-        <v>299</v>
+        <v>289</v>
       </c>
       <c r="B171" s="17" t="s">
-        <v>298</v>
+        <v>288</v>
       </c>
     </row>
     <row r="172" spans="1:2">
       <c r="A172" s="17" t="s">
-        <v>297</v>
+        <v>287</v>
       </c>
       <c r="B172" s="17" t="s">
-        <v>296</v>
+        <v>286</v>
       </c>
     </row>
     <row r="173" spans="1:2" ht="75">
       <c r="A173" s="17" t="s">
-        <v>295</v>
+        <v>285</v>
       </c>
       <c r="B173" s="17" t="s">
-        <v>294</v>
+        <v>284</v>
       </c>
     </row>
     <row r="174" spans="1:2">
       <c r="A174" s="17" t="s">
-        <v>293</v>
+        <v>283</v>
       </c>
       <c r="B174" s="17" t="s">
-        <v>292</v>
+        <v>282</v>
       </c>
     </row>
     <row r="175" spans="1:2">
       <c r="A175" s="17" t="s">
-        <v>291</v>
+        <v>281</v>
       </c>
       <c r="B175" s="17" t="s">
-        <v>290</v>
+        <v>280</v>
       </c>
     </row>
     <row r="176" spans="1:2">
       <c r="A176" s="17" t="s">
-        <v>289</v>
+        <v>279</v>
       </c>
       <c r="B176" s="17" t="s">
-        <v>288</v>
+        <v>278</v>
       </c>
     </row>
     <row r="177" spans="1:2" ht="60">
       <c r="A177" s="37" t="s">
-        <v>287</v>
+        <v>277</v>
       </c>
       <c r="B177" s="17" t="s">
-        <v>285</v>
+        <v>275</v>
       </c>
     </row>
     <row r="178" spans="1:2" ht="60">
       <c r="A178" s="37"/>
       <c r="B178" s="17" t="s">
-        <v>284</v>
+        <v>274</v>
       </c>
     </row>
     <row r="179" spans="1:2" ht="60">
       <c r="A179" s="37" t="s">
-        <v>286</v>
+        <v>276</v>
       </c>
       <c r="B179" s="17" t="s">
-        <v>285</v>
+        <v>275</v>
       </c>
     </row>
     <row r="180" spans="1:2" ht="60">
       <c r="A180" s="37"/>
       <c r="B180" s="17" t="s">
-        <v>284</v>
+        <v>274</v>
       </c>
     </row>
     <row r="181" spans="1:2">
       <c r="A181" s="39" t="s">
-        <v>283</v>
+        <v>273</v>
       </c>
       <c r="B181" s="17" t="s">
-        <v>282</v>
+        <v>272</v>
       </c>
     </row>
     <row r="182" spans="1:2">
       <c r="A182" s="39"/>
       <c r="B182" s="17" t="s">
-        <v>281</v>
+        <v>271</v>
       </c>
     </row>
     <row r="183" spans="1:2">
       <c r="A183" s="39" t="s">
-        <v>280</v>
+        <v>270</v>
       </c>
       <c r="B183" s="17" t="s">
-        <v>279</v>
+        <v>269</v>
       </c>
     </row>
     <row r="184" spans="1:2" ht="30">
       <c r="A184" s="39"/>
       <c r="B184" s="17" t="s">
-        <v>278</v>
+        <v>268</v>
       </c>
     </row>
     <row r="185" spans="1:2">
       <c r="A185" s="17" t="s">
-        <v>277</v>
+        <v>267</v>
       </c>
       <c r="B185" s="17" t="s">
-        <v>276</v>
+        <v>266</v>
       </c>
     </row>
     <row r="186" spans="1:2">
       <c r="A186" s="17" t="s">
-        <v>275</v>
+        <v>265</v>
       </c>
       <c r="B186" s="17" t="s">
-        <v>274</v>
+        <v>264</v>
       </c>
     </row>
     <row r="187" spans="1:2" ht="60">
       <c r="A187" s="17" t="s">
-        <v>273</v>
+        <v>263</v>
       </c>
       <c r="B187" s="17" t="s">
-        <v>272</v>
+        <v>262</v>
       </c>
     </row>
     <row r="188" spans="1:2">
-      <c r="A188" s="47" t="s">
-        <v>271</v>
-      </c>
-      <c r="B188" s="47"/>
+      <c r="A188" s="43" t="s">
+        <v>261</v>
+      </c>
+      <c r="B188" s="43"/>
     </row>
     <row r="189" spans="1:2">
       <c r="A189" s="17" t="s">
-        <v>270</v>
+        <v>260</v>
       </c>
       <c r="B189" s="17" t="s">
-        <v>269</v>
+        <v>259</v>
       </c>
     </row>
     <row r="190" spans="1:2">
       <c r="A190" s="17" t="s">
-        <v>268</v>
+        <v>258</v>
       </c>
       <c r="B190" s="17" t="s">
-        <v>267</v>
+        <v>257</v>
       </c>
     </row>
     <row r="191" spans="1:2" ht="30">
       <c r="A191" s="17" t="s">
-        <v>266</v>
+        <v>256</v>
       </c>
       <c r="B191" s="17" t="s">
-        <v>265</v>
+        <v>255</v>
       </c>
     </row>
     <row r="192" spans="1:2">
       <c r="A192" s="17" t="s">
-        <v>264</v>
+        <v>254</v>
       </c>
       <c r="B192" s="17" t="s">
-        <v>263</v>
+        <v>253</v>
       </c>
     </row>
     <row r="193" spans="1:2">
       <c r="A193" s="17" t="s">
-        <v>262</v>
+        <v>252</v>
       </c>
       <c r="B193" s="17" t="s">
-        <v>261</v>
+        <v>251</v>
       </c>
     </row>
     <row r="194" spans="1:2">
       <c r="A194" s="17" t="s">
-        <v>260</v>
+        <v>250</v>
       </c>
       <c r="B194" s="17" t="s">
-        <v>259</v>
+        <v>249</v>
       </c>
     </row>
     <row r="195" spans="1:2">
       <c r="A195" s="17" t="s">
-        <v>258</v>
+        <v>248</v>
       </c>
       <c r="B195" s="17" t="s">
-        <v>257</v>
+        <v>247</v>
       </c>
     </row>
     <row r="196" spans="1:2">
       <c r="A196" s="17" t="s">
-        <v>256</v>
+        <v>246</v>
       </c>
       <c r="B196" s="17" t="s">
-        <v>255</v>
+        <v>245</v>
       </c>
     </row>
     <row r="197" spans="1:2" ht="105">
       <c r="A197" s="17" t="s">
-        <v>254</v>
+        <v>244</v>
       </c>
       <c r="B197" s="17" t="s">
-        <v>253</v>
+        <v>243</v>
       </c>
     </row>
     <row r="198" spans="1:2" ht="120">
       <c r="A198" s="17" t="s">
-        <v>252</v>
+        <v>242</v>
       </c>
       <c r="B198" s="17" t="s">
-        <v>251</v>
+        <v>241</v>
       </c>
     </row>
     <row r="199" spans="1:2" ht="180">
       <c r="A199" s="37" t="s">
-        <v>250</v>
+        <v>240</v>
       </c>
       <c r="B199" s="17" t="s">
-        <v>249</v>
+        <v>239</v>
       </c>
     </row>
     <row r="200" spans="1:2" ht="225">
       <c r="A200" s="37"/>
       <c r="B200" s="17" t="s">
-        <v>248</v>
+        <v>238</v>
       </c>
     </row>
     <row r="201" spans="1:2">
       <c r="A201" s="17" t="s">
-        <v>247</v>
+        <v>237</v>
       </c>
       <c r="B201" s="17" t="s">
-        <v>246</v>
+        <v>236</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="17">
-    <mergeCell ref="A181:A182"/>
-    <mergeCell ref="A183:A184"/>
-    <mergeCell ref="A188:B188"/>
-    <mergeCell ref="A199:A200"/>
-    <mergeCell ref="A177:A178"/>
-    <mergeCell ref="A179:A180"/>
     <mergeCell ref="A2:B2"/>
     <mergeCell ref="A115:A126"/>
     <mergeCell ref="B115:B126"/>
@@ -7541,6 +7428,12 @@
     <mergeCell ref="A106:B106"/>
     <mergeCell ref="A107:A109"/>
     <mergeCell ref="A7:B7"/>
+    <mergeCell ref="A181:A182"/>
+    <mergeCell ref="A183:A184"/>
+    <mergeCell ref="A188:B188"/>
+    <mergeCell ref="A199:A200"/>
+    <mergeCell ref="A177:A178"/>
+    <mergeCell ref="A179:A180"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="B1" location="Jquery!A2" display="Up"/>
@@ -7589,78 +7482,78 @@
     </row>
     <row r="6" spans="1:2">
       <c r="A6" s="48" t="s">
-        <v>583</v>
+        <v>573</v>
       </c>
       <c r="B6" s="20" t="s">
-        <v>582</v>
+        <v>572</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" s="49"/>
       <c r="B7" s="20" t="s">
-        <v>581</v>
+        <v>571</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8" s="49"/>
       <c r="B8" s="20" t="s">
-        <v>580</v>
+        <v>570</v>
       </c>
     </row>
     <row r="9" spans="1:2" ht="30">
       <c r="A9" s="20" t="s">
-        <v>579</v>
+        <v>569</v>
       </c>
       <c r="B9" s="19" t="s">
-        <v>578</v>
+        <v>568</v>
       </c>
     </row>
     <row r="10" spans="1:2" ht="45">
       <c r="A10" s="20" t="s">
-        <v>577</v>
+        <v>567</v>
       </c>
       <c r="B10" s="19" t="s">
-        <v>576</v>
+        <v>566</v>
       </c>
     </row>
     <row r="11" spans="1:2" ht="90">
       <c r="A11" s="20" t="s">
-        <v>575</v>
+        <v>565</v>
       </c>
       <c r="B11" s="19" t="s">
-        <v>574</v>
+        <v>564</v>
       </c>
     </row>
     <row r="12" spans="1:2" ht="195">
       <c r="A12" s="20" t="s">
-        <v>573</v>
+        <v>563</v>
       </c>
       <c r="B12" s="19" t="s">
-        <v>572</v>
+        <v>562</v>
       </c>
     </row>
     <row r="13" spans="1:2" ht="210">
       <c r="A13" s="20" t="s">
-        <v>571</v>
+        <v>561</v>
       </c>
       <c r="B13" s="19" t="s">
-        <v>570</v>
+        <v>560</v>
       </c>
     </row>
     <row r="14" spans="1:2" ht="120">
       <c r="A14" s="20" t="s">
-        <v>569</v>
+        <v>559</v>
       </c>
       <c r="B14" s="19" t="s">
-        <v>568</v>
+        <v>558</v>
       </c>
     </row>
     <row r="15" spans="1:2" ht="240">
       <c r="A15" s="20" t="s">
-        <v>567</v>
+        <v>557</v>
       </c>
       <c r="B15" s="19" t="s">
-        <v>566</v>
+        <v>556</v>
       </c>
     </row>
   </sheetData>

--- a/Definitions/t-Definitions-UI.xlsx
+++ b/Definitions/t-Definitions-UI.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="676" uniqueCount="634">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="679" uniqueCount="636">
   <si>
     <t>Topics</t>
   </si>
@@ -3721,6 +3721,12 @@
   <si>
     <t>The any data type is the super type of all types in TypeScript. It denotes a dynamic type. 
 Using the any type is equivalent to opting out of type checking for a variable</t>
+  </si>
+  <si>
+    <t>Important keywords in typescript</t>
+  </si>
+  <si>
+    <t>images\TypeScript\keywords-2.jpg</t>
   </si>
 </sst>
 </file>
@@ -3908,7 +3914,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="50">
+  <cellXfs count="52">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -3984,6 +3990,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -4012,6 +4022,7 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -4027,7 +4038,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
@@ -4496,10 +4506,10 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="33" t="s">
+      <c r="A2" s="35" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="33"/>
+      <c r="B2" s="35"/>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="9" t="s">
@@ -4604,22 +4614,22 @@
       <c r="B16" s="1"/>
     </row>
     <row r="17" spans="1:2">
-      <c r="A17" s="33" t="s">
+      <c r="A17" s="35" t="s">
         <v>5</v>
       </c>
-      <c r="B17" s="33"/>
+      <c r="B17" s="35"/>
     </row>
     <row r="18" spans="1:2">
-      <c r="A18" s="34"/>
-      <c r="B18" s="35"/>
+      <c r="A18" s="36"/>
+      <c r="B18" s="37"/>
     </row>
     <row r="20" spans="1:2" s="13" customFormat="1"/>
     <row r="21" spans="1:2" s="13" customFormat="1"/>
     <row r="22" spans="1:2" s="13" customFormat="1">
-      <c r="A22" s="33" t="s">
+      <c r="A22" s="35" t="s">
         <v>219</v>
       </c>
-      <c r="B22" s="33"/>
+      <c r="B22" s="35"/>
     </row>
     <row r="23" spans="1:2">
       <c r="A23" s="12" t="s">
@@ -4639,10 +4649,10 @@
       </c>
     </row>
     <row r="26" spans="1:2">
-      <c r="A26" s="33" t="s">
+      <c r="A26" s="35" t="s">
         <v>2</v>
       </c>
-      <c r="B26" s="33"/>
+      <c r="B26" s="35"/>
     </row>
     <row r="27" spans="1:2" ht="75">
       <c r="A27" s="5" t="s">
@@ -4741,7 +4751,7 @@
       </c>
     </row>
     <row r="39" spans="1:2" ht="45">
-      <c r="A39" s="37" t="s">
+      <c r="A39" s="39" t="s">
         <v>166</v>
       </c>
       <c r="B39" s="5" t="s">
@@ -4749,7 +4759,7 @@
       </c>
     </row>
     <row r="40" spans="1:2" ht="75">
-      <c r="A40" s="37"/>
+      <c r="A40" s="39"/>
       <c r="B40" s="5" t="s">
         <v>164</v>
       </c>
@@ -4867,7 +4877,7 @@
       </c>
     </row>
     <row r="55" spans="1:2">
-      <c r="A55" s="38" t="s">
+      <c r="A55" s="40" t="s">
         <v>135</v>
       </c>
       <c r="B55" s="5" t="s">
@@ -4875,7 +4885,7 @@
       </c>
     </row>
     <row r="56" spans="1:2" ht="120">
-      <c r="A56" s="38"/>
+      <c r="A56" s="40"/>
       <c r="B56" s="5" t="s">
         <v>133</v>
       </c>
@@ -4905,7 +4915,7 @@
       </c>
     </row>
     <row r="60" spans="1:2" ht="45">
-      <c r="A60" s="38" t="s">
+      <c r="A60" s="40" t="s">
         <v>126</v>
       </c>
       <c r="B60" s="5" t="s">
@@ -4913,7 +4923,7 @@
       </c>
     </row>
     <row r="61" spans="1:2" ht="30">
-      <c r="A61" s="38"/>
+      <c r="A61" s="40"/>
       <c r="B61" s="5" t="s">
         <v>124</v>
       </c>
@@ -5071,7 +5081,7 @@
       </c>
     </row>
     <row r="81" spans="1:2" ht="75">
-      <c r="A81" s="37" t="s">
+      <c r="A81" s="39" t="s">
         <v>85</v>
       </c>
       <c r="B81" s="5" t="s">
@@ -5079,7 +5089,7 @@
       </c>
     </row>
     <row r="82" spans="1:2" ht="30">
-      <c r="A82" s="37"/>
+      <c r="A82" s="39"/>
       <c r="B82" s="5" t="s">
         <v>83</v>
       </c>
@@ -5093,7 +5103,7 @@
       </c>
     </row>
     <row r="84" spans="1:2" ht="30">
-      <c r="A84" s="37" t="s">
+      <c r="A84" s="39" t="s">
         <v>80</v>
       </c>
       <c r="B84" s="5" t="s">
@@ -5101,7 +5111,7 @@
       </c>
     </row>
     <row r="85" spans="1:2" ht="60">
-      <c r="A85" s="37"/>
+      <c r="A85" s="39"/>
       <c r="B85" s="5" t="s">
         <v>78</v>
       </c>
@@ -5131,7 +5141,7 @@
       </c>
     </row>
     <row r="89" spans="1:2" ht="30">
-      <c r="A89" s="38" t="s">
+      <c r="A89" s="40" t="s">
         <v>71</v>
       </c>
       <c r="B89" s="5" t="s">
@@ -5139,13 +5149,13 @@
       </c>
     </row>
     <row r="90" spans="1:2" ht="30">
-      <c r="A90" s="38"/>
+      <c r="A90" s="40"/>
       <c r="B90" s="5" t="s">
         <v>69</v>
       </c>
     </row>
     <row r="91" spans="1:2" ht="30">
-      <c r="A91" s="37" t="s">
+      <c r="A91" s="39" t="s">
         <v>68</v>
       </c>
       <c r="B91" s="5" t="s">
@@ -5153,13 +5163,13 @@
       </c>
     </row>
     <row r="92" spans="1:2" ht="30">
-      <c r="A92" s="37"/>
+      <c r="A92" s="39"/>
       <c r="B92" s="5" t="s">
         <v>66</v>
       </c>
     </row>
     <row r="93" spans="1:2" ht="45">
-      <c r="A93" s="37"/>
+      <c r="A93" s="39"/>
       <c r="B93" s="5" t="s">
         <v>65</v>
       </c>
@@ -5229,7 +5239,7 @@
       </c>
     </row>
     <row r="102" spans="1:2" ht="45">
-      <c r="A102" s="37" t="s">
+      <c r="A102" s="39" t="s">
         <v>48</v>
       </c>
       <c r="B102" s="5" t="s">
@@ -5237,7 +5247,7 @@
       </c>
     </row>
     <row r="103" spans="1:2" ht="105">
-      <c r="A103" s="37"/>
+      <c r="A103" s="39"/>
       <c r="B103" s="5" t="s">
         <v>46</v>
       </c>
@@ -5267,7 +5277,7 @@
       </c>
     </row>
     <row r="107" spans="1:2">
-      <c r="A107" s="39" t="s">
+      <c r="A107" s="41" t="s">
         <v>39</v>
       </c>
       <c r="B107" s="5" t="s">
@@ -5275,7 +5285,7 @@
       </c>
     </row>
     <row r="108" spans="1:2" ht="75">
-      <c r="A108" s="39"/>
+      <c r="A108" s="41"/>
       <c r="B108" s="5" t="s">
         <v>37</v>
       </c>
@@ -5393,7 +5403,7 @@
       </c>
     </row>
     <row r="123" spans="1:2" ht="195">
-      <c r="A123" s="36" t="s">
+      <c r="A123" s="38" t="s">
         <v>8</v>
       </c>
       <c r="B123" s="5" t="s">
@@ -5401,7 +5411,7 @@
       </c>
     </row>
     <row r="124" spans="1:2" ht="165">
-      <c r="A124" s="36"/>
+      <c r="A124" s="38"/>
       <c r="B124" s="5" t="s">
         <v>6</v>
       </c>
@@ -5468,10 +5478,10 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="40" t="s">
+      <c r="A2" s="42" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="41"/>
+      <c r="B2" s="43"/>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="10" t="s">
@@ -5482,16 +5492,16 @@
       </c>
     </row>
     <row r="7" spans="1:2">
-      <c r="A7" s="40" t="s">
+      <c r="A7" s="42" t="s">
         <v>5</v>
       </c>
-      <c r="B7" s="41"/>
+      <c r="B7" s="43"/>
     </row>
     <row r="11" spans="1:2">
-      <c r="A11" s="40" t="s">
+      <c r="A11" s="42" t="s">
         <v>2</v>
       </c>
-      <c r="B11" s="41"/>
+      <c r="B11" s="43"/>
     </row>
     <row r="12" spans="1:2">
       <c r="A12" t="s">
@@ -5510,7 +5520,7 @@
       </c>
     </row>
     <row r="14" spans="1:2" ht="45">
-      <c r="A14" s="42" t="s">
+      <c r="A14" s="44" t="s">
         <v>215</v>
       </c>
       <c r="B14" s="11" t="s">
@@ -5518,13 +5528,13 @@
       </c>
     </row>
     <row r="15" spans="1:2" ht="30">
-      <c r="A15" s="42"/>
+      <c r="A15" s="44"/>
       <c r="B15" s="11" t="s">
         <v>217</v>
       </c>
     </row>
     <row r="16" spans="1:2">
-      <c r="A16" s="42"/>
+      <c r="A16" s="44"/>
       <c r="B16" s="11" t="s">
         <v>218</v>
       </c>
@@ -5569,10 +5579,10 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="40" t="s">
+      <c r="A2" s="42" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="41"/>
+      <c r="B2" s="43"/>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="9" t="s">
@@ -5597,11 +5607,11 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B44"/>
+  <dimension ref="A1:B47"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A40" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A44" sqref="A44"/>
+      <pane ySplit="1" topLeftCell="A41" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B48" sqref="B48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -5619,25 +5629,25 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="40" t="s">
+      <c r="A2" s="42" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="41"/>
+      <c r="B2" s="43"/>
     </row>
     <row r="3" spans="1:2">
-      <c r="A3" s="48" t="s">
+      <c r="A3" s="45" t="s">
         <v>631</v>
       </c>
-      <c r="B3" s="48"/>
+      <c r="B3" s="45"/>
     </row>
     <row r="4" spans="1:2" s="15" customFormat="1">
       <c r="B4" s="28"/>
     </row>
     <row r="6" spans="1:2">
-      <c r="A6" s="40" t="s">
+      <c r="A6" s="42" t="s">
         <v>576</v>
       </c>
-      <c r="B6" s="41"/>
+      <c r="B6" s="43"/>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" s="14" t="s">
@@ -5704,10 +5714,10 @@
       </c>
     </row>
     <row r="16" spans="1:2">
-      <c r="A16" s="40" t="s">
+      <c r="A16" s="42" t="s">
         <v>577</v>
       </c>
-      <c r="B16" s="41"/>
+      <c r="B16" s="43"/>
     </row>
     <row r="17" spans="1:2" ht="60">
       <c r="A17" s="25" t="s">
@@ -5814,7 +5824,7 @@
       </c>
     </row>
     <row r="30" spans="1:2" ht="105">
-      <c r="A30" s="42" t="s">
+      <c r="A30" s="44" t="s">
         <v>601</v>
       </c>
       <c r="B30" s="26" t="s">
@@ -5822,7 +5832,7 @@
       </c>
     </row>
     <row r="31" spans="1:2" ht="30">
-      <c r="A31" s="42"/>
+      <c r="A31" s="44"/>
       <c r="B31" s="26" t="s">
         <v>603</v>
       </c>
@@ -5931,8 +5941,23 @@
         <v>624</v>
       </c>
     </row>
+    <row r="46" spans="1:2">
+      <c r="A46" s="42" t="s">
+        <v>576</v>
+      </c>
+      <c r="B46" s="43"/>
+    </row>
+    <row r="47" spans="1:2">
+      <c r="A47" s="34" t="s">
+        <v>634</v>
+      </c>
+      <c r="B47" s="33" t="s">
+        <v>635</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="5">
+  <mergeCells count="6">
+    <mergeCell ref="A46:B46"/>
     <mergeCell ref="A30:A31"/>
     <mergeCell ref="A2:B2"/>
     <mergeCell ref="A6:B6"/>
@@ -5974,16 +5999,16 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="40" t="s">
+      <c r="A2" s="42" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="41"/>
+      <c r="B2" s="43"/>
     </row>
     <row r="7" spans="1:2">
-      <c r="A7" s="40" t="s">
+      <c r="A7" s="42" t="s">
         <v>2</v>
       </c>
-      <c r="B7" s="41"/>
+      <c r="B7" s="43"/>
     </row>
     <row r="8" spans="1:2" ht="45">
       <c r="A8" s="18" t="s">
@@ -6090,7 +6115,7 @@
       </c>
     </row>
     <row r="21" spans="1:2">
-      <c r="A21" s="39" t="s">
+      <c r="A21" s="41" t="s">
         <v>528</v>
       </c>
       <c r="B21" s="17" t="s">
@@ -6098,7 +6123,7 @@
       </c>
     </row>
     <row r="22" spans="1:2" ht="30">
-      <c r="A22" s="39"/>
+      <c r="A22" s="41"/>
       <c r="B22" s="17" t="s">
         <v>526</v>
       </c>
@@ -6608,7 +6633,7 @@
       </c>
     </row>
     <row r="86" spans="1:2" ht="30">
-      <c r="A86" s="39" t="s">
+      <c r="A86" s="41" t="s">
         <v>400</v>
       </c>
       <c r="B86" s="17" t="s">
@@ -6616,13 +6641,13 @@
       </c>
     </row>
     <row r="87" spans="1:2" ht="30">
-      <c r="A87" s="39"/>
+      <c r="A87" s="41"/>
       <c r="B87" s="17" t="s">
         <v>398</v>
       </c>
     </row>
     <row r="88" spans="1:2" ht="75">
-      <c r="A88" s="39"/>
+      <c r="A88" s="41"/>
       <c r="B88" s="17" t="s">
         <v>397</v>
       </c>
@@ -6660,7 +6685,7 @@
       </c>
     </row>
     <row r="93" spans="1:2">
-      <c r="A93" s="39" t="s">
+      <c r="A93" s="41" t="s">
         <v>389</v>
       </c>
       <c r="B93" s="17" t="s">
@@ -6668,7 +6693,7 @@
       </c>
     </row>
     <row r="94" spans="1:2" ht="45">
-      <c r="A94" s="39"/>
+      <c r="A94" s="41"/>
       <c r="B94" s="17" t="s">
         <v>387</v>
       </c>
@@ -6762,13 +6787,13 @@
       </c>
     </row>
     <row r="106" spans="1:2">
-      <c r="A106" s="45" t="s">
+      <c r="A106" s="48" t="s">
         <v>364</v>
       </c>
-      <c r="B106" s="46"/>
+      <c r="B106" s="49"/>
     </row>
     <row r="107" spans="1:2">
-      <c r="A107" s="47" t="s">
+      <c r="A107" s="50" t="s">
         <v>363</v>
       </c>
       <c r="B107" s="17" t="s">
@@ -6776,13 +6801,13 @@
       </c>
     </row>
     <row r="108" spans="1:2">
-      <c r="A108" s="39"/>
+      <c r="A108" s="41"/>
       <c r="B108" s="17" t="s">
         <v>361</v>
       </c>
     </row>
     <row r="109" spans="1:2">
-      <c r="A109" s="39"/>
+      <c r="A109" s="41"/>
       <c r="B109" s="17" t="s">
         <v>360</v>
       </c>
@@ -6828,54 +6853,54 @@
       </c>
     </row>
     <row r="115" spans="1:2">
-      <c r="A115" s="39" t="s">
+      <c r="A115" s="41" t="s">
         <v>349</v>
       </c>
-      <c r="B115" s="44"/>
+      <c r="B115" s="47"/>
     </row>
     <row r="116" spans="1:2">
-      <c r="A116" s="39"/>
-      <c r="B116" s="44"/>
+      <c r="A116" s="41"/>
+      <c r="B116" s="47"/>
     </row>
     <row r="117" spans="1:2">
-      <c r="A117" s="39"/>
-      <c r="B117" s="44"/>
+      <c r="A117" s="41"/>
+      <c r="B117" s="47"/>
     </row>
     <row r="118" spans="1:2">
-      <c r="A118" s="39"/>
-      <c r="B118" s="44"/>
+      <c r="A118" s="41"/>
+      <c r="B118" s="47"/>
     </row>
     <row r="119" spans="1:2">
-      <c r="A119" s="39"/>
-      <c r="B119" s="44"/>
+      <c r="A119" s="41"/>
+      <c r="B119" s="47"/>
     </row>
     <row r="120" spans="1:2">
-      <c r="A120" s="39"/>
-      <c r="B120" s="44"/>
+      <c r="A120" s="41"/>
+      <c r="B120" s="47"/>
     </row>
     <row r="121" spans="1:2">
-      <c r="A121" s="39"/>
-      <c r="B121" s="44"/>
+      <c r="A121" s="41"/>
+      <c r="B121" s="47"/>
     </row>
     <row r="122" spans="1:2">
-      <c r="A122" s="39"/>
-      <c r="B122" s="44"/>
+      <c r="A122" s="41"/>
+      <c r="B122" s="47"/>
     </row>
     <row r="123" spans="1:2">
-      <c r="A123" s="39"/>
-      <c r="B123" s="44"/>
+      <c r="A123" s="41"/>
+      <c r="B123" s="47"/>
     </row>
     <row r="124" spans="1:2">
-      <c r="A124" s="39"/>
-      <c r="B124" s="44"/>
+      <c r="A124" s="41"/>
+      <c r="B124" s="47"/>
     </row>
     <row r="125" spans="1:2">
-      <c r="A125" s="39"/>
-      <c r="B125" s="44"/>
+      <c r="A125" s="41"/>
+      <c r="B125" s="47"/>
     </row>
     <row r="126" spans="1:2">
-      <c r="A126" s="39"/>
-      <c r="B126" s="44"/>
+      <c r="A126" s="41"/>
+      <c r="B126" s="47"/>
     </row>
     <row r="127" spans="1:2">
       <c r="A127" s="17" t="s">
@@ -7014,58 +7039,58 @@
       </c>
     </row>
     <row r="144" spans="1:2">
-      <c r="A144" s="39" t="s">
+      <c r="A144" s="41" t="s">
         <v>314</v>
       </c>
-      <c r="B144" s="44"/>
+      <c r="B144" s="47"/>
     </row>
     <row r="145" spans="1:2">
-      <c r="A145" s="39"/>
-      <c r="B145" s="44"/>
+      <c r="A145" s="41"/>
+      <c r="B145" s="47"/>
     </row>
     <row r="146" spans="1:2">
-      <c r="A146" s="39"/>
-      <c r="B146" s="44"/>
+      <c r="A146" s="41"/>
+      <c r="B146" s="47"/>
     </row>
     <row r="147" spans="1:2">
-      <c r="A147" s="39"/>
-      <c r="B147" s="44"/>
+      <c r="A147" s="41"/>
+      <c r="B147" s="47"/>
     </row>
     <row r="148" spans="1:2">
-      <c r="A148" s="39"/>
-      <c r="B148" s="44"/>
+      <c r="A148" s="41"/>
+      <c r="B148" s="47"/>
     </row>
     <row r="149" spans="1:2">
-      <c r="A149" s="39"/>
-      <c r="B149" s="44"/>
+      <c r="A149" s="41"/>
+      <c r="B149" s="47"/>
     </row>
     <row r="150" spans="1:2">
-      <c r="A150" s="39"/>
-      <c r="B150" s="44"/>
+      <c r="A150" s="41"/>
+      <c r="B150" s="47"/>
     </row>
     <row r="151" spans="1:2">
-      <c r="A151" s="39"/>
-      <c r="B151" s="44"/>
+      <c r="A151" s="41"/>
+      <c r="B151" s="47"/>
     </row>
     <row r="152" spans="1:2">
-      <c r="A152" s="39"/>
-      <c r="B152" s="44"/>
+      <c r="A152" s="41"/>
+      <c r="B152" s="47"/>
     </row>
     <row r="153" spans="1:2">
-      <c r="A153" s="39"/>
-      <c r="B153" s="44"/>
+      <c r="A153" s="41"/>
+      <c r="B153" s="47"/>
     </row>
     <row r="154" spans="1:2">
-      <c r="A154" s="39"/>
-      <c r="B154" s="44"/>
+      <c r="A154" s="41"/>
+      <c r="B154" s="47"/>
     </row>
     <row r="155" spans="1:2">
-      <c r="A155" s="39"/>
-      <c r="B155" s="44"/>
+      <c r="A155" s="41"/>
+      <c r="B155" s="47"/>
     </row>
     <row r="156" spans="1:2">
-      <c r="A156" s="39"/>
-      <c r="B156" s="44"/>
+      <c r="A156" s="41"/>
+      <c r="B156" s="47"/>
     </row>
     <row r="157" spans="1:2">
       <c r="A157" s="17" t="s">
@@ -7228,7 +7253,7 @@
       </c>
     </row>
     <row r="177" spans="1:2" ht="60">
-      <c r="A177" s="37" t="s">
+      <c r="A177" s="39" t="s">
         <v>277</v>
       </c>
       <c r="B177" s="17" t="s">
@@ -7236,13 +7261,13 @@
       </c>
     </row>
     <row r="178" spans="1:2" ht="60">
-      <c r="A178" s="37"/>
+      <c r="A178" s="39"/>
       <c r="B178" s="17" t="s">
         <v>274</v>
       </c>
     </row>
     <row r="179" spans="1:2" ht="60">
-      <c r="A179" s="37" t="s">
+      <c r="A179" s="39" t="s">
         <v>276</v>
       </c>
       <c r="B179" s="17" t="s">
@@ -7250,13 +7275,13 @@
       </c>
     </row>
     <row r="180" spans="1:2" ht="60">
-      <c r="A180" s="37"/>
+      <c r="A180" s="39"/>
       <c r="B180" s="17" t="s">
         <v>274</v>
       </c>
     </row>
     <row r="181" spans="1:2">
-      <c r="A181" s="39" t="s">
+      <c r="A181" s="41" t="s">
         <v>273</v>
       </c>
       <c r="B181" s="17" t="s">
@@ -7264,13 +7289,13 @@
       </c>
     </row>
     <row r="182" spans="1:2">
-      <c r="A182" s="39"/>
+      <c r="A182" s="41"/>
       <c r="B182" s="17" t="s">
         <v>271</v>
       </c>
     </row>
     <row r="183" spans="1:2">
-      <c r="A183" s="39" t="s">
+      <c r="A183" s="41" t="s">
         <v>270</v>
       </c>
       <c r="B183" s="17" t="s">
@@ -7278,7 +7303,7 @@
       </c>
     </row>
     <row r="184" spans="1:2" ht="30">
-      <c r="A184" s="39"/>
+      <c r="A184" s="41"/>
       <c r="B184" s="17" t="s">
         <v>268</v>
       </c>
@@ -7308,10 +7333,10 @@
       </c>
     </row>
     <row r="188" spans="1:2">
-      <c r="A188" s="43" t="s">
+      <c r="A188" s="46" t="s">
         <v>261</v>
       </c>
-      <c r="B188" s="43"/>
+      <c r="B188" s="46"/>
     </row>
     <row r="189" spans="1:2">
       <c r="A189" s="17" t="s">
@@ -7394,7 +7419,7 @@
       </c>
     </row>
     <row r="199" spans="1:2" ht="180">
-      <c r="A199" s="37" t="s">
+      <c r="A199" s="39" t="s">
         <v>240</v>
       </c>
       <c r="B199" s="17" t="s">
@@ -7402,7 +7427,7 @@
       </c>
     </row>
     <row r="200" spans="1:2" ht="225">
-      <c r="A200" s="37"/>
+      <c r="A200" s="39"/>
       <c r="B200" s="17" t="s">
         <v>238</v>
       </c>
@@ -7469,19 +7494,19 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="40" t="s">
+      <c r="A2" s="42" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="41"/>
+      <c r="B2" s="43"/>
     </row>
     <row r="5" spans="1:2">
-      <c r="A5" s="40" t="s">
+      <c r="A5" s="42" t="s">
         <v>2</v>
       </c>
-      <c r="B5" s="41"/>
+      <c r="B5" s="43"/>
     </row>
     <row r="6" spans="1:2">
-      <c r="A6" s="48" t="s">
+      <c r="A6" s="45" t="s">
         <v>573</v>
       </c>
       <c r="B6" s="20" t="s">
@@ -7489,13 +7514,13 @@
       </c>
     </row>
     <row r="7" spans="1:2">
-      <c r="A7" s="49"/>
+      <c r="A7" s="51"/>
       <c r="B7" s="20" t="s">
         <v>571</v>
       </c>
     </row>
     <row r="8" spans="1:2">
-      <c r="A8" s="49"/>
+      <c r="A8" s="51"/>
       <c r="B8" s="20" t="s">
         <v>570</v>
       </c>

--- a/Definitions/t-Definitions-UI.xlsx
+++ b/Definitions/t-Definitions-UI.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" tabRatio="1000" activeTab="4"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" tabRatio="1000" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Topics" sheetId="1" r:id="rId1"/>
@@ -3548,9 +3548,6 @@
     <t>The "Language Service" exposes an additional layer around the core compiler pipeline that are editor-like applications. The language service supports the common set of a typical editor operations like statement completions, signature help, code formatting and outlining, colorization, etc</t>
   </si>
   <si>
-    <t>When a TypeScript script gets compiled, there is an option to generate a declaration file (with the extension .d.ts) that functions as an interface to the components in the compiled JavaScript. The concept of declaration files is analogous to the concept of header files found in C/C++. The declaration files (files with .d.ts extension) provide intellisense for types, function calls, and variable support for JavaScript libraries like jQuery, MooTools, etc</t>
-  </si>
-  <si>
     <t>The TypeScript Compiler</t>
   </si>
   <si>
@@ -3727,6 +3724,9 @@
   </si>
   <si>
     <t>images\TypeScript\keywords-2.jpg</t>
+  </si>
+  <si>
+    <t>When a TypeScript script gets compiled, there is an option to generate a definition file (with the extension .d.ts) that functions as an interface to the components in the compiled JavaScript. The concept of definitions files is analogous to the concept of header files found in C/C++. The definition files (files with .d.ts extension) provide intellisense for types, function calls, and variable support for JavaScript libraries like jQuery, MooTools, etc</t>
   </si>
 </sst>
 </file>
@@ -3914,7 +3914,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="52">
+  <cellXfs count="53">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -3994,6 +3994,9 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -4506,10 +4509,10 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="35" t="s">
+      <c r="A2" s="36" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="35"/>
+      <c r="B2" s="36"/>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="9" t="s">
@@ -4614,22 +4617,22 @@
       <c r="B16" s="1"/>
     </row>
     <row r="17" spans="1:2">
-      <c r="A17" s="35" t="s">
+      <c r="A17" s="36" t="s">
         <v>5</v>
       </c>
-      <c r="B17" s="35"/>
+      <c r="B17" s="36"/>
     </row>
     <row r="18" spans="1:2">
-      <c r="A18" s="36"/>
-      <c r="B18" s="37"/>
+      <c r="A18" s="37"/>
+      <c r="B18" s="38"/>
     </row>
     <row r="20" spans="1:2" s="13" customFormat="1"/>
     <row r="21" spans="1:2" s="13" customFormat="1"/>
     <row r="22" spans="1:2" s="13" customFormat="1">
-      <c r="A22" s="35" t="s">
+      <c r="A22" s="36" t="s">
         <v>219</v>
       </c>
-      <c r="B22" s="35"/>
+      <c r="B22" s="36"/>
     </row>
     <row r="23" spans="1:2">
       <c r="A23" s="12" t="s">
@@ -4649,10 +4652,10 @@
       </c>
     </row>
     <row r="26" spans="1:2">
-      <c r="A26" s="35" t="s">
+      <c r="A26" s="36" t="s">
         <v>2</v>
       </c>
-      <c r="B26" s="35"/>
+      <c r="B26" s="36"/>
     </row>
     <row r="27" spans="1:2" ht="75">
       <c r="A27" s="5" t="s">
@@ -4751,7 +4754,7 @@
       </c>
     </row>
     <row r="39" spans="1:2" ht="45">
-      <c r="A39" s="39" t="s">
+      <c r="A39" s="40" t="s">
         <v>166</v>
       </c>
       <c r="B39" s="5" t="s">
@@ -4759,7 +4762,7 @@
       </c>
     </row>
     <row r="40" spans="1:2" ht="75">
-      <c r="A40" s="39"/>
+      <c r="A40" s="40"/>
       <c r="B40" s="5" t="s">
         <v>164</v>
       </c>
@@ -4877,7 +4880,7 @@
       </c>
     </row>
     <row r="55" spans="1:2">
-      <c r="A55" s="40" t="s">
+      <c r="A55" s="41" t="s">
         <v>135</v>
       </c>
       <c r="B55" s="5" t="s">
@@ -4885,7 +4888,7 @@
       </c>
     </row>
     <row r="56" spans="1:2" ht="120">
-      <c r="A56" s="40"/>
+      <c r="A56" s="41"/>
       <c r="B56" s="5" t="s">
         <v>133</v>
       </c>
@@ -4915,7 +4918,7 @@
       </c>
     </row>
     <row r="60" spans="1:2" ht="45">
-      <c r="A60" s="40" t="s">
+      <c r="A60" s="41" t="s">
         <v>126</v>
       </c>
       <c r="B60" s="5" t="s">
@@ -4923,7 +4926,7 @@
       </c>
     </row>
     <row r="61" spans="1:2" ht="30">
-      <c r="A61" s="40"/>
+      <c r="A61" s="41"/>
       <c r="B61" s="5" t="s">
         <v>124</v>
       </c>
@@ -5081,7 +5084,7 @@
       </c>
     </row>
     <row r="81" spans="1:2" ht="75">
-      <c r="A81" s="39" t="s">
+      <c r="A81" s="40" t="s">
         <v>85</v>
       </c>
       <c r="B81" s="5" t="s">
@@ -5089,7 +5092,7 @@
       </c>
     </row>
     <row r="82" spans="1:2" ht="30">
-      <c r="A82" s="39"/>
+      <c r="A82" s="40"/>
       <c r="B82" s="5" t="s">
         <v>83</v>
       </c>
@@ -5103,7 +5106,7 @@
       </c>
     </row>
     <row r="84" spans="1:2" ht="30">
-      <c r="A84" s="39" t="s">
+      <c r="A84" s="40" t="s">
         <v>80</v>
       </c>
       <c r="B84" s="5" t="s">
@@ -5111,7 +5114,7 @@
       </c>
     </row>
     <row r="85" spans="1:2" ht="60">
-      <c r="A85" s="39"/>
+      <c r="A85" s="40"/>
       <c r="B85" s="5" t="s">
         <v>78</v>
       </c>
@@ -5141,7 +5144,7 @@
       </c>
     </row>
     <row r="89" spans="1:2" ht="30">
-      <c r="A89" s="40" t="s">
+      <c r="A89" s="41" t="s">
         <v>71</v>
       </c>
       <c r="B89" s="5" t="s">
@@ -5149,13 +5152,13 @@
       </c>
     </row>
     <row r="90" spans="1:2" ht="30">
-      <c r="A90" s="40"/>
+      <c r="A90" s="41"/>
       <c r="B90" s="5" t="s">
         <v>69</v>
       </c>
     </row>
     <row r="91" spans="1:2" ht="30">
-      <c r="A91" s="39" t="s">
+      <c r="A91" s="40" t="s">
         <v>68</v>
       </c>
       <c r="B91" s="5" t="s">
@@ -5163,13 +5166,13 @@
       </c>
     </row>
     <row r="92" spans="1:2" ht="30">
-      <c r="A92" s="39"/>
+      <c r="A92" s="40"/>
       <c r="B92" s="5" t="s">
         <v>66</v>
       </c>
     </row>
     <row r="93" spans="1:2" ht="45">
-      <c r="A93" s="39"/>
+      <c r="A93" s="40"/>
       <c r="B93" s="5" t="s">
         <v>65</v>
       </c>
@@ -5239,7 +5242,7 @@
       </c>
     </row>
     <row r="102" spans="1:2" ht="45">
-      <c r="A102" s="39" t="s">
+      <c r="A102" s="40" t="s">
         <v>48</v>
       </c>
       <c r="B102" s="5" t="s">
@@ -5247,7 +5250,7 @@
       </c>
     </row>
     <row r="103" spans="1:2" ht="105">
-      <c r="A103" s="39"/>
+      <c r="A103" s="40"/>
       <c r="B103" s="5" t="s">
         <v>46</v>
       </c>
@@ -5277,7 +5280,7 @@
       </c>
     </row>
     <row r="107" spans="1:2">
-      <c r="A107" s="41" t="s">
+      <c r="A107" s="42" t="s">
         <v>39</v>
       </c>
       <c r="B107" s="5" t="s">
@@ -5285,7 +5288,7 @@
       </c>
     </row>
     <row r="108" spans="1:2" ht="75">
-      <c r="A108" s="41"/>
+      <c r="A108" s="42"/>
       <c r="B108" s="5" t="s">
         <v>37</v>
       </c>
@@ -5403,7 +5406,7 @@
       </c>
     </row>
     <row r="123" spans="1:2" ht="195">
-      <c r="A123" s="38" t="s">
+      <c r="A123" s="39" t="s">
         <v>8</v>
       </c>
       <c r="B123" s="5" t="s">
@@ -5411,7 +5414,7 @@
       </c>
     </row>
     <row r="124" spans="1:2" ht="165">
-      <c r="A124" s="38"/>
+      <c r="A124" s="39"/>
       <c r="B124" s="5" t="s">
         <v>6</v>
       </c>
@@ -5478,10 +5481,10 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="42" t="s">
+      <c r="A2" s="43" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="43"/>
+      <c r="B2" s="44"/>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="10" t="s">
@@ -5492,16 +5495,16 @@
       </c>
     </row>
     <row r="7" spans="1:2">
-      <c r="A7" s="42" t="s">
+      <c r="A7" s="43" t="s">
         <v>5</v>
       </c>
-      <c r="B7" s="43"/>
+      <c r="B7" s="44"/>
     </row>
     <row r="11" spans="1:2">
-      <c r="A11" s="42" t="s">
+      <c r="A11" s="43" t="s">
         <v>2</v>
       </c>
-      <c r="B11" s="43"/>
+      <c r="B11" s="44"/>
     </row>
     <row r="12" spans="1:2">
       <c r="A12" t="s">
@@ -5520,7 +5523,7 @@
       </c>
     </row>
     <row r="14" spans="1:2" ht="45">
-      <c r="A14" s="44" t="s">
+      <c r="A14" s="45" t="s">
         <v>215</v>
       </c>
       <c r="B14" s="11" t="s">
@@ -5528,13 +5531,13 @@
       </c>
     </row>
     <row r="15" spans="1:2" ht="30">
-      <c r="A15" s="44"/>
+      <c r="A15" s="45"/>
       <c r="B15" s="11" t="s">
         <v>217</v>
       </c>
     </row>
     <row r="16" spans="1:2">
-      <c r="A16" s="44"/>
+      <c r="A16" s="45"/>
       <c r="B16" s="11" t="s">
         <v>218</v>
       </c>
@@ -5559,7 +5562,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:B3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft"/>
     </sheetView>
@@ -5579,10 +5582,10 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="42" t="s">
+      <c r="A2" s="43" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="43"/>
+      <c r="B2" s="44"/>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="9" t="s">
@@ -5609,9 +5612,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:B47"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A41" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B48" sqref="B48"/>
+      <selection pane="bottomLeft" activeCell="B47" sqref="B47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -5629,25 +5632,25 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="42" t="s">
+      <c r="A2" s="43" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="43"/>
+      <c r="B2" s="44"/>
     </row>
     <row r="3" spans="1:2">
-      <c r="A3" s="45" t="s">
-        <v>631</v>
-      </c>
-      <c r="B3" s="45"/>
+      <c r="A3" s="46" t="s">
+        <v>630</v>
+      </c>
+      <c r="B3" s="46"/>
     </row>
     <row r="4" spans="1:2" s="15" customFormat="1">
       <c r="B4" s="28"/>
     </row>
     <row r="6" spans="1:2">
-      <c r="A6" s="42" t="s">
+      <c r="A6" s="43" t="s">
         <v>576</v>
       </c>
-      <c r="B6" s="43"/>
+      <c r="B6" s="44"/>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" s="14" t="s">
@@ -5662,7 +5665,7 @@
         <v>228</v>
       </c>
       <c r="B8" s="29" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
     </row>
     <row r="9" spans="1:2" ht="90">
@@ -5694,7 +5697,7 @@
         <v>233</v>
       </c>
       <c r="B12" s="29" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
     </row>
     <row r="13" spans="1:2">
@@ -5714,10 +5717,10 @@
       </c>
     </row>
     <row r="16" spans="1:2">
-      <c r="A16" s="42" t="s">
+      <c r="A16" s="43" t="s">
         <v>577</v>
       </c>
-      <c r="B16" s="43"/>
+      <c r="B16" s="44"/>
     </row>
     <row r="17" spans="1:2" ht="60">
       <c r="A17" s="25" t="s">
@@ -5764,7 +5767,7 @@
         <v>588</v>
       </c>
       <c r="B22" s="32" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
     </row>
     <row r="23" spans="1:2">
@@ -5793,72 +5796,72 @@
     </row>
     <row r="26" spans="1:2" ht="60">
       <c r="A26" s="30" t="s">
-        <v>627</v>
-      </c>
-      <c r="B26" s="29" t="s">
-        <v>594</v>
+        <v>626</v>
+      </c>
+      <c r="B26" s="35" t="s">
+        <v>635</v>
       </c>
     </row>
     <row r="27" spans="1:2" ht="75">
       <c r="A27" s="25" t="s">
+        <v>594</v>
+      </c>
+      <c r="B27" s="24" t="s">
         <v>595</v>
-      </c>
-      <c r="B27" s="24" t="s">
-        <v>596</v>
       </c>
     </row>
     <row r="28" spans="1:2" ht="30">
       <c r="A28" s="25" t="s">
+        <v>596</v>
+      </c>
+      <c r="B28" s="24" t="s">
         <v>597</v>
-      </c>
-      <c r="B28" s="24" t="s">
-        <v>598</v>
       </c>
     </row>
     <row r="29" spans="1:2" ht="75">
       <c r="A29" s="27" t="s">
+        <v>598</v>
+      </c>
+      <c r="B29" s="26" t="s">
         <v>599</v>
       </c>
-      <c r="B29" s="26" t="s">
+    </row>
+    <row r="30" spans="1:2" ht="105">
+      <c r="A30" s="45" t="s">
         <v>600</v>
       </c>
-    </row>
-    <row r="30" spans="1:2" ht="105">
-      <c r="A30" s="44" t="s">
+      <c r="B30" s="26" t="s">
         <v>601</v>
       </c>
-      <c r="B30" s="26" t="s">
+    </row>
+    <row r="31" spans="1:2" ht="30">
+      <c r="A31" s="45"/>
+      <c r="B31" s="26" t="s">
         <v>602</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2" ht="30">
-      <c r="A31" s="44"/>
-      <c r="B31" s="26" t="s">
-        <v>603</v>
       </c>
     </row>
     <row r="32" spans="1:2">
       <c r="A32" s="31" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="B32" s="26" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
     </row>
     <row r="33" spans="1:2">
       <c r="A33" s="31" t="s">
+        <v>604</v>
+      </c>
+      <c r="B33" s="26" t="s">
         <v>605</v>
-      </c>
-      <c r="B33" s="26" t="s">
-        <v>606</v>
       </c>
     </row>
     <row r="34" spans="1:2">
       <c r="A34" s="31" t="s">
+        <v>606</v>
+      </c>
+      <c r="B34" s="26" t="s">
         <v>607</v>
-      </c>
-      <c r="B34" s="26" t="s">
-        <v>608</v>
       </c>
     </row>
     <row r="35" spans="1:2">
@@ -5866,93 +5869,93 @@
         <v>153</v>
       </c>
       <c r="B35" s="26" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
     </row>
     <row r="36" spans="1:2">
       <c r="A36" s="31" t="s">
+        <v>609</v>
+      </c>
+      <c r="B36" s="26" t="s">
         <v>610</v>
-      </c>
-      <c r="B36" s="26" t="s">
-        <v>611</v>
       </c>
     </row>
     <row r="37" spans="1:2">
       <c r="A37" s="31" t="s">
+        <v>611</v>
+      </c>
+      <c r="B37" s="26" t="s">
         <v>612</v>
-      </c>
-      <c r="B37" s="26" t="s">
-        <v>613</v>
       </c>
     </row>
     <row r="38" spans="1:2">
       <c r="A38" s="31" t="s">
+        <v>614</v>
+      </c>
+      <c r="B38" s="26" t="s">
         <v>615</v>
-      </c>
-      <c r="B38" s="26" t="s">
-        <v>616</v>
       </c>
     </row>
     <row r="39" spans="1:2" ht="30">
       <c r="A39" s="31" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
       <c r="B39" s="32" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
     </row>
     <row r="40" spans="1:2" ht="105">
       <c r="A40" s="31" t="s">
+        <v>617</v>
+      </c>
+      <c r="B40" s="26" t="s">
         <v>618</v>
-      </c>
-      <c r="B40" s="26" t="s">
-        <v>619</v>
       </c>
     </row>
     <row r="41" spans="1:2" ht="90">
       <c r="A41" s="31" t="s">
+        <v>627</v>
+      </c>
+      <c r="B41" s="29" t="s">
         <v>628</v>
-      </c>
-      <c r="B41" s="29" t="s">
-        <v>629</v>
       </c>
     </row>
     <row r="42" spans="1:2" ht="30">
       <c r="A42" s="31" t="s">
+        <v>619</v>
+      </c>
+      <c r="B42" s="26" t="s">
         <v>620</v>
-      </c>
-      <c r="B42" s="26" t="s">
-        <v>621</v>
       </c>
     </row>
     <row r="43" spans="1:2" ht="45">
       <c r="A43" s="31" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
       <c r="B43" s="29" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
     </row>
     <row r="44" spans="1:2" ht="30">
       <c r="A44" s="31" t="s">
+        <v>622</v>
+      </c>
+      <c r="B44" s="26" t="s">
         <v>623</v>
       </c>
-      <c r="B44" s="26" t="s">
-        <v>624</v>
-      </c>
     </row>
     <row r="46" spans="1:2">
-      <c r="A46" s="42" t="s">
+      <c r="A46" s="43" t="s">
         <v>576</v>
       </c>
-      <c r="B46" s="43"/>
+      <c r="B46" s="44"/>
     </row>
     <row r="47" spans="1:2">
       <c r="A47" s="34" t="s">
+        <v>633</v>
+      </c>
+      <c r="B47" s="33" t="s">
         <v>634</v>
-      </c>
-      <c r="B47" s="33" t="s">
-        <v>635</v>
       </c>
     </row>
   </sheetData>
@@ -5999,16 +6002,16 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="42" t="s">
+      <c r="A2" s="43" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="43"/>
+      <c r="B2" s="44"/>
     </row>
     <row r="7" spans="1:2">
-      <c r="A7" s="42" t="s">
+      <c r="A7" s="43" t="s">
         <v>2</v>
       </c>
-      <c r="B7" s="43"/>
+      <c r="B7" s="44"/>
     </row>
     <row r="8" spans="1:2" ht="45">
       <c r="A8" s="18" t="s">
@@ -6115,7 +6118,7 @@
       </c>
     </row>
     <row r="21" spans="1:2">
-      <c r="A21" s="41" t="s">
+      <c r="A21" s="42" t="s">
         <v>528</v>
       </c>
       <c r="B21" s="17" t="s">
@@ -6123,7 +6126,7 @@
       </c>
     </row>
     <row r="22" spans="1:2" ht="30">
-      <c r="A22" s="41"/>
+      <c r="A22" s="42"/>
       <c r="B22" s="17" t="s">
         <v>526</v>
       </c>
@@ -6633,7 +6636,7 @@
       </c>
     </row>
     <row r="86" spans="1:2" ht="30">
-      <c r="A86" s="41" t="s">
+      <c r="A86" s="42" t="s">
         <v>400</v>
       </c>
       <c r="B86" s="17" t="s">
@@ -6641,13 +6644,13 @@
       </c>
     </row>
     <row r="87" spans="1:2" ht="30">
-      <c r="A87" s="41"/>
+      <c r="A87" s="42"/>
       <c r="B87" s="17" t="s">
         <v>398</v>
       </c>
     </row>
     <row r="88" spans="1:2" ht="75">
-      <c r="A88" s="41"/>
+      <c r="A88" s="42"/>
       <c r="B88" s="17" t="s">
         <v>397</v>
       </c>
@@ -6685,7 +6688,7 @@
       </c>
     </row>
     <row r="93" spans="1:2">
-      <c r="A93" s="41" t="s">
+      <c r="A93" s="42" t="s">
         <v>389</v>
       </c>
       <c r="B93" s="17" t="s">
@@ -6693,7 +6696,7 @@
       </c>
     </row>
     <row r="94" spans="1:2" ht="45">
-      <c r="A94" s="41"/>
+      <c r="A94" s="42"/>
       <c r="B94" s="17" t="s">
         <v>387</v>
       </c>
@@ -6787,13 +6790,13 @@
       </c>
     </row>
     <row r="106" spans="1:2">
-      <c r="A106" s="48" t="s">
+      <c r="A106" s="49" t="s">
         <v>364</v>
       </c>
-      <c r="B106" s="49"/>
+      <c r="B106" s="50"/>
     </row>
     <row r="107" spans="1:2">
-      <c r="A107" s="50" t="s">
+      <c r="A107" s="51" t="s">
         <v>363</v>
       </c>
       <c r="B107" s="17" t="s">
@@ -6801,13 +6804,13 @@
       </c>
     </row>
     <row r="108" spans="1:2">
-      <c r="A108" s="41"/>
+      <c r="A108" s="42"/>
       <c r="B108" s="17" t="s">
         <v>361</v>
       </c>
     </row>
     <row r="109" spans="1:2">
-      <c r="A109" s="41"/>
+      <c r="A109" s="42"/>
       <c r="B109" s="17" t="s">
         <v>360</v>
       </c>
@@ -6853,54 +6856,54 @@
       </c>
     </row>
     <row r="115" spans="1:2">
-      <c r="A115" s="41" t="s">
+      <c r="A115" s="42" t="s">
         <v>349</v>
       </c>
-      <c r="B115" s="47"/>
+      <c r="B115" s="48"/>
     </row>
     <row r="116" spans="1:2">
-      <c r="A116" s="41"/>
-      <c r="B116" s="47"/>
+      <c r="A116" s="42"/>
+      <c r="B116" s="48"/>
     </row>
     <row r="117" spans="1:2">
-      <c r="A117" s="41"/>
-      <c r="B117" s="47"/>
+      <c r="A117" s="42"/>
+      <c r="B117" s="48"/>
     </row>
     <row r="118" spans="1:2">
-      <c r="A118" s="41"/>
-      <c r="B118" s="47"/>
+      <c r="A118" s="42"/>
+      <c r="B118" s="48"/>
     </row>
     <row r="119" spans="1:2">
-      <c r="A119" s="41"/>
-      <c r="B119" s="47"/>
+      <c r="A119" s="42"/>
+      <c r="B119" s="48"/>
     </row>
     <row r="120" spans="1:2">
-      <c r="A120" s="41"/>
-      <c r="B120" s="47"/>
+      <c r="A120" s="42"/>
+      <c r="B120" s="48"/>
     </row>
     <row r="121" spans="1:2">
-      <c r="A121" s="41"/>
-      <c r="B121" s="47"/>
+      <c r="A121" s="42"/>
+      <c r="B121" s="48"/>
     </row>
     <row r="122" spans="1:2">
-      <c r="A122" s="41"/>
-      <c r="B122" s="47"/>
+      <c r="A122" s="42"/>
+      <c r="B122" s="48"/>
     </row>
     <row r="123" spans="1:2">
-      <c r="A123" s="41"/>
-      <c r="B123" s="47"/>
+      <c r="A123" s="42"/>
+      <c r="B123" s="48"/>
     </row>
     <row r="124" spans="1:2">
-      <c r="A124" s="41"/>
-      <c r="B124" s="47"/>
+      <c r="A124" s="42"/>
+      <c r="B124" s="48"/>
     </row>
     <row r="125" spans="1:2">
-      <c r="A125" s="41"/>
-      <c r="B125" s="47"/>
+      <c r="A125" s="42"/>
+      <c r="B125" s="48"/>
     </row>
     <row r="126" spans="1:2">
-      <c r="A126" s="41"/>
-      <c r="B126" s="47"/>
+      <c r="A126" s="42"/>
+      <c r="B126" s="48"/>
     </row>
     <row r="127" spans="1:2">
       <c r="A127" s="17" t="s">
@@ -7039,58 +7042,58 @@
       </c>
     </row>
     <row r="144" spans="1:2">
-      <c r="A144" s="41" t="s">
+      <c r="A144" s="42" t="s">
         <v>314</v>
       </c>
-      <c r="B144" s="47"/>
+      <c r="B144" s="48"/>
     </row>
     <row r="145" spans="1:2">
-      <c r="A145" s="41"/>
-      <c r="B145" s="47"/>
+      <c r="A145" s="42"/>
+      <c r="B145" s="48"/>
     </row>
     <row r="146" spans="1:2">
-      <c r="A146" s="41"/>
-      <c r="B146" s="47"/>
+      <c r="A146" s="42"/>
+      <c r="B146" s="48"/>
     </row>
     <row r="147" spans="1:2">
-      <c r="A147" s="41"/>
-      <c r="B147" s="47"/>
+      <c r="A147" s="42"/>
+      <c r="B147" s="48"/>
     </row>
     <row r="148" spans="1:2">
-      <c r="A148" s="41"/>
-      <c r="B148" s="47"/>
+      <c r="A148" s="42"/>
+      <c r="B148" s="48"/>
     </row>
     <row r="149" spans="1:2">
-      <c r="A149" s="41"/>
-      <c r="B149" s="47"/>
+      <c r="A149" s="42"/>
+      <c r="B149" s="48"/>
     </row>
     <row r="150" spans="1:2">
-      <c r="A150" s="41"/>
-      <c r="B150" s="47"/>
+      <c r="A150" s="42"/>
+      <c r="B150" s="48"/>
     </row>
     <row r="151" spans="1:2">
-      <c r="A151" s="41"/>
-      <c r="B151" s="47"/>
+      <c r="A151" s="42"/>
+      <c r="B151" s="48"/>
     </row>
     <row r="152" spans="1:2">
-      <c r="A152" s="41"/>
-      <c r="B152" s="47"/>
+      <c r="A152" s="42"/>
+      <c r="B152" s="48"/>
     </row>
     <row r="153" spans="1:2">
-      <c r="A153" s="41"/>
-      <c r="B153" s="47"/>
+      <c r="A153" s="42"/>
+      <c r="B153" s="48"/>
     </row>
     <row r="154" spans="1:2">
-      <c r="A154" s="41"/>
-      <c r="B154" s="47"/>
+      <c r="A154" s="42"/>
+      <c r="B154" s="48"/>
     </row>
     <row r="155" spans="1:2">
-      <c r="A155" s="41"/>
-      <c r="B155" s="47"/>
+      <c r="A155" s="42"/>
+      <c r="B155" s="48"/>
     </row>
     <row r="156" spans="1:2">
-      <c r="A156" s="41"/>
-      <c r="B156" s="47"/>
+      <c r="A156" s="42"/>
+      <c r="B156" s="48"/>
     </row>
     <row r="157" spans="1:2">
       <c r="A157" s="17" t="s">
@@ -7253,7 +7256,7 @@
       </c>
     </row>
     <row r="177" spans="1:2" ht="60">
-      <c r="A177" s="39" t="s">
+      <c r="A177" s="40" t="s">
         <v>277</v>
       </c>
       <c r="B177" s="17" t="s">
@@ -7261,13 +7264,13 @@
       </c>
     </row>
     <row r="178" spans="1:2" ht="60">
-      <c r="A178" s="39"/>
+      <c r="A178" s="40"/>
       <c r="B178" s="17" t="s">
         <v>274</v>
       </c>
     </row>
     <row r="179" spans="1:2" ht="60">
-      <c r="A179" s="39" t="s">
+      <c r="A179" s="40" t="s">
         <v>276</v>
       </c>
       <c r="B179" s="17" t="s">
@@ -7275,13 +7278,13 @@
       </c>
     </row>
     <row r="180" spans="1:2" ht="60">
-      <c r="A180" s="39"/>
+      <c r="A180" s="40"/>
       <c r="B180" s="17" t="s">
         <v>274</v>
       </c>
     </row>
     <row r="181" spans="1:2">
-      <c r="A181" s="41" t="s">
+      <c r="A181" s="42" t="s">
         <v>273</v>
       </c>
       <c r="B181" s="17" t="s">
@@ -7289,13 +7292,13 @@
       </c>
     </row>
     <row r="182" spans="1:2">
-      <c r="A182" s="41"/>
+      <c r="A182" s="42"/>
       <c r="B182" s="17" t="s">
         <v>271</v>
       </c>
     </row>
     <row r="183" spans="1:2">
-      <c r="A183" s="41" t="s">
+      <c r="A183" s="42" t="s">
         <v>270</v>
       </c>
       <c r="B183" s="17" t="s">
@@ -7303,7 +7306,7 @@
       </c>
     </row>
     <row r="184" spans="1:2" ht="30">
-      <c r="A184" s="41"/>
+      <c r="A184" s="42"/>
       <c r="B184" s="17" t="s">
         <v>268</v>
       </c>
@@ -7333,10 +7336,10 @@
       </c>
     </row>
     <row r="188" spans="1:2">
-      <c r="A188" s="46" t="s">
+      <c r="A188" s="47" t="s">
         <v>261</v>
       </c>
-      <c r="B188" s="46"/>
+      <c r="B188" s="47"/>
     </row>
     <row r="189" spans="1:2">
       <c r="A189" s="17" t="s">
@@ -7419,7 +7422,7 @@
       </c>
     </row>
     <row r="199" spans="1:2" ht="180">
-      <c r="A199" s="39" t="s">
+      <c r="A199" s="40" t="s">
         <v>240</v>
       </c>
       <c r="B199" s="17" t="s">
@@ -7427,7 +7430,7 @@
       </c>
     </row>
     <row r="200" spans="1:2" ht="225">
-      <c r="A200" s="39"/>
+      <c r="A200" s="40"/>
       <c r="B200" s="17" t="s">
         <v>238</v>
       </c>
@@ -7494,19 +7497,19 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="42" t="s">
+      <c r="A2" s="43" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="43"/>
+      <c r="B2" s="44"/>
     </row>
     <row r="5" spans="1:2">
-      <c r="A5" s="42" t="s">
+      <c r="A5" s="43" t="s">
         <v>2</v>
       </c>
-      <c r="B5" s="43"/>
+      <c r="B5" s="44"/>
     </row>
     <row r="6" spans="1:2">
-      <c r="A6" s="45" t="s">
+      <c r="A6" s="46" t="s">
         <v>573</v>
       </c>
       <c r="B6" s="20" t="s">
@@ -7514,13 +7517,13 @@
       </c>
     </row>
     <row r="7" spans="1:2">
-      <c r="A7" s="51"/>
+      <c r="A7" s="52"/>
       <c r="B7" s="20" t="s">
         <v>571</v>
       </c>
     </row>
     <row r="8" spans="1:2">
-      <c r="A8" s="51"/>
+      <c r="A8" s="52"/>
       <c r="B8" s="20" t="s">
         <v>570</v>
       </c>
